--- a/2.WBS/WBS_현대이지웰_최종프로젝트.xlsx
+++ b/2.WBS/WBS_현대이지웰_최종프로젝트.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="W:\GamesungCoding\2. Area\문서\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="W:\GamesungCoding\ResourceRepo\2.WBS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{364E8539-5856-46D7-9327-FD4B59E367E4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C2B82594-6CBE-4FBB-A346-401AADF0332B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -64,9 +64,6 @@
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="46">
-  <si>
-    <t>팀명</t>
-  </si>
   <si>
     <t>구분</t>
   </si>
@@ -202,6 +199,9 @@
   </si>
   <si>
     <t>팀 전체</t>
+  </si>
+  <si>
+    <t>겜성코딩</t>
   </si>
 </sst>
 </file>
@@ -831,6 +831,15 @@
     <xf numFmtId="0" fontId="16" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="164" fontId="15" fillId="3" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="13" fillId="3" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="9" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -838,15 +847,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="9" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="15" fillId="3" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="13" fillId="3" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1086,8 +1086,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:BH1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="K21" sqref="K21"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1126,7 +1126,7 @@
   <sheetData>
     <row r="1" spans="1:60" ht="38.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="52" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B1" s="53"/>
       <c r="C1" s="53"/>
@@ -1153,18 +1153,18 @@
     </row>
     <row r="2" spans="1:60" s="7" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="16" t="s">
-        <v>0</v>
+        <v>45</v>
       </c>
       <c r="B2" s="17" t="s">
+        <v>14</v>
+      </c>
+      <c r="C2" s="54" t="s">
         <v>15</v>
-      </c>
-      <c r="C2" s="54" t="s">
-        <v>16</v>
       </c>
       <c r="D2" s="55"/>
       <c r="E2" s="55"/>
       <c r="F2" s="56" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G2" s="57"/>
       <c r="H2" s="57"/>
@@ -1199,25 +1199,25 @@
     </row>
     <row r="3" spans="1:60" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="58" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="59" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="59" t="s">
+      <c r="C3" s="50" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="50" t="s">
+      <c r="D3" s="50" t="s">
         <v>3</v>
       </c>
-      <c r="D3" s="50" t="s">
+      <c r="E3" s="50" t="s">
         <v>4</v>
       </c>
-      <c r="E3" s="50" t="s">
+      <c r="F3" s="50" t="s">
         <v>5</v>
       </c>
-      <c r="F3" s="50" t="s">
+      <c r="G3" s="50" t="s">
         <v>6</v>
-      </c>
-      <c r="G3" s="50" t="s">
-        <v>7</v>
       </c>
       <c r="H3" s="8">
         <v>1</v>
@@ -1653,10 +1653,10 @@
     </row>
     <row r="5" spans="1:60" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="47" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5" s="18" t="s">
         <v>8</v>
-      </c>
-      <c r="B5" s="18" t="s">
-        <v>9</v>
       </c>
       <c r="C5" s="45">
         <v>1</v>
@@ -1732,7 +1732,7 @@
     <row r="6" spans="1:60" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="48"/>
       <c r="B6" s="18" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C6" s="45">
         <v>1</v>
@@ -1804,7 +1804,7 @@
     <row r="7" spans="1:60" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="48"/>
       <c r="B7" s="18" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C7" s="45">
         <v>1</v>
@@ -1876,7 +1876,7 @@
     <row r="8" spans="1:60" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="49"/>
       <c r="B8" s="18" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C8" s="45">
         <v>1</v>
@@ -1947,10 +1947,10 @@
     </row>
     <row r="9" spans="1:60" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="47" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B9" s="19" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C9" s="45">
         <f>IF(COUNTBLANK(C10:C13)=4, "", SUM(C10:C13)/COUNT(C10:C13))</f>
@@ -2029,7 +2029,7 @@
     <row r="10" spans="1:60" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="48"/>
       <c r="B10" s="20" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C10" s="45">
         <v>0.8</v>
@@ -2105,7 +2105,7 @@
     <row r="11" spans="1:60" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="48"/>
       <c r="B11" s="20" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C11" s="45">
         <v>0</v>
@@ -2181,7 +2181,7 @@
     <row r="12" spans="1:60" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="48"/>
       <c r="B12" s="20" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C12" s="45">
         <v>0</v>
@@ -2258,7 +2258,7 @@
     <row r="13" spans="1:60" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="48"/>
       <c r="B13" s="20" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C13" s="45">
         <v>0</v>
@@ -2335,7 +2335,7 @@
     <row r="14" spans="1:60" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="48"/>
       <c r="B14" s="19" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C14" s="45">
         <f>IF(COUNTBLANK(C15:C18)=4, "", SUM(C15:C18)/COUNT(C15:C18))</f>
@@ -2414,7 +2414,7 @@
     <row r="15" spans="1:60" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="48"/>
       <c r="B15" s="21" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C15" s="45">
         <v>0.05</v>
@@ -2488,7 +2488,7 @@
     <row r="16" spans="1:60" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="48"/>
       <c r="B16" s="21" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C16" s="45">
         <v>0</v>
@@ -2564,7 +2564,7 @@
     <row r="17" spans="1:60" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="48"/>
       <c r="B17" s="21" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C17" s="45">
         <v>0</v>
@@ -2640,7 +2640,7 @@
     <row r="18" spans="1:60" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="48"/>
       <c r="B18" s="21" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C18" s="45">
         <v>0</v>
@@ -2716,7 +2716,7 @@
     <row r="19" spans="1:60" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="48"/>
       <c r="B19" s="19" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C19" s="45">
         <v>0</v>
@@ -2792,7 +2792,7 @@
     <row r="20" spans="1:60" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="48"/>
       <c r="B20" s="19" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C20" s="45">
         <f>IF(COUNTBLANK(C21:C22)=2, "", SUM(C21:C22)/COUNT(C21:C22))</f>
@@ -2871,7 +2871,7 @@
     <row r="21" spans="1:60" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="48"/>
       <c r="B21" s="21" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C21" s="45">
         <v>0</v>
@@ -2947,7 +2947,7 @@
     <row r="22" spans="1:60" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="48"/>
       <c r="B22" s="21" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C22" s="45">
         <v>0</v>
@@ -3023,7 +3023,7 @@
     <row r="23" spans="1:60" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="48"/>
       <c r="B23" s="19" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C23" s="45">
         <f>IF(COUNTBLANK(C24:C25)=2, "", SUM(C24:C25)/COUNT(C24:C25))</f>
@@ -3102,7 +3102,7 @@
     <row r="24" spans="1:60" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="48"/>
       <c r="B24" s="21" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C24" s="45">
         <v>0</v>
@@ -3178,7 +3178,7 @@
     <row r="25" spans="1:60" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="48"/>
       <c r="B25" s="21" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C25" s="45">
         <v>0</v>
@@ -3254,7 +3254,7 @@
     <row r="26" spans="1:60" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="48"/>
       <c r="B26" s="19" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C26" s="45">
         <f>IF(COUNTBLANK(C27:C28)=2, "", SUM(C27:C28)/COUNT(C27:C28))</f>
@@ -3333,7 +3333,7 @@
     <row r="27" spans="1:60" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="48"/>
       <c r="B27" s="21" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C27" s="45">
         <v>0</v>
@@ -3409,7 +3409,7 @@
     <row r="28" spans="1:60" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="49"/>
       <c r="B28" s="21" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C28" s="45">
         <v>0</v>
@@ -7533,37 +7533,37 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B1" s="4"/>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B2" s="4"/>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B3" s="4"/>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B4" s="4"/>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B5" s="4"/>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B6" s="4"/>
     </row>
@@ -7593,54 +7593,54 @@
   <sheetData>
     <row r="1" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="58" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="61" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="64" t="s">
-        <v>2</v>
-      </c>
-      <c r="C1" s="66" t="s">
-        <v>7</v>
-      </c>
-      <c r="D1" s="66"/>
-      <c r="E1" s="66"/>
-      <c r="F1" s="66"/>
-      <c r="G1" s="66"/>
-      <c r="H1" s="66"/>
-      <c r="I1" s="66"/>
+      <c r="C1" s="63" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1" s="63"/>
+      <c r="E1" s="63"/>
+      <c r="F1" s="63"/>
+      <c r="G1" s="63"/>
+      <c r="H1" s="63"/>
+      <c r="I1" s="63"/>
     </row>
     <row r="2" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="51"/>
-      <c r="B2" s="65"/>
+      <c r="B2" s="62"/>
       <c r="C2" s="42" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D2" s="42" t="s">
+        <v>18</v>
+      </c>
+      <c r="E2" s="42" t="s">
         <v>19</v>
       </c>
-      <c r="E2" s="42" t="s">
+      <c r="F2" s="42" t="s">
         <v>20</v>
       </c>
-      <c r="F2" s="42" t="s">
+      <c r="G2" s="42" t="s">
         <v>21</v>
       </c>
-      <c r="G2" s="42" t="s">
+      <c r="H2" s="42" t="s">
         <v>22</v>
-      </c>
-      <c r="H2" s="42" t="s">
-        <v>23</v>
       </c>
       <c r="I2" s="42"/>
     </row>
     <row r="3" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="47" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" s="38" t="s">
         <v>8</v>
-      </c>
-      <c r="B3" s="38" t="s">
-        <v>9</v>
       </c>
       <c r="C3" s="43"/>
       <c r="D3" s="43" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E3" s="43"/>
       <c r="F3" s="43"/>
@@ -7651,11 +7651,11 @@
     <row r="4" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="48"/>
       <c r="B4" s="38" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C4" s="43"/>
       <c r="D4" s="43" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E4" s="43"/>
       <c r="F4" s="43"/>
@@ -7666,11 +7666,11 @@
     <row r="5" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="48"/>
       <c r="B5" s="38" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C5" s="43"/>
       <c r="D5" s="43" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E5" s="43"/>
       <c r="F5" s="43"/>
@@ -7681,11 +7681,11 @@
     <row r="6" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="49"/>
       <c r="B6" s="38" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C6" s="43"/>
       <c r="D6" s="43" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E6" s="43"/>
       <c r="F6" s="43"/>
@@ -7695,26 +7695,26 @@
     </row>
     <row r="7" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="47" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B7" s="39" t="s">
-        <v>25</v>
-      </c>
-      <c r="C7" s="61"/>
-      <c r="D7" s="62"/>
-      <c r="E7" s="62"/>
-      <c r="F7" s="62"/>
-      <c r="G7" s="62"/>
-      <c r="H7" s="62"/>
-      <c r="I7" s="63"/>
+        <v>24</v>
+      </c>
+      <c r="C7" s="64"/>
+      <c r="D7" s="65"/>
+      <c r="E7" s="65"/>
+      <c r="F7" s="65"/>
+      <c r="G7" s="65"/>
+      <c r="H7" s="65"/>
+      <c r="I7" s="66"/>
     </row>
     <row r="8" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="48"/>
       <c r="B8" s="40" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C8" s="43" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D8" s="43"/>
       <c r="E8" s="43"/>
@@ -7726,16 +7726,16 @@
     <row r="9" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="48"/>
       <c r="B9" s="40" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C9" s="43"/>
       <c r="D9" s="43"/>
       <c r="E9" s="43" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F9" s="43"/>
       <c r="G9" s="43" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="H9" s="43"/>
       <c r="I9" s="43"/>
@@ -7743,32 +7743,32 @@
     <row r="10" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="48"/>
       <c r="B10" s="40" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C10" s="43"/>
       <c r="D10" s="43" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E10" s="43"/>
       <c r="F10" s="43"/>
       <c r="G10" s="43"/>
       <c r="H10" s="43" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="I10" s="43"/>
     </row>
     <row r="11" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="48"/>
       <c r="B11" s="40" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C11" s="43"/>
       <c r="D11" s="43" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E11" s="43"/>
       <c r="F11" s="43" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G11" s="43"/>
       <c r="H11" s="43"/>
@@ -7777,24 +7777,24 @@
     <row r="12" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="48"/>
       <c r="B12" s="39" t="s">
-        <v>29</v>
-      </c>
-      <c r="C12" s="61"/>
-      <c r="D12" s="62"/>
-      <c r="E12" s="62"/>
-      <c r="F12" s="62"/>
-      <c r="G12" s="62"/>
-      <c r="H12" s="62"/>
-      <c r="I12" s="63"/>
+        <v>28</v>
+      </c>
+      <c r="C12" s="64"/>
+      <c r="D12" s="65"/>
+      <c r="E12" s="65"/>
+      <c r="F12" s="65"/>
+      <c r="G12" s="65"/>
+      <c r="H12" s="65"/>
+      <c r="I12" s="66"/>
     </row>
     <row r="13" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="48"/>
       <c r="B13" s="41" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C13" s="43"/>
       <c r="D13" s="43" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E13" s="43"/>
       <c r="F13" s="43"/>
@@ -7805,14 +7805,14 @@
     <row r="14" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="48"/>
       <c r="B14" s="41" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C14" s="43"/>
       <c r="D14" s="43" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E14" s="43" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F14" s="43"/>
       <c r="G14" s="43"/>
@@ -7822,15 +7822,15 @@
     <row r="15" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="48"/>
       <c r="B15" s="41" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C15" s="43"/>
       <c r="D15" s="43" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E15" s="43"/>
       <c r="F15" s="43" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G15" s="43"/>
       <c r="H15" s="43"/>
@@ -7839,30 +7839,30 @@
     <row r="16" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="48"/>
       <c r="B16" s="41" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C16" s="43"/>
       <c r="D16" s="43"/>
       <c r="E16" s="43" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F16" s="43"/>
       <c r="G16" s="43" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="H16" s="43" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="I16" s="43"/>
     </row>
     <row r="17" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="48"/>
       <c r="B17" s="39" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C17" s="43"/>
       <c r="D17" s="43" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E17" s="43"/>
       <c r="F17" s="43"/>
@@ -7873,23 +7873,23 @@
     <row r="18" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="48"/>
       <c r="B18" s="39" t="s">
-        <v>31</v>
-      </c>
-      <c r="C18" s="61"/>
-      <c r="D18" s="62"/>
-      <c r="E18" s="62"/>
-      <c r="F18" s="62"/>
-      <c r="G18" s="62"/>
-      <c r="H18" s="62"/>
-      <c r="I18" s="63"/>
+        <v>30</v>
+      </c>
+      <c r="C18" s="64"/>
+      <c r="D18" s="65"/>
+      <c r="E18" s="65"/>
+      <c r="F18" s="65"/>
+      <c r="G18" s="65"/>
+      <c r="H18" s="65"/>
+      <c r="I18" s="66"/>
     </row>
     <row r="19" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="48"/>
       <c r="B19" s="41" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C19" s="43" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D19" s="43"/>
       <c r="E19" s="43"/>
@@ -7901,10 +7901,10 @@
     <row r="20" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="48"/>
       <c r="B20" s="41" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C20" s="43" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D20" s="43"/>
       <c r="E20" s="43"/>
@@ -7916,24 +7916,24 @@
     <row r="21" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="48"/>
       <c r="B21" s="39" t="s">
-        <v>32</v>
-      </c>
-      <c r="C21" s="61"/>
-      <c r="D21" s="62"/>
-      <c r="E21" s="62"/>
-      <c r="F21" s="62"/>
-      <c r="G21" s="62"/>
-      <c r="H21" s="62"/>
-      <c r="I21" s="63"/>
+        <v>31</v>
+      </c>
+      <c r="C21" s="64"/>
+      <c r="D21" s="65"/>
+      <c r="E21" s="65"/>
+      <c r="F21" s="65"/>
+      <c r="G21" s="65"/>
+      <c r="H21" s="65"/>
+      <c r="I21" s="66"/>
     </row>
     <row r="22" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="48"/>
       <c r="B22" s="41" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C22" s="43"/>
       <c r="D22" s="43" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E22" s="43"/>
       <c r="F22" s="43"/>
@@ -7944,10 +7944,10 @@
     <row r="23" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="48"/>
       <c r="B23" s="41" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C23" s="43" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D23" s="43"/>
       <c r="E23" s="43"/>
@@ -7959,24 +7959,24 @@
     <row r="24" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="48"/>
       <c r="B24" s="39" t="s">
-        <v>41</v>
-      </c>
-      <c r="C24" s="61"/>
-      <c r="D24" s="62"/>
-      <c r="E24" s="62"/>
-      <c r="F24" s="62"/>
-      <c r="G24" s="62"/>
-      <c r="H24" s="62"/>
-      <c r="I24" s="63"/>
+        <v>40</v>
+      </c>
+      <c r="C24" s="64"/>
+      <c r="D24" s="65"/>
+      <c r="E24" s="65"/>
+      <c r="F24" s="65"/>
+      <c r="G24" s="65"/>
+      <c r="H24" s="65"/>
+      <c r="I24" s="66"/>
     </row>
     <row r="25" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="48"/>
       <c r="B25" s="41" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C25" s="43"/>
       <c r="D25" s="43" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E25" s="43"/>
       <c r="F25" s="43"/>
@@ -7987,11 +7987,11 @@
     <row r="26" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="49"/>
       <c r="B26" s="41" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C26" s="43"/>
       <c r="D26" s="43" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E26" s="43"/>
       <c r="F26" s="43"/>

--- a/2.WBS/WBS_현대이지웰_최종프로젝트.xlsx
+++ b/2.WBS/WBS_현대이지웰_최종프로젝트.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="W:\GamesungCoding\ResourceRepo\2.WBS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C2B82594-6CBE-4FBB-A346-401AADF0332B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF26FFDD-2931-4A3D-B4F3-BB353C77A50B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
   <metadataTypes count="1">
     <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
   </metadataTypes>
@@ -63,7 +63,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="52">
   <si>
     <t>구분</t>
   </si>
@@ -203,6 +203,24 @@
   <si>
     <t>겜성코딩</t>
   </si>
+  <si>
+    <t>MSA 특강</t>
+  </si>
+  <si>
+    <t>프로젝트 마무리</t>
+  </si>
+  <si>
+    <t>산출물 문서 확인</t>
+  </si>
+  <si>
+    <t>기타 요구 제출물 확인</t>
+  </si>
+  <si>
+    <t>특강</t>
+  </si>
+  <si>
+    <t>MSA특강</t>
+  </si>
 </sst>
 </file>
 
@@ -213,7 +231,7 @@
     <numFmt numFmtId="165" formatCode="0\일"/>
     <numFmt numFmtId="166" formatCode="yyyy&quot;/&quot;m&quot;/&quot;d;@"/>
   </numFmts>
-  <fonts count="28" x14ac:knownFonts="1">
+  <fonts count="29" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -391,6 +409,13 @@
       <name val="맑은 고딕"/>
       <family val="2"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="11">
     <fill>
@@ -454,7 +479,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="16">
+  <borders count="20">
     <border>
       <left/>
       <right/>
@@ -643,11 +668,61 @@
         <color indexed="64"/>
       </diagonal>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="67">
+  <cellXfs count="72">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -705,15 +780,6 @@
     <xf numFmtId="0" fontId="14" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -762,18 +828,6 @@
     <xf numFmtId="0" fontId="18" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="164" fontId="13" fillId="3" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -789,13 +843,13 @@
     <xf numFmtId="0" fontId="12" fillId="10" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="164" fontId="9" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="27" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="164" fontId="9" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -849,11 +903,145 @@
     <xf numFmtId="0" fontId="3" fillId="9" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="2">
+  <dxfs count="16">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -872,6 +1060,8 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
+      <color rgb="FFFF9966"/>
+      <color rgb="FFEFE979"/>
       <color rgb="FFFFFF66"/>
     </mruColors>
   </colors>
@@ -1084,139 +1274,139 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:BH1000"/>
+  <dimension ref="A1:BO1002"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection sqref="A1:W1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="13.5" style="5" customWidth="1"/>
-    <col min="2" max="2" width="40" style="22" customWidth="1"/>
+    <col min="2" max="2" width="40" style="19" customWidth="1"/>
     <col min="3" max="3" width="7" style="5" customWidth="1"/>
     <col min="4" max="4" width="5.375" style="5" customWidth="1"/>
     <col min="5" max="6" width="7.625" style="5" customWidth="1"/>
     <col min="7" max="7" width="16.625" style="5" customWidth="1"/>
     <col min="8" max="8" width="4.375" style="5" customWidth="1"/>
     <col min="9" max="11" width="4.5" style="5" customWidth="1"/>
-    <col min="12" max="12" width="4.5" style="27" customWidth="1"/>
-    <col min="13" max="13" width="4.5" style="31" customWidth="1"/>
+    <col min="12" max="12" width="4.5" style="24" customWidth="1"/>
+    <col min="13" max="13" width="4.5" style="28" customWidth="1"/>
     <col min="14" max="18" width="4.5" style="5" customWidth="1"/>
-    <col min="19" max="19" width="4.5" style="27" customWidth="1"/>
-    <col min="20" max="20" width="4.5" style="31" customWidth="1"/>
+    <col min="19" max="19" width="4.5" style="24" customWidth="1"/>
+    <col min="20" max="20" width="4.5" style="28" customWidth="1"/>
     <col min="21" max="25" width="4.5" style="5" customWidth="1"/>
-    <col min="26" max="26" width="4.5" style="27" customWidth="1"/>
-    <col min="27" max="27" width="4.5" style="31" customWidth="1"/>
+    <col min="26" max="26" width="4.5" style="24" customWidth="1"/>
+    <col min="27" max="27" width="4.5" style="28" customWidth="1"/>
     <col min="28" max="32" width="4.5" style="5" customWidth="1"/>
-    <col min="33" max="33" width="4.5" style="27" customWidth="1"/>
-    <col min="34" max="34" width="4.5" style="31" customWidth="1"/>
+    <col min="33" max="33" width="4.5" style="24" customWidth="1"/>
+    <col min="34" max="34" width="4.5" style="28" customWidth="1"/>
     <col min="35" max="39" width="4.5" style="5" customWidth="1"/>
-    <col min="40" max="40" width="4.5" style="27" customWidth="1"/>
-    <col min="41" max="41" width="4.5" style="31" customWidth="1"/>
+    <col min="40" max="40" width="4.5" style="24" customWidth="1"/>
+    <col min="41" max="41" width="4.5" style="28" customWidth="1"/>
     <col min="42" max="46" width="4.5" style="5" customWidth="1"/>
-    <col min="47" max="47" width="4.5" style="27" customWidth="1"/>
-    <col min="48" max="48" width="4.5" style="31" customWidth="1"/>
+    <col min="47" max="47" width="4.5" style="24" customWidth="1"/>
+    <col min="48" max="48" width="4.5" style="28" customWidth="1"/>
     <col min="49" max="53" width="4.5" style="5" customWidth="1"/>
-    <col min="54" max="54" width="4.5" style="27" customWidth="1"/>
-    <col min="55" max="55" width="4.5" style="31" customWidth="1"/>
-    <col min="56" max="60" width="4.5" style="5" customWidth="1"/>
-    <col min="61" max="16384" width="12.625" style="5"/>
+    <col min="54" max="54" width="4.5" style="24" customWidth="1"/>
+    <col min="55" max="55" width="4.5" style="28" customWidth="1"/>
+    <col min="56" max="67" width="4.5" style="5" customWidth="1"/>
+    <col min="68" max="16384" width="12.625" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:60" ht="38.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="52" t="s">
+    <row r="1" spans="1:67" ht="38.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="45" t="s">
         <v>13</v>
       </c>
-      <c r="B1" s="53"/>
-      <c r="C1" s="53"/>
-      <c r="D1" s="53"/>
-      <c r="E1" s="53"/>
-      <c r="F1" s="53"/>
-      <c r="G1" s="53"/>
-      <c r="H1" s="53"/>
-      <c r="I1" s="53"/>
-      <c r="J1" s="53"/>
-      <c r="K1" s="53"/>
-      <c r="L1" s="53"/>
-      <c r="M1" s="53"/>
-      <c r="N1" s="53"/>
-      <c r="O1" s="53"/>
-      <c r="P1" s="53"/>
-      <c r="Q1" s="53"/>
-      <c r="R1" s="53"/>
-      <c r="S1" s="53"/>
-      <c r="T1" s="53"/>
-      <c r="U1" s="53"/>
-      <c r="V1" s="53"/>
-      <c r="W1" s="53"/>
-    </row>
-    <row r="2" spans="1:60" s="7" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B1" s="46"/>
+      <c r="C1" s="46"/>
+      <c r="D1" s="46"/>
+      <c r="E1" s="46"/>
+      <c r="F1" s="46"/>
+      <c r="G1" s="46"/>
+      <c r="H1" s="46"/>
+      <c r="I1" s="46"/>
+      <c r="J1" s="46"/>
+      <c r="K1" s="46"/>
+      <c r="L1" s="46"/>
+      <c r="M1" s="46"/>
+      <c r="N1" s="46"/>
+      <c r="O1" s="46"/>
+      <c r="P1" s="46"/>
+      <c r="Q1" s="46"/>
+      <c r="R1" s="46"/>
+      <c r="S1" s="46"/>
+      <c r="T1" s="46"/>
+      <c r="U1" s="46"/>
+      <c r="V1" s="46"/>
+      <c r="W1" s="46"/>
+    </row>
+    <row r="2" spans="1:67" s="7" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="16" t="s">
         <v>45</v>
       </c>
       <c r="B2" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="C2" s="54" t="s">
+      <c r="C2" s="47" t="s">
         <v>15</v>
       </c>
-      <c r="D2" s="55"/>
-      <c r="E2" s="55"/>
-      <c r="F2" s="56" t="s">
+      <c r="D2" s="48"/>
+      <c r="E2" s="48"/>
+      <c r="F2" s="49" t="s">
         <v>16</v>
       </c>
-      <c r="G2" s="57"/>
-      <c r="H2" s="57"/>
-      <c r="I2" s="57"/>
-      <c r="J2" s="57"/>
-      <c r="K2" s="57"/>
-      <c r="L2" s="57"/>
-      <c r="M2" s="57"/>
-      <c r="N2" s="57"/>
-      <c r="O2" s="57"/>
-      <c r="P2" s="57"/>
-      <c r="Q2" s="57"/>
-      <c r="R2" s="57"/>
-      <c r="S2" s="57"/>
-      <c r="T2" s="57"/>
-      <c r="U2" s="57"/>
-      <c r="V2" s="57"/>
-      <c r="W2" s="57"/>
+      <c r="G2" s="50"/>
+      <c r="H2" s="50"/>
+      <c r="I2" s="50"/>
+      <c r="J2" s="50"/>
+      <c r="K2" s="50"/>
+      <c r="L2" s="50"/>
+      <c r="M2" s="50"/>
+      <c r="N2" s="50"/>
+      <c r="O2" s="50"/>
+      <c r="P2" s="50"/>
+      <c r="Q2" s="50"/>
+      <c r="R2" s="50"/>
+      <c r="S2" s="50"/>
+      <c r="T2" s="50"/>
+      <c r="U2" s="50"/>
+      <c r="V2" s="50"/>
+      <c r="W2" s="50"/>
       <c r="X2" s="6"/>
       <c r="Y2" s="6"/>
-      <c r="Z2" s="32"/>
-      <c r="AA2" s="35"/>
+      <c r="Z2" s="29"/>
+      <c r="AA2" s="32"/>
       <c r="AB2" s="6"/>
-      <c r="AG2" s="33"/>
-      <c r="AH2" s="34"/>
-      <c r="AN2" s="33"/>
-      <c r="AO2" s="34"/>
-      <c r="AU2" s="33"/>
-      <c r="AV2" s="34"/>
-      <c r="BB2" s="33"/>
-      <c r="BC2" s="34"/>
-    </row>
-    <row r="3" spans="1:60" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="58" t="s">
+      <c r="AG2" s="30"/>
+      <c r="AH2" s="31"/>
+      <c r="AN2" s="30"/>
+      <c r="AO2" s="31"/>
+      <c r="AU2" s="30"/>
+      <c r="AV2" s="31"/>
+      <c r="BB2" s="30"/>
+      <c r="BC2" s="31"/>
+    </row>
+    <row r="3" spans="1:67" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="51" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="59" t="s">
+      <c r="B3" s="52" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="50" t="s">
+      <c r="C3" s="43" t="s">
         <v>2</v>
       </c>
-      <c r="D3" s="50" t="s">
+      <c r="D3" s="43" t="s">
         <v>3</v>
       </c>
-      <c r="E3" s="50" t="s">
+      <c r="E3" s="43" t="s">
         <v>4</v>
       </c>
-      <c r="F3" s="50" t="s">
+      <c r="F3" s="43" t="s">
         <v>5</v>
       </c>
-      <c r="G3" s="50" t="s">
+      <c r="G3" s="43" t="s">
         <v>6</v>
       </c>
       <c r="H3" s="8">
@@ -1234,11 +1424,11 @@
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="L3" s="24">
+      <c r="L3" s="21">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="M3" s="28">
+      <c r="M3" s="25">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
@@ -1262,11 +1452,11 @@
         <f t="shared" si="0"/>
         <v>11</v>
       </c>
-      <c r="S3" s="24">
+      <c r="S3" s="21">
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
-      <c r="T3" s="28">
+      <c r="T3" s="25">
         <f t="shared" si="0"/>
         <v>13</v>
       </c>
@@ -1290,11 +1480,11 @@
         <f t="shared" si="0"/>
         <v>18</v>
       </c>
-      <c r="Z3" s="24">
+      <c r="Z3" s="21">
         <f t="shared" si="0"/>
         <v>19</v>
       </c>
-      <c r="AA3" s="28">
+      <c r="AA3" s="25">
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
@@ -1318,11 +1508,11 @@
         <f t="shared" si="0"/>
         <v>25</v>
       </c>
-      <c r="AG3" s="24">
+      <c r="AG3" s="21">
         <f t="shared" si="0"/>
         <v>26</v>
       </c>
-      <c r="AH3" s="28">
+      <c r="AH3" s="25">
         <f t="shared" si="0"/>
         <v>27</v>
       </c>
@@ -1346,11 +1536,11 @@
         <f t="shared" si="0"/>
         <v>32</v>
       </c>
-      <c r="AN3" s="24">
+      <c r="AN3" s="21">
         <f t="shared" si="0"/>
         <v>33</v>
       </c>
-      <c r="AO3" s="28">
+      <c r="AO3" s="25">
         <f t="shared" si="0"/>
         <v>34</v>
       </c>
@@ -1374,11 +1564,11 @@
         <f t="shared" si="0"/>
         <v>39</v>
       </c>
-      <c r="AU3" s="24">
+      <c r="AU3" s="21">
         <f t="shared" si="0"/>
         <v>40</v>
       </c>
-      <c r="AV3" s="28">
+      <c r="AV3" s="25">
         <f t="shared" si="0"/>
         <v>41</v>
       </c>
@@ -1402,11 +1592,11 @@
         <f t="shared" si="0"/>
         <v>46</v>
       </c>
-      <c r="BB3" s="24">
+      <c r="BB3" s="21">
         <f t="shared" si="0"/>
         <v>47</v>
       </c>
-      <c r="BC3" s="28">
+      <c r="BC3" s="25">
         <f t="shared" si="0"/>
         <v>48</v>
       </c>
@@ -1430,15 +1620,43 @@
         <f t="shared" si="0"/>
         <v>53</v>
       </c>
-    </row>
-    <row r="4" spans="1:60" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="51"/>
-      <c r="B4" s="60"/>
-      <c r="C4" s="51"/>
-      <c r="D4" s="51"/>
-      <c r="E4" s="51"/>
-      <c r="F4" s="51"/>
-      <c r="G4" s="51"/>
+      <c r="BI3" s="21">
+        <f t="shared" ref="BI3:BI4" si="1">BH3+1</f>
+        <v>54</v>
+      </c>
+      <c r="BJ3" s="25">
+        <f t="shared" ref="BJ3:BJ4" si="2">BI3+1</f>
+        <v>55</v>
+      </c>
+      <c r="BK3" s="8">
+        <f t="shared" ref="BK3:BK4" si="3">BJ3+1</f>
+        <v>56</v>
+      </c>
+      <c r="BL3" s="8">
+        <f t="shared" ref="BL3:BL4" si="4">BK3+1</f>
+        <v>57</v>
+      </c>
+      <c r="BM3" s="8">
+        <f t="shared" ref="BM3:BM4" si="5">BL3+1</f>
+        <v>58</v>
+      </c>
+      <c r="BN3" s="8">
+        <f t="shared" ref="BN3:BN4" si="6">BM3+1</f>
+        <v>59</v>
+      </c>
+      <c r="BO3" s="8">
+        <f t="shared" ref="BO3:BO4" si="7">BN3+1</f>
+        <v>60</v>
+      </c>
+    </row>
+    <row r="4" spans="1:67" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="44"/>
+      <c r="B4" s="53"/>
+      <c r="C4" s="44"/>
+      <c r="D4" s="44"/>
+      <c r="E4" s="44"/>
+      <c r="F4" s="44"/>
+      <c r="G4" s="44"/>
       <c r="H4" s="9">
         <v>45951</v>
       </c>
@@ -1447,218 +1665,246 @@
         <v>45952</v>
       </c>
       <c r="J4" s="9">
-        <f t="shared" ref="J4:BH4" si="1">I4+1</f>
+        <f t="shared" ref="J4:BH4" si="8">I4+1</f>
         <v>45953</v>
       </c>
       <c r="K4" s="9">
+        <f t="shared" si="8"/>
+        <v>45954</v>
+      </c>
+      <c r="L4" s="22">
+        <f t="shared" si="8"/>
+        <v>45955</v>
+      </c>
+      <c r="M4" s="26">
+        <f t="shared" si="8"/>
+        <v>45956</v>
+      </c>
+      <c r="N4" s="9">
+        <f t="shared" si="8"/>
+        <v>45957</v>
+      </c>
+      <c r="O4" s="40">
+        <f t="shared" si="8"/>
+        <v>45958</v>
+      </c>
+      <c r="P4" s="40">
+        <f t="shared" si="8"/>
+        <v>45959</v>
+      </c>
+      <c r="Q4" s="9">
+        <f t="shared" si="8"/>
+        <v>45960</v>
+      </c>
+      <c r="R4" s="9">
+        <f t="shared" si="8"/>
+        <v>45961</v>
+      </c>
+      <c r="S4" s="22">
+        <f t="shared" si="8"/>
+        <v>45962</v>
+      </c>
+      <c r="T4" s="26">
+        <f t="shared" si="8"/>
+        <v>45963</v>
+      </c>
+      <c r="U4" s="9">
+        <f t="shared" si="8"/>
+        <v>45964</v>
+      </c>
+      <c r="V4" s="9">
+        <f t="shared" si="8"/>
+        <v>45965</v>
+      </c>
+      <c r="W4" s="9">
+        <f t="shared" si="8"/>
+        <v>45966</v>
+      </c>
+      <c r="X4" s="9">
+        <f t="shared" si="8"/>
+        <v>45967</v>
+      </c>
+      <c r="Y4" s="9">
+        <f t="shared" si="8"/>
+        <v>45968</v>
+      </c>
+      <c r="Z4" s="22">
+        <f t="shared" si="8"/>
+        <v>45969</v>
+      </c>
+      <c r="AA4" s="26">
+        <f t="shared" si="8"/>
+        <v>45970</v>
+      </c>
+      <c r="AB4" s="9">
+        <f t="shared" si="8"/>
+        <v>45971</v>
+      </c>
+      <c r="AC4" s="9">
+        <f t="shared" si="8"/>
+        <v>45972</v>
+      </c>
+      <c r="AD4" s="9">
+        <f t="shared" si="8"/>
+        <v>45973</v>
+      </c>
+      <c r="AE4" s="9">
+        <f t="shared" si="8"/>
+        <v>45974</v>
+      </c>
+      <c r="AF4" s="9">
+        <f t="shared" si="8"/>
+        <v>45975</v>
+      </c>
+      <c r="AG4" s="22">
+        <f t="shared" si="8"/>
+        <v>45976</v>
+      </c>
+      <c r="AH4" s="26">
+        <f t="shared" si="8"/>
+        <v>45977</v>
+      </c>
+      <c r="AI4" s="9">
+        <f t="shared" si="8"/>
+        <v>45978</v>
+      </c>
+      <c r="AJ4" s="9">
+        <f t="shared" si="8"/>
+        <v>45979</v>
+      </c>
+      <c r="AK4" s="9">
+        <f t="shared" si="8"/>
+        <v>45980</v>
+      </c>
+      <c r="AL4" s="9">
+        <f t="shared" si="8"/>
+        <v>45981</v>
+      </c>
+      <c r="AM4" s="9">
+        <f t="shared" si="8"/>
+        <v>45982</v>
+      </c>
+      <c r="AN4" s="22">
+        <f t="shared" si="8"/>
+        <v>45983</v>
+      </c>
+      <c r="AO4" s="26">
+        <f t="shared" si="8"/>
+        <v>45984</v>
+      </c>
+      <c r="AP4" s="9">
+        <f t="shared" si="8"/>
+        <v>45985</v>
+      </c>
+      <c r="AQ4" s="9">
+        <f t="shared" si="8"/>
+        <v>45986</v>
+      </c>
+      <c r="AR4" s="9">
+        <f t="shared" si="8"/>
+        <v>45987</v>
+      </c>
+      <c r="AS4" s="9">
+        <f t="shared" si="8"/>
+        <v>45988</v>
+      </c>
+      <c r="AT4" s="9">
+        <f t="shared" si="8"/>
+        <v>45989</v>
+      </c>
+      <c r="AU4" s="22">
+        <f t="shared" si="8"/>
+        <v>45990</v>
+      </c>
+      <c r="AV4" s="26">
+        <f t="shared" si="8"/>
+        <v>45991</v>
+      </c>
+      <c r="AW4" s="9">
+        <f t="shared" si="8"/>
+        <v>45992</v>
+      </c>
+      <c r="AX4" s="9">
+        <f t="shared" si="8"/>
+        <v>45993</v>
+      </c>
+      <c r="AY4" s="9">
+        <f t="shared" si="8"/>
+        <v>45994</v>
+      </c>
+      <c r="AZ4" s="9">
+        <f t="shared" si="8"/>
+        <v>45995</v>
+      </c>
+      <c r="BA4" s="9">
+        <f t="shared" si="8"/>
+        <v>45996</v>
+      </c>
+      <c r="BB4" s="22">
+        <f t="shared" si="8"/>
+        <v>45997</v>
+      </c>
+      <c r="BC4" s="26">
+        <f t="shared" si="8"/>
+        <v>45998</v>
+      </c>
+      <c r="BD4" s="9">
+        <f t="shared" si="8"/>
+        <v>45999</v>
+      </c>
+      <c r="BE4" s="9">
+        <f t="shared" si="8"/>
+        <v>46000</v>
+      </c>
+      <c r="BF4" s="9">
+        <f t="shared" si="8"/>
+        <v>46001</v>
+      </c>
+      <c r="BG4" s="9">
+        <f t="shared" si="8"/>
+        <v>46002</v>
+      </c>
+      <c r="BH4" s="9">
+        <f t="shared" si="8"/>
+        <v>46003</v>
+      </c>
+      <c r="BI4" s="22">
         <f t="shared" si="1"/>
-        <v>45954</v>
-      </c>
-      <c r="L4" s="25">
-        <f t="shared" si="1"/>
-        <v>45955</v>
-      </c>
-      <c r="M4" s="29">
-        <f t="shared" si="1"/>
-        <v>45956</v>
-      </c>
-      <c r="N4" s="9">
-        <f t="shared" si="1"/>
-        <v>45957</v>
-      </c>
-      <c r="O4" s="9">
-        <f t="shared" si="1"/>
-        <v>45958</v>
-      </c>
-      <c r="P4" s="9">
-        <f t="shared" si="1"/>
-        <v>45959</v>
-      </c>
-      <c r="Q4" s="9">
-        <f t="shared" si="1"/>
-        <v>45960</v>
-      </c>
-      <c r="R4" s="9">
-        <f t="shared" si="1"/>
-        <v>45961</v>
-      </c>
-      <c r="S4" s="25">
-        <f t="shared" si="1"/>
-        <v>45962</v>
-      </c>
-      <c r="T4" s="29">
-        <f t="shared" si="1"/>
-        <v>45963</v>
-      </c>
-      <c r="U4" s="9">
-        <f t="shared" si="1"/>
-        <v>45964</v>
-      </c>
-      <c r="V4" s="9">
-        <f t="shared" si="1"/>
-        <v>45965</v>
-      </c>
-      <c r="W4" s="9">
-        <f t="shared" si="1"/>
-        <v>45966</v>
-      </c>
-      <c r="X4" s="9">
-        <f t="shared" si="1"/>
-        <v>45967</v>
-      </c>
-      <c r="Y4" s="9">
-        <f t="shared" si="1"/>
-        <v>45968</v>
-      </c>
-      <c r="Z4" s="25">
-        <f t="shared" si="1"/>
-        <v>45969</v>
-      </c>
-      <c r="AA4" s="29">
-        <f t="shared" si="1"/>
-        <v>45970</v>
-      </c>
-      <c r="AB4" s="9">
-        <f t="shared" si="1"/>
-        <v>45971</v>
-      </c>
-      <c r="AC4" s="9">
-        <f t="shared" si="1"/>
-        <v>45972</v>
-      </c>
-      <c r="AD4" s="9">
-        <f t="shared" si="1"/>
-        <v>45973</v>
-      </c>
-      <c r="AE4" s="9">
-        <f t="shared" si="1"/>
-        <v>45974</v>
-      </c>
-      <c r="AF4" s="9">
-        <f t="shared" si="1"/>
-        <v>45975</v>
-      </c>
-      <c r="AG4" s="25">
-        <f t="shared" si="1"/>
-        <v>45976</v>
-      </c>
-      <c r="AH4" s="29">
-        <f t="shared" si="1"/>
-        <v>45977</v>
-      </c>
-      <c r="AI4" s="9">
-        <f t="shared" si="1"/>
-        <v>45978</v>
-      </c>
-      <c r="AJ4" s="9">
-        <f t="shared" si="1"/>
-        <v>45979</v>
-      </c>
-      <c r="AK4" s="9">
-        <f t="shared" si="1"/>
-        <v>45980</v>
-      </c>
-      <c r="AL4" s="9">
-        <f t="shared" si="1"/>
-        <v>45981</v>
-      </c>
-      <c r="AM4" s="9">
-        <f t="shared" si="1"/>
-        <v>45982</v>
-      </c>
-      <c r="AN4" s="25">
-        <f t="shared" si="1"/>
-        <v>45983</v>
-      </c>
-      <c r="AO4" s="29">
-        <f t="shared" si="1"/>
-        <v>45984</v>
-      </c>
-      <c r="AP4" s="9">
-        <f t="shared" si="1"/>
-        <v>45985</v>
-      </c>
-      <c r="AQ4" s="9">
-        <f t="shared" si="1"/>
-        <v>45986</v>
-      </c>
-      <c r="AR4" s="9">
-        <f t="shared" si="1"/>
-        <v>45987</v>
-      </c>
-      <c r="AS4" s="9">
-        <f t="shared" si="1"/>
-        <v>45988</v>
-      </c>
-      <c r="AT4" s="9">
-        <f t="shared" si="1"/>
-        <v>45989</v>
-      </c>
-      <c r="AU4" s="25">
-        <f t="shared" si="1"/>
-        <v>45990</v>
-      </c>
-      <c r="AV4" s="29">
-        <f t="shared" si="1"/>
-        <v>45991</v>
-      </c>
-      <c r="AW4" s="9">
-        <f t="shared" si="1"/>
-        <v>45992</v>
-      </c>
-      <c r="AX4" s="9">
-        <f t="shared" si="1"/>
-        <v>45993</v>
-      </c>
-      <c r="AY4" s="9">
-        <f t="shared" si="1"/>
-        <v>45994</v>
-      </c>
-      <c r="AZ4" s="9">
-        <f t="shared" si="1"/>
-        <v>45995</v>
-      </c>
-      <c r="BA4" s="9">
-        <f t="shared" si="1"/>
-        <v>45996</v>
-      </c>
-      <c r="BB4" s="25">
-        <f t="shared" si="1"/>
-        <v>45997</v>
-      </c>
-      <c r="BC4" s="29">
-        <f t="shared" si="1"/>
-        <v>45998</v>
-      </c>
-      <c r="BD4" s="9">
-        <f t="shared" si="1"/>
-        <v>45999</v>
-      </c>
-      <c r="BE4" s="9">
-        <f t="shared" si="1"/>
-        <v>46000</v>
-      </c>
-      <c r="BF4" s="9">
-        <f t="shared" si="1"/>
-        <v>46001</v>
-      </c>
-      <c r="BG4" s="9">
-        <f t="shared" si="1"/>
-        <v>46002</v>
-      </c>
-      <c r="BH4" s="9">
-        <f t="shared" si="1"/>
-        <v>46003</v>
-      </c>
-    </row>
-    <row r="5" spans="1:60" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="47" t="s">
+        <v>46004</v>
+      </c>
+      <c r="BJ4" s="26">
+        <f t="shared" si="2"/>
+        <v>46005</v>
+      </c>
+      <c r="BK4" s="9">
+        <f t="shared" si="3"/>
+        <v>46006</v>
+      </c>
+      <c r="BL4" s="9">
+        <f t="shared" si="4"/>
+        <v>46007</v>
+      </c>
+      <c r="BM4" s="9">
+        <f t="shared" si="5"/>
+        <v>46008</v>
+      </c>
+      <c r="BN4" s="9">
+        <f t="shared" si="6"/>
+        <v>46009</v>
+      </c>
+      <c r="BO4" s="9">
+        <f t="shared" si="7"/>
+        <v>46010</v>
+      </c>
+    </row>
+    <row r="5" spans="1:67" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="41" t="s">
         <v>7</v>
       </c>
       <c r="B5" s="18" t="s">
         <v>8</v>
       </c>
-      <c r="C5" s="45">
+      <c r="C5" s="38">
         <v>1</v>
       </c>
       <c r="D5" s="10">
@@ -1668,10 +1914,10 @@
         <v>45952</v>
       </c>
       <c r="F5" s="11">
-        <f t="shared" ref="F5:F8" si="2">IF(AND(E5&lt;&gt;"", D5&lt;&gt;""), E5+D5-1, "")</f>
+        <f t="shared" ref="F5:F8" si="9">IF(AND(E5&lt;&gt;"", D5&lt;&gt;""), E5+D5-1, "")</f>
         <v>45952</v>
       </c>
-      <c r="G5" s="44" t="str" cm="1">
+      <c r="G5" s="37" t="str" cm="1">
         <f t="array" ref="G5">_xlfn.TEXTJOIN(", ", TRUE, IF(담당자!C3:I3="O", 담당자!C$2:I$2, ""))</f>
         <v>안규태</v>
       </c>
@@ -1679,71 +1925,78 @@
       <c r="I5" s="12"/>
       <c r="J5" s="12"/>
       <c r="K5" s="12"/>
-      <c r="L5" s="36"/>
-      <c r="M5" s="37"/>
-      <c r="N5" s="12"/>
-      <c r="O5" s="12"/>
-      <c r="P5" s="12"/>
-      <c r="Q5" s="12"/>
+      <c r="L5" s="33"/>
+      <c r="M5" s="34"/>
+      <c r="N5" s="68"/>
+      <c r="O5" s="70"/>
+      <c r="P5" s="71"/>
+      <c r="Q5" s="69"/>
       <c r="R5" s="12"/>
-      <c r="S5" s="36"/>
-      <c r="T5" s="37"/>
+      <c r="S5" s="33"/>
+      <c r="T5" s="34"/>
       <c r="U5" s="12"/>
       <c r="V5" s="12"/>
       <c r="W5" s="12"/>
       <c r="X5" s="12"/>
       <c r="Y5" s="12"/>
-      <c r="Z5" s="36"/>
-      <c r="AA5" s="37"/>
+      <c r="Z5" s="33"/>
+      <c r="AA5" s="34"/>
       <c r="AB5" s="12"/>
       <c r="AC5" s="12"/>
       <c r="AD5" s="12"/>
       <c r="AE5" s="12"/>
       <c r="AF5" s="12"/>
-      <c r="AG5" s="36"/>
-      <c r="AH5" s="37"/>
+      <c r="AG5" s="33"/>
+      <c r="AH5" s="34"/>
       <c r="AI5" s="12"/>
       <c r="AJ5" s="12"/>
       <c r="AK5" s="12"/>
       <c r="AL5" s="12"/>
       <c r="AM5" s="12"/>
-      <c r="AN5" s="36"/>
-      <c r="AO5" s="37"/>
+      <c r="AN5" s="33"/>
+      <c r="AO5" s="34"/>
       <c r="AP5" s="12"/>
       <c r="AQ5" s="12"/>
       <c r="AR5" s="12"/>
       <c r="AS5" s="12"/>
       <c r="AT5" s="12"/>
-      <c r="AU5" s="36"/>
-      <c r="AV5" s="37"/>
+      <c r="AU5" s="33"/>
+      <c r="AV5" s="34"/>
       <c r="AW5" s="12"/>
       <c r="AX5" s="12"/>
       <c r="AY5" s="12"/>
       <c r="AZ5" s="12"/>
       <c r="BA5" s="12"/>
-      <c r="BB5" s="36"/>
-      <c r="BC5" s="37"/>
+      <c r="BB5" s="33"/>
+      <c r="BC5" s="34"/>
       <c r="BD5" s="12"/>
       <c r="BE5" s="12"/>
       <c r="BF5" s="12"/>
       <c r="BG5" s="12"/>
       <c r="BH5" s="12"/>
-    </row>
-    <row r="6" spans="1:60" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="48"/>
+      <c r="BI5" s="33"/>
+      <c r="BJ5" s="34"/>
+      <c r="BK5" s="12"/>
+      <c r="BL5" s="12"/>
+      <c r="BM5" s="12"/>
+      <c r="BN5" s="12"/>
+      <c r="BO5" s="12"/>
+    </row>
+    <row r="6" spans="1:67" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="42"/>
       <c r="B6" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="C6" s="45">
+      <c r="C6" s="38">
         <v>1</v>
       </c>
       <c r="D6" s="10"/>
       <c r="E6" s="11"/>
       <c r="F6" s="11" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
-      <c r="G6" s="44" t="str" cm="1">
+      <c r="G6" s="37" t="str" cm="1">
         <f t="array" ref="G6">_xlfn.TEXTJOIN(", ", TRUE, IF(담당자!C4:I4="O", 담당자!C$2:I$2, ""))</f>
         <v>안규태</v>
       </c>
@@ -1751,71 +2004,78 @@
       <c r="I6" s="12"/>
       <c r="J6" s="12"/>
       <c r="K6" s="12"/>
-      <c r="L6" s="36"/>
-      <c r="M6" s="37"/>
-      <c r="N6" s="12"/>
-      <c r="O6" s="12"/>
-      <c r="P6" s="12"/>
-      <c r="Q6" s="12"/>
+      <c r="L6" s="33"/>
+      <c r="M6" s="34"/>
+      <c r="N6" s="68"/>
+      <c r="O6" s="71"/>
+      <c r="P6" s="71"/>
+      <c r="Q6" s="69"/>
       <c r="R6" s="12"/>
-      <c r="S6" s="36"/>
-      <c r="T6" s="37"/>
+      <c r="S6" s="33"/>
+      <c r="T6" s="34"/>
       <c r="U6" s="12"/>
       <c r="V6" s="12"/>
       <c r="W6" s="12"/>
       <c r="X6" s="12"/>
       <c r="Y6" s="12"/>
-      <c r="Z6" s="36"/>
-      <c r="AA6" s="37"/>
+      <c r="Z6" s="33"/>
+      <c r="AA6" s="34"/>
       <c r="AB6" s="12"/>
       <c r="AC6" s="12"/>
       <c r="AD6" s="12"/>
       <c r="AE6" s="12"/>
       <c r="AF6" s="12"/>
-      <c r="AG6" s="36"/>
-      <c r="AH6" s="37"/>
+      <c r="AG6" s="33"/>
+      <c r="AH6" s="34"/>
       <c r="AI6" s="12"/>
       <c r="AJ6" s="12"/>
       <c r="AK6" s="12"/>
       <c r="AL6" s="12"/>
       <c r="AM6" s="12"/>
-      <c r="AN6" s="36"/>
-      <c r="AO6" s="37"/>
+      <c r="AN6" s="33"/>
+      <c r="AO6" s="34"/>
       <c r="AP6" s="12"/>
       <c r="AQ6" s="12"/>
       <c r="AR6" s="12"/>
       <c r="AS6" s="12"/>
       <c r="AT6" s="12"/>
-      <c r="AU6" s="36"/>
-      <c r="AV6" s="37"/>
+      <c r="AU6" s="33"/>
+      <c r="AV6" s="34"/>
       <c r="AW6" s="12"/>
       <c r="AX6" s="12"/>
       <c r="AY6" s="12"/>
       <c r="AZ6" s="12"/>
       <c r="BA6" s="12"/>
-      <c r="BB6" s="36"/>
-      <c r="BC6" s="37"/>
+      <c r="BB6" s="33"/>
+      <c r="BC6" s="34"/>
       <c r="BD6" s="12"/>
       <c r="BE6" s="12"/>
       <c r="BF6" s="12"/>
       <c r="BG6" s="12"/>
       <c r="BH6" s="12"/>
-    </row>
-    <row r="7" spans="1:60" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="48"/>
+      <c r="BI6" s="33"/>
+      <c r="BJ6" s="34"/>
+      <c r="BK6" s="12"/>
+      <c r="BL6" s="12"/>
+      <c r="BM6" s="12"/>
+      <c r="BN6" s="12"/>
+      <c r="BO6" s="12"/>
+    </row>
+    <row r="7" spans="1:67" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="42"/>
       <c r="B7" s="18" t="s">
         <v>10</v>
       </c>
-      <c r="C7" s="45">
+      <c r="C7" s="38">
         <v>1</v>
       </c>
       <c r="D7" s="10"/>
       <c r="E7" s="11"/>
       <c r="F7" s="11" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
-      <c r="G7" s="44" t="str" cm="1">
+      <c r="G7" s="37" t="str" cm="1">
         <f t="array" ref="G7">_xlfn.TEXTJOIN(", ", TRUE, IF(담당자!C5:I5="O", 담당자!C$2:I$2, ""))</f>
         <v>안규태</v>
       </c>
@@ -1823,71 +2083,78 @@
       <c r="I7" s="12"/>
       <c r="J7" s="12"/>
       <c r="K7" s="12"/>
-      <c r="L7" s="36"/>
-      <c r="M7" s="37"/>
-      <c r="N7" s="12"/>
-      <c r="O7" s="12"/>
-      <c r="P7" s="12"/>
-      <c r="Q7" s="12"/>
+      <c r="L7" s="33"/>
+      <c r="M7" s="34"/>
+      <c r="N7" s="68"/>
+      <c r="O7" s="71"/>
+      <c r="P7" s="71"/>
+      <c r="Q7" s="69"/>
       <c r="R7" s="12"/>
-      <c r="S7" s="36"/>
-      <c r="T7" s="37"/>
+      <c r="S7" s="33"/>
+      <c r="T7" s="34"/>
       <c r="U7" s="12"/>
       <c r="V7" s="12"/>
       <c r="W7" s="12"/>
       <c r="X7" s="12"/>
       <c r="Y7" s="12"/>
-      <c r="Z7" s="36"/>
-      <c r="AA7" s="37"/>
+      <c r="Z7" s="33"/>
+      <c r="AA7" s="34"/>
       <c r="AB7" s="12"/>
       <c r="AC7" s="12"/>
       <c r="AD7" s="12"/>
       <c r="AE7" s="12"/>
       <c r="AF7" s="12"/>
-      <c r="AG7" s="36"/>
-      <c r="AH7" s="37"/>
+      <c r="AG7" s="33"/>
+      <c r="AH7" s="34"/>
       <c r="AI7" s="12"/>
       <c r="AJ7" s="12"/>
       <c r="AK7" s="12"/>
       <c r="AL7" s="12"/>
       <c r="AM7" s="12"/>
-      <c r="AN7" s="36"/>
-      <c r="AO7" s="37"/>
+      <c r="AN7" s="33"/>
+      <c r="AO7" s="34"/>
       <c r="AP7" s="12"/>
       <c r="AQ7" s="12"/>
       <c r="AR7" s="12"/>
       <c r="AS7" s="12"/>
       <c r="AT7" s="12"/>
-      <c r="AU7" s="36"/>
-      <c r="AV7" s="37"/>
+      <c r="AU7" s="33"/>
+      <c r="AV7" s="34"/>
       <c r="AW7" s="12"/>
       <c r="AX7" s="12"/>
       <c r="AY7" s="12"/>
       <c r="AZ7" s="12"/>
       <c r="BA7" s="12"/>
-      <c r="BB7" s="36"/>
-      <c r="BC7" s="37"/>
+      <c r="BB7" s="33"/>
+      <c r="BC7" s="34"/>
       <c r="BD7" s="12"/>
       <c r="BE7" s="12"/>
       <c r="BF7" s="12"/>
       <c r="BG7" s="12"/>
       <c r="BH7" s="12"/>
-    </row>
-    <row r="8" spans="1:60" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="49"/>
+      <c r="BI7" s="33"/>
+      <c r="BJ7" s="34"/>
+      <c r="BK7" s="12"/>
+      <c r="BL7" s="12"/>
+      <c r="BM7" s="12"/>
+      <c r="BN7" s="12"/>
+      <c r="BO7" s="12"/>
+    </row>
+    <row r="8" spans="1:67" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="42"/>
       <c r="B8" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="C8" s="45">
+      <c r="C8" s="38">
         <v>1</v>
       </c>
       <c r="D8" s="10"/>
       <c r="E8" s="11"/>
       <c r="F8" s="11" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
-      <c r="G8" s="44" t="str" cm="1">
+      <c r="G8" s="37" t="str" cm="1">
         <f t="array" ref="G8">_xlfn.TEXTJOIN(", ", TRUE, IF(담당자!C6:I6="O", 담당자!C$2:I$2, ""))</f>
         <v>안규태</v>
       </c>
@@ -1895,64 +2162,71 @@
       <c r="I8" s="12"/>
       <c r="J8" s="12"/>
       <c r="K8" s="12"/>
-      <c r="L8" s="36"/>
-      <c r="M8" s="37"/>
-      <c r="N8" s="12"/>
-      <c r="O8" s="12"/>
-      <c r="P8" s="12"/>
-      <c r="Q8" s="12"/>
+      <c r="L8" s="33"/>
+      <c r="M8" s="34"/>
+      <c r="N8" s="68"/>
+      <c r="O8" s="71"/>
+      <c r="P8" s="71"/>
+      <c r="Q8" s="69"/>
       <c r="R8" s="12"/>
-      <c r="S8" s="36"/>
-      <c r="T8" s="37"/>
+      <c r="S8" s="33"/>
+      <c r="T8" s="34"/>
       <c r="U8" s="12"/>
       <c r="V8" s="12"/>
       <c r="W8" s="12"/>
       <c r="X8" s="12"/>
       <c r="Y8" s="12"/>
-      <c r="Z8" s="36"/>
-      <c r="AA8" s="37"/>
+      <c r="Z8" s="33"/>
+      <c r="AA8" s="34"/>
       <c r="AB8" s="12"/>
       <c r="AC8" s="12"/>
       <c r="AD8" s="12"/>
       <c r="AE8" s="12"/>
       <c r="AF8" s="12"/>
-      <c r="AG8" s="36"/>
-      <c r="AH8" s="37"/>
+      <c r="AG8" s="33"/>
+      <c r="AH8" s="34"/>
       <c r="AI8" s="12"/>
       <c r="AJ8" s="12"/>
       <c r="AK8" s="12"/>
       <c r="AL8" s="12"/>
       <c r="AM8" s="12"/>
-      <c r="AN8" s="36"/>
-      <c r="AO8" s="37"/>
+      <c r="AN8" s="33"/>
+      <c r="AO8" s="34"/>
       <c r="AP8" s="12"/>
       <c r="AQ8" s="12"/>
       <c r="AR8" s="12"/>
       <c r="AS8" s="12"/>
       <c r="AT8" s="12"/>
-      <c r="AU8" s="36"/>
-      <c r="AV8" s="37"/>
+      <c r="AU8" s="33"/>
+      <c r="AV8" s="34"/>
       <c r="AW8" s="12"/>
       <c r="AX8" s="12"/>
       <c r="AY8" s="12"/>
       <c r="AZ8" s="12"/>
       <c r="BA8" s="12"/>
-      <c r="BB8" s="36"/>
-      <c r="BC8" s="37"/>
+      <c r="BB8" s="33"/>
+      <c r="BC8" s="34"/>
       <c r="BD8" s="12"/>
       <c r="BE8" s="12"/>
       <c r="BF8" s="12"/>
       <c r="BG8" s="12"/>
       <c r="BH8" s="12"/>
-    </row>
-    <row r="9" spans="1:60" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="47" t="s">
+      <c r="BI8" s="33"/>
+      <c r="BJ8" s="34"/>
+      <c r="BK8" s="12"/>
+      <c r="BL8" s="12"/>
+      <c r="BM8" s="12"/>
+      <c r="BN8" s="12"/>
+      <c r="BO8" s="12"/>
+    </row>
+    <row r="9" spans="1:67" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="64" t="s">
         <v>12</v>
       </c>
-      <c r="B9" s="19" t="s">
+      <c r="B9" s="61" t="s">
         <v>24</v>
       </c>
-      <c r="C9" s="45">
+      <c r="C9" s="38">
         <f>IF(COUNTBLANK(C10:C13)=4, "", SUM(C10:C13)/COUNT(C10:C13))</f>
         <v>0.2</v>
       </c>
@@ -1968,7 +2242,7 @@
         <f>IF(COUNTBLANK(F10:F13)=4,"", MAX(F10:F13))</f>
         <v>45960</v>
       </c>
-      <c r="G9" s="46" t="str" cm="1">
+      <c r="G9" s="39" t="str" cm="1">
         <f t="array" ref="G9">_xlfn.TEXTJOIN(", ", TRUE, IF(담당자!C7:I7="O", 담당자!C$2:I$2, ""))</f>
         <v/>
       </c>
@@ -1976,62 +2250,69 @@
       <c r="I9" s="12"/>
       <c r="J9" s="12"/>
       <c r="K9" s="12"/>
-      <c r="L9" s="36"/>
-      <c r="M9" s="37"/>
-      <c r="N9" s="12"/>
-      <c r="O9" s="12"/>
-      <c r="P9" s="12"/>
-      <c r="Q9" s="12"/>
+      <c r="L9" s="33"/>
+      <c r="M9" s="34"/>
+      <c r="N9" s="68"/>
+      <c r="O9" s="71"/>
+      <c r="P9" s="71"/>
+      <c r="Q9" s="69"/>
       <c r="R9" s="12"/>
-      <c r="S9" s="36"/>
-      <c r="T9" s="37"/>
+      <c r="S9" s="33"/>
+      <c r="T9" s="34"/>
       <c r="U9" s="12"/>
       <c r="V9" s="12"/>
       <c r="W9" s="12"/>
       <c r="X9" s="12"/>
       <c r="Y9" s="12"/>
-      <c r="Z9" s="36"/>
-      <c r="AA9" s="37"/>
+      <c r="Z9" s="33"/>
+      <c r="AA9" s="34"/>
       <c r="AB9" s="12"/>
       <c r="AC9" s="12"/>
       <c r="AD9" s="12"/>
       <c r="AE9" s="12"/>
       <c r="AF9" s="12"/>
-      <c r="AG9" s="36"/>
-      <c r="AH9" s="37"/>
+      <c r="AG9" s="33"/>
+      <c r="AH9" s="34"/>
       <c r="AI9" s="12"/>
       <c r="AJ9" s="12"/>
       <c r="AK9" s="12"/>
       <c r="AL9" s="12"/>
       <c r="AM9" s="12"/>
-      <c r="AN9" s="36"/>
-      <c r="AO9" s="37"/>
+      <c r="AN9" s="33"/>
+      <c r="AO9" s="34"/>
       <c r="AP9" s="12"/>
       <c r="AQ9" s="12"/>
       <c r="AR9" s="12"/>
       <c r="AS9" s="12"/>
       <c r="AT9" s="12"/>
-      <c r="AU9" s="36"/>
-      <c r="AV9" s="37"/>
+      <c r="AU9" s="33"/>
+      <c r="AV9" s="34"/>
       <c r="AW9" s="12"/>
       <c r="AX9" s="12"/>
       <c r="AY9" s="12"/>
       <c r="AZ9" s="12"/>
       <c r="BA9" s="12"/>
-      <c r="BB9" s="36"/>
-      <c r="BC9" s="37"/>
+      <c r="BB9" s="33"/>
+      <c r="BC9" s="34"/>
       <c r="BD9" s="12"/>
       <c r="BE9" s="12"/>
       <c r="BF9" s="12"/>
       <c r="BG9" s="12"/>
       <c r="BH9" s="12"/>
-    </row>
-    <row r="10" spans="1:60" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="48"/>
-      <c r="B10" s="20" t="s">
+      <c r="BI9" s="33"/>
+      <c r="BJ9" s="34"/>
+      <c r="BK9" s="12"/>
+      <c r="BL9" s="12"/>
+      <c r="BM9" s="12"/>
+      <c r="BN9" s="12"/>
+      <c r="BO9" s="12"/>
+    </row>
+    <row r="10" spans="1:67" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="65"/>
+      <c r="B10" s="62" t="s">
         <v>23</v>
       </c>
-      <c r="C10" s="45">
+      <c r="C10" s="38">
         <v>0.8</v>
       </c>
       <c r="D10" s="10">
@@ -2044,7 +2325,7 @@
         <f>IF(AND(E10&lt;&gt;"", D10&lt;&gt;""), E10+D10-1, "")</f>
         <v>45954</v>
       </c>
-      <c r="G10" s="44" t="str" cm="1">
+      <c r="G10" s="37" t="str" cm="1">
         <f t="array" ref="G10">_xlfn.TEXTJOIN(", ", TRUE, IF(담당자!C8:I8="O", 담당자!C$2:I$2, ""))</f>
         <v>팀 전체</v>
       </c>
@@ -2052,62 +2333,69 @@
       <c r="I10" s="12"/>
       <c r="J10" s="12"/>
       <c r="K10" s="12"/>
-      <c r="L10" s="36"/>
-      <c r="M10" s="37"/>
-      <c r="N10" s="12"/>
-      <c r="O10" s="12"/>
-      <c r="P10" s="12"/>
-      <c r="Q10" s="12"/>
+      <c r="L10" s="33"/>
+      <c r="M10" s="34"/>
+      <c r="N10" s="68"/>
+      <c r="O10" s="71"/>
+      <c r="P10" s="71"/>
+      <c r="Q10" s="69"/>
       <c r="R10" s="12"/>
-      <c r="S10" s="36"/>
-      <c r="T10" s="37"/>
+      <c r="S10" s="33"/>
+      <c r="T10" s="34"/>
       <c r="U10" s="12"/>
       <c r="V10" s="12"/>
       <c r="W10" s="12"/>
       <c r="X10" s="12"/>
       <c r="Y10" s="12"/>
-      <c r="Z10" s="36"/>
-      <c r="AA10" s="37"/>
+      <c r="Z10" s="33"/>
+      <c r="AA10" s="34"/>
       <c r="AB10" s="12"/>
       <c r="AC10" s="12"/>
       <c r="AD10" s="12"/>
       <c r="AE10" s="12"/>
       <c r="AF10" s="12"/>
-      <c r="AG10" s="36"/>
-      <c r="AH10" s="37"/>
+      <c r="AG10" s="33"/>
+      <c r="AH10" s="34"/>
       <c r="AI10" s="12"/>
       <c r="AJ10" s="12"/>
       <c r="AK10" s="12"/>
       <c r="AL10" s="12"/>
       <c r="AM10" s="12"/>
-      <c r="AN10" s="36"/>
-      <c r="AO10" s="37"/>
+      <c r="AN10" s="33"/>
+      <c r="AO10" s="34"/>
       <c r="AP10" s="12"/>
       <c r="AQ10" s="12"/>
       <c r="AR10" s="12"/>
       <c r="AS10" s="12"/>
       <c r="AT10" s="12"/>
-      <c r="AU10" s="36"/>
-      <c r="AV10" s="37"/>
+      <c r="AU10" s="33"/>
+      <c r="AV10" s="34"/>
       <c r="AW10" s="12"/>
       <c r="AX10" s="12"/>
       <c r="AY10" s="12"/>
       <c r="AZ10" s="12"/>
       <c r="BA10" s="12"/>
-      <c r="BB10" s="36"/>
-      <c r="BC10" s="37"/>
+      <c r="BB10" s="33"/>
+      <c r="BC10" s="34"/>
       <c r="BD10" s="12"/>
       <c r="BE10" s="12"/>
       <c r="BF10" s="12"/>
       <c r="BG10" s="12"/>
       <c r="BH10" s="12"/>
-    </row>
-    <row r="11" spans="1:60" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="48"/>
-      <c r="B11" s="20" t="s">
+      <c r="BI10" s="33"/>
+      <c r="BJ10" s="34"/>
+      <c r="BK10" s="12"/>
+      <c r="BL10" s="12"/>
+      <c r="BM10" s="12"/>
+      <c r="BN10" s="12"/>
+      <c r="BO10" s="12"/>
+    </row>
+    <row r="11" spans="1:67" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="65"/>
+      <c r="B11" s="62" t="s">
         <v>25</v>
       </c>
-      <c r="C11" s="45">
+      <c r="C11" s="38">
         <v>0</v>
       </c>
       <c r="D11" s="10">
@@ -2120,7 +2408,7 @@
         <f>IF(AND(E11&lt;&gt;"", D11&lt;&gt;""), E11+D11-1, "")</f>
         <v>45958</v>
       </c>
-      <c r="G11" s="44" t="str" cm="1">
+      <c r="G11" s="37" t="str" cm="1">
         <f t="array" ref="G11">_xlfn.TEXTJOIN(", ", TRUE, IF(담당자!C9:I9="O", 담당자!C$2:I$2, ""))</f>
         <v>김수민, 신운용</v>
       </c>
@@ -2128,62 +2416,69 @@
       <c r="I11" s="12"/>
       <c r="J11" s="12"/>
       <c r="K11" s="12"/>
-      <c r="L11" s="36"/>
-      <c r="M11" s="37"/>
-      <c r="N11" s="12"/>
-      <c r="O11" s="12"/>
-      <c r="P11" s="12"/>
-      <c r="Q11" s="12"/>
+      <c r="L11" s="33"/>
+      <c r="M11" s="34"/>
+      <c r="N11" s="68"/>
+      <c r="O11" s="71"/>
+      <c r="P11" s="71"/>
+      <c r="Q11" s="69"/>
       <c r="R11" s="12"/>
-      <c r="S11" s="36"/>
-      <c r="T11" s="37"/>
+      <c r="S11" s="33"/>
+      <c r="T11" s="34"/>
       <c r="U11" s="12"/>
       <c r="V11" s="12"/>
       <c r="W11" s="12"/>
       <c r="X11" s="12"/>
       <c r="Y11" s="12"/>
-      <c r="Z11" s="36"/>
-      <c r="AA11" s="37"/>
+      <c r="Z11" s="33"/>
+      <c r="AA11" s="34"/>
       <c r="AB11" s="12"/>
       <c r="AC11" s="12"/>
       <c r="AD11" s="12"/>
       <c r="AE11" s="12"/>
       <c r="AF11" s="12"/>
-      <c r="AG11" s="36"/>
-      <c r="AH11" s="37"/>
+      <c r="AG11" s="33"/>
+      <c r="AH11" s="34"/>
       <c r="AI11" s="12"/>
       <c r="AJ11" s="12"/>
       <c r="AK11" s="12"/>
       <c r="AL11" s="12"/>
       <c r="AM11" s="12"/>
-      <c r="AN11" s="36"/>
-      <c r="AO11" s="37"/>
+      <c r="AN11" s="33"/>
+      <c r="AO11" s="34"/>
       <c r="AP11" s="12"/>
       <c r="AQ11" s="12"/>
       <c r="AR11" s="12"/>
       <c r="AS11" s="12"/>
       <c r="AT11" s="12"/>
-      <c r="AU11" s="36"/>
-      <c r="AV11" s="37"/>
+      <c r="AU11" s="33"/>
+      <c r="AV11" s="34"/>
       <c r="AW11" s="12"/>
       <c r="AX11" s="12"/>
       <c r="AY11" s="12"/>
       <c r="AZ11" s="12"/>
       <c r="BA11" s="12"/>
-      <c r="BB11" s="36"/>
-      <c r="BC11" s="37"/>
+      <c r="BB11" s="33"/>
+      <c r="BC11" s="34"/>
       <c r="BD11" s="12"/>
       <c r="BE11" s="12"/>
       <c r="BF11" s="12"/>
       <c r="BG11" s="12"/>
       <c r="BH11" s="12"/>
-    </row>
-    <row r="12" spans="1:60" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="48"/>
-      <c r="B12" s="20" t="s">
+      <c r="BI11" s="33"/>
+      <c r="BJ11" s="34"/>
+      <c r="BK11" s="12"/>
+      <c r="BL11" s="12"/>
+      <c r="BM11" s="12"/>
+      <c r="BN11" s="12"/>
+      <c r="BO11" s="12"/>
+    </row>
+    <row r="12" spans="1:67" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="65"/>
+      <c r="B12" s="62" t="s">
         <v>26</v>
       </c>
-      <c r="C12" s="45">
+      <c r="C12" s="38">
         <v>0</v>
       </c>
       <c r="D12" s="10">
@@ -2194,10 +2489,10 @@
         <v>45959</v>
       </c>
       <c r="F12" s="11">
-        <f t="shared" ref="F12:F28" si="3">IF(AND(E12&lt;&gt;"", D12&lt;&gt;""), E12+D12-1, "")</f>
+        <f t="shared" ref="F12:F31" si="10">IF(AND(E12&lt;&gt;"", D12&lt;&gt;""), E12+D12-1, "")</f>
         <v>45960</v>
       </c>
-      <c r="G12" s="44" t="str" cm="1">
+      <c r="G12" s="37" t="str" cm="1">
         <f t="array" ref="G12">_xlfn.TEXTJOIN(", ", TRUE, IF(담당자!C10:I10="O", 담당자!C$2:I$2, ""))</f>
         <v>안규태, 장지훈</v>
       </c>
@@ -2205,62 +2500,69 @@
       <c r="I12" s="12"/>
       <c r="J12" s="12"/>
       <c r="K12" s="12"/>
-      <c r="L12" s="36"/>
-      <c r="M12" s="37"/>
-      <c r="N12" s="12"/>
-      <c r="O12" s="12"/>
-      <c r="P12" s="12"/>
-      <c r="Q12" s="12"/>
+      <c r="L12" s="33"/>
+      <c r="M12" s="34"/>
+      <c r="N12" s="68"/>
+      <c r="O12" s="71"/>
+      <c r="P12" s="71"/>
+      <c r="Q12" s="69"/>
       <c r="R12" s="12"/>
-      <c r="S12" s="36"/>
-      <c r="T12" s="37"/>
+      <c r="S12" s="33"/>
+      <c r="T12" s="34"/>
       <c r="U12" s="12"/>
       <c r="V12" s="12"/>
       <c r="W12" s="12"/>
       <c r="X12" s="12"/>
       <c r="Y12" s="12"/>
-      <c r="Z12" s="36"/>
-      <c r="AA12" s="37"/>
+      <c r="Z12" s="33"/>
+      <c r="AA12" s="34"/>
       <c r="AB12" s="12"/>
       <c r="AC12" s="12"/>
       <c r="AD12" s="12"/>
       <c r="AE12" s="12"/>
       <c r="AF12" s="12"/>
-      <c r="AG12" s="36"/>
-      <c r="AH12" s="37"/>
+      <c r="AG12" s="33"/>
+      <c r="AH12" s="34"/>
       <c r="AI12" s="12"/>
       <c r="AJ12" s="12"/>
       <c r="AK12" s="12"/>
       <c r="AL12" s="12"/>
       <c r="AM12" s="12"/>
-      <c r="AN12" s="36"/>
-      <c r="AO12" s="37"/>
+      <c r="AN12" s="33"/>
+      <c r="AO12" s="34"/>
       <c r="AP12" s="12"/>
       <c r="AQ12" s="12"/>
       <c r="AR12" s="12"/>
       <c r="AS12" s="12"/>
       <c r="AT12" s="12"/>
-      <c r="AU12" s="36"/>
-      <c r="AV12" s="37"/>
+      <c r="AU12" s="33"/>
+      <c r="AV12" s="34"/>
       <c r="AW12" s="12"/>
       <c r="AX12" s="12"/>
       <c r="AY12" s="12"/>
       <c r="AZ12" s="12"/>
       <c r="BA12" s="12"/>
-      <c r="BB12" s="36"/>
-      <c r="BC12" s="37"/>
+      <c r="BB12" s="33"/>
+      <c r="BC12" s="34"/>
       <c r="BD12" s="12"/>
       <c r="BE12" s="12"/>
       <c r="BF12" s="12"/>
       <c r="BG12" s="12"/>
       <c r="BH12" s="12"/>
-    </row>
-    <row r="13" spans="1:60" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="48"/>
-      <c r="B13" s="20" t="s">
+      <c r="BI12" s="33"/>
+      <c r="BJ12" s="34"/>
+      <c r="BK12" s="12"/>
+      <c r="BL12" s="12"/>
+      <c r="BM12" s="12"/>
+      <c r="BN12" s="12"/>
+      <c r="BO12" s="12"/>
+    </row>
+    <row r="13" spans="1:67" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="65"/>
+      <c r="B13" s="62" t="s">
         <v>27</v>
       </c>
-      <c r="C13" s="45">
+      <c r="C13" s="38">
         <v>0</v>
       </c>
       <c r="D13" s="10">
@@ -2271,79 +2573,86 @@
         <v>45959</v>
       </c>
       <c r="F13" s="11">
-        <f t="shared" si="3"/>
+        <f t="shared" si="10"/>
         <v>45960</v>
       </c>
-      <c r="G13" s="44" t="str" cm="1">
+      <c r="G13" s="37" t="str" cm="1">
         <f t="array" ref="G13">_xlfn.TEXTJOIN(", ", TRUE, IF(담당자!C11:I11="O", 담당자!C$2:I$2, ""))</f>
         <v>안규태, 백여랑</v>
       </c>
       <c r="H13" s="12"/>
       <c r="I13" s="12"/>
-      <c r="J13" s="23"/>
+      <c r="J13" s="20"/>
       <c r="K13" s="12"/>
-      <c r="L13" s="36"/>
-      <c r="M13" s="37"/>
-      <c r="N13" s="12"/>
-      <c r="O13" s="12"/>
-      <c r="P13" s="12"/>
-      <c r="Q13" s="12"/>
+      <c r="L13" s="33"/>
+      <c r="M13" s="34"/>
+      <c r="N13" s="68"/>
+      <c r="O13" s="71"/>
+      <c r="P13" s="71"/>
+      <c r="Q13" s="69"/>
       <c r="R13" s="12"/>
-      <c r="S13" s="36"/>
-      <c r="T13" s="37"/>
+      <c r="S13" s="33"/>
+      <c r="T13" s="34"/>
       <c r="U13" s="12"/>
       <c r="V13" s="12"/>
       <c r="W13" s="12"/>
       <c r="X13" s="12"/>
       <c r="Y13" s="12"/>
-      <c r="Z13" s="36"/>
-      <c r="AA13" s="37"/>
+      <c r="Z13" s="33"/>
+      <c r="AA13" s="34"/>
       <c r="AB13" s="12"/>
       <c r="AC13" s="12"/>
       <c r="AD13" s="12"/>
       <c r="AE13" s="12"/>
       <c r="AF13" s="12"/>
-      <c r="AG13" s="36"/>
-      <c r="AH13" s="37"/>
+      <c r="AG13" s="33"/>
+      <c r="AH13" s="34"/>
       <c r="AI13" s="12"/>
       <c r="AJ13" s="12"/>
       <c r="AK13" s="12"/>
       <c r="AL13" s="12"/>
       <c r="AM13" s="12"/>
-      <c r="AN13" s="36"/>
-      <c r="AO13" s="37"/>
+      <c r="AN13" s="33"/>
+      <c r="AO13" s="34"/>
       <c r="AP13" s="12"/>
       <c r="AQ13" s="12"/>
       <c r="AR13" s="12"/>
       <c r="AS13" s="12"/>
       <c r="AT13" s="12"/>
-      <c r="AU13" s="36"/>
-      <c r="AV13" s="37"/>
+      <c r="AU13" s="33"/>
+      <c r="AV13" s="34"/>
       <c r="AW13" s="12"/>
       <c r="AX13" s="12"/>
       <c r="AY13" s="12"/>
       <c r="AZ13" s="12"/>
       <c r="BA13" s="12"/>
-      <c r="BB13" s="36"/>
-      <c r="BC13" s="37"/>
+      <c r="BB13" s="33"/>
+      <c r="BC13" s="34"/>
       <c r="BD13" s="12"/>
       <c r="BE13" s="12"/>
       <c r="BF13" s="12"/>
       <c r="BG13" s="12"/>
       <c r="BH13" s="12"/>
-    </row>
-    <row r="14" spans="1:60" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="48"/>
-      <c r="B14" s="19" t="s">
+      <c r="BI13" s="33"/>
+      <c r="BJ13" s="34"/>
+      <c r="BK13" s="12"/>
+      <c r="BL13" s="12"/>
+      <c r="BM13" s="12"/>
+      <c r="BN13" s="12"/>
+      <c r="BO13" s="12"/>
+    </row>
+    <row r="14" spans="1:67" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="65"/>
+      <c r="B14" s="61" t="s">
         <v>28</v>
       </c>
-      <c r="C14" s="45">
+      <c r="C14" s="38">
         <f>IF(COUNTBLANK(C15:C18)=4, "", SUM(C15:C18)/COUNT(C15:C18))</f>
         <v>1.2500000000000001E-2</v>
       </c>
       <c r="D14" s="10">
         <f>IF(AND(F14&lt;&gt;"", E14&lt;&gt;""), F14-E14+1, "")</f>
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="E14" s="11">
         <f>IF(COUNTA(E15:E18)=0,"", MIN(E15:E18))</f>
@@ -2351,9 +2660,9 @@
       </c>
       <c r="F14" s="11">
         <f>IF(COUNTBLANK(F15:F18)=4,"", MAX(F15:F18))</f>
-        <v>45961</v>
-      </c>
-      <c r="G14" s="46" t="str" cm="1">
+        <v>45964</v>
+      </c>
+      <c r="G14" s="39" t="str" cm="1">
         <f t="array" ref="G14">_xlfn.TEXTJOIN(", ", TRUE, IF(담당자!C12:I12="O", 담당자!C$2:I$2, ""))</f>
         <v/>
       </c>
@@ -2361,149 +2670,163 @@
       <c r="I14" s="12"/>
       <c r="J14" s="12"/>
       <c r="K14" s="12"/>
-      <c r="L14" s="36"/>
-      <c r="M14" s="37"/>
-      <c r="N14" s="12"/>
-      <c r="O14" s="12"/>
-      <c r="P14" s="12"/>
-      <c r="Q14" s="12"/>
+      <c r="L14" s="33"/>
+      <c r="M14" s="34"/>
+      <c r="N14" s="68"/>
+      <c r="O14" s="71"/>
+      <c r="P14" s="71"/>
+      <c r="Q14" s="69"/>
       <c r="R14" s="12"/>
-      <c r="S14" s="36"/>
-      <c r="T14" s="37"/>
+      <c r="S14" s="33"/>
+      <c r="T14" s="34"/>
       <c r="U14" s="12"/>
       <c r="V14" s="12"/>
       <c r="W14" s="12"/>
       <c r="X14" s="12"/>
       <c r="Y14" s="12"/>
-      <c r="Z14" s="36"/>
-      <c r="AA14" s="37"/>
+      <c r="Z14" s="33"/>
+      <c r="AA14" s="34"/>
       <c r="AB14" s="12"/>
       <c r="AC14" s="12"/>
       <c r="AD14" s="12"/>
       <c r="AE14" s="12"/>
       <c r="AF14" s="12"/>
-      <c r="AG14" s="36"/>
-      <c r="AH14" s="37"/>
+      <c r="AG14" s="33"/>
+      <c r="AH14" s="34"/>
       <c r="AI14" s="12"/>
       <c r="AJ14" s="12"/>
       <c r="AK14" s="12"/>
       <c r="AL14" s="12"/>
       <c r="AM14" s="12"/>
-      <c r="AN14" s="36"/>
-      <c r="AO14" s="37"/>
+      <c r="AN14" s="33"/>
+      <c r="AO14" s="34"/>
       <c r="AP14" s="12"/>
       <c r="AQ14" s="12"/>
       <c r="AR14" s="12"/>
       <c r="AS14" s="12"/>
       <c r="AT14" s="12"/>
-      <c r="AU14" s="36"/>
-      <c r="AV14" s="37"/>
+      <c r="AU14" s="33"/>
+      <c r="AV14" s="34"/>
       <c r="AW14" s="12"/>
       <c r="AX14" s="12"/>
       <c r="AY14" s="12"/>
       <c r="AZ14" s="12"/>
       <c r="BA14" s="12"/>
-      <c r="BB14" s="36"/>
-      <c r="BC14" s="37"/>
+      <c r="BB14" s="33"/>
+      <c r="BC14" s="34"/>
       <c r="BD14" s="12"/>
       <c r="BE14" s="12"/>
       <c r="BF14" s="12"/>
       <c r="BG14" s="12"/>
       <c r="BH14" s="12"/>
-    </row>
-    <row r="15" spans="1:60" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="48"/>
-      <c r="B15" s="21" t="s">
+      <c r="BI14" s="33"/>
+      <c r="BJ14" s="34"/>
+      <c r="BK14" s="12"/>
+      <c r="BL14" s="12"/>
+      <c r="BM14" s="12"/>
+      <c r="BN14" s="12"/>
+      <c r="BO14" s="12"/>
+    </row>
+    <row r="15" spans="1:67" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="65"/>
+      <c r="B15" s="63" t="s">
         <v>32</v>
       </c>
-      <c r="C15" s="45">
+      <c r="C15" s="38">
         <v>0.05</v>
       </c>
       <c r="D15" s="10">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="E15" s="11">
         <v>45954</v>
       </c>
       <c r="F15" s="11">
-        <f t="shared" si="3"/>
-        <v>45957</v>
-      </c>
-      <c r="G15" s="44" t="str" cm="1">
+        <f t="shared" si="10"/>
+        <v>45959</v>
+      </c>
+      <c r="G15" s="37" t="str" cm="1">
         <f t="array" ref="G15">_xlfn.TEXTJOIN(", ", TRUE, IF(담당자!C13:I13="O", 담당자!C$2:I$2, ""))</f>
         <v>안규태</v>
       </c>
       <c r="H15" s="12"/>
       <c r="J15" s="12"/>
       <c r="K15" s="12"/>
-      <c r="L15" s="36"/>
-      <c r="M15" s="37"/>
-      <c r="N15" s="12"/>
-      <c r="O15" s="12"/>
-      <c r="P15" s="12"/>
-      <c r="Q15" s="12"/>
+      <c r="L15" s="33"/>
+      <c r="M15" s="34"/>
+      <c r="N15" s="68"/>
+      <c r="O15" s="71"/>
+      <c r="P15" s="71"/>
+      <c r="Q15" s="69"/>
       <c r="R15" s="12"/>
-      <c r="S15" s="36"/>
-      <c r="T15" s="37"/>
+      <c r="S15" s="33"/>
+      <c r="T15" s="34"/>
       <c r="U15" s="12"/>
       <c r="V15" s="12"/>
       <c r="W15" s="12"/>
       <c r="X15" s="12"/>
-      <c r="Z15" s="36"/>
-      <c r="AA15" s="37"/>
+      <c r="Z15" s="33"/>
+      <c r="AA15" s="34"/>
       <c r="AB15" s="12"/>
       <c r="AC15" s="12"/>
       <c r="AD15" s="12"/>
       <c r="AE15" s="12"/>
       <c r="AF15" s="12"/>
-      <c r="AG15" s="36"/>
-      <c r="AH15" s="37"/>
+      <c r="AG15" s="33"/>
+      <c r="AH15" s="34"/>
       <c r="AI15" s="12"/>
       <c r="AJ15" s="12"/>
       <c r="AK15" s="12"/>
       <c r="AL15" s="12"/>
       <c r="AM15" s="12"/>
-      <c r="AN15" s="36"/>
-      <c r="AO15" s="37"/>
+      <c r="AN15" s="33"/>
+      <c r="AO15" s="34"/>
       <c r="AP15" s="12"/>
       <c r="AQ15" s="12"/>
       <c r="AR15" s="12"/>
       <c r="AS15" s="12"/>
       <c r="AT15" s="12"/>
-      <c r="AU15" s="36"/>
-      <c r="AV15" s="37"/>
+      <c r="AU15" s="33"/>
+      <c r="AV15" s="34"/>
       <c r="AW15" s="12"/>
       <c r="AX15" s="12"/>
       <c r="AY15" s="12"/>
       <c r="AZ15" s="12"/>
       <c r="BA15" s="12"/>
-      <c r="BB15" s="36"/>
-      <c r="BC15" s="37"/>
+      <c r="BB15" s="33"/>
+      <c r="BC15" s="34"/>
       <c r="BD15" s="12"/>
       <c r="BE15" s="12"/>
       <c r="BF15" s="12"/>
       <c r="BG15" s="12"/>
       <c r="BH15" s="12"/>
-    </row>
-    <row r="16" spans="1:60" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="48"/>
-      <c r="B16" s="21" t="s">
+      <c r="BI15" s="33"/>
+      <c r="BJ15" s="34"/>
+      <c r="BK15" s="12"/>
+      <c r="BL15" s="12"/>
+      <c r="BM15" s="12"/>
+      <c r="BN15" s="12"/>
+      <c r="BO15" s="12"/>
+    </row>
+    <row r="16" spans="1:67" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="65"/>
+      <c r="B16" s="63" t="s">
         <v>33</v>
       </c>
-      <c r="C16" s="45">
+      <c r="C16" s="38">
         <v>0</v>
       </c>
       <c r="D16" s="10">
         <v>2</v>
       </c>
       <c r="E16" s="11">
-        <v>45958</v>
+        <v>45960</v>
       </c>
       <c r="F16" s="11">
-        <f t="shared" si="3"/>
-        <v>45959</v>
-      </c>
-      <c r="G16" s="44" t="str" cm="1">
+        <f t="shared" si="10"/>
+        <v>45961</v>
+      </c>
+      <c r="G16" s="37" t="str" cm="1">
         <f t="array" ref="G16">_xlfn.TEXTJOIN(", ", TRUE, IF(담당자!C14:I14="O", 담당자!C$2:I$2, ""))</f>
         <v>안규태, 김수민</v>
       </c>
@@ -2511,75 +2834,82 @@
       <c r="I16" s="12"/>
       <c r="J16" s="12"/>
       <c r="K16" s="12"/>
-      <c r="L16" s="36"/>
-      <c r="M16" s="37"/>
-      <c r="N16" s="12"/>
-      <c r="O16" s="12"/>
-      <c r="P16" s="12"/>
-      <c r="Q16" s="12"/>
+      <c r="L16" s="33"/>
+      <c r="M16" s="34"/>
+      <c r="N16" s="68"/>
+      <c r="O16" s="71"/>
+      <c r="P16" s="71"/>
+      <c r="Q16" s="69"/>
       <c r="R16" s="12"/>
-      <c r="S16" s="36"/>
-      <c r="T16" s="37"/>
+      <c r="S16" s="33"/>
+      <c r="T16" s="34"/>
       <c r="U16" s="12"/>
       <c r="V16" s="12"/>
       <c r="W16" s="12"/>
       <c r="X16" s="12"/>
       <c r="Y16" s="12"/>
-      <c r="Z16" s="36"/>
-      <c r="AA16" s="37"/>
+      <c r="Z16" s="33"/>
+      <c r="AA16" s="34"/>
       <c r="AB16" s="12"/>
       <c r="AC16" s="12"/>
       <c r="AD16" s="12"/>
       <c r="AE16" s="12"/>
       <c r="AF16" s="12"/>
-      <c r="AG16" s="36"/>
-      <c r="AH16" s="37"/>
+      <c r="AG16" s="33"/>
+      <c r="AH16" s="34"/>
       <c r="AI16" s="12"/>
       <c r="AJ16" s="12"/>
       <c r="AK16" s="12"/>
       <c r="AL16" s="12"/>
       <c r="AM16" s="12"/>
-      <c r="AN16" s="36"/>
-      <c r="AO16" s="37"/>
+      <c r="AN16" s="33"/>
+      <c r="AO16" s="34"/>
       <c r="AP16" s="12"/>
       <c r="AQ16" s="12"/>
       <c r="AR16" s="12"/>
       <c r="AS16" s="12"/>
       <c r="AT16" s="12"/>
-      <c r="AU16" s="36"/>
-      <c r="AV16" s="37"/>
+      <c r="AU16" s="33"/>
+      <c r="AV16" s="34"/>
       <c r="AW16" s="12"/>
       <c r="AX16" s="12"/>
       <c r="AY16" s="12"/>
       <c r="AZ16" s="12"/>
       <c r="BA16" s="12"/>
-      <c r="BB16" s="36"/>
-      <c r="BC16" s="37"/>
+      <c r="BB16" s="33"/>
+      <c r="BC16" s="34"/>
       <c r="BD16" s="12"/>
       <c r="BE16" s="12"/>
       <c r="BF16" s="12"/>
       <c r="BG16" s="12"/>
       <c r="BH16" s="12"/>
-    </row>
-    <row r="17" spans="1:60" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="48"/>
-      <c r="B17" s="21" t="s">
+      <c r="BI16" s="33"/>
+      <c r="BJ16" s="34"/>
+      <c r="BK16" s="12"/>
+      <c r="BL16" s="12"/>
+      <c r="BM16" s="12"/>
+      <c r="BN16" s="12"/>
+      <c r="BO16" s="12"/>
+    </row>
+    <row r="17" spans="1:67" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="65"/>
+      <c r="B17" s="63" t="s">
         <v>34</v>
       </c>
-      <c r="C17" s="45">
+      <c r="C17" s="38">
         <v>0</v>
       </c>
       <c r="D17" s="10">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E17" s="11">
-        <v>45959</v>
+        <v>45960</v>
       </c>
       <c r="F17" s="11">
-        <f t="shared" si="3"/>
-        <v>45961</v>
-      </c>
-      <c r="G17" s="44" t="str" cm="1">
+        <f t="shared" si="10"/>
+        <v>45964</v>
+      </c>
+      <c r="G17" s="37" t="str" cm="1">
         <f t="array" ref="G17">_xlfn.TEXTJOIN(", ", TRUE, IF(담당자!C15:I15="O", 담당자!C$2:I$2, ""))</f>
         <v>안규태, 백여랑</v>
       </c>
@@ -2587,75 +2917,82 @@
       <c r="I17" s="12"/>
       <c r="J17" s="12"/>
       <c r="K17" s="12"/>
-      <c r="L17" s="36"/>
-      <c r="M17" s="37"/>
-      <c r="N17" s="12"/>
-      <c r="O17" s="12"/>
-      <c r="P17" s="12"/>
-      <c r="Q17" s="12"/>
+      <c r="L17" s="33"/>
+      <c r="M17" s="34"/>
+      <c r="N17" s="68"/>
+      <c r="O17" s="71"/>
+      <c r="P17" s="71"/>
+      <c r="Q17" s="69"/>
       <c r="R17" s="12"/>
-      <c r="S17" s="36"/>
-      <c r="T17" s="37"/>
+      <c r="S17" s="33"/>
+      <c r="T17" s="34"/>
       <c r="U17" s="12"/>
       <c r="V17" s="12"/>
       <c r="W17" s="12"/>
       <c r="X17" s="12"/>
       <c r="Y17" s="12"/>
-      <c r="Z17" s="36"/>
-      <c r="AA17" s="37"/>
+      <c r="Z17" s="33"/>
+      <c r="AA17" s="34"/>
       <c r="AB17" s="12"/>
       <c r="AC17" s="12"/>
       <c r="AD17" s="12"/>
       <c r="AE17" s="12"/>
       <c r="AF17" s="12"/>
-      <c r="AG17" s="36"/>
-      <c r="AH17" s="37"/>
+      <c r="AG17" s="33"/>
+      <c r="AH17" s="34"/>
       <c r="AI17" s="12"/>
       <c r="AJ17" s="12"/>
       <c r="AK17" s="12"/>
       <c r="AL17" s="12"/>
       <c r="AM17" s="12"/>
-      <c r="AN17" s="36"/>
-      <c r="AO17" s="37"/>
+      <c r="AN17" s="33"/>
+      <c r="AO17" s="34"/>
       <c r="AP17" s="12"/>
       <c r="AQ17" s="12"/>
       <c r="AR17" s="12"/>
       <c r="AS17" s="12"/>
       <c r="AT17" s="12"/>
-      <c r="AU17" s="36"/>
-      <c r="AV17" s="37"/>
+      <c r="AU17" s="33"/>
+      <c r="AV17" s="34"/>
       <c r="AW17" s="12"/>
       <c r="AX17" s="12"/>
       <c r="AY17" s="12"/>
       <c r="AZ17" s="12"/>
       <c r="BA17" s="12"/>
-      <c r="BB17" s="36"/>
-      <c r="BC17" s="37"/>
+      <c r="BB17" s="33"/>
+      <c r="BC17" s="34"/>
       <c r="BD17" s="12"/>
       <c r="BE17" s="12"/>
       <c r="BF17" s="12"/>
       <c r="BG17" s="12"/>
       <c r="BH17" s="12"/>
-    </row>
-    <row r="18" spans="1:60" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="48"/>
-      <c r="B18" s="21" t="s">
+      <c r="BI17" s="33"/>
+      <c r="BJ17" s="34"/>
+      <c r="BK17" s="12"/>
+      <c r="BL17" s="12"/>
+      <c r="BM17" s="12"/>
+      <c r="BN17" s="12"/>
+      <c r="BO17" s="12"/>
+    </row>
+    <row r="18" spans="1:67" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="65"/>
+      <c r="B18" s="63" t="s">
         <v>35</v>
       </c>
-      <c r="C18" s="45">
+      <c r="C18" s="38">
         <v>0</v>
       </c>
       <c r="D18" s="10">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E18" s="11">
-        <v>45959</v>
+        <v>45960</v>
       </c>
       <c r="F18" s="11">
-        <f t="shared" si="3"/>
-        <v>45961</v>
-      </c>
-      <c r="G18" s="44" t="str" cm="1">
+        <f t="shared" si="10"/>
+        <v>45964</v>
+      </c>
+      <c r="G18" s="37" t="str" cm="1">
         <f t="array" ref="G18">_xlfn.TEXTJOIN(", ", TRUE, IF(담당자!C16:I16="O", 담당자!C$2:I$2, ""))</f>
         <v>김수민, 신운용, 장지훈</v>
       </c>
@@ -2663,75 +3000,82 @@
       <c r="I18" s="12"/>
       <c r="J18" s="12"/>
       <c r="K18" s="12"/>
-      <c r="L18" s="36"/>
-      <c r="M18" s="37"/>
-      <c r="N18" s="12"/>
-      <c r="O18" s="12"/>
-      <c r="P18" s="12"/>
-      <c r="Q18" s="12"/>
+      <c r="L18" s="33"/>
+      <c r="M18" s="34"/>
+      <c r="N18" s="68"/>
+      <c r="O18" s="71"/>
+      <c r="P18" s="71"/>
+      <c r="Q18" s="69"/>
       <c r="R18" s="12"/>
-      <c r="S18" s="36"/>
-      <c r="T18" s="37"/>
+      <c r="S18" s="33"/>
+      <c r="T18" s="34"/>
       <c r="U18" s="12"/>
       <c r="V18" s="12"/>
       <c r="W18" s="12"/>
       <c r="X18" s="12"/>
       <c r="Y18" s="12"/>
-      <c r="Z18" s="36"/>
-      <c r="AA18" s="37"/>
+      <c r="Z18" s="33"/>
+      <c r="AA18" s="34"/>
       <c r="AB18" s="12"/>
       <c r="AC18" s="12"/>
       <c r="AD18" s="12"/>
       <c r="AE18" s="12"/>
       <c r="AF18" s="12"/>
-      <c r="AG18" s="36"/>
-      <c r="AH18" s="37"/>
+      <c r="AG18" s="33"/>
+      <c r="AH18" s="34"/>
       <c r="AI18" s="12"/>
       <c r="AJ18" s="12"/>
       <c r="AK18" s="12"/>
       <c r="AL18" s="12"/>
       <c r="AM18" s="12"/>
-      <c r="AN18" s="36"/>
-      <c r="AO18" s="37"/>
+      <c r="AN18" s="33"/>
+      <c r="AO18" s="34"/>
       <c r="AP18" s="12"/>
       <c r="AQ18" s="12"/>
       <c r="AR18" s="12"/>
       <c r="AS18" s="12"/>
       <c r="AT18" s="12"/>
-      <c r="AU18" s="36"/>
-      <c r="AV18" s="37"/>
+      <c r="AU18" s="33"/>
+      <c r="AV18" s="34"/>
       <c r="AW18" s="12"/>
       <c r="AX18" s="12"/>
       <c r="AY18" s="12"/>
       <c r="AZ18" s="12"/>
       <c r="BA18" s="12"/>
-      <c r="BB18" s="36"/>
-      <c r="BC18" s="37"/>
+      <c r="BB18" s="33"/>
+      <c r="BC18" s="34"/>
       <c r="BD18" s="12"/>
       <c r="BE18" s="12"/>
       <c r="BF18" s="12"/>
       <c r="BG18" s="12"/>
       <c r="BH18" s="12"/>
-    </row>
-    <row r="19" spans="1:60" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="48"/>
-      <c r="B19" s="19" t="s">
+      <c r="BI18" s="33"/>
+      <c r="BJ18" s="34"/>
+      <c r="BK18" s="12"/>
+      <c r="BL18" s="12"/>
+      <c r="BM18" s="12"/>
+      <c r="BN18" s="12"/>
+      <c r="BO18" s="12"/>
+    </row>
+    <row r="19" spans="1:67" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="65"/>
+      <c r="B19" s="61" t="s">
         <v>29</v>
       </c>
-      <c r="C19" s="45">
+      <c r="C19" s="38">
         <v>0</v>
       </c>
       <c r="D19" s="10">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E19" s="11">
-        <v>45961</v>
+        <v>45965</v>
       </c>
       <c r="F19" s="11">
-        <f t="shared" si="3"/>
-        <v>45964</v>
-      </c>
-      <c r="G19" s="44" t="str" cm="1">
+        <f t="shared" si="10"/>
+        <v>45965</v>
+      </c>
+      <c r="G19" s="37" t="str" cm="1">
         <f t="array" ref="G19">_xlfn.TEXTJOIN(", ", TRUE, IF(담당자!C17:I17="O", 담당자!C$2:I$2, ""))</f>
         <v>안규태</v>
       </c>
@@ -2739,78 +3083,85 @@
       <c r="I19" s="12"/>
       <c r="J19" s="12"/>
       <c r="K19" s="12"/>
-      <c r="L19" s="36"/>
-      <c r="M19" s="37"/>
-      <c r="N19" s="12"/>
-      <c r="O19" s="12"/>
-      <c r="P19" s="12"/>
-      <c r="Q19" s="12"/>
+      <c r="L19" s="33"/>
+      <c r="M19" s="34"/>
+      <c r="N19" s="68"/>
+      <c r="O19" s="71"/>
+      <c r="P19" s="71"/>
+      <c r="Q19" s="69"/>
       <c r="R19" s="12"/>
-      <c r="S19" s="36"/>
-      <c r="T19" s="37"/>
+      <c r="S19" s="33"/>
+      <c r="T19" s="34"/>
       <c r="U19" s="12"/>
       <c r="V19" s="12"/>
       <c r="W19" s="12"/>
       <c r="X19" s="12"/>
       <c r="Y19" s="12"/>
-      <c r="Z19" s="36"/>
-      <c r="AA19" s="37"/>
+      <c r="Z19" s="33"/>
+      <c r="AA19" s="34"/>
       <c r="AB19" s="12"/>
       <c r="AC19" s="12"/>
       <c r="AD19" s="12"/>
       <c r="AE19" s="12"/>
       <c r="AF19" s="12"/>
-      <c r="AG19" s="36"/>
-      <c r="AH19" s="37"/>
+      <c r="AG19" s="33"/>
+      <c r="AH19" s="34"/>
       <c r="AI19" s="12"/>
       <c r="AJ19" s="12"/>
       <c r="AK19" s="12"/>
       <c r="AL19" s="12"/>
       <c r="AM19" s="12"/>
-      <c r="AN19" s="36"/>
-      <c r="AO19" s="37"/>
+      <c r="AN19" s="33"/>
+      <c r="AO19" s="34"/>
       <c r="AP19" s="12"/>
       <c r="AQ19" s="12"/>
       <c r="AR19" s="12"/>
       <c r="AS19" s="12"/>
       <c r="AT19" s="12"/>
-      <c r="AU19" s="36"/>
-      <c r="AV19" s="37"/>
+      <c r="AU19" s="33"/>
+      <c r="AV19" s="34"/>
       <c r="AW19" s="12"/>
       <c r="AX19" s="12"/>
       <c r="AY19" s="12"/>
       <c r="AZ19" s="12"/>
       <c r="BA19" s="12"/>
-      <c r="BB19" s="36"/>
-      <c r="BC19" s="37"/>
+      <c r="BB19" s="33"/>
+      <c r="BC19" s="34"/>
       <c r="BD19" s="12"/>
       <c r="BE19" s="12"/>
       <c r="BF19" s="12"/>
       <c r="BG19" s="12"/>
       <c r="BH19" s="12"/>
-    </row>
-    <row r="20" spans="1:60" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="48"/>
-      <c r="B20" s="19" t="s">
+      <c r="BI19" s="33"/>
+      <c r="BJ19" s="34"/>
+      <c r="BK19" s="12"/>
+      <c r="BL19" s="12"/>
+      <c r="BM19" s="12"/>
+      <c r="BN19" s="12"/>
+      <c r="BO19" s="12"/>
+    </row>
+    <row r="20" spans="1:67" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="65"/>
+      <c r="B20" s="61" t="s">
         <v>30</v>
       </c>
-      <c r="C20" s="45">
+      <c r="C20" s="38">
         <f>IF(COUNTBLANK(C21:C22)=2, "", SUM(C21:C22)/COUNT(C21:C22))</f>
         <v>0</v>
       </c>
       <c r="D20" s="10">
         <f>IF(AND(F20&lt;&gt;"", E20&lt;&gt;""), F20-E20+1, "")</f>
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="E20" s="11">
         <f>IF(COUNTA(E21:E22)=0,"", MIN(E21:E22))</f>
-        <v>45964</v>
+        <v>45966</v>
       </c>
       <c r="F20" s="11">
         <f>IF(COUNTBLANK(F21:F22)=2,"", MAX(F21:F22))</f>
-        <v>45996</v>
-      </c>
-      <c r="G20" s="46" t="str" cm="1">
+        <v>46000</v>
+      </c>
+      <c r="G20" s="39" t="str" cm="1">
         <f t="array" ref="G20">_xlfn.TEXTJOIN(", ", TRUE, IF(담당자!C18:I18="O", 담당자!C$2:I$2, ""))</f>
         <v/>
       </c>
@@ -2818,75 +3169,82 @@
       <c r="I20" s="12"/>
       <c r="J20" s="12"/>
       <c r="K20" s="12"/>
-      <c r="L20" s="36"/>
-      <c r="M20" s="37"/>
-      <c r="N20" s="12"/>
-      <c r="O20" s="12"/>
-      <c r="P20" s="12"/>
-      <c r="Q20" s="12"/>
+      <c r="L20" s="33"/>
+      <c r="M20" s="34"/>
+      <c r="N20" s="68"/>
+      <c r="O20" s="71"/>
+      <c r="P20" s="71"/>
+      <c r="Q20" s="69"/>
       <c r="R20" s="12"/>
-      <c r="S20" s="36"/>
-      <c r="T20" s="37"/>
+      <c r="S20" s="33"/>
+      <c r="T20" s="34"/>
       <c r="U20" s="12"/>
       <c r="V20" s="12"/>
       <c r="W20" s="12"/>
       <c r="X20" s="12"/>
       <c r="Y20" s="12"/>
-      <c r="Z20" s="36"/>
-      <c r="AA20" s="37"/>
+      <c r="Z20" s="33"/>
+      <c r="AA20" s="34"/>
       <c r="AB20" s="12"/>
       <c r="AC20" s="12"/>
       <c r="AD20" s="12"/>
       <c r="AE20" s="12"/>
       <c r="AF20" s="12"/>
-      <c r="AG20" s="36"/>
-      <c r="AH20" s="37"/>
+      <c r="AG20" s="33"/>
+      <c r="AH20" s="34"/>
       <c r="AI20" s="12"/>
       <c r="AJ20" s="12"/>
       <c r="AK20" s="12"/>
       <c r="AL20" s="12"/>
       <c r="AM20" s="12"/>
-      <c r="AN20" s="36"/>
-      <c r="AO20" s="37"/>
+      <c r="AN20" s="33"/>
+      <c r="AO20" s="34"/>
       <c r="AP20" s="12"/>
       <c r="AQ20" s="12"/>
       <c r="AR20" s="12"/>
       <c r="AS20" s="12"/>
       <c r="AT20" s="12"/>
-      <c r="AU20" s="36"/>
-      <c r="AV20" s="37"/>
+      <c r="AU20" s="33"/>
+      <c r="AV20" s="34"/>
       <c r="AW20" s="12"/>
       <c r="AX20" s="12"/>
       <c r="AY20" s="12"/>
       <c r="AZ20" s="12"/>
       <c r="BA20" s="12"/>
-      <c r="BB20" s="36"/>
-      <c r="BC20" s="37"/>
+      <c r="BB20" s="33"/>
+      <c r="BC20" s="34"/>
       <c r="BD20" s="12"/>
       <c r="BE20" s="12"/>
       <c r="BF20" s="12"/>
       <c r="BG20" s="12"/>
       <c r="BH20" s="12"/>
-    </row>
-    <row r="21" spans="1:60" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="48"/>
-      <c r="B21" s="21" t="s">
+      <c r="BI20" s="33"/>
+      <c r="BJ20" s="34"/>
+      <c r="BK20" s="12"/>
+      <c r="BL20" s="12"/>
+      <c r="BM20" s="12"/>
+      <c r="BN20" s="12"/>
+      <c r="BO20" s="12"/>
+    </row>
+    <row r="21" spans="1:67" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="65"/>
+      <c r="B21" s="63" t="s">
         <v>36</v>
       </c>
-      <c r="C21" s="45">
+      <c r="C21" s="38">
         <v>0</v>
       </c>
       <c r="D21" s="10">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="E21" s="11">
-        <v>45964</v>
+        <v>45966</v>
       </c>
       <c r="F21" s="11">
-        <f t="shared" si="3"/>
-        <v>45996</v>
-      </c>
-      <c r="G21" s="44" t="str" cm="1">
+        <f t="shared" si="10"/>
+        <v>46000</v>
+      </c>
+      <c r="G21" s="37" t="str" cm="1">
         <f t="array" ref="G21">_xlfn.TEXTJOIN(", ", TRUE, IF(담당자!C19:I19="O", 담당자!C$2:I$2, ""))</f>
         <v>팀 전체</v>
       </c>
@@ -2894,75 +3252,82 @@
       <c r="I21" s="12"/>
       <c r="J21" s="12"/>
       <c r="K21" s="12"/>
-      <c r="L21" s="36"/>
-      <c r="M21" s="37"/>
-      <c r="N21" s="12"/>
-      <c r="O21" s="12"/>
-      <c r="P21" s="12"/>
-      <c r="Q21" s="12"/>
+      <c r="L21" s="33"/>
+      <c r="M21" s="34"/>
+      <c r="N21" s="68"/>
+      <c r="O21" s="71"/>
+      <c r="P21" s="71"/>
+      <c r="Q21" s="69"/>
       <c r="R21" s="12"/>
-      <c r="S21" s="36"/>
-      <c r="T21" s="37"/>
+      <c r="S21" s="33"/>
+      <c r="T21" s="34"/>
       <c r="U21" s="12"/>
       <c r="V21" s="12"/>
       <c r="W21" s="12"/>
       <c r="X21" s="12"/>
       <c r="Y21" s="12"/>
-      <c r="Z21" s="36"/>
-      <c r="AA21" s="37"/>
+      <c r="Z21" s="33"/>
+      <c r="AA21" s="34"/>
       <c r="AB21" s="12"/>
       <c r="AC21" s="12"/>
       <c r="AD21" s="12"/>
       <c r="AE21" s="12"/>
       <c r="AF21" s="12"/>
-      <c r="AG21" s="36"/>
-      <c r="AH21" s="37"/>
+      <c r="AG21" s="33"/>
+      <c r="AH21" s="34"/>
       <c r="AI21" s="12"/>
       <c r="AJ21" s="12"/>
       <c r="AK21" s="12"/>
       <c r="AL21" s="12"/>
       <c r="AM21" s="12"/>
-      <c r="AN21" s="36"/>
-      <c r="AO21" s="37"/>
+      <c r="AN21" s="33"/>
+      <c r="AO21" s="34"/>
       <c r="AP21" s="12"/>
       <c r="AQ21" s="12"/>
       <c r="AR21" s="12"/>
       <c r="AS21" s="12"/>
       <c r="AT21" s="12"/>
-      <c r="AU21" s="36"/>
-      <c r="AV21" s="37"/>
+      <c r="AU21" s="33"/>
+      <c r="AV21" s="34"/>
       <c r="AW21" s="12"/>
       <c r="AX21" s="12"/>
       <c r="AY21" s="12"/>
       <c r="AZ21" s="12"/>
       <c r="BA21" s="12"/>
-      <c r="BB21" s="36"/>
-      <c r="BC21" s="37"/>
+      <c r="BB21" s="33"/>
+      <c r="BC21" s="34"/>
       <c r="BD21" s="12"/>
       <c r="BE21" s="12"/>
       <c r="BF21" s="12"/>
       <c r="BG21" s="12"/>
       <c r="BH21" s="12"/>
-    </row>
-    <row r="22" spans="1:60" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="48"/>
-      <c r="B22" s="21" t="s">
+      <c r="BI21" s="33"/>
+      <c r="BJ21" s="34"/>
+      <c r="BK21" s="12"/>
+      <c r="BL21" s="12"/>
+      <c r="BM21" s="12"/>
+      <c r="BN21" s="12"/>
+      <c r="BO21" s="12"/>
+    </row>
+    <row r="22" spans="1:67" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="65"/>
+      <c r="B22" s="63" t="s">
         <v>37</v>
       </c>
-      <c r="C22" s="45">
+      <c r="C22" s="38">
         <v>0</v>
       </c>
       <c r="D22" s="10">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="E22" s="11">
-        <v>45964</v>
+        <v>45966</v>
       </c>
       <c r="F22" s="11">
-        <f t="shared" si="3"/>
-        <v>45996</v>
-      </c>
-      <c r="G22" s="44" t="str" cm="1">
+        <f t="shared" si="10"/>
+        <v>46000</v>
+      </c>
+      <c r="G22" s="37" t="str" cm="1">
         <f t="array" ref="G22">_xlfn.TEXTJOIN(", ", TRUE, IF(담당자!C20:I20="O", 담당자!C$2:I$2, ""))</f>
         <v>팀 전체</v>
       </c>
@@ -2970,62 +3335,69 @@
       <c r="I22" s="12"/>
       <c r="J22" s="12"/>
       <c r="K22" s="12"/>
-      <c r="L22" s="36"/>
-      <c r="M22" s="37"/>
-      <c r="N22" s="12"/>
-      <c r="O22" s="12"/>
-      <c r="P22" s="12"/>
-      <c r="Q22" s="12"/>
+      <c r="L22" s="33"/>
+      <c r="M22" s="34"/>
+      <c r="N22" s="68"/>
+      <c r="O22" s="71"/>
+      <c r="P22" s="71"/>
+      <c r="Q22" s="69"/>
       <c r="R22" s="12"/>
-      <c r="S22" s="36"/>
-      <c r="T22" s="37"/>
+      <c r="S22" s="33"/>
+      <c r="T22" s="34"/>
       <c r="U22" s="12"/>
       <c r="V22" s="12"/>
       <c r="W22" s="12"/>
       <c r="X22" s="12"/>
       <c r="Y22" s="12"/>
-      <c r="Z22" s="36"/>
-      <c r="AA22" s="37"/>
+      <c r="Z22" s="33"/>
+      <c r="AA22" s="34"/>
       <c r="AB22" s="12"/>
       <c r="AC22" s="12"/>
       <c r="AD22" s="12"/>
       <c r="AE22" s="12"/>
       <c r="AF22" s="12"/>
-      <c r="AG22" s="36"/>
-      <c r="AH22" s="37"/>
+      <c r="AG22" s="33"/>
+      <c r="AH22" s="34"/>
       <c r="AI22" s="12"/>
       <c r="AJ22" s="12"/>
       <c r="AK22" s="12"/>
       <c r="AL22" s="12"/>
       <c r="AM22" s="12"/>
-      <c r="AN22" s="36"/>
-      <c r="AO22" s="37"/>
+      <c r="AN22" s="33"/>
+      <c r="AO22" s="34"/>
       <c r="AP22" s="12"/>
       <c r="AQ22" s="12"/>
       <c r="AR22" s="12"/>
       <c r="AS22" s="12"/>
       <c r="AT22" s="12"/>
-      <c r="AU22" s="36"/>
-      <c r="AV22" s="37"/>
+      <c r="AU22" s="33"/>
+      <c r="AV22" s="34"/>
       <c r="AW22" s="12"/>
       <c r="AX22" s="12"/>
       <c r="AY22" s="12"/>
       <c r="AZ22" s="12"/>
       <c r="BA22" s="12"/>
-      <c r="BB22" s="36"/>
-      <c r="BC22" s="37"/>
+      <c r="BB22" s="33"/>
+      <c r="BC22" s="34"/>
       <c r="BD22" s="12"/>
       <c r="BE22" s="12"/>
       <c r="BF22" s="12"/>
       <c r="BG22" s="12"/>
       <c r="BH22" s="12"/>
-    </row>
-    <row r="23" spans="1:60" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="48"/>
-      <c r="B23" s="19" t="s">
+      <c r="BI22" s="33"/>
+      <c r="BJ22" s="34"/>
+      <c r="BK22" s="12"/>
+      <c r="BL22" s="12"/>
+      <c r="BM22" s="12"/>
+      <c r="BN22" s="12"/>
+      <c r="BO22" s="12"/>
+    </row>
+    <row r="23" spans="1:67" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="65"/>
+      <c r="B23" s="61" t="s">
         <v>31</v>
       </c>
-      <c r="C23" s="45">
+      <c r="C23" s="38">
         <f>IF(COUNTBLANK(C24:C25)=2, "", SUM(C24:C25)/COUNT(C24:C25))</f>
         <v>0</v>
       </c>
@@ -3035,13 +3407,13 @@
       </c>
       <c r="E23" s="11">
         <f>IF(COUNTA(E24:E25)=0,"", MIN(E24:E25))</f>
-        <v>45999</v>
+        <v>46000</v>
       </c>
       <c r="F23" s="11">
         <f>IF(COUNTBLANK(F24:F25)=2,"", MAX(F24:F25))</f>
-        <v>46001</v>
-      </c>
-      <c r="G23" s="44" t="str" cm="1">
+        <v>46002</v>
+      </c>
+      <c r="G23" s="39" t="str" cm="1">
         <f t="array" ref="G23">_xlfn.TEXTJOIN(", ", TRUE, IF(담당자!C21:I21="O", 담당자!C$2:I$2, ""))</f>
         <v/>
       </c>
@@ -3049,75 +3421,82 @@
       <c r="I23" s="12"/>
       <c r="J23" s="12"/>
       <c r="K23" s="12"/>
-      <c r="L23" s="36"/>
-      <c r="M23" s="37"/>
-      <c r="N23" s="12"/>
-      <c r="O23" s="12"/>
-      <c r="P23" s="12"/>
-      <c r="Q23" s="12"/>
+      <c r="L23" s="33"/>
+      <c r="M23" s="34"/>
+      <c r="N23" s="68"/>
+      <c r="O23" s="71"/>
+      <c r="P23" s="71"/>
+      <c r="Q23" s="69"/>
       <c r="R23" s="12"/>
-      <c r="S23" s="36"/>
-      <c r="T23" s="37"/>
+      <c r="S23" s="33"/>
+      <c r="T23" s="34"/>
       <c r="U23" s="12"/>
       <c r="V23" s="12"/>
       <c r="W23" s="12"/>
       <c r="X23" s="12"/>
       <c r="Y23" s="12"/>
-      <c r="Z23" s="36"/>
-      <c r="AA23" s="37"/>
+      <c r="Z23" s="33"/>
+      <c r="AA23" s="34"/>
       <c r="AB23" s="12"/>
       <c r="AC23" s="12"/>
       <c r="AD23" s="12"/>
       <c r="AE23" s="12"/>
       <c r="AF23" s="12"/>
-      <c r="AG23" s="36"/>
-      <c r="AH23" s="37"/>
+      <c r="AG23" s="33"/>
+      <c r="AH23" s="34"/>
       <c r="AI23" s="12"/>
       <c r="AJ23" s="12"/>
       <c r="AK23" s="12"/>
       <c r="AL23" s="12"/>
       <c r="AM23" s="12"/>
-      <c r="AN23" s="36"/>
-      <c r="AO23" s="37"/>
+      <c r="AN23" s="33"/>
+      <c r="AO23" s="34"/>
       <c r="AP23" s="12"/>
       <c r="AQ23" s="12"/>
       <c r="AR23" s="12"/>
       <c r="AS23" s="12"/>
       <c r="AT23" s="12"/>
-      <c r="AU23" s="36"/>
-      <c r="AV23" s="37"/>
+      <c r="AU23" s="33"/>
+      <c r="AV23" s="34"/>
       <c r="AW23" s="12"/>
       <c r="AX23" s="12"/>
       <c r="AY23" s="12"/>
       <c r="AZ23" s="12"/>
       <c r="BA23" s="12"/>
-      <c r="BB23" s="36"/>
-      <c r="BC23" s="37"/>
+      <c r="BB23" s="33"/>
+      <c r="BC23" s="34"/>
       <c r="BD23" s="12"/>
       <c r="BE23" s="12"/>
       <c r="BF23" s="12"/>
       <c r="BG23" s="12"/>
       <c r="BH23" s="12"/>
-    </row>
-    <row r="24" spans="1:60" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="48"/>
-      <c r="B24" s="21" t="s">
+      <c r="BI23" s="33"/>
+      <c r="BJ23" s="34"/>
+      <c r="BK23" s="12"/>
+      <c r="BL23" s="12"/>
+      <c r="BM23" s="12"/>
+      <c r="BN23" s="12"/>
+      <c r="BO23" s="12"/>
+    </row>
+    <row r="24" spans="1:67" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A24" s="65"/>
+      <c r="B24" s="63" t="s">
         <v>38</v>
       </c>
-      <c r="C24" s="45">
+      <c r="C24" s="38">
         <v>0</v>
       </c>
       <c r="D24" s="10">
         <v>3</v>
       </c>
       <c r="E24" s="11">
-        <v>45999</v>
+        <v>46000</v>
       </c>
       <c r="F24" s="11">
-        <f t="shared" si="3"/>
-        <v>46001</v>
-      </c>
-      <c r="G24" s="44" t="str" cm="1">
+        <f t="shared" si="10"/>
+        <v>46002</v>
+      </c>
+      <c r="G24" s="37" t="str" cm="1">
         <f t="array" ref="G24">_xlfn.TEXTJOIN(", ", TRUE, IF(담당자!C22:I22="O", 담당자!C$2:I$2, ""))</f>
         <v>안규태</v>
       </c>
@@ -3125,154 +3504,168 @@
       <c r="I24" s="12"/>
       <c r="J24" s="12"/>
       <c r="K24" s="12"/>
-      <c r="L24" s="36"/>
-      <c r="M24" s="37"/>
-      <c r="N24" s="12"/>
-      <c r="O24" s="12"/>
-      <c r="P24" s="12"/>
-      <c r="Q24" s="12"/>
+      <c r="L24" s="33"/>
+      <c r="M24" s="34"/>
+      <c r="N24" s="68"/>
+      <c r="O24" s="71"/>
+      <c r="P24" s="71"/>
+      <c r="Q24" s="69"/>
       <c r="R24" s="12"/>
-      <c r="S24" s="36"/>
-      <c r="T24" s="37"/>
+      <c r="S24" s="33"/>
+      <c r="T24" s="34"/>
       <c r="U24" s="12"/>
       <c r="V24" s="12"/>
       <c r="W24" s="12"/>
       <c r="X24" s="12"/>
       <c r="Y24" s="12"/>
-      <c r="Z24" s="36"/>
-      <c r="AA24" s="37"/>
+      <c r="Z24" s="33"/>
+      <c r="AA24" s="34"/>
       <c r="AB24" s="12"/>
       <c r="AC24" s="12"/>
       <c r="AD24" s="12"/>
       <c r="AE24" s="12"/>
       <c r="AF24" s="12"/>
-      <c r="AG24" s="36"/>
-      <c r="AH24" s="37"/>
+      <c r="AG24" s="33"/>
+      <c r="AH24" s="34"/>
       <c r="AI24" s="12"/>
       <c r="AJ24" s="12"/>
       <c r="AK24" s="12"/>
       <c r="AL24" s="12"/>
       <c r="AM24" s="12"/>
-      <c r="AN24" s="36"/>
-      <c r="AO24" s="37"/>
+      <c r="AN24" s="33"/>
+      <c r="AO24" s="34"/>
       <c r="AP24" s="12"/>
       <c r="AQ24" s="12"/>
       <c r="AR24" s="12"/>
       <c r="AS24" s="12"/>
       <c r="AT24" s="12"/>
-      <c r="AU24" s="36"/>
-      <c r="AV24" s="37"/>
+      <c r="AU24" s="33"/>
+      <c r="AV24" s="34"/>
       <c r="AW24" s="12"/>
       <c r="AX24" s="12"/>
       <c r="AY24" s="12"/>
       <c r="AZ24" s="12"/>
       <c r="BA24" s="12"/>
-      <c r="BB24" s="36"/>
-      <c r="BC24" s="37"/>
+      <c r="BB24" s="33"/>
+      <c r="BC24" s="34"/>
       <c r="BD24" s="12"/>
       <c r="BE24" s="12"/>
       <c r="BF24" s="12"/>
       <c r="BG24" s="12"/>
       <c r="BH24" s="12"/>
-    </row>
-    <row r="25" spans="1:60" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="48"/>
-      <c r="B25" s="21" t="s">
+      <c r="BI24" s="33"/>
+      <c r="BJ24" s="34"/>
+      <c r="BK24" s="12"/>
+      <c r="BL24" s="12"/>
+      <c r="BM24" s="12"/>
+      <c r="BN24" s="12"/>
+      <c r="BO24" s="12"/>
+    </row>
+    <row r="25" spans="1:67" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A25" s="65"/>
+      <c r="B25" s="63" t="s">
         <v>39</v>
       </c>
-      <c r="C25" s="45">
+      <c r="C25" s="38">
         <v>0</v>
       </c>
       <c r="D25" s="10">
         <v>3</v>
       </c>
       <c r="E25" s="11">
-        <v>45999</v>
+        <v>46000</v>
       </c>
       <c r="F25" s="11">
-        <f t="shared" si="3"/>
-        <v>46001</v>
-      </c>
-      <c r="G25" s="44" t="str" cm="1">
+        <f t="shared" si="10"/>
+        <v>46002</v>
+      </c>
+      <c r="G25" s="37" t="str" cm="1">
         <f t="array" ref="G25">_xlfn.TEXTJOIN(", ", TRUE, IF(담당자!C23:I23="O", 담당자!C$2:I$2, ""))</f>
         <v>팀 전체</v>
       </c>
       <c r="H25" s="12"/>
       <c r="I25" s="12"/>
       <c r="J25" s="12"/>
-      <c r="K25" s="12"/>
-      <c r="L25" s="36"/>
-      <c r="M25" s="37"/>
-      <c r="N25" s="12"/>
-      <c r="O25" s="12"/>
-      <c r="P25" s="12"/>
-      <c r="Q25" s="12"/>
+      <c r="K25" s="60"/>
+      <c r="L25" s="33"/>
+      <c r="M25" s="34"/>
+      <c r="N25" s="68"/>
+      <c r="O25" s="71"/>
+      <c r="P25" s="71"/>
+      <c r="Q25" s="69"/>
       <c r="R25" s="12"/>
-      <c r="S25" s="36"/>
-      <c r="T25" s="37"/>
+      <c r="S25" s="33"/>
+      <c r="T25" s="34"/>
       <c r="U25" s="12"/>
       <c r="V25" s="12"/>
       <c r="W25" s="12"/>
       <c r="X25" s="12"/>
       <c r="Y25" s="12"/>
-      <c r="Z25" s="36"/>
-      <c r="AA25" s="37"/>
+      <c r="Z25" s="33"/>
+      <c r="AA25" s="34"/>
       <c r="AB25" s="12"/>
       <c r="AC25" s="12"/>
       <c r="AD25" s="12"/>
       <c r="AE25" s="12"/>
       <c r="AF25" s="12"/>
-      <c r="AG25" s="36"/>
-      <c r="AH25" s="37"/>
+      <c r="AG25" s="33"/>
+      <c r="AH25" s="34"/>
       <c r="AI25" s="12"/>
       <c r="AJ25" s="12"/>
       <c r="AK25" s="12"/>
       <c r="AL25" s="12"/>
       <c r="AM25" s="12"/>
-      <c r="AN25" s="36"/>
-      <c r="AO25" s="37"/>
+      <c r="AN25" s="33"/>
+      <c r="AO25" s="34"/>
       <c r="AP25" s="12"/>
       <c r="AQ25" s="12"/>
       <c r="AR25" s="12"/>
       <c r="AS25" s="12"/>
       <c r="AT25" s="12"/>
-      <c r="AU25" s="36"/>
-      <c r="AV25" s="37"/>
+      <c r="AU25" s="33"/>
+      <c r="AV25" s="34"/>
       <c r="AW25" s="12"/>
       <c r="AX25" s="12"/>
       <c r="AY25" s="12"/>
       <c r="AZ25" s="12"/>
       <c r="BA25" s="12"/>
-      <c r="BB25" s="36"/>
-      <c r="BC25" s="37"/>
+      <c r="BB25" s="33"/>
+      <c r="BC25" s="34"/>
       <c r="BD25" s="12"/>
       <c r="BE25" s="12"/>
       <c r="BF25" s="12"/>
       <c r="BG25" s="12"/>
       <c r="BH25" s="12"/>
-    </row>
-    <row r="26" spans="1:60" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="48"/>
-      <c r="B26" s="19" t="s">
+      <c r="BI25" s="33"/>
+      <c r="BJ25" s="34"/>
+      <c r="BK25" s="12"/>
+      <c r="BL25" s="12"/>
+      <c r="BM25" s="12"/>
+      <c r="BN25" s="12"/>
+      <c r="BO25" s="12"/>
+    </row>
+    <row r="26" spans="1:67" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A26" s="65"/>
+      <c r="B26" s="61" t="s">
         <v>40</v>
       </c>
-      <c r="C26" s="45">
+      <c r="C26" s="38">
         <f>IF(COUNTBLANK(C27:C28)=2, "", SUM(C27:C28)/COUNT(C27:C28))</f>
         <v>0</v>
       </c>
       <c r="D26" s="10">
         <f>IF(AND(F26&lt;&gt;"", E26&lt;&gt;""), F26-E26+1, "")</f>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E26" s="11">
         <f>IF(COUNTA(E27:E28)=0,"", MIN(E27:E28))</f>
-        <v>46001</v>
+        <v>46002</v>
       </c>
       <c r="F26" s="11">
         <f>IF(COUNTBLANK(F27:F28)=2,"", MAX(F27:F28))</f>
         <v>46003</v>
       </c>
-      <c r="G26" s="46" t="str" cm="1">
+      <c r="G26" s="39" t="str" cm="1">
         <f t="array" ref="G26">_xlfn.TEXTJOIN(", ", TRUE, IF(담당자!C24:I24="O", 담당자!C$2:I$2, ""))</f>
         <v/>
       </c>
@@ -3280,397 +3673,773 @@
       <c r="I26" s="12"/>
       <c r="J26" s="12"/>
       <c r="K26" s="12"/>
-      <c r="L26" s="36"/>
-      <c r="M26" s="37"/>
-      <c r="N26" s="12"/>
-      <c r="O26" s="12"/>
-      <c r="P26" s="12"/>
-      <c r="Q26" s="12"/>
+      <c r="L26" s="33"/>
+      <c r="M26" s="34"/>
+      <c r="N26" s="68"/>
+      <c r="O26" s="71"/>
+      <c r="P26" s="71"/>
+      <c r="Q26" s="69"/>
       <c r="R26" s="12"/>
-      <c r="S26" s="36"/>
-      <c r="T26" s="37"/>
+      <c r="S26" s="33"/>
+      <c r="T26" s="34"/>
       <c r="U26" s="12"/>
       <c r="V26" s="12"/>
       <c r="W26" s="12"/>
       <c r="X26" s="12"/>
       <c r="Y26" s="12"/>
-      <c r="Z26" s="36"/>
-      <c r="AA26" s="37"/>
+      <c r="Z26" s="33"/>
+      <c r="AA26" s="34"/>
       <c r="AB26" s="12"/>
       <c r="AC26" s="12"/>
       <c r="AD26" s="12"/>
       <c r="AE26" s="12"/>
       <c r="AF26" s="12"/>
-      <c r="AG26" s="36"/>
-      <c r="AH26" s="37"/>
+      <c r="AG26" s="33"/>
+      <c r="AH26" s="34"/>
       <c r="AI26" s="12"/>
       <c r="AJ26" s="12"/>
       <c r="AK26" s="12"/>
       <c r="AL26" s="12"/>
       <c r="AM26" s="12"/>
-      <c r="AN26" s="36"/>
-      <c r="AO26" s="37"/>
+      <c r="AN26" s="33"/>
+      <c r="AO26" s="34"/>
       <c r="AP26" s="12"/>
       <c r="AQ26" s="12"/>
       <c r="AR26" s="12"/>
       <c r="AS26" s="12"/>
       <c r="AT26" s="12"/>
-      <c r="AU26" s="36"/>
-      <c r="AV26" s="37"/>
+      <c r="AU26" s="33"/>
+      <c r="AV26" s="34"/>
       <c r="AW26" s="12"/>
       <c r="AX26" s="12"/>
       <c r="AY26" s="12"/>
       <c r="AZ26" s="12"/>
       <c r="BA26" s="12"/>
-      <c r="BB26" s="36"/>
-      <c r="BC26" s="37"/>
+      <c r="BB26" s="33"/>
+      <c r="BC26" s="34"/>
       <c r="BD26" s="12"/>
       <c r="BE26" s="12"/>
       <c r="BF26" s="12"/>
       <c r="BG26" s="12"/>
       <c r="BH26" s="12"/>
-    </row>
-    <row r="27" spans="1:60" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="48"/>
-      <c r="B27" s="21" t="s">
+      <c r="BI26" s="33"/>
+      <c r="BJ26" s="34"/>
+      <c r="BK26" s="12"/>
+      <c r="BL26" s="12"/>
+      <c r="BM26" s="12"/>
+      <c r="BN26" s="12"/>
+      <c r="BO26" s="12"/>
+    </row>
+    <row r="27" spans="1:67" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A27" s="65"/>
+      <c r="B27" s="63" t="s">
         <v>41</v>
       </c>
-      <c r="C27" s="45">
+      <c r="C27" s="38">
         <v>0</v>
       </c>
       <c r="D27" s="10">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E27" s="11">
-        <v>46001</v>
+        <v>46002</v>
       </c>
       <c r="F27" s="11">
-        <f t="shared" si="3"/>
+        <f t="shared" si="10"/>
         <v>46003</v>
       </c>
-      <c r="G27" s="44" t="str" cm="1">
+      <c r="G27" s="37" t="str" cm="1">
         <f t="array" ref="G27">_xlfn.TEXTJOIN(", ", TRUE, IF(담당자!C25:I25="O", 담당자!C$2:I$2, ""))</f>
-        <v>안규태</v>
+        <v>팀 전체</v>
       </c>
       <c r="H27" s="12"/>
       <c r="I27" s="12"/>
       <c r="J27" s="12"/>
       <c r="K27" s="12"/>
-      <c r="L27" s="36"/>
-      <c r="M27" s="37"/>
-      <c r="N27" s="12"/>
-      <c r="O27" s="12"/>
-      <c r="P27" s="12"/>
-      <c r="Q27" s="12"/>
+      <c r="L27" s="33"/>
+      <c r="M27" s="34"/>
+      <c r="N27" s="68"/>
+      <c r="O27" s="71"/>
+      <c r="P27" s="71"/>
+      <c r="Q27" s="69"/>
       <c r="R27" s="12"/>
-      <c r="S27" s="36"/>
-      <c r="T27" s="37"/>
+      <c r="S27" s="33"/>
+      <c r="T27" s="34"/>
       <c r="U27" s="12"/>
       <c r="V27" s="12"/>
       <c r="W27" s="12"/>
       <c r="X27" s="12"/>
       <c r="Y27" s="12"/>
-      <c r="Z27" s="36"/>
-      <c r="AA27" s="37"/>
+      <c r="Z27" s="33"/>
+      <c r="AA27" s="34"/>
       <c r="AB27" s="12"/>
       <c r="AC27" s="12"/>
       <c r="AD27" s="12"/>
       <c r="AE27" s="12"/>
       <c r="AF27" s="12"/>
-      <c r="AG27" s="36"/>
-      <c r="AH27" s="37"/>
+      <c r="AG27" s="33"/>
+      <c r="AH27" s="34"/>
       <c r="AI27" s="12"/>
       <c r="AJ27" s="12"/>
       <c r="AK27" s="12"/>
       <c r="AL27" s="12"/>
       <c r="AM27" s="12"/>
-      <c r="AN27" s="36"/>
-      <c r="AO27" s="37"/>
+      <c r="AN27" s="33"/>
+      <c r="AO27" s="34"/>
       <c r="AP27" s="12"/>
       <c r="AQ27" s="12"/>
       <c r="AR27" s="12"/>
       <c r="AS27" s="12"/>
       <c r="AT27" s="12"/>
-      <c r="AU27" s="36"/>
-      <c r="AV27" s="37"/>
+      <c r="AU27" s="33"/>
+      <c r="AV27" s="34"/>
       <c r="AW27" s="12"/>
       <c r="AX27" s="12"/>
       <c r="AY27" s="12"/>
       <c r="AZ27" s="12"/>
       <c r="BA27" s="12"/>
-      <c r="BB27" s="36"/>
-      <c r="BC27" s="37"/>
+      <c r="BB27" s="33"/>
+      <c r="BC27" s="34"/>
       <c r="BD27" s="12"/>
       <c r="BE27" s="12"/>
       <c r="BF27" s="12"/>
       <c r="BG27" s="12"/>
       <c r="BH27" s="12"/>
-    </row>
-    <row r="28" spans="1:60" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="49"/>
-      <c r="B28" s="21" t="s">
+      <c r="BI27" s="33"/>
+      <c r="BJ27" s="34"/>
+      <c r="BK27" s="12"/>
+      <c r="BL27" s="12"/>
+      <c r="BM27" s="12"/>
+      <c r="BN27" s="12"/>
+      <c r="BO27" s="12"/>
+    </row>
+    <row r="28" spans="1:67" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A28" s="65"/>
+      <c r="B28" s="63" t="s">
         <v>42</v>
       </c>
-      <c r="C28" s="45">
+      <c r="C28" s="38">
         <v>0</v>
       </c>
       <c r="D28" s="10">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E28" s="11">
-        <v>46001</v>
+        <v>46002</v>
       </c>
       <c r="F28" s="11">
-        <f t="shared" si="3"/>
+        <f t="shared" si="10"/>
         <v>46003</v>
       </c>
-      <c r="G28" s="44" t="str" cm="1">
+      <c r="G28" s="37" t="str" cm="1">
         <f t="array" ref="G28">_xlfn.TEXTJOIN(", ", TRUE, IF(담당자!C26:I26="O", 담당자!C$2:I$2, ""))</f>
-        <v>안규태</v>
+        <v>팀 전체</v>
       </c>
       <c r="H28" s="12"/>
       <c r="I28" s="12"/>
       <c r="J28" s="12"/>
       <c r="K28" s="12"/>
-      <c r="L28" s="36"/>
-      <c r="M28" s="37"/>
-      <c r="N28" s="12"/>
-      <c r="O28" s="12"/>
-      <c r="P28" s="12"/>
-      <c r="Q28" s="12"/>
+      <c r="L28" s="33"/>
+      <c r="M28" s="34"/>
+      <c r="N28" s="68"/>
+      <c r="O28" s="71"/>
+      <c r="P28" s="71"/>
+      <c r="Q28" s="69"/>
       <c r="R28" s="12"/>
-      <c r="S28" s="36"/>
-      <c r="T28" s="37"/>
+      <c r="S28" s="33"/>
+      <c r="T28" s="34"/>
       <c r="U28" s="12"/>
       <c r="V28" s="12"/>
       <c r="W28" s="12"/>
       <c r="X28" s="12"/>
       <c r="Y28" s="12"/>
-      <c r="Z28" s="36"/>
-      <c r="AA28" s="37"/>
+      <c r="Z28" s="33"/>
+      <c r="AA28" s="34"/>
       <c r="AB28" s="12"/>
       <c r="AC28" s="12"/>
       <c r="AD28" s="12"/>
       <c r="AE28" s="12"/>
       <c r="AF28" s="12"/>
-      <c r="AG28" s="36"/>
-      <c r="AH28" s="37"/>
+      <c r="AG28" s="33"/>
+      <c r="AH28" s="34"/>
       <c r="AI28" s="12"/>
       <c r="AJ28" s="12"/>
       <c r="AK28" s="12"/>
       <c r="AL28" s="12"/>
       <c r="AM28" s="12"/>
-      <c r="AN28" s="36"/>
-      <c r="AO28" s="37"/>
+      <c r="AN28" s="33"/>
+      <c r="AO28" s="34"/>
       <c r="AP28" s="12"/>
       <c r="AQ28" s="12"/>
       <c r="AR28" s="12"/>
       <c r="AS28" s="12"/>
       <c r="AT28" s="12"/>
-      <c r="AU28" s="36"/>
-      <c r="AV28" s="37"/>
+      <c r="AU28" s="33"/>
+      <c r="AV28" s="34"/>
       <c r="AW28" s="12"/>
       <c r="AX28" s="12"/>
       <c r="AY28" s="12"/>
       <c r="AZ28" s="12"/>
       <c r="BA28" s="12"/>
-      <c r="BB28" s="36"/>
-      <c r="BC28" s="37"/>
+      <c r="BB28" s="33"/>
+      <c r="BC28" s="34"/>
       <c r="BD28" s="12"/>
       <c r="BE28" s="12"/>
       <c r="BF28" s="12"/>
       <c r="BG28" s="12"/>
       <c r="BH28" s="12"/>
-    </row>
-    <row r="29" spans="1:60" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E29" s="14"/>
-      <c r="F29" s="14"/>
-      <c r="H29" s="13"/>
-      <c r="I29" s="13"/>
-      <c r="J29" s="13"/>
-      <c r="K29" s="13"/>
-      <c r="L29" s="26"/>
-      <c r="M29" s="30"/>
-      <c r="N29" s="13"/>
-      <c r="O29" s="13"/>
-      <c r="P29" s="13"/>
-      <c r="Q29" s="13"/>
-      <c r="R29" s="13"/>
-      <c r="S29" s="26"/>
-      <c r="T29" s="30"/>
-      <c r="U29" s="13"/>
-      <c r="V29" s="13"/>
-      <c r="W29" s="13"/>
-    </row>
-    <row r="30" spans="1:60" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E30" s="14"/>
-      <c r="F30" s="14"/>
-      <c r="H30" s="13"/>
-      <c r="I30" s="13"/>
-      <c r="J30" s="13"/>
-      <c r="K30" s="13"/>
-      <c r="L30" s="26"/>
-      <c r="M30" s="30"/>
-      <c r="N30" s="13"/>
-      <c r="O30" s="13"/>
-      <c r="P30" s="13"/>
-      <c r="Q30" s="13"/>
-      <c r="R30" s="13"/>
-      <c r="S30" s="26"/>
-      <c r="T30" s="30"/>
-      <c r="U30" s="13"/>
-      <c r="V30" s="13"/>
-      <c r="W30" s="13"/>
-    </row>
-    <row r="31" spans="1:60" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E31" s="14"/>
-      <c r="F31" s="14"/>
-      <c r="H31" s="13"/>
-      <c r="I31" s="13"/>
-      <c r="J31" s="13"/>
-      <c r="K31" s="13"/>
-      <c r="L31" s="26"/>
-      <c r="M31" s="30"/>
-      <c r="N31" s="13"/>
-      <c r="O31" s="13"/>
-      <c r="P31" s="13"/>
-      <c r="Q31" s="13"/>
-      <c r="R31" s="13"/>
-      <c r="S31" s="26"/>
-      <c r="T31" s="30"/>
-      <c r="U31" s="13"/>
-      <c r="V31" s="13"/>
-      <c r="W31" s="13"/>
-    </row>
-    <row r="32" spans="1:60" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E32" s="14"/>
-      <c r="F32" s="14"/>
-      <c r="H32" s="13"/>
-      <c r="I32" s="13"/>
-      <c r="J32" s="13"/>
-      <c r="K32" s="13"/>
-      <c r="L32" s="26"/>
-      <c r="M32" s="30"/>
-      <c r="N32" s="13"/>
-      <c r="O32" s="13"/>
-      <c r="P32" s="13"/>
-      <c r="Q32" s="13"/>
-      <c r="R32" s="13"/>
-      <c r="S32" s="26"/>
-      <c r="T32" s="30"/>
-      <c r="U32" s="13"/>
-      <c r="V32" s="13"/>
-      <c r="W32" s="13"/>
-    </row>
-    <row r="33" spans="5:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E33" s="14"/>
-      <c r="F33" s="14"/>
-      <c r="H33" s="13"/>
-      <c r="I33" s="13"/>
-      <c r="J33" s="13"/>
-      <c r="K33" s="13"/>
-      <c r="L33" s="26"/>
-      <c r="M33" s="30"/>
-      <c r="N33" s="13"/>
-      <c r="O33" s="13"/>
-      <c r="P33" s="13"/>
-      <c r="Q33" s="13"/>
-      <c r="R33" s="13"/>
-      <c r="S33" s="26"/>
-      <c r="T33" s="30"/>
-      <c r="U33" s="13"/>
-      <c r="V33" s="13"/>
-      <c r="W33" s="13"/>
-    </row>
-    <row r="34" spans="5:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="BI28" s="33"/>
+      <c r="BJ28" s="34"/>
+      <c r="BK28" s="12"/>
+      <c r="BL28" s="12"/>
+      <c r="BM28" s="12"/>
+      <c r="BN28" s="12"/>
+      <c r="BO28" s="12"/>
+    </row>
+    <row r="29" spans="1:67" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A29" s="65"/>
+      <c r="B29" s="61" t="s">
+        <v>47</v>
+      </c>
+      <c r="C29" s="38">
+        <f>IF(COUNTBLANK(C30:C31)=2, "", SUM(C30:C31)/COUNT(C30:C31))</f>
+        <v>0</v>
+      </c>
+      <c r="D29" s="10">
+        <f>IF(AND(F29&lt;&gt;"", E29&lt;&gt;""), F29-E29+1, "")</f>
+        <v>5</v>
+      </c>
+      <c r="E29" s="11">
+        <f>IF(COUNTA(E30:E31)=0,"", MIN(E30:E31))</f>
+        <v>46006</v>
+      </c>
+      <c r="F29" s="11">
+        <f>IF(COUNTBLANK(F30:F31)=2,"", MAX(F30:F31))</f>
+        <v>46010</v>
+      </c>
+      <c r="G29" s="39" t="str" cm="1">
+        <f t="array" ref="G29">_xlfn.TEXTJOIN(", ", TRUE, IF(담당자!C24:I24="O", 담당자!C$2:I$2, ""))</f>
+        <v/>
+      </c>
+      <c r="H29" s="12"/>
+      <c r="I29" s="12"/>
+      <c r="J29" s="12"/>
+      <c r="K29" s="12"/>
+      <c r="L29" s="33"/>
+      <c r="M29" s="34"/>
+      <c r="N29" s="68"/>
+      <c r="O29" s="71"/>
+      <c r="P29" s="71"/>
+      <c r="Q29" s="69"/>
+      <c r="R29" s="12"/>
+      <c r="S29" s="33"/>
+      <c r="T29" s="34"/>
+      <c r="U29" s="12"/>
+      <c r="V29" s="12"/>
+      <c r="W29" s="12"/>
+      <c r="X29" s="12"/>
+      <c r="Y29" s="12"/>
+      <c r="Z29" s="33"/>
+      <c r="AA29" s="34"/>
+      <c r="AB29" s="12"/>
+      <c r="AC29" s="12"/>
+      <c r="AD29" s="12"/>
+      <c r="AE29" s="12"/>
+      <c r="AF29" s="12"/>
+      <c r="AG29" s="33"/>
+      <c r="AH29" s="34"/>
+      <c r="AI29" s="12"/>
+      <c r="AJ29" s="12"/>
+      <c r="AK29" s="12"/>
+      <c r="AL29" s="12"/>
+      <c r="AM29" s="12"/>
+      <c r="AN29" s="33"/>
+      <c r="AO29" s="34"/>
+      <c r="AP29" s="12"/>
+      <c r="AQ29" s="12"/>
+      <c r="AR29" s="12"/>
+      <c r="AS29" s="12"/>
+      <c r="AT29" s="12"/>
+      <c r="AU29" s="33"/>
+      <c r="AV29" s="34"/>
+      <c r="AW29" s="12"/>
+      <c r="AX29" s="12"/>
+      <c r="AY29" s="12"/>
+      <c r="AZ29" s="12"/>
+      <c r="BA29" s="12"/>
+      <c r="BB29" s="33"/>
+      <c r="BC29" s="34"/>
+      <c r="BD29" s="12"/>
+      <c r="BE29" s="12"/>
+      <c r="BF29" s="12"/>
+      <c r="BG29" s="12"/>
+      <c r="BH29" s="12"/>
+      <c r="BI29" s="33"/>
+      <c r="BJ29" s="34"/>
+      <c r="BK29" s="12"/>
+      <c r="BL29" s="12"/>
+      <c r="BM29" s="12"/>
+      <c r="BN29" s="12"/>
+      <c r="BO29" s="12"/>
+    </row>
+    <row r="30" spans="1:67" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A30" s="65"/>
+      <c r="B30" s="63" t="s">
+        <v>48</v>
+      </c>
+      <c r="C30" s="38">
+        <v>0</v>
+      </c>
+      <c r="D30" s="10">
+        <v>5</v>
+      </c>
+      <c r="E30" s="11">
+        <v>46006</v>
+      </c>
+      <c r="F30" s="11">
+        <f t="shared" si="10"/>
+        <v>46010</v>
+      </c>
+      <c r="G30" s="37" t="str" cm="1">
+        <f t="array" ref="G30">_xlfn.TEXTJOIN(", ", TRUE, IF(담당자!C28:I28="O", 담당자!C$2:I$2, ""))</f>
+        <v>팀 전체</v>
+      </c>
+      <c r="H30" s="12"/>
+      <c r="I30" s="12"/>
+      <c r="J30" s="12"/>
+      <c r="K30" s="12"/>
+      <c r="L30" s="33"/>
+      <c r="M30" s="34"/>
+      <c r="N30" s="68"/>
+      <c r="O30" s="71"/>
+      <c r="P30" s="71"/>
+      <c r="Q30" s="69"/>
+      <c r="R30" s="12"/>
+      <c r="S30" s="33"/>
+      <c r="T30" s="34"/>
+      <c r="U30" s="12"/>
+      <c r="V30" s="12"/>
+      <c r="W30" s="12"/>
+      <c r="X30" s="12"/>
+      <c r="Y30" s="12"/>
+      <c r="Z30" s="33"/>
+      <c r="AA30" s="34"/>
+      <c r="AB30" s="12"/>
+      <c r="AC30" s="12"/>
+      <c r="AD30" s="12"/>
+      <c r="AE30" s="12"/>
+      <c r="AF30" s="12"/>
+      <c r="AG30" s="33"/>
+      <c r="AH30" s="34"/>
+      <c r="AI30" s="12"/>
+      <c r="AJ30" s="12"/>
+      <c r="AK30" s="12"/>
+      <c r="AL30" s="12"/>
+      <c r="AM30" s="12"/>
+      <c r="AN30" s="33"/>
+      <c r="AO30" s="34"/>
+      <c r="AP30" s="12"/>
+      <c r="AQ30" s="12"/>
+      <c r="AR30" s="12"/>
+      <c r="AS30" s="12"/>
+      <c r="AT30" s="12"/>
+      <c r="AU30" s="33"/>
+      <c r="AV30" s="34"/>
+      <c r="AW30" s="12"/>
+      <c r="AX30" s="12"/>
+      <c r="AY30" s="12"/>
+      <c r="AZ30" s="12"/>
+      <c r="BA30" s="12"/>
+      <c r="BB30" s="33"/>
+      <c r="BC30" s="34"/>
+      <c r="BD30" s="12"/>
+      <c r="BE30" s="12"/>
+      <c r="BF30" s="12"/>
+      <c r="BG30" s="12"/>
+      <c r="BH30" s="12"/>
+      <c r="BI30" s="33"/>
+      <c r="BJ30" s="34"/>
+      <c r="BK30" s="12"/>
+      <c r="BL30" s="12"/>
+      <c r="BM30" s="12"/>
+      <c r="BN30" s="12"/>
+      <c r="BO30" s="12"/>
+    </row>
+    <row r="31" spans="1:67" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A31" s="65"/>
+      <c r="B31" s="63" t="s">
+        <v>49</v>
+      </c>
+      <c r="C31" s="38">
+        <v>0</v>
+      </c>
+      <c r="D31" s="10">
+        <v>5</v>
+      </c>
+      <c r="E31" s="11">
+        <v>46006</v>
+      </c>
+      <c r="F31" s="11">
+        <f t="shared" si="10"/>
+        <v>46010</v>
+      </c>
+      <c r="G31" s="37" t="str" cm="1">
+        <f t="array" ref="G31">_xlfn.TEXTJOIN(", ", TRUE, IF(담당자!C29:I29="O", 담당자!C$2:I$2, ""))</f>
+        <v>팀 전체</v>
+      </c>
+      <c r="H31" s="12"/>
+      <c r="I31" s="12"/>
+      <c r="J31" s="12"/>
+      <c r="K31" s="12"/>
+      <c r="L31" s="33"/>
+      <c r="M31" s="34"/>
+      <c r="N31" s="68"/>
+      <c r="O31" s="71"/>
+      <c r="P31" s="71"/>
+      <c r="Q31" s="69"/>
+      <c r="R31" s="12"/>
+      <c r="S31" s="33"/>
+      <c r="T31" s="34"/>
+      <c r="U31" s="12"/>
+      <c r="V31" s="12"/>
+      <c r="W31" s="12"/>
+      <c r="X31" s="12"/>
+      <c r="Y31" s="12"/>
+      <c r="Z31" s="33"/>
+      <c r="AA31" s="34"/>
+      <c r="AB31" s="12"/>
+      <c r="AC31" s="12"/>
+      <c r="AD31" s="12"/>
+      <c r="AE31" s="12"/>
+      <c r="AF31" s="12"/>
+      <c r="AG31" s="33"/>
+      <c r="AH31" s="34"/>
+      <c r="AI31" s="12"/>
+      <c r="AJ31" s="12"/>
+      <c r="AK31" s="12"/>
+      <c r="AL31" s="12"/>
+      <c r="AM31" s="12"/>
+      <c r="AN31" s="33"/>
+      <c r="AO31" s="34"/>
+      <c r="AP31" s="12"/>
+      <c r="AQ31" s="12"/>
+      <c r="AR31" s="12"/>
+      <c r="AS31" s="12"/>
+      <c r="AT31" s="12"/>
+      <c r="AU31" s="33"/>
+      <c r="AV31" s="34"/>
+      <c r="AW31" s="12"/>
+      <c r="AX31" s="12"/>
+      <c r="AY31" s="12"/>
+      <c r="AZ31" s="12"/>
+      <c r="BA31" s="12"/>
+      <c r="BB31" s="33"/>
+      <c r="BC31" s="34"/>
+      <c r="BD31" s="12"/>
+      <c r="BE31" s="12"/>
+      <c r="BF31" s="12"/>
+      <c r="BG31" s="12"/>
+      <c r="BH31" s="12"/>
+      <c r="BI31" s="33"/>
+      <c r="BJ31" s="34"/>
+      <c r="BK31" s="12"/>
+      <c r="BL31" s="12"/>
+      <c r="BM31" s="12"/>
+      <c r="BN31" s="12"/>
+      <c r="BO31" s="12"/>
+    </row>
+    <row r="32" spans="1:67" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A32" s="65"/>
+      <c r="B32" s="61" t="s">
+        <v>50</v>
+      </c>
+      <c r="C32" s="38">
+        <f>IF(COUNTBLANK(C33:C33)=2, "", SUM(C33:C33)/COUNT(C33:C33))</f>
+        <v>0</v>
+      </c>
+      <c r="D32" s="10">
+        <f>IF(AND(F32&lt;&gt;"", E32&lt;&gt;""), F32-E32+1, "")</f>
+        <v>2</v>
+      </c>
+      <c r="E32" s="11">
+        <f>IF(COUNTA(E33:E33)=0,"", MIN(E33:E33))</f>
+        <v>45958</v>
+      </c>
+      <c r="F32" s="11">
+        <f>IF(COUNTBLANK(F33:F33)=2,"", MAX(F33:F33))</f>
+        <v>45959</v>
+      </c>
+      <c r="G32" s="39" t="str" cm="1">
+        <f t="array" ref="G32">_xlfn.TEXTJOIN(", ", TRUE, IF(담당자!C27:I27="O", 담당자!C$2:I$2, ""))</f>
+        <v/>
+      </c>
+      <c r="H32" s="12"/>
+      <c r="I32" s="12"/>
+      <c r="J32" s="12"/>
+      <c r="K32" s="12"/>
+      <c r="L32" s="33"/>
+      <c r="M32" s="34"/>
+      <c r="N32" s="68"/>
+      <c r="O32" s="71"/>
+      <c r="P32" s="71"/>
+      <c r="Q32" s="69"/>
+      <c r="R32" s="12"/>
+      <c r="S32" s="33"/>
+      <c r="T32" s="34"/>
+      <c r="U32" s="12"/>
+      <c r="V32" s="12"/>
+      <c r="W32" s="12"/>
+      <c r="X32" s="12"/>
+      <c r="Y32" s="12"/>
+      <c r="Z32" s="33"/>
+      <c r="AA32" s="34"/>
+      <c r="AB32" s="12"/>
+      <c r="AC32" s="12"/>
+      <c r="AD32" s="12"/>
+      <c r="AE32" s="12"/>
+      <c r="AF32" s="12"/>
+      <c r="AG32" s="33"/>
+      <c r="AH32" s="34"/>
+      <c r="AI32" s="12"/>
+      <c r="AJ32" s="12"/>
+      <c r="AK32" s="12"/>
+      <c r="AL32" s="12"/>
+      <c r="AM32" s="12"/>
+      <c r="AN32" s="33"/>
+      <c r="AO32" s="34"/>
+      <c r="AP32" s="12"/>
+      <c r="AQ32" s="12"/>
+      <c r="AR32" s="12"/>
+      <c r="AS32" s="12"/>
+      <c r="AT32" s="12"/>
+      <c r="AU32" s="33"/>
+      <c r="AV32" s="34"/>
+      <c r="AW32" s="12"/>
+      <c r="AX32" s="12"/>
+      <c r="AY32" s="12"/>
+      <c r="AZ32" s="12"/>
+      <c r="BA32" s="12"/>
+      <c r="BB32" s="33"/>
+      <c r="BC32" s="34"/>
+      <c r="BD32" s="12"/>
+      <c r="BE32" s="12"/>
+      <c r="BF32" s="12"/>
+      <c r="BG32" s="12"/>
+      <c r="BH32" s="12"/>
+      <c r="BI32" s="33"/>
+      <c r="BJ32" s="34"/>
+      <c r="BK32" s="12"/>
+      <c r="BL32" s="12"/>
+      <c r="BM32" s="12"/>
+      <c r="BN32" s="12"/>
+      <c r="BO32" s="12"/>
+    </row>
+    <row r="33" spans="1:67" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A33" s="66"/>
+      <c r="B33" s="63" t="s">
+        <v>51</v>
+      </c>
+      <c r="C33" s="38">
+        <v>0</v>
+      </c>
+      <c r="D33" s="10">
+        <v>2</v>
+      </c>
+      <c r="E33" s="11">
+        <v>45958</v>
+      </c>
+      <c r="F33" s="11">
+        <f t="shared" ref="F33" si="11">IF(AND(E33&lt;&gt;"", D33&lt;&gt;""), E33+D33-1, "")</f>
+        <v>45959</v>
+      </c>
+      <c r="G33" s="37" t="str" cm="1">
+        <f t="array" ref="G33">_xlfn.TEXTJOIN(", ", TRUE, IF(담당자!C28:I28="O", 담당자!C$2:I$2, ""))</f>
+        <v>팀 전체</v>
+      </c>
+      <c r="H33" s="12"/>
+      <c r="I33" s="12"/>
+      <c r="J33" s="12"/>
+      <c r="K33" s="12"/>
+      <c r="L33" s="33"/>
+      <c r="M33" s="34"/>
+      <c r="N33" s="68"/>
+      <c r="O33" s="71"/>
+      <c r="P33" s="71"/>
+      <c r="Q33" s="69"/>
+      <c r="R33" s="12"/>
+      <c r="S33" s="33"/>
+      <c r="T33" s="34"/>
+      <c r="U33" s="12"/>
+      <c r="V33" s="12"/>
+      <c r="W33" s="12"/>
+      <c r="X33" s="12"/>
+      <c r="Y33" s="12"/>
+      <c r="Z33" s="33"/>
+      <c r="AA33" s="34"/>
+      <c r="AB33" s="12"/>
+      <c r="AC33" s="12"/>
+      <c r="AD33" s="12"/>
+      <c r="AE33" s="12"/>
+      <c r="AF33" s="12"/>
+      <c r="AG33" s="33"/>
+      <c r="AH33" s="34"/>
+      <c r="AI33" s="12"/>
+      <c r="AJ33" s="12"/>
+      <c r="AK33" s="12"/>
+      <c r="AL33" s="12"/>
+      <c r="AM33" s="12"/>
+      <c r="AN33" s="33"/>
+      <c r="AO33" s="34"/>
+      <c r="AP33" s="12"/>
+      <c r="AQ33" s="12"/>
+      <c r="AR33" s="12"/>
+      <c r="AS33" s="12"/>
+      <c r="AT33" s="12"/>
+      <c r="AU33" s="33"/>
+      <c r="AV33" s="34"/>
+      <c r="AW33" s="12"/>
+      <c r="AX33" s="12"/>
+      <c r="AY33" s="12"/>
+      <c r="AZ33" s="12"/>
+      <c r="BA33" s="12"/>
+      <c r="BB33" s="33"/>
+      <c r="BC33" s="34"/>
+      <c r="BD33" s="12"/>
+      <c r="BE33" s="12"/>
+      <c r="BF33" s="12"/>
+      <c r="BG33" s="12"/>
+      <c r="BH33" s="12"/>
+      <c r="BI33" s="33"/>
+      <c r="BJ33" s="34"/>
+      <c r="BK33" s="12"/>
+      <c r="BL33" s="12"/>
+      <c r="BM33" s="12"/>
+      <c r="BN33" s="12"/>
+      <c r="BO33" s="12"/>
+    </row>
+    <row r="34" spans="1:67" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E34" s="14"/>
       <c r="F34" s="14"/>
       <c r="H34" s="13"/>
       <c r="I34" s="13"/>
       <c r="J34" s="13"/>
       <c r="K34" s="13"/>
-      <c r="L34" s="26"/>
-      <c r="M34" s="30"/>
+      <c r="L34" s="23"/>
+      <c r="M34" s="27"/>
       <c r="N34" s="13"/>
-      <c r="O34" s="13"/>
-      <c r="P34" s="13"/>
+      <c r="O34" s="67" t="s">
+        <v>46</v>
+      </c>
+      <c r="P34" s="67"/>
       <c r="Q34" s="13"/>
       <c r="R34" s="13"/>
-      <c r="S34" s="26"/>
-      <c r="T34" s="30"/>
+      <c r="S34" s="23"/>
+      <c r="T34" s="27"/>
       <c r="U34" s="13"/>
       <c r="V34" s="13"/>
       <c r="W34" s="13"/>
     </row>
-    <row r="35" spans="5:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:67" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E35" s="14"/>
       <c r="F35" s="14"/>
       <c r="H35" s="13"/>
       <c r="I35" s="13"/>
       <c r="J35" s="13"/>
       <c r="K35" s="13"/>
-      <c r="L35" s="26"/>
-      <c r="M35" s="30"/>
+      <c r="L35" s="23"/>
+      <c r="M35" s="27"/>
       <c r="N35" s="13"/>
       <c r="O35" s="13"/>
       <c r="P35" s="13"/>
       <c r="Q35" s="13"/>
       <c r="R35" s="13"/>
-      <c r="S35" s="26"/>
-      <c r="T35" s="30"/>
+      <c r="S35" s="23"/>
+      <c r="T35" s="27"/>
       <c r="U35" s="13"/>
       <c r="V35" s="13"/>
       <c r="W35" s="13"/>
     </row>
-    <row r="36" spans="5:23" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E36" s="15"/>
-      <c r="F36" s="15"/>
-    </row>
-    <row r="37" spans="5:23" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E37" s="15"/>
-      <c r="F37" s="15"/>
-    </row>
-    <row r="38" spans="5:23" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:67" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E36" s="14"/>
+      <c r="F36" s="14"/>
+      <c r="H36" s="13"/>
+      <c r="I36" s="13"/>
+      <c r="J36" s="13"/>
+      <c r="K36" s="13"/>
+      <c r="L36" s="23"/>
+      <c r="M36" s="27"/>
+      <c r="N36" s="13"/>
+      <c r="O36" s="13"/>
+      <c r="P36" s="13"/>
+      <c r="Q36" s="13"/>
+      <c r="R36" s="13"/>
+      <c r="S36" s="23"/>
+      <c r="T36" s="27"/>
+      <c r="U36" s="13"/>
+      <c r="V36" s="13"/>
+      <c r="W36" s="13"/>
+    </row>
+    <row r="37" spans="1:67" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E37" s="14"/>
+      <c r="F37" s="14"/>
+      <c r="H37" s="13"/>
+      <c r="I37" s="13"/>
+      <c r="J37" s="13"/>
+      <c r="K37" s="13"/>
+      <c r="L37" s="23"/>
+      <c r="M37" s="27"/>
+      <c r="N37" s="13"/>
+      <c r="O37" s="13"/>
+      <c r="P37" s="13"/>
+      <c r="Q37" s="13"/>
+      <c r="R37" s="13"/>
+      <c r="S37" s="23"/>
+      <c r="T37" s="27"/>
+      <c r="U37" s="13"/>
+      <c r="V37" s="13"/>
+      <c r="W37" s="13"/>
+    </row>
+    <row r="38" spans="1:67" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E38" s="15"/>
       <c r="F38" s="15"/>
     </row>
-    <row r="39" spans="5:23" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:67" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E39" s="15"/>
       <c r="F39" s="15"/>
     </row>
-    <row r="40" spans="5:23" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:67" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E40" s="15"/>
       <c r="F40" s="15"/>
     </row>
-    <row r="41" spans="5:23" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:67" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E41" s="15"/>
       <c r="F41" s="15"/>
     </row>
-    <row r="42" spans="5:23" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:67" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E42" s="15"/>
       <c r="F42" s="15"/>
     </row>
-    <row r="43" spans="5:23" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:67" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E43" s="15"/>
       <c r="F43" s="15"/>
     </row>
-    <row r="44" spans="5:23" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:67" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E44" s="15"/>
       <c r="F44" s="15"/>
     </row>
-    <row r="45" spans="5:23" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:67" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E45" s="15"/>
       <c r="F45" s="15"/>
     </row>
-    <row r="46" spans="5:23" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:67" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E46" s="15"/>
       <c r="F46" s="15"/>
     </row>
-    <row r="47" spans="5:23" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:67" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E47" s="15"/>
       <c r="F47" s="15"/>
     </row>
-    <row r="48" spans="5:23" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:67" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E48" s="15"/>
       <c r="F48" s="15"/>
     </row>
@@ -7481,12 +8250,19 @@
     <row r="1000" spans="5:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E1000" s="15"/>
       <c r="F1000" s="15"/>
+    </row>
+    <row r="1001" spans="5:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E1001" s="15"/>
+      <c r="F1001" s="15"/>
+    </row>
+    <row r="1002" spans="5:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E1002" s="15"/>
+      <c r="F1002" s="15"/>
     </row>
   </sheetData>
   <autoFilter ref="A3:F4" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <mergeCells count="12">
     <mergeCell ref="A5:A8"/>
-    <mergeCell ref="A9:A28"/>
     <mergeCell ref="E3:E4"/>
     <mergeCell ref="F3:F4"/>
     <mergeCell ref="A1:W1"/>
@@ -7497,16 +8273,30 @@
     <mergeCell ref="G3:G4"/>
     <mergeCell ref="C3:C4"/>
     <mergeCell ref="D3:D4"/>
+    <mergeCell ref="A9:A33"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
-  <conditionalFormatting sqref="H5:BH8 H10:BH13 H15:BH19 H21:BH22 H24:BH25 H27:BH28">
-    <cfRule type="expression" dxfId="1" priority="3">
+  <conditionalFormatting sqref="H5:BO8 H10:BO13 H15:BO19 H21:BO22 H24:BO25 H27:BO28 H30:BO31">
+    <cfRule type="expression" dxfId="4" priority="8">
       <formula>AND(AND($E5&lt;&gt;"", $F5&lt;&gt;""), AND(H$4&gt;=$E5, H$4&lt;=$F5))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H9:BH9 H14:BH14 H20:BH20 H23:BH23 H26:BH26">
-    <cfRule type="expression" dxfId="0" priority="1">
+  <conditionalFormatting sqref="H9:BO9 H14:BO14 H20:BO20 H23:BO23 H26:BO26 H29:BO29 BO32">
+    <cfRule type="expression" dxfId="3" priority="2">
       <formula>AND(AND($E9&lt;&gt;"", $F9&lt;&gt;""), AND(H$4&gt;=$E9, H$4&lt;=$F9))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H33:BO33">
+    <cfRule type="expression" dxfId="2" priority="1">
+      <formula>AND(AND($E33&lt;&gt;"", $F33&lt;&gt;""), AND(H$4&gt;=$E33, H$4&lt;=$F33))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H5:BO33">
+    <cfRule type="expression" dxfId="1" priority="10">
+      <formula>AND(H$4&lt;&gt;"",WEEKDAY(H$4)=1)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="0" priority="12">
+      <formula>AND(H$4&lt;&gt;"", WEEKDAY(H$4)=7)</formula>
     </cfRule>
   </conditionalFormatting>
   <printOptions horizontalCentered="1"/>
@@ -7516,7 +8306,8 @@
     <oddFooter>&amp;C&amp;P/</oddFooter>
   </headerFooter>
   <ignoredErrors>
-    <ignoredError sqref="F9 F14 F26 F23 F20" formula="1"/>
+    <ignoredError sqref="F9 F14 F26 F23 F20 F29 F32" formula="1"/>
+    <ignoredError sqref="E14 C14" formulaRange="1"/>
   </ignoredErrors>
 </worksheet>
 </file>
@@ -7577,10 +8368,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{56C0D8D0-467C-4774-A5B6-0AA22CA7CD72}">
-  <dimension ref="A1:I26"/>
+  <dimension ref="A1:I32"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="L11" sqref="L11"/>
+    <sheetView topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="C35" sqref="C35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.2"/>
@@ -7592,425 +8383,513 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="58" t="s">
+      <c r="A1" s="51" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="61" t="s">
+      <c r="B1" s="54" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="63" t="s">
+      <c r="C1" s="56" t="s">
         <v>6</v>
       </c>
-      <c r="D1" s="63"/>
-      <c r="E1" s="63"/>
-      <c r="F1" s="63"/>
-      <c r="G1" s="63"/>
-      <c r="H1" s="63"/>
-      <c r="I1" s="63"/>
+      <c r="D1" s="56"/>
+      <c r="E1" s="56"/>
+      <c r="F1" s="56"/>
+      <c r="G1" s="56"/>
+      <c r="H1" s="56"/>
+      <c r="I1" s="56"/>
     </row>
     <row r="2" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="51"/>
-      <c r="B2" s="62"/>
-      <c r="C2" s="42" t="s">
+      <c r="A2" s="44"/>
+      <c r="B2" s="55"/>
+      <c r="C2" s="35" t="s">
         <v>44</v>
       </c>
-      <c r="D2" s="42" t="s">
+      <c r="D2" s="35" t="s">
         <v>18</v>
       </c>
-      <c r="E2" s="42" t="s">
+      <c r="E2" s="35" t="s">
         <v>19</v>
       </c>
-      <c r="F2" s="42" t="s">
+      <c r="F2" s="35" t="s">
         <v>20</v>
       </c>
-      <c r="G2" s="42" t="s">
+      <c r="G2" s="35" t="s">
         <v>21</v>
       </c>
-      <c r="H2" s="42" t="s">
+      <c r="H2" s="35" t="s">
         <v>22</v>
       </c>
-      <c r="I2" s="42"/>
+      <c r="I2" s="35"/>
     </row>
     <row r="3" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="47" t="s">
+      <c r="A3" s="41" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="38" t="s">
+      <c r="B3" s="18" t="s">
         <v>8</v>
       </c>
-      <c r="C3" s="43"/>
-      <c r="D3" s="43" t="s">
+      <c r="C3" s="36"/>
+      <c r="D3" s="36" t="s">
         <v>43</v>
       </c>
-      <c r="E3" s="43"/>
-      <c r="F3" s="43"/>
-      <c r="G3" s="43"/>
-      <c r="H3" s="43"/>
-      <c r="I3" s="43"/>
+      <c r="E3" s="36"/>
+      <c r="F3" s="36"/>
+      <c r="G3" s="36"/>
+      <c r="H3" s="36"/>
+      <c r="I3" s="36"/>
     </row>
     <row r="4" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="48"/>
-      <c r="B4" s="38" t="s">
+      <c r="A4" s="42"/>
+      <c r="B4" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="C4" s="43"/>
-      <c r="D4" s="43" t="s">
+      <c r="C4" s="36"/>
+      <c r="D4" s="36" t="s">
         <v>43</v>
       </c>
-      <c r="E4" s="43"/>
-      <c r="F4" s="43"/>
-      <c r="G4" s="43"/>
-      <c r="H4" s="43"/>
-      <c r="I4" s="43"/>
+      <c r="E4" s="36"/>
+      <c r="F4" s="36"/>
+      <c r="G4" s="36"/>
+      <c r="H4" s="36"/>
+      <c r="I4" s="36"/>
     </row>
     <row r="5" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="48"/>
-      <c r="B5" s="38" t="s">
+      <c r="A5" s="42"/>
+      <c r="B5" s="18" t="s">
         <v>10</v>
       </c>
-      <c r="C5" s="43"/>
-      <c r="D5" s="43" t="s">
+      <c r="C5" s="36"/>
+      <c r="D5" s="36" t="s">
         <v>43</v>
       </c>
-      <c r="E5" s="43"/>
-      <c r="F5" s="43"/>
-      <c r="G5" s="43"/>
-      <c r="H5" s="43"/>
-      <c r="I5" s="43"/>
+      <c r="E5" s="36"/>
+      <c r="F5" s="36"/>
+      <c r="G5" s="36"/>
+      <c r="H5" s="36"/>
+      <c r="I5" s="36"/>
     </row>
     <row r="6" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="49"/>
-      <c r="B6" s="38" t="s">
+      <c r="A6" s="42"/>
+      <c r="B6" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="C6" s="43"/>
-      <c r="D6" s="43" t="s">
+      <c r="C6" s="36"/>
+      <c r="D6" s="36" t="s">
         <v>43</v>
       </c>
-      <c r="E6" s="43"/>
-      <c r="F6" s="43"/>
-      <c r="G6" s="43"/>
-      <c r="H6" s="43"/>
-      <c r="I6" s="43"/>
+      <c r="E6" s="36"/>
+      <c r="F6" s="36"/>
+      <c r="G6" s="36"/>
+      <c r="H6" s="36"/>
+      <c r="I6" s="36"/>
     </row>
     <row r="7" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="47" t="s">
+      <c r="A7" s="64" t="s">
         <v>12</v>
       </c>
-      <c r="B7" s="39" t="s">
+      <c r="B7" s="61" t="s">
         <v>24</v>
       </c>
-      <c r="C7" s="64"/>
-      <c r="D7" s="65"/>
-      <c r="E7" s="65"/>
-      <c r="F7" s="65"/>
-      <c r="G7" s="65"/>
-      <c r="H7" s="65"/>
-      <c r="I7" s="66"/>
+      <c r="C7" s="57"/>
+      <c r="D7" s="58"/>
+      <c r="E7" s="58"/>
+      <c r="F7" s="58"/>
+      <c r="G7" s="58"/>
+      <c r="H7" s="58"/>
+      <c r="I7" s="59"/>
     </row>
     <row r="8" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="48"/>
-      <c r="B8" s="40" t="s">
+      <c r="A8" s="65"/>
+      <c r="B8" s="62" t="s">
         <v>23</v>
       </c>
-      <c r="C8" s="43" t="s">
+      <c r="C8" s="36" t="s">
         <v>43</v>
       </c>
-      <c r="D8" s="43"/>
-      <c r="E8" s="43"/>
-      <c r="F8" s="43"/>
-      <c r="G8" s="43"/>
-      <c r="H8" s="43"/>
-      <c r="I8" s="43"/>
+      <c r="D8" s="36"/>
+      <c r="E8" s="36"/>
+      <c r="F8" s="36"/>
+      <c r="G8" s="36"/>
+      <c r="H8" s="36"/>
+      <c r="I8" s="36"/>
     </row>
     <row r="9" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="48"/>
-      <c r="B9" s="40" t="s">
+      <c r="A9" s="65"/>
+      <c r="B9" s="62" t="s">
         <v>25</v>
       </c>
-      <c r="C9" s="43"/>
-      <c r="D9" s="43"/>
-      <c r="E9" s="43" t="s">
+      <c r="C9" s="36"/>
+      <c r="D9" s="36"/>
+      <c r="E9" s="36" t="s">
         <v>43</v>
       </c>
-      <c r="F9" s="43"/>
-      <c r="G9" s="43" t="s">
+      <c r="F9" s="36"/>
+      <c r="G9" s="36" t="s">
         <v>43</v>
       </c>
-      <c r="H9" s="43"/>
-      <c r="I9" s="43"/>
+      <c r="H9" s="36"/>
+      <c r="I9" s="36"/>
     </row>
     <row r="10" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="48"/>
-      <c r="B10" s="40" t="s">
+      <c r="A10" s="65"/>
+      <c r="B10" s="62" t="s">
         <v>26</v>
       </c>
-      <c r="C10" s="43"/>
-      <c r="D10" s="43" t="s">
+      <c r="C10" s="36"/>
+      <c r="D10" s="36" t="s">
         <v>43</v>
       </c>
-      <c r="E10" s="43"/>
-      <c r="F10" s="43"/>
-      <c r="G10" s="43"/>
-      <c r="H10" s="43" t="s">
+      <c r="E10" s="36"/>
+      <c r="F10" s="36"/>
+      <c r="G10" s="36"/>
+      <c r="H10" s="36" t="s">
         <v>43</v>
       </c>
-      <c r="I10" s="43"/>
+      <c r="I10" s="36"/>
     </row>
     <row r="11" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="48"/>
-      <c r="B11" s="40" t="s">
+      <c r="A11" s="65"/>
+      <c r="B11" s="62" t="s">
         <v>27</v>
       </c>
-      <c r="C11" s="43"/>
-      <c r="D11" s="43" t="s">
+      <c r="C11" s="36"/>
+      <c r="D11" s="36" t="s">
         <v>43</v>
       </c>
-      <c r="E11" s="43"/>
-      <c r="F11" s="43" t="s">
+      <c r="E11" s="36"/>
+      <c r="F11" s="36" t="s">
         <v>43</v>
       </c>
-      <c r="G11" s="43"/>
-      <c r="H11" s="43"/>
-      <c r="I11" s="43"/>
+      <c r="G11" s="36"/>
+      <c r="H11" s="36"/>
+      <c r="I11" s="36"/>
     </row>
     <row r="12" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="48"/>
-      <c r="B12" s="39" t="s">
+      <c r="A12" s="65"/>
+      <c r="B12" s="61" t="s">
         <v>28</v>
       </c>
-      <c r="C12" s="64"/>
-      <c r="D12" s="65"/>
-      <c r="E12" s="65"/>
-      <c r="F12" s="65"/>
-      <c r="G12" s="65"/>
-      <c r="H12" s="65"/>
-      <c r="I12" s="66"/>
+      <c r="C12" s="57"/>
+      <c r="D12" s="58"/>
+      <c r="E12" s="58"/>
+      <c r="F12" s="58"/>
+      <c r="G12" s="58"/>
+      <c r="H12" s="58"/>
+      <c r="I12" s="59"/>
     </row>
     <row r="13" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="48"/>
-      <c r="B13" s="41" t="s">
+      <c r="A13" s="65"/>
+      <c r="B13" s="63" t="s">
         <v>32</v>
       </c>
-      <c r="C13" s="43"/>
-      <c r="D13" s="43" t="s">
+      <c r="C13" s="36"/>
+      <c r="D13" s="36" t="s">
         <v>43</v>
       </c>
-      <c r="E13" s="43"/>
-      <c r="F13" s="43"/>
-      <c r="G13" s="43"/>
-      <c r="H13" s="43"/>
-      <c r="I13" s="43"/>
+      <c r="E13" s="36"/>
+      <c r="F13" s="36"/>
+      <c r="G13" s="36"/>
+      <c r="H13" s="36"/>
+      <c r="I13" s="36"/>
     </row>
     <row r="14" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="48"/>
-      <c r="B14" s="41" t="s">
+      <c r="A14" s="65"/>
+      <c r="B14" s="63" t="s">
         <v>33</v>
       </c>
-      <c r="C14" s="43"/>
-      <c r="D14" s="43" t="s">
+      <c r="C14" s="36"/>
+      <c r="D14" s="36" t="s">
         <v>43</v>
       </c>
-      <c r="E14" s="43" t="s">
+      <c r="E14" s="36" t="s">
         <v>43</v>
       </c>
-      <c r="F14" s="43"/>
-      <c r="G14" s="43"/>
-      <c r="H14" s="43"/>
-      <c r="I14" s="43"/>
+      <c r="F14" s="36"/>
+      <c r="G14" s="36"/>
+      <c r="H14" s="36"/>
+      <c r="I14" s="36"/>
     </row>
     <row r="15" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="48"/>
-      <c r="B15" s="41" t="s">
+      <c r="A15" s="65"/>
+      <c r="B15" s="63" t="s">
         <v>34</v>
       </c>
-      <c r="C15" s="43"/>
-      <c r="D15" s="43" t="s">
+      <c r="C15" s="36"/>
+      <c r="D15" s="36" t="s">
         <v>43</v>
       </c>
-      <c r="E15" s="43"/>
-      <c r="F15" s="43" t="s">
+      <c r="E15" s="36"/>
+      <c r="F15" s="36" t="s">
         <v>43</v>
       </c>
-      <c r="G15" s="43"/>
-      <c r="H15" s="43"/>
-      <c r="I15" s="43"/>
+      <c r="G15" s="36"/>
+      <c r="H15" s="36"/>
+      <c r="I15" s="36"/>
     </row>
     <row r="16" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="48"/>
-      <c r="B16" s="41" t="s">
+      <c r="A16" s="65"/>
+      <c r="B16" s="63" t="s">
         <v>35</v>
       </c>
-      <c r="C16" s="43"/>
-      <c r="D16" s="43"/>
-      <c r="E16" s="43" t="s">
+      <c r="C16" s="36"/>
+      <c r="D16" s="36"/>
+      <c r="E16" s="36" t="s">
         <v>43</v>
       </c>
-      <c r="F16" s="43"/>
-      <c r="G16" s="43" t="s">
+      <c r="F16" s="36"/>
+      <c r="G16" s="36" t="s">
         <v>43</v>
       </c>
-      <c r="H16" s="43" t="s">
+      <c r="H16" s="36" t="s">
         <v>43</v>
       </c>
-      <c r="I16" s="43"/>
+      <c r="I16" s="36"/>
     </row>
     <row r="17" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="48"/>
-      <c r="B17" s="39" t="s">
+      <c r="A17" s="65"/>
+      <c r="B17" s="61" t="s">
         <v>29</v>
       </c>
-      <c r="C17" s="43"/>
-      <c r="D17" s="43" t="s">
+      <c r="C17" s="36"/>
+      <c r="D17" s="36" t="s">
         <v>43</v>
       </c>
-      <c r="E17" s="43"/>
-      <c r="F17" s="43"/>
-      <c r="G17" s="43"/>
-      <c r="H17" s="43"/>
-      <c r="I17" s="43"/>
+      <c r="E17" s="36"/>
+      <c r="F17" s="36"/>
+      <c r="G17" s="36"/>
+      <c r="H17" s="36"/>
+      <c r="I17" s="36"/>
     </row>
     <row r="18" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="48"/>
-      <c r="B18" s="39" t="s">
+      <c r="A18" s="65"/>
+      <c r="B18" s="61" t="s">
         <v>30</v>
       </c>
-      <c r="C18" s="64"/>
-      <c r="D18" s="65"/>
-      <c r="E18" s="65"/>
-      <c r="F18" s="65"/>
-      <c r="G18" s="65"/>
-      <c r="H18" s="65"/>
-      <c r="I18" s="66"/>
+      <c r="C18" s="57"/>
+      <c r="D18" s="58"/>
+      <c r="E18" s="58"/>
+      <c r="F18" s="58"/>
+      <c r="G18" s="58"/>
+      <c r="H18" s="58"/>
+      <c r="I18" s="59"/>
     </row>
     <row r="19" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="48"/>
-      <c r="B19" s="41" t="s">
+      <c r="A19" s="65"/>
+      <c r="B19" s="63" t="s">
         <v>36</v>
       </c>
-      <c r="C19" s="43" t="s">
+      <c r="C19" s="36" t="s">
         <v>43</v>
       </c>
-      <c r="D19" s="43"/>
-      <c r="E19" s="43"/>
-      <c r="F19" s="43"/>
-      <c r="G19" s="43"/>
-      <c r="H19" s="43"/>
-      <c r="I19" s="43"/>
+      <c r="D19" s="36"/>
+      <c r="E19" s="36"/>
+      <c r="F19" s="36"/>
+      <c r="G19" s="36"/>
+      <c r="H19" s="36"/>
+      <c r="I19" s="36"/>
     </row>
     <row r="20" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="48"/>
-      <c r="B20" s="41" t="s">
+      <c r="A20" s="65"/>
+      <c r="B20" s="63" t="s">
         <v>37</v>
       </c>
-      <c r="C20" s="43" t="s">
+      <c r="C20" s="36" t="s">
         <v>43</v>
       </c>
-      <c r="D20" s="43"/>
-      <c r="E20" s="43"/>
-      <c r="F20" s="43"/>
-      <c r="G20" s="43"/>
-      <c r="H20" s="43"/>
-      <c r="I20" s="43"/>
+      <c r="D20" s="36"/>
+      <c r="E20" s="36"/>
+      <c r="F20" s="36"/>
+      <c r="G20" s="36"/>
+      <c r="H20" s="36"/>
+      <c r="I20" s="36"/>
     </row>
     <row r="21" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="48"/>
-      <c r="B21" s="39" t="s">
+      <c r="A21" s="65"/>
+      <c r="B21" s="61" t="s">
         <v>31</v>
       </c>
-      <c r="C21" s="64"/>
-      <c r="D21" s="65"/>
-      <c r="E21" s="65"/>
-      <c r="F21" s="65"/>
-      <c r="G21" s="65"/>
-      <c r="H21" s="65"/>
-      <c r="I21" s="66"/>
+      <c r="C21" s="57"/>
+      <c r="D21" s="58"/>
+      <c r="E21" s="58"/>
+      <c r="F21" s="58"/>
+      <c r="G21" s="58"/>
+      <c r="H21" s="58"/>
+      <c r="I21" s="59"/>
     </row>
     <row r="22" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="48"/>
-      <c r="B22" s="41" t="s">
+      <c r="A22" s="65"/>
+      <c r="B22" s="63" t="s">
         <v>38</v>
       </c>
-      <c r="C22" s="43"/>
-      <c r="D22" s="43" t="s">
+      <c r="C22" s="36"/>
+      <c r="D22" s="36" t="s">
         <v>43</v>
       </c>
-      <c r="E22" s="43"/>
-      <c r="F22" s="43"/>
-      <c r="G22" s="43"/>
-      <c r="H22" s="43"/>
-      <c r="I22" s="43"/>
+      <c r="E22" s="36"/>
+      <c r="F22" s="36"/>
+      <c r="G22" s="36"/>
+      <c r="H22" s="36"/>
+      <c r="I22" s="36"/>
     </row>
     <row r="23" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="48"/>
-      <c r="B23" s="41" t="s">
+      <c r="A23" s="65"/>
+      <c r="B23" s="63" t="s">
         <v>39</v>
       </c>
-      <c r="C23" s="43" t="s">
+      <c r="C23" s="36" t="s">
         <v>43</v>
       </c>
-      <c r="D23" s="43"/>
-      <c r="E23" s="43"/>
-      <c r="F23" s="43"/>
-      <c r="G23" s="43"/>
-      <c r="H23" s="43"/>
-      <c r="I23" s="43"/>
+      <c r="D23" s="36"/>
+      <c r="E23" s="36"/>
+      <c r="F23" s="36"/>
+      <c r="G23" s="36"/>
+      <c r="H23" s="36"/>
+      <c r="I23" s="36"/>
     </row>
     <row r="24" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="48"/>
-      <c r="B24" s="39" t="s">
+      <c r="A24" s="65"/>
+      <c r="B24" s="61" t="s">
         <v>40</v>
       </c>
-      <c r="C24" s="64"/>
-      <c r="D24" s="65"/>
-      <c r="E24" s="65"/>
-      <c r="F24" s="65"/>
-      <c r="G24" s="65"/>
-      <c r="H24" s="65"/>
-      <c r="I24" s="66"/>
+      <c r="C24" s="57"/>
+      <c r="D24" s="58"/>
+      <c r="E24" s="58"/>
+      <c r="F24" s="58"/>
+      <c r="G24" s="58"/>
+      <c r="H24" s="58"/>
+      <c r="I24" s="59"/>
     </row>
     <row r="25" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="48"/>
-      <c r="B25" s="41" t="s">
+      <c r="A25" s="65"/>
+      <c r="B25" s="63" t="s">
         <v>41</v>
       </c>
-      <c r="C25" s="43"/>
-      <c r="D25" s="43" t="s">
+      <c r="C25" s="36" t="s">
         <v>43</v>
       </c>
-      <c r="E25" s="43"/>
-      <c r="F25" s="43"/>
-      <c r="G25" s="43"/>
-      <c r="H25" s="43"/>
-      <c r="I25" s="43"/>
+      <c r="D25" s="36"/>
+      <c r="E25" s="36"/>
+      <c r="F25" s="36"/>
+      <c r="G25" s="36"/>
+      <c r="H25" s="36"/>
+      <c r="I25" s="36"/>
     </row>
     <row r="26" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="49"/>
-      <c r="B26" s="41" t="s">
+      <c r="A26" s="65"/>
+      <c r="B26" s="63" t="s">
         <v>42</v>
       </c>
-      <c r="C26" s="43"/>
-      <c r="D26" s="43" t="s">
+      <c r="C26" s="36" t="s">
         <v>43</v>
       </c>
-      <c r="E26" s="43"/>
-      <c r="F26" s="43"/>
-      <c r="G26" s="43"/>
-      <c r="H26" s="43"/>
-      <c r="I26" s="43"/>
+      <c r="D26" s="36"/>
+      <c r="E26" s="36"/>
+      <c r="F26" s="36"/>
+      <c r="G26" s="36"/>
+      <c r="H26" s="36"/>
+      <c r="I26" s="36"/>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A27" s="65"/>
+      <c r="B27" s="61" t="s">
+        <v>47</v>
+      </c>
+      <c r="C27" s="57"/>
+      <c r="D27" s="58"/>
+      <c r="E27" s="58"/>
+      <c r="F27" s="58"/>
+      <c r="G27" s="58"/>
+      <c r="H27" s="58"/>
+      <c r="I27" s="59"/>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A28" s="65"/>
+      <c r="B28" s="63" t="s">
+        <v>48</v>
+      </c>
+      <c r="C28" s="36" t="s">
+        <v>43</v>
+      </c>
+      <c r="D28" s="36"/>
+      <c r="E28" s="36"/>
+      <c r="F28" s="36"/>
+      <c r="G28" s="36"/>
+      <c r="H28" s="36"/>
+      <c r="I28" s="36"/>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A29" s="65"/>
+      <c r="B29" s="63" t="s">
+        <v>49</v>
+      </c>
+      <c r="C29" s="36" t="s">
+        <v>43</v>
+      </c>
+      <c r="D29" s="36"/>
+      <c r="E29" s="36"/>
+      <c r="F29" s="36"/>
+      <c r="G29" s="36"/>
+      <c r="H29" s="36"/>
+      <c r="I29" s="36"/>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A30" s="65"/>
+      <c r="B30" s="61" t="s">
+        <v>40</v>
+      </c>
+      <c r="C30" s="57"/>
+      <c r="D30" s="58"/>
+      <c r="E30" s="58"/>
+      <c r="F30" s="58"/>
+      <c r="G30" s="58"/>
+      <c r="H30" s="58"/>
+      <c r="I30" s="59"/>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A31" s="65"/>
+      <c r="B31" s="63" t="s">
+        <v>41</v>
+      </c>
+      <c r="C31" s="36" t="s">
+        <v>43</v>
+      </c>
+      <c r="D31" s="36"/>
+      <c r="E31" s="36"/>
+      <c r="F31" s="36"/>
+      <c r="G31" s="36"/>
+      <c r="H31" s="36"/>
+      <c r="I31" s="36"/>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A32" s="66"/>
+      <c r="B32" s="63" t="s">
+        <v>42</v>
+      </c>
+      <c r="C32" s="36" t="s">
+        <v>43</v>
+      </c>
+      <c r="D32" s="36"/>
+      <c r="E32" s="36"/>
+      <c r="F32" s="36"/>
+      <c r="G32" s="36"/>
+      <c r="H32" s="36"/>
+      <c r="I32" s="36"/>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="12">
     <mergeCell ref="A1:A2"/>
     <mergeCell ref="B1:B2"/>
     <mergeCell ref="A3:A6"/>
-    <mergeCell ref="A7:A26"/>
     <mergeCell ref="C1:I1"/>
     <mergeCell ref="C7:I7"/>
     <mergeCell ref="C24:I24"/>
     <mergeCell ref="C21:I21"/>
     <mergeCell ref="C12:I12"/>
     <mergeCell ref="C18:I18"/>
+    <mergeCell ref="A7:A32"/>
+    <mergeCell ref="C27:I27"/>
+    <mergeCell ref="C30:I30"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <extLst>

--- a/2.WBS/WBS_현대이지웰_최종프로젝트.xlsx
+++ b/2.WBS/WBS_현대이지웰_최종프로젝트.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="W:\GamesungCoding\ResourceRepo\2.WBS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF26FFDD-2931-4A3D-B4F3-BB353C77A50B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{278A3429-B1F5-4337-8680-3BA249E9418B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
   <metadataTypes count="1">
     <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
   </metadataTypes>
@@ -63,7 +63,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="53">
   <si>
     <t>구분</t>
   </si>
@@ -220,6 +220,9 @@
   </si>
   <si>
     <t>MSA특강</t>
+  </si>
+  <si>
+    <t>요구사항 분석 및 명세</t>
   </si>
 </sst>
 </file>
@@ -722,7 +725,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="72">
+  <cellXfs count="71">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -781,9 +784,6 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="165" fontId="17" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -846,6 +846,33 @@
     <xf numFmtId="164" fontId="9" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -885,6 +912,15 @@
     <xf numFmtId="0" fontId="16" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="164" fontId="15" fillId="3" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -903,61 +939,11 @@
     <xf numFmtId="0" fontId="3" fillId="9" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="16">
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="5">
     <dxf>
       <fill>
         <patternFill>
@@ -975,77 +961,14 @@
     <dxf>
       <fill>
         <patternFill>
-          <bgColor rgb="FFFFC000"/>
+          <bgColor theme="4" tint="0.79998168889431442"/>
         </patternFill>
       </fill>
     </dxf>
     <dxf>
       <fill>
         <patternFill>
-          <bgColor theme="4" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.59996337778862885"/>
+          <bgColor theme="5" tint="0.79998168889431442"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1274,10 +1197,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:BO1002"/>
+  <dimension ref="A1:BO1001"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection sqref="A1:W1"/>
+    <sheetView tabSelected="1" topLeftCell="A2" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G32" sqref="G32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1290,56 +1213,56 @@
     <col min="7" max="7" width="16.625" style="5" customWidth="1"/>
     <col min="8" max="8" width="4.375" style="5" customWidth="1"/>
     <col min="9" max="11" width="4.5" style="5" customWidth="1"/>
-    <col min="12" max="12" width="4.5" style="24" customWidth="1"/>
-    <col min="13" max="13" width="4.5" style="28" customWidth="1"/>
+    <col min="12" max="12" width="4.5" style="23" customWidth="1"/>
+    <col min="13" max="13" width="4.5" style="27" customWidth="1"/>
     <col min="14" max="18" width="4.5" style="5" customWidth="1"/>
-    <col min="19" max="19" width="4.5" style="24" customWidth="1"/>
-    <col min="20" max="20" width="4.5" style="28" customWidth="1"/>
+    <col min="19" max="19" width="4.5" style="23" customWidth="1"/>
+    <col min="20" max="20" width="4.5" style="27" customWidth="1"/>
     <col min="21" max="25" width="4.5" style="5" customWidth="1"/>
-    <col min="26" max="26" width="4.5" style="24" customWidth="1"/>
-    <col min="27" max="27" width="4.5" style="28" customWidth="1"/>
+    <col min="26" max="26" width="4.5" style="23" customWidth="1"/>
+    <col min="27" max="27" width="4.5" style="27" customWidth="1"/>
     <col min="28" max="32" width="4.5" style="5" customWidth="1"/>
-    <col min="33" max="33" width="4.5" style="24" customWidth="1"/>
-    <col min="34" max="34" width="4.5" style="28" customWidth="1"/>
+    <col min="33" max="33" width="4.5" style="23" customWidth="1"/>
+    <col min="34" max="34" width="4.5" style="27" customWidth="1"/>
     <col min="35" max="39" width="4.5" style="5" customWidth="1"/>
-    <col min="40" max="40" width="4.5" style="24" customWidth="1"/>
-    <col min="41" max="41" width="4.5" style="28" customWidth="1"/>
+    <col min="40" max="40" width="4.5" style="23" customWidth="1"/>
+    <col min="41" max="41" width="4.5" style="27" customWidth="1"/>
     <col min="42" max="46" width="4.5" style="5" customWidth="1"/>
-    <col min="47" max="47" width="4.5" style="24" customWidth="1"/>
-    <col min="48" max="48" width="4.5" style="28" customWidth="1"/>
+    <col min="47" max="47" width="4.5" style="23" customWidth="1"/>
+    <col min="48" max="48" width="4.5" style="27" customWidth="1"/>
     <col min="49" max="53" width="4.5" style="5" customWidth="1"/>
-    <col min="54" max="54" width="4.5" style="24" customWidth="1"/>
-    <col min="55" max="55" width="4.5" style="28" customWidth="1"/>
+    <col min="54" max="54" width="4.5" style="23" customWidth="1"/>
+    <col min="55" max="55" width="4.5" style="27" customWidth="1"/>
     <col min="56" max="67" width="4.5" style="5" customWidth="1"/>
     <col min="68" max="16384" width="12.625" style="5"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:67" ht="38.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="45" t="s">
+      <c r="A1" s="53" t="s">
         <v>13</v>
       </c>
-      <c r="B1" s="46"/>
-      <c r="C1" s="46"/>
-      <c r="D1" s="46"/>
-      <c r="E1" s="46"/>
-      <c r="F1" s="46"/>
-      <c r="G1" s="46"/>
-      <c r="H1" s="46"/>
-      <c r="I1" s="46"/>
-      <c r="J1" s="46"/>
-      <c r="K1" s="46"/>
-      <c r="L1" s="46"/>
-      <c r="M1" s="46"/>
-      <c r="N1" s="46"/>
-      <c r="O1" s="46"/>
-      <c r="P1" s="46"/>
-      <c r="Q1" s="46"/>
-      <c r="R1" s="46"/>
-      <c r="S1" s="46"/>
-      <c r="T1" s="46"/>
-      <c r="U1" s="46"/>
-      <c r="V1" s="46"/>
-      <c r="W1" s="46"/>
+      <c r="B1" s="54"/>
+      <c r="C1" s="54"/>
+      <c r="D1" s="54"/>
+      <c r="E1" s="54"/>
+      <c r="F1" s="54"/>
+      <c r="G1" s="54"/>
+      <c r="H1" s="54"/>
+      <c r="I1" s="54"/>
+      <c r="J1" s="54"/>
+      <c r="K1" s="54"/>
+      <c r="L1" s="54"/>
+      <c r="M1" s="54"/>
+      <c r="N1" s="54"/>
+      <c r="O1" s="54"/>
+      <c r="P1" s="54"/>
+      <c r="Q1" s="54"/>
+      <c r="R1" s="54"/>
+      <c r="S1" s="54"/>
+      <c r="T1" s="54"/>
+      <c r="U1" s="54"/>
+      <c r="V1" s="54"/>
+      <c r="W1" s="54"/>
     </row>
     <row r="2" spans="1:67" s="7" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="16" t="s">
@@ -1348,65 +1271,65 @@
       <c r="B2" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="C2" s="47" t="s">
+      <c r="C2" s="55" t="s">
         <v>15</v>
       </c>
-      <c r="D2" s="48"/>
-      <c r="E2" s="48"/>
-      <c r="F2" s="49" t="s">
+      <c r="D2" s="56"/>
+      <c r="E2" s="56"/>
+      <c r="F2" s="57" t="s">
         <v>16</v>
       </c>
-      <c r="G2" s="50"/>
-      <c r="H2" s="50"/>
-      <c r="I2" s="50"/>
-      <c r="J2" s="50"/>
-      <c r="K2" s="50"/>
-      <c r="L2" s="50"/>
-      <c r="M2" s="50"/>
-      <c r="N2" s="50"/>
-      <c r="O2" s="50"/>
-      <c r="P2" s="50"/>
-      <c r="Q2" s="50"/>
-      <c r="R2" s="50"/>
-      <c r="S2" s="50"/>
-      <c r="T2" s="50"/>
-      <c r="U2" s="50"/>
-      <c r="V2" s="50"/>
-      <c r="W2" s="50"/>
+      <c r="G2" s="58"/>
+      <c r="H2" s="58"/>
+      <c r="I2" s="58"/>
+      <c r="J2" s="58"/>
+      <c r="K2" s="58"/>
+      <c r="L2" s="58"/>
+      <c r="M2" s="58"/>
+      <c r="N2" s="58"/>
+      <c r="O2" s="58"/>
+      <c r="P2" s="58"/>
+      <c r="Q2" s="58"/>
+      <c r="R2" s="58"/>
+      <c r="S2" s="58"/>
+      <c r="T2" s="58"/>
+      <c r="U2" s="58"/>
+      <c r="V2" s="58"/>
+      <c r="W2" s="58"/>
       <c r="X2" s="6"/>
       <c r="Y2" s="6"/>
-      <c r="Z2" s="29"/>
-      <c r="AA2" s="32"/>
+      <c r="Z2" s="28"/>
+      <c r="AA2" s="31"/>
       <c r="AB2" s="6"/>
-      <c r="AG2" s="30"/>
-      <c r="AH2" s="31"/>
-      <c r="AN2" s="30"/>
-      <c r="AO2" s="31"/>
-      <c r="AU2" s="30"/>
-      <c r="AV2" s="31"/>
-      <c r="BB2" s="30"/>
-      <c r="BC2" s="31"/>
+      <c r="AG2" s="29"/>
+      <c r="AH2" s="30"/>
+      <c r="AN2" s="29"/>
+      <c r="AO2" s="30"/>
+      <c r="AU2" s="29"/>
+      <c r="AV2" s="30"/>
+      <c r="BB2" s="29"/>
+      <c r="BC2" s="30"/>
     </row>
     <row r="3" spans="1:67" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="51" t="s">
+      <c r="A3" s="59" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="52" t="s">
+      <c r="B3" s="60" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="43" t="s">
+      <c r="C3" s="51" t="s">
         <v>2</v>
       </c>
-      <c r="D3" s="43" t="s">
+      <c r="D3" s="51" t="s">
         <v>3</v>
       </c>
-      <c r="E3" s="43" t="s">
+      <c r="E3" s="51" t="s">
         <v>4</v>
       </c>
-      <c r="F3" s="43" t="s">
+      <c r="F3" s="51" t="s">
         <v>5</v>
       </c>
-      <c r="G3" s="43" t="s">
+      <c r="G3" s="51" t="s">
         <v>6</v>
       </c>
       <c r="H3" s="8">
@@ -1424,11 +1347,11 @@
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="L3" s="21">
+      <c r="L3" s="20">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="M3" s="25">
+      <c r="M3" s="24">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
@@ -1452,11 +1375,11 @@
         <f t="shared" si="0"/>
         <v>11</v>
       </c>
-      <c r="S3" s="21">
+      <c r="S3" s="20">
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
-      <c r="T3" s="25">
+      <c r="T3" s="24">
         <f t="shared" si="0"/>
         <v>13</v>
       </c>
@@ -1480,11 +1403,11 @@
         <f t="shared" si="0"/>
         <v>18</v>
       </c>
-      <c r="Z3" s="21">
+      <c r="Z3" s="20">
         <f t="shared" si="0"/>
         <v>19</v>
       </c>
-      <c r="AA3" s="25">
+      <c r="AA3" s="24">
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
@@ -1508,11 +1431,11 @@
         <f t="shared" si="0"/>
         <v>25</v>
       </c>
-      <c r="AG3" s="21">
+      <c r="AG3" s="20">
         <f t="shared" si="0"/>
         <v>26</v>
       </c>
-      <c r="AH3" s="25">
+      <c r="AH3" s="24">
         <f t="shared" si="0"/>
         <v>27</v>
       </c>
@@ -1536,11 +1459,11 @@
         <f t="shared" si="0"/>
         <v>32</v>
       </c>
-      <c r="AN3" s="21">
+      <c r="AN3" s="20">
         <f t="shared" si="0"/>
         <v>33</v>
       </c>
-      <c r="AO3" s="25">
+      <c r="AO3" s="24">
         <f t="shared" si="0"/>
         <v>34</v>
       </c>
@@ -1564,11 +1487,11 @@
         <f t="shared" si="0"/>
         <v>39</v>
       </c>
-      <c r="AU3" s="21">
+      <c r="AU3" s="20">
         <f t="shared" si="0"/>
         <v>40</v>
       </c>
-      <c r="AV3" s="25">
+      <c r="AV3" s="24">
         <f t="shared" si="0"/>
         <v>41</v>
       </c>
@@ -1592,11 +1515,11 @@
         <f t="shared" si="0"/>
         <v>46</v>
       </c>
-      <c r="BB3" s="21">
+      <c r="BB3" s="20">
         <f t="shared" si="0"/>
         <v>47</v>
       </c>
-      <c r="BC3" s="25">
+      <c r="BC3" s="24">
         <f t="shared" si="0"/>
         <v>48</v>
       </c>
@@ -1620,11 +1543,11 @@
         <f t="shared" si="0"/>
         <v>53</v>
       </c>
-      <c r="BI3" s="21">
+      <c r="BI3" s="20">
         <f t="shared" ref="BI3:BI4" si="1">BH3+1</f>
         <v>54</v>
       </c>
-      <c r="BJ3" s="25">
+      <c r="BJ3" s="24">
         <f t="shared" ref="BJ3:BJ4" si="2">BI3+1</f>
         <v>55</v>
       </c>
@@ -1650,13 +1573,13 @@
       </c>
     </row>
     <row r="4" spans="1:67" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="44"/>
-      <c r="B4" s="53"/>
-      <c r="C4" s="44"/>
-      <c r="D4" s="44"/>
-      <c r="E4" s="44"/>
-      <c r="F4" s="44"/>
-      <c r="G4" s="44"/>
+      <c r="A4" s="52"/>
+      <c r="B4" s="61"/>
+      <c r="C4" s="52"/>
+      <c r="D4" s="52"/>
+      <c r="E4" s="52"/>
+      <c r="F4" s="52"/>
+      <c r="G4" s="52"/>
       <c r="H4" s="9">
         <v>45951</v>
       </c>
@@ -1672,11 +1595,11 @@
         <f t="shared" si="8"/>
         <v>45954</v>
       </c>
-      <c r="L4" s="22">
+      <c r="L4" s="21">
         <f t="shared" si="8"/>
         <v>45955</v>
       </c>
-      <c r="M4" s="26">
+      <c r="M4" s="25">
         <f t="shared" si="8"/>
         <v>45956</v>
       </c>
@@ -1684,11 +1607,11 @@
         <f t="shared" si="8"/>
         <v>45957</v>
       </c>
-      <c r="O4" s="40">
+      <c r="O4" s="39">
         <f t="shared" si="8"/>
         <v>45958</v>
       </c>
-      <c r="P4" s="40">
+      <c r="P4" s="39">
         <f t="shared" si="8"/>
         <v>45959</v>
       </c>
@@ -1700,11 +1623,11 @@
         <f t="shared" si="8"/>
         <v>45961</v>
       </c>
-      <c r="S4" s="22">
+      <c r="S4" s="21">
         <f t="shared" si="8"/>
         <v>45962</v>
       </c>
-      <c r="T4" s="26">
+      <c r="T4" s="25">
         <f t="shared" si="8"/>
         <v>45963</v>
       </c>
@@ -1728,11 +1651,11 @@
         <f t="shared" si="8"/>
         <v>45968</v>
       </c>
-      <c r="Z4" s="22">
+      <c r="Z4" s="21">
         <f t="shared" si="8"/>
         <v>45969</v>
       </c>
-      <c r="AA4" s="26">
+      <c r="AA4" s="25">
         <f t="shared" si="8"/>
         <v>45970</v>
       </c>
@@ -1756,11 +1679,11 @@
         <f t="shared" si="8"/>
         <v>45975</v>
       </c>
-      <c r="AG4" s="22">
+      <c r="AG4" s="21">
         <f t="shared" si="8"/>
         <v>45976</v>
       </c>
-      <c r="AH4" s="26">
+      <c r="AH4" s="25">
         <f t="shared" si="8"/>
         <v>45977</v>
       </c>
@@ -1784,11 +1707,11 @@
         <f t="shared" si="8"/>
         <v>45982</v>
       </c>
-      <c r="AN4" s="22">
+      <c r="AN4" s="21">
         <f t="shared" si="8"/>
         <v>45983</v>
       </c>
-      <c r="AO4" s="26">
+      <c r="AO4" s="25">
         <f t="shared" si="8"/>
         <v>45984</v>
       </c>
@@ -1812,11 +1735,11 @@
         <f t="shared" si="8"/>
         <v>45989</v>
       </c>
-      <c r="AU4" s="22">
+      <c r="AU4" s="21">
         <f t="shared" si="8"/>
         <v>45990</v>
       </c>
-      <c r="AV4" s="26">
+      <c r="AV4" s="25">
         <f t="shared" si="8"/>
         <v>45991</v>
       </c>
@@ -1840,11 +1763,11 @@
         <f t="shared" si="8"/>
         <v>45996</v>
       </c>
-      <c r="BB4" s="22">
+      <c r="BB4" s="21">
         <f t="shared" si="8"/>
         <v>45997</v>
       </c>
-      <c r="BC4" s="26">
+      <c r="BC4" s="25">
         <f t="shared" si="8"/>
         <v>45998</v>
       </c>
@@ -1868,11 +1791,11 @@
         <f t="shared" si="8"/>
         <v>46003</v>
       </c>
-      <c r="BI4" s="22">
+      <c r="BI4" s="21">
         <f t="shared" si="1"/>
         <v>46004</v>
       </c>
-      <c r="BJ4" s="26">
+      <c r="BJ4" s="25">
         <f t="shared" si="2"/>
         <v>46005</v>
       </c>
@@ -1898,13 +1821,13 @@
       </c>
     </row>
     <row r="5" spans="1:67" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="41" t="s">
+      <c r="A5" s="49" t="s">
         <v>7</v>
       </c>
       <c r="B5" s="18" t="s">
         <v>8</v>
       </c>
-      <c r="C5" s="38">
+      <c r="C5" s="37">
         <v>1</v>
       </c>
       <c r="D5" s="10">
@@ -1917,7 +1840,7 @@
         <f t="shared" ref="F5:F8" si="9">IF(AND(E5&lt;&gt;"", D5&lt;&gt;""), E5+D5-1, "")</f>
         <v>45952</v>
       </c>
-      <c r="G5" s="37" t="str" cm="1">
+      <c r="G5" s="36" t="str" cm="1">
         <f t="array" ref="G5">_xlfn.TEXTJOIN(", ", TRUE, IF(담당자!C3:I3="O", 담당자!C$2:I$2, ""))</f>
         <v>안규태</v>
       </c>
@@ -1925,57 +1848,57 @@
       <c r="I5" s="12"/>
       <c r="J5" s="12"/>
       <c r="K5" s="12"/>
-      <c r="L5" s="33"/>
-      <c r="M5" s="34"/>
-      <c r="N5" s="68"/>
-      <c r="O5" s="70"/>
-      <c r="P5" s="71"/>
-      <c r="Q5" s="69"/>
+      <c r="L5" s="32"/>
+      <c r="M5" s="33"/>
+      <c r="N5" s="45"/>
+      <c r="O5" s="47"/>
+      <c r="P5" s="48"/>
+      <c r="Q5" s="46"/>
       <c r="R5" s="12"/>
-      <c r="S5" s="33"/>
-      <c r="T5" s="34"/>
+      <c r="S5" s="32"/>
+      <c r="T5" s="33"/>
       <c r="U5" s="12"/>
       <c r="V5" s="12"/>
       <c r="W5" s="12"/>
       <c r="X5" s="12"/>
       <c r="Y5" s="12"/>
-      <c r="Z5" s="33"/>
-      <c r="AA5" s="34"/>
+      <c r="Z5" s="32"/>
+      <c r="AA5" s="33"/>
       <c r="AB5" s="12"/>
       <c r="AC5" s="12"/>
       <c r="AD5" s="12"/>
       <c r="AE5" s="12"/>
       <c r="AF5" s="12"/>
-      <c r="AG5" s="33"/>
-      <c r="AH5" s="34"/>
+      <c r="AG5" s="32"/>
+      <c r="AH5" s="33"/>
       <c r="AI5" s="12"/>
       <c r="AJ5" s="12"/>
       <c r="AK5" s="12"/>
       <c r="AL5" s="12"/>
       <c r="AM5" s="12"/>
-      <c r="AN5" s="33"/>
-      <c r="AO5" s="34"/>
+      <c r="AN5" s="32"/>
+      <c r="AO5" s="33"/>
       <c r="AP5" s="12"/>
       <c r="AQ5" s="12"/>
       <c r="AR5" s="12"/>
       <c r="AS5" s="12"/>
       <c r="AT5" s="12"/>
-      <c r="AU5" s="33"/>
-      <c r="AV5" s="34"/>
+      <c r="AU5" s="32"/>
+      <c r="AV5" s="33"/>
       <c r="AW5" s="12"/>
       <c r="AX5" s="12"/>
       <c r="AY5" s="12"/>
       <c r="AZ5" s="12"/>
       <c r="BA5" s="12"/>
-      <c r="BB5" s="33"/>
-      <c r="BC5" s="34"/>
+      <c r="BB5" s="32"/>
+      <c r="BC5" s="33"/>
       <c r="BD5" s="12"/>
       <c r="BE5" s="12"/>
       <c r="BF5" s="12"/>
       <c r="BG5" s="12"/>
       <c r="BH5" s="12"/>
-      <c r="BI5" s="33"/>
-      <c r="BJ5" s="34"/>
+      <c r="BI5" s="32"/>
+      <c r="BJ5" s="33"/>
       <c r="BK5" s="12"/>
       <c r="BL5" s="12"/>
       <c r="BM5" s="12"/>
@@ -1983,11 +1906,11 @@
       <c r="BO5" s="12"/>
     </row>
     <row r="6" spans="1:67" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="42"/>
+      <c r="A6" s="50"/>
       <c r="B6" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="C6" s="38">
+      <c r="C6" s="37">
         <v>1</v>
       </c>
       <c r="D6" s="10"/>
@@ -1996,7 +1919,7 @@
         <f t="shared" si="9"/>
         <v/>
       </c>
-      <c r="G6" s="37" t="str" cm="1">
+      <c r="G6" s="36" t="str" cm="1">
         <f t="array" ref="G6">_xlfn.TEXTJOIN(", ", TRUE, IF(담당자!C4:I4="O", 담당자!C$2:I$2, ""))</f>
         <v>안규태</v>
       </c>
@@ -2004,57 +1927,57 @@
       <c r="I6" s="12"/>
       <c r="J6" s="12"/>
       <c r="K6" s="12"/>
-      <c r="L6" s="33"/>
-      <c r="M6" s="34"/>
-      <c r="N6" s="68"/>
-      <c r="O6" s="71"/>
-      <c r="P6" s="71"/>
-      <c r="Q6" s="69"/>
+      <c r="L6" s="32"/>
+      <c r="M6" s="33"/>
+      <c r="N6" s="45"/>
+      <c r="O6" s="48"/>
+      <c r="P6" s="48"/>
+      <c r="Q6" s="46"/>
       <c r="R6" s="12"/>
-      <c r="S6" s="33"/>
-      <c r="T6" s="34"/>
+      <c r="S6" s="32"/>
+      <c r="T6" s="33"/>
       <c r="U6" s="12"/>
       <c r="V6" s="12"/>
       <c r="W6" s="12"/>
       <c r="X6" s="12"/>
       <c r="Y6" s="12"/>
-      <c r="Z6" s="33"/>
-      <c r="AA6" s="34"/>
+      <c r="Z6" s="32"/>
+      <c r="AA6" s="33"/>
       <c r="AB6" s="12"/>
       <c r="AC6" s="12"/>
       <c r="AD6" s="12"/>
       <c r="AE6" s="12"/>
       <c r="AF6" s="12"/>
-      <c r="AG6" s="33"/>
-      <c r="AH6" s="34"/>
+      <c r="AG6" s="32"/>
+      <c r="AH6" s="33"/>
       <c r="AI6" s="12"/>
       <c r="AJ6" s="12"/>
       <c r="AK6" s="12"/>
       <c r="AL6" s="12"/>
       <c r="AM6" s="12"/>
-      <c r="AN6" s="33"/>
-      <c r="AO6" s="34"/>
+      <c r="AN6" s="32"/>
+      <c r="AO6" s="33"/>
       <c r="AP6" s="12"/>
       <c r="AQ6" s="12"/>
       <c r="AR6" s="12"/>
       <c r="AS6" s="12"/>
       <c r="AT6" s="12"/>
-      <c r="AU6" s="33"/>
-      <c r="AV6" s="34"/>
+      <c r="AU6" s="32"/>
+      <c r="AV6" s="33"/>
       <c r="AW6" s="12"/>
       <c r="AX6" s="12"/>
       <c r="AY6" s="12"/>
       <c r="AZ6" s="12"/>
       <c r="BA6" s="12"/>
-      <c r="BB6" s="33"/>
-      <c r="BC6" s="34"/>
+      <c r="BB6" s="32"/>
+      <c r="BC6" s="33"/>
       <c r="BD6" s="12"/>
       <c r="BE6" s="12"/>
       <c r="BF6" s="12"/>
       <c r="BG6" s="12"/>
       <c r="BH6" s="12"/>
-      <c r="BI6" s="33"/>
-      <c r="BJ6" s="34"/>
+      <c r="BI6" s="32"/>
+      <c r="BJ6" s="33"/>
       <c r="BK6" s="12"/>
       <c r="BL6" s="12"/>
       <c r="BM6" s="12"/>
@@ -2062,11 +1985,11 @@
       <c r="BO6" s="12"/>
     </row>
     <row r="7" spans="1:67" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="42"/>
+      <c r="A7" s="50"/>
       <c r="B7" s="18" t="s">
         <v>10</v>
       </c>
-      <c r="C7" s="38">
+      <c r="C7" s="37">
         <v>1</v>
       </c>
       <c r="D7" s="10"/>
@@ -2075,7 +1998,7 @@
         <f t="shared" si="9"/>
         <v/>
       </c>
-      <c r="G7" s="37" t="str" cm="1">
+      <c r="G7" s="36" t="str" cm="1">
         <f t="array" ref="G7">_xlfn.TEXTJOIN(", ", TRUE, IF(담당자!C5:I5="O", 담당자!C$2:I$2, ""))</f>
         <v>안규태</v>
       </c>
@@ -2083,57 +2006,57 @@
       <c r="I7" s="12"/>
       <c r="J7" s="12"/>
       <c r="K7" s="12"/>
-      <c r="L7" s="33"/>
-      <c r="M7" s="34"/>
-      <c r="N7" s="68"/>
-      <c r="O7" s="71"/>
-      <c r="P7" s="71"/>
-      <c r="Q7" s="69"/>
+      <c r="L7" s="32"/>
+      <c r="M7" s="33"/>
+      <c r="N7" s="45"/>
+      <c r="O7" s="48"/>
+      <c r="P7" s="48"/>
+      <c r="Q7" s="46"/>
       <c r="R7" s="12"/>
-      <c r="S7" s="33"/>
-      <c r="T7" s="34"/>
+      <c r="S7" s="32"/>
+      <c r="T7" s="33"/>
       <c r="U7" s="12"/>
       <c r="V7" s="12"/>
       <c r="W7" s="12"/>
       <c r="X7" s="12"/>
       <c r="Y7" s="12"/>
-      <c r="Z7" s="33"/>
-      <c r="AA7" s="34"/>
+      <c r="Z7" s="32"/>
+      <c r="AA7" s="33"/>
       <c r="AB7" s="12"/>
       <c r="AC7" s="12"/>
       <c r="AD7" s="12"/>
       <c r="AE7" s="12"/>
       <c r="AF7" s="12"/>
-      <c r="AG7" s="33"/>
-      <c r="AH7" s="34"/>
+      <c r="AG7" s="32"/>
+      <c r="AH7" s="33"/>
       <c r="AI7" s="12"/>
       <c r="AJ7" s="12"/>
       <c r="AK7" s="12"/>
       <c r="AL7" s="12"/>
       <c r="AM7" s="12"/>
-      <c r="AN7" s="33"/>
-      <c r="AO7" s="34"/>
+      <c r="AN7" s="32"/>
+      <c r="AO7" s="33"/>
       <c r="AP7" s="12"/>
       <c r="AQ7" s="12"/>
       <c r="AR7" s="12"/>
       <c r="AS7" s="12"/>
       <c r="AT7" s="12"/>
-      <c r="AU7" s="33"/>
-      <c r="AV7" s="34"/>
+      <c r="AU7" s="32"/>
+      <c r="AV7" s="33"/>
       <c r="AW7" s="12"/>
       <c r="AX7" s="12"/>
       <c r="AY7" s="12"/>
       <c r="AZ7" s="12"/>
       <c r="BA7" s="12"/>
-      <c r="BB7" s="33"/>
-      <c r="BC7" s="34"/>
+      <c r="BB7" s="32"/>
+      <c r="BC7" s="33"/>
       <c r="BD7" s="12"/>
       <c r="BE7" s="12"/>
       <c r="BF7" s="12"/>
       <c r="BG7" s="12"/>
       <c r="BH7" s="12"/>
-      <c r="BI7" s="33"/>
-      <c r="BJ7" s="34"/>
+      <c r="BI7" s="32"/>
+      <c r="BJ7" s="33"/>
       <c r="BK7" s="12"/>
       <c r="BL7" s="12"/>
       <c r="BM7" s="12"/>
@@ -2141,11 +2064,11 @@
       <c r="BO7" s="12"/>
     </row>
     <row r="8" spans="1:67" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="42"/>
+      <c r="A8" s="50"/>
       <c r="B8" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="C8" s="38">
+      <c r="C8" s="37">
         <v>1</v>
       </c>
       <c r="D8" s="10"/>
@@ -2154,7 +2077,7 @@
         <f t="shared" si="9"/>
         <v/>
       </c>
-      <c r="G8" s="37" t="str" cm="1">
+      <c r="G8" s="36" t="str" cm="1">
         <f t="array" ref="G8">_xlfn.TEXTJOIN(", ", TRUE, IF(담당자!C6:I6="O", 담당자!C$2:I$2, ""))</f>
         <v>안규태</v>
       </c>
@@ -2162,57 +2085,57 @@
       <c r="I8" s="12"/>
       <c r="J8" s="12"/>
       <c r="K8" s="12"/>
-      <c r="L8" s="33"/>
-      <c r="M8" s="34"/>
-      <c r="N8" s="68"/>
-      <c r="O8" s="71"/>
-      <c r="P8" s="71"/>
-      <c r="Q8" s="69"/>
+      <c r="L8" s="32"/>
+      <c r="M8" s="33"/>
+      <c r="N8" s="45"/>
+      <c r="O8" s="48"/>
+      <c r="P8" s="48"/>
+      <c r="Q8" s="46"/>
       <c r="R8" s="12"/>
-      <c r="S8" s="33"/>
-      <c r="T8" s="34"/>
+      <c r="S8" s="32"/>
+      <c r="T8" s="33"/>
       <c r="U8" s="12"/>
       <c r="V8" s="12"/>
       <c r="W8" s="12"/>
       <c r="X8" s="12"/>
       <c r="Y8" s="12"/>
-      <c r="Z8" s="33"/>
-      <c r="AA8" s="34"/>
+      <c r="Z8" s="32"/>
+      <c r="AA8" s="33"/>
       <c r="AB8" s="12"/>
       <c r="AC8" s="12"/>
       <c r="AD8" s="12"/>
       <c r="AE8" s="12"/>
       <c r="AF8" s="12"/>
-      <c r="AG8" s="33"/>
-      <c r="AH8" s="34"/>
+      <c r="AG8" s="32"/>
+      <c r="AH8" s="33"/>
       <c r="AI8" s="12"/>
       <c r="AJ8" s="12"/>
       <c r="AK8" s="12"/>
       <c r="AL8" s="12"/>
       <c r="AM8" s="12"/>
-      <c r="AN8" s="33"/>
-      <c r="AO8" s="34"/>
+      <c r="AN8" s="32"/>
+      <c r="AO8" s="33"/>
       <c r="AP8" s="12"/>
       <c r="AQ8" s="12"/>
       <c r="AR8" s="12"/>
       <c r="AS8" s="12"/>
       <c r="AT8" s="12"/>
-      <c r="AU8" s="33"/>
-      <c r="AV8" s="34"/>
+      <c r="AU8" s="32"/>
+      <c r="AV8" s="33"/>
       <c r="AW8" s="12"/>
       <c r="AX8" s="12"/>
       <c r="AY8" s="12"/>
       <c r="AZ8" s="12"/>
       <c r="BA8" s="12"/>
-      <c r="BB8" s="33"/>
-      <c r="BC8" s="34"/>
+      <c r="BB8" s="32"/>
+      <c r="BC8" s="33"/>
       <c r="BD8" s="12"/>
       <c r="BE8" s="12"/>
       <c r="BF8" s="12"/>
       <c r="BG8" s="12"/>
       <c r="BH8" s="12"/>
-      <c r="BI8" s="33"/>
-      <c r="BJ8" s="34"/>
+      <c r="BI8" s="32"/>
+      <c r="BJ8" s="33"/>
       <c r="BK8" s="12"/>
       <c r="BL8" s="12"/>
       <c r="BM8" s="12"/>
@@ -2220,29 +2143,29 @@
       <c r="BO8" s="12"/>
     </row>
     <row r="9" spans="1:67" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="64" t="s">
+      <c r="A9" s="62" t="s">
         <v>12</v>
       </c>
-      <c r="B9" s="61" t="s">
+      <c r="B9" s="41" t="s">
         <v>24</v>
       </c>
-      <c r="C9" s="38">
-        <f>IF(COUNTBLANK(C10:C13)=4, "", SUM(C10:C13)/COUNT(C10:C13))</f>
-        <v>0.2</v>
+      <c r="C9" s="37">
+        <f>IF(COUNTBLANK(C10:C12)=4, "", SUM(C10:C12)/COUNT(C10:C12))</f>
+        <v>0.26666666666666666</v>
       </c>
       <c r="D9" s="10">
         <f>IF(AND(F9&lt;&gt;"", E9&lt;&gt;""), F9-E9+1, "")</f>
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E9" s="11">
-        <f>IF(COUNTA(E10:E13)=0,"", MIN(E10:E13))</f>
+        <f>IF(COUNTA(E10:E12)=0,"", MIN(E10:E12))</f>
         <v>45951</v>
       </c>
       <c r="F9" s="11">
-        <f>IF(COUNTBLANK(F10:F13)=4,"", MAX(F10:F13))</f>
-        <v>45960</v>
-      </c>
-      <c r="G9" s="39" t="str" cm="1">
+        <f>IF(COUNTBLANK(F10:F12)=4,"", MAX(F10:F12))</f>
+        <v>45961</v>
+      </c>
+      <c r="G9" s="38" t="str" cm="1">
         <f t="array" ref="G9">_xlfn.TEXTJOIN(", ", TRUE, IF(담당자!C7:I7="O", 담당자!C$2:I$2, ""))</f>
         <v/>
       </c>
@@ -2250,57 +2173,57 @@
       <c r="I9" s="12"/>
       <c r="J9" s="12"/>
       <c r="K9" s="12"/>
-      <c r="L9" s="33"/>
-      <c r="M9" s="34"/>
-      <c r="N9" s="68"/>
-      <c r="O9" s="71"/>
-      <c r="P9" s="71"/>
-      <c r="Q9" s="69"/>
+      <c r="L9" s="32"/>
+      <c r="M9" s="33"/>
+      <c r="N9" s="45"/>
+      <c r="O9" s="48"/>
+      <c r="P9" s="48"/>
+      <c r="Q9" s="46"/>
       <c r="R9" s="12"/>
-      <c r="S9" s="33"/>
-      <c r="T9" s="34"/>
+      <c r="S9" s="32"/>
+      <c r="T9" s="33"/>
       <c r="U9" s="12"/>
       <c r="V9" s="12"/>
       <c r="W9" s="12"/>
       <c r="X9" s="12"/>
       <c r="Y9" s="12"/>
-      <c r="Z9" s="33"/>
-      <c r="AA9" s="34"/>
+      <c r="Z9" s="32"/>
+      <c r="AA9" s="33"/>
       <c r="AB9" s="12"/>
       <c r="AC9" s="12"/>
       <c r="AD9" s="12"/>
       <c r="AE9" s="12"/>
       <c r="AF9" s="12"/>
-      <c r="AG9" s="33"/>
-      <c r="AH9" s="34"/>
+      <c r="AG9" s="32"/>
+      <c r="AH9" s="33"/>
       <c r="AI9" s="12"/>
       <c r="AJ9" s="12"/>
       <c r="AK9" s="12"/>
       <c r="AL9" s="12"/>
       <c r="AM9" s="12"/>
-      <c r="AN9" s="33"/>
-      <c r="AO9" s="34"/>
+      <c r="AN9" s="32"/>
+      <c r="AO9" s="33"/>
       <c r="AP9" s="12"/>
       <c r="AQ9" s="12"/>
       <c r="AR9" s="12"/>
       <c r="AS9" s="12"/>
       <c r="AT9" s="12"/>
-      <c r="AU9" s="33"/>
-      <c r="AV9" s="34"/>
+      <c r="AU9" s="32"/>
+      <c r="AV9" s="33"/>
       <c r="AW9" s="12"/>
       <c r="AX9" s="12"/>
       <c r="AY9" s="12"/>
       <c r="AZ9" s="12"/>
       <c r="BA9" s="12"/>
-      <c r="BB9" s="33"/>
-      <c r="BC9" s="34"/>
+      <c r="BB9" s="32"/>
+      <c r="BC9" s="33"/>
       <c r="BD9" s="12"/>
       <c r="BE9" s="12"/>
       <c r="BF9" s="12"/>
       <c r="BG9" s="12"/>
       <c r="BH9" s="12"/>
-      <c r="BI9" s="33"/>
-      <c r="BJ9" s="34"/>
+      <c r="BI9" s="32"/>
+      <c r="BJ9" s="33"/>
       <c r="BK9" s="12"/>
       <c r="BL9" s="12"/>
       <c r="BM9" s="12"/>
@@ -2308,11 +2231,11 @@
       <c r="BO9" s="12"/>
     </row>
     <row r="10" spans="1:67" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="65"/>
-      <c r="B10" s="62" t="s">
+      <c r="A10" s="63"/>
+      <c r="B10" s="42" t="s">
         <v>23</v>
       </c>
-      <c r="C10" s="38">
+      <c r="C10" s="37">
         <v>0.8</v>
       </c>
       <c r="D10" s="10">
@@ -2325,7 +2248,7 @@
         <f>IF(AND(E10&lt;&gt;"", D10&lt;&gt;""), E10+D10-1, "")</f>
         <v>45954</v>
       </c>
-      <c r="G10" s="37" t="str" cm="1">
+      <c r="G10" s="36" t="str" cm="1">
         <f t="array" ref="G10">_xlfn.TEXTJOIN(", ", TRUE, IF(담당자!C8:I8="O", 담당자!C$2:I$2, ""))</f>
         <v>팀 전체</v>
       </c>
@@ -2333,57 +2256,57 @@
       <c r="I10" s="12"/>
       <c r="J10" s="12"/>
       <c r="K10" s="12"/>
-      <c r="L10" s="33"/>
-      <c r="M10" s="34"/>
-      <c r="N10" s="68"/>
-      <c r="O10" s="71"/>
-      <c r="P10" s="71"/>
-      <c r="Q10" s="69"/>
+      <c r="L10" s="32"/>
+      <c r="M10" s="33"/>
+      <c r="N10" s="45"/>
+      <c r="O10" s="48"/>
+      <c r="P10" s="48"/>
+      <c r="Q10" s="46"/>
       <c r="R10" s="12"/>
-      <c r="S10" s="33"/>
-      <c r="T10" s="34"/>
+      <c r="S10" s="32"/>
+      <c r="T10" s="33"/>
       <c r="U10" s="12"/>
       <c r="V10" s="12"/>
       <c r="W10" s="12"/>
       <c r="X10" s="12"/>
       <c r="Y10" s="12"/>
-      <c r="Z10" s="33"/>
-      <c r="AA10" s="34"/>
+      <c r="Z10" s="32"/>
+      <c r="AA10" s="33"/>
       <c r="AB10" s="12"/>
       <c r="AC10" s="12"/>
       <c r="AD10" s="12"/>
       <c r="AE10" s="12"/>
       <c r="AF10" s="12"/>
-      <c r="AG10" s="33"/>
-      <c r="AH10" s="34"/>
+      <c r="AG10" s="32"/>
+      <c r="AH10" s="33"/>
       <c r="AI10" s="12"/>
       <c r="AJ10" s="12"/>
       <c r="AK10" s="12"/>
       <c r="AL10" s="12"/>
       <c r="AM10" s="12"/>
-      <c r="AN10" s="33"/>
-      <c r="AO10" s="34"/>
+      <c r="AN10" s="32"/>
+      <c r="AO10" s="33"/>
       <c r="AP10" s="12"/>
       <c r="AQ10" s="12"/>
       <c r="AR10" s="12"/>
       <c r="AS10" s="12"/>
       <c r="AT10" s="12"/>
-      <c r="AU10" s="33"/>
-      <c r="AV10" s="34"/>
+      <c r="AU10" s="32"/>
+      <c r="AV10" s="33"/>
       <c r="AW10" s="12"/>
       <c r="AX10" s="12"/>
       <c r="AY10" s="12"/>
       <c r="AZ10" s="12"/>
       <c r="BA10" s="12"/>
-      <c r="BB10" s="33"/>
-      <c r="BC10" s="34"/>
+      <c r="BB10" s="32"/>
+      <c r="BC10" s="33"/>
       <c r="BD10" s="12"/>
       <c r="BE10" s="12"/>
       <c r="BF10" s="12"/>
       <c r="BG10" s="12"/>
       <c r="BH10" s="12"/>
-      <c r="BI10" s="33"/>
-      <c r="BJ10" s="34"/>
+      <c r="BI10" s="32"/>
+      <c r="BJ10" s="33"/>
       <c r="BK10" s="12"/>
       <c r="BL10" s="12"/>
       <c r="BM10" s="12"/>
@@ -2391,11 +2314,11 @@
       <c r="BO10" s="12"/>
     </row>
     <row r="11" spans="1:67" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="65"/>
-      <c r="B11" s="62" t="s">
+      <c r="A11" s="63"/>
+      <c r="B11" s="42" t="s">
         <v>25</v>
       </c>
-      <c r="C11" s="38">
+      <c r="C11" s="37">
         <v>0</v>
       </c>
       <c r="D11" s="10">
@@ -2408,7 +2331,7 @@
         <f>IF(AND(E11&lt;&gt;"", D11&lt;&gt;""), E11+D11-1, "")</f>
         <v>45958</v>
       </c>
-      <c r="G11" s="37" t="str" cm="1">
+      <c r="G11" s="36" t="str" cm="1">
         <f t="array" ref="G11">_xlfn.TEXTJOIN(", ", TRUE, IF(담당자!C9:I9="O", 담당자!C$2:I$2, ""))</f>
         <v>김수민, 신운용</v>
       </c>
@@ -2416,57 +2339,57 @@
       <c r="I11" s="12"/>
       <c r="J11" s="12"/>
       <c r="K11" s="12"/>
-      <c r="L11" s="33"/>
-      <c r="M11" s="34"/>
-      <c r="N11" s="68"/>
-      <c r="O11" s="71"/>
-      <c r="P11" s="71"/>
-      <c r="Q11" s="69"/>
+      <c r="L11" s="32"/>
+      <c r="M11" s="33"/>
+      <c r="N11" s="45"/>
+      <c r="O11" s="48"/>
+      <c r="P11" s="48"/>
+      <c r="Q11" s="46"/>
       <c r="R11" s="12"/>
-      <c r="S11" s="33"/>
-      <c r="T11" s="34"/>
+      <c r="S11" s="32"/>
+      <c r="T11" s="33"/>
       <c r="U11" s="12"/>
       <c r="V11" s="12"/>
       <c r="W11" s="12"/>
       <c r="X11" s="12"/>
       <c r="Y11" s="12"/>
-      <c r="Z11" s="33"/>
-      <c r="AA11" s="34"/>
+      <c r="Z11" s="32"/>
+      <c r="AA11" s="33"/>
       <c r="AB11" s="12"/>
       <c r="AC11" s="12"/>
       <c r="AD11" s="12"/>
       <c r="AE11" s="12"/>
       <c r="AF11" s="12"/>
-      <c r="AG11" s="33"/>
-      <c r="AH11" s="34"/>
+      <c r="AG11" s="32"/>
+      <c r="AH11" s="33"/>
       <c r="AI11" s="12"/>
       <c r="AJ11" s="12"/>
       <c r="AK11" s="12"/>
       <c r="AL11" s="12"/>
       <c r="AM11" s="12"/>
-      <c r="AN11" s="33"/>
-      <c r="AO11" s="34"/>
+      <c r="AN11" s="32"/>
+      <c r="AO11" s="33"/>
       <c r="AP11" s="12"/>
       <c r="AQ11" s="12"/>
       <c r="AR11" s="12"/>
       <c r="AS11" s="12"/>
       <c r="AT11" s="12"/>
-      <c r="AU11" s="33"/>
-      <c r="AV11" s="34"/>
+      <c r="AU11" s="32"/>
+      <c r="AV11" s="33"/>
       <c r="AW11" s="12"/>
       <c r="AX11" s="12"/>
       <c r="AY11" s="12"/>
       <c r="AZ11" s="12"/>
       <c r="BA11" s="12"/>
-      <c r="BB11" s="33"/>
-      <c r="BC11" s="34"/>
+      <c r="BB11" s="32"/>
+      <c r="BC11" s="33"/>
       <c r="BD11" s="12"/>
       <c r="BE11" s="12"/>
       <c r="BF11" s="12"/>
       <c r="BG11" s="12"/>
       <c r="BH11" s="12"/>
-      <c r="BI11" s="33"/>
-      <c r="BJ11" s="34"/>
+      <c r="BI11" s="32"/>
+      <c r="BJ11" s="33"/>
       <c r="BK11" s="12"/>
       <c r="BL11" s="12"/>
       <c r="BM11" s="12"/>
@@ -2474,25 +2397,25 @@
       <c r="BO11" s="12"/>
     </row>
     <row r="12" spans="1:67" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="65"/>
-      <c r="B12" s="62" t="s">
-        <v>26</v>
-      </c>
-      <c r="C12" s="38">
+      <c r="A12" s="63"/>
+      <c r="B12" s="42" t="s">
+        <v>52</v>
+      </c>
+      <c r="C12" s="37">
         <v>0</v>
       </c>
       <c r="D12" s="10">
         <v>2</v>
       </c>
       <c r="E12" s="11">
-        <f>F11+1</f>
-        <v>45959</v>
+        <f>F11+2</f>
+        <v>45960</v>
       </c>
       <c r="F12" s="11">
-        <f t="shared" ref="F12:F31" si="10">IF(AND(E12&lt;&gt;"", D12&lt;&gt;""), E12+D12-1, "")</f>
-        <v>45960</v>
-      </c>
-      <c r="G12" s="37" t="str" cm="1">
+        <f t="shared" ref="F12:F30" si="10">IF(AND(E12&lt;&gt;"", D12&lt;&gt;""), E12+D12-1, "")</f>
+        <v>45961</v>
+      </c>
+      <c r="G12" s="36" t="str" cm="1">
         <f t="array" ref="G12">_xlfn.TEXTJOIN(", ", TRUE, IF(담당자!C10:I10="O", 담당자!C$2:I$2, ""))</f>
         <v>안규태, 장지훈</v>
       </c>
@@ -2500,57 +2423,57 @@
       <c r="I12" s="12"/>
       <c r="J12" s="12"/>
       <c r="K12" s="12"/>
-      <c r="L12" s="33"/>
-      <c r="M12" s="34"/>
-      <c r="N12" s="68"/>
-      <c r="O12" s="71"/>
-      <c r="P12" s="71"/>
-      <c r="Q12" s="69"/>
+      <c r="L12" s="32"/>
+      <c r="M12" s="33"/>
+      <c r="N12" s="45"/>
+      <c r="O12" s="48"/>
+      <c r="P12" s="48"/>
+      <c r="Q12" s="46"/>
       <c r="R12" s="12"/>
-      <c r="S12" s="33"/>
-      <c r="T12" s="34"/>
+      <c r="S12" s="32"/>
+      <c r="T12" s="33"/>
       <c r="U12" s="12"/>
       <c r="V12" s="12"/>
       <c r="W12" s="12"/>
       <c r="X12" s="12"/>
       <c r="Y12" s="12"/>
-      <c r="Z12" s="33"/>
-      <c r="AA12" s="34"/>
+      <c r="Z12" s="32"/>
+      <c r="AA12" s="33"/>
       <c r="AB12" s="12"/>
       <c r="AC12" s="12"/>
       <c r="AD12" s="12"/>
       <c r="AE12" s="12"/>
       <c r="AF12" s="12"/>
-      <c r="AG12" s="33"/>
-      <c r="AH12" s="34"/>
+      <c r="AG12" s="32"/>
+      <c r="AH12" s="33"/>
       <c r="AI12" s="12"/>
       <c r="AJ12" s="12"/>
       <c r="AK12" s="12"/>
       <c r="AL12" s="12"/>
       <c r="AM12" s="12"/>
-      <c r="AN12" s="33"/>
-      <c r="AO12" s="34"/>
+      <c r="AN12" s="32"/>
+      <c r="AO12" s="33"/>
       <c r="AP12" s="12"/>
       <c r="AQ12" s="12"/>
       <c r="AR12" s="12"/>
       <c r="AS12" s="12"/>
       <c r="AT12" s="12"/>
-      <c r="AU12" s="33"/>
-      <c r="AV12" s="34"/>
+      <c r="AU12" s="32"/>
+      <c r="AV12" s="33"/>
       <c r="AW12" s="12"/>
       <c r="AX12" s="12"/>
       <c r="AY12" s="12"/>
       <c r="AZ12" s="12"/>
       <c r="BA12" s="12"/>
-      <c r="BB12" s="33"/>
-      <c r="BC12" s="34"/>
+      <c r="BB12" s="32"/>
+      <c r="BC12" s="33"/>
       <c r="BD12" s="12"/>
       <c r="BE12" s="12"/>
       <c r="BF12" s="12"/>
       <c r="BG12" s="12"/>
       <c r="BH12" s="12"/>
-      <c r="BI12" s="33"/>
-      <c r="BJ12" s="34"/>
+      <c r="BI12" s="32"/>
+      <c r="BJ12" s="33"/>
       <c r="BK12" s="12"/>
       <c r="BL12" s="12"/>
       <c r="BM12" s="12"/>
@@ -2558,83 +2481,85 @@
       <c r="BO12" s="12"/>
     </row>
     <row r="13" spans="1:67" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="65"/>
-      <c r="B13" s="62" t="s">
-        <v>27</v>
-      </c>
-      <c r="C13" s="38">
-        <v>0</v>
+      <c r="A13" s="63"/>
+      <c r="B13" s="41" t="s">
+        <v>28</v>
+      </c>
+      <c r="C13" s="37">
+        <f>IF(COUNTBLANK(C14:C17)=4, "", SUM(C14:C17)/COUNT(C14:C17))</f>
+        <v>1.2500000000000001E-2</v>
       </c>
       <c r="D13" s="10">
-        <v>2</v>
+        <f>IF(AND(F13&lt;&gt;"", E13&lt;&gt;""), F13-E13+1, "")</f>
+        <v>15</v>
       </c>
       <c r="E13" s="11">
-        <f>E12</f>
-        <v>45959</v>
+        <f>IF(COUNTA(E14:E17)=0,"", MIN(E14:E17))</f>
+        <v>45961</v>
       </c>
       <c r="F13" s="11">
-        <f t="shared" si="10"/>
-        <v>45960</v>
-      </c>
-      <c r="G13" s="37" t="str" cm="1">
-        <f t="array" ref="G13">_xlfn.TEXTJOIN(", ", TRUE, IF(담당자!C11:I11="O", 담당자!C$2:I$2, ""))</f>
-        <v>안규태, 백여랑</v>
+        <f>IF(COUNTBLANK(F14:F17)=4,"", MAX(F14:F17))</f>
+        <v>45975</v>
+      </c>
+      <c r="G13" s="38" t="str" cm="1">
+        <f t="array" ref="G13">_xlfn.TEXTJOIN(", ", TRUE, IF(담당자!C12:I12="O", 담당자!C$2:I$2, ""))</f>
+        <v/>
       </c>
       <c r="H13" s="12"/>
       <c r="I13" s="12"/>
-      <c r="J13" s="20"/>
+      <c r="J13" s="12"/>
       <c r="K13" s="12"/>
-      <c r="L13" s="33"/>
-      <c r="M13" s="34"/>
-      <c r="N13" s="68"/>
-      <c r="O13" s="71"/>
-      <c r="P13" s="71"/>
-      <c r="Q13" s="69"/>
+      <c r="L13" s="32"/>
+      <c r="M13" s="33"/>
+      <c r="N13" s="45"/>
+      <c r="O13" s="48"/>
+      <c r="P13" s="48"/>
+      <c r="Q13" s="46"/>
       <c r="R13" s="12"/>
-      <c r="S13" s="33"/>
-      <c r="T13" s="34"/>
+      <c r="S13" s="32"/>
+      <c r="T13" s="33"/>
       <c r="U13" s="12"/>
       <c r="V13" s="12"/>
       <c r="W13" s="12"/>
       <c r="X13" s="12"/>
       <c r="Y13" s="12"/>
-      <c r="Z13" s="33"/>
-      <c r="AA13" s="34"/>
+      <c r="Z13" s="32"/>
+      <c r="AA13" s="33"/>
       <c r="AB13" s="12"/>
       <c r="AC13" s="12"/>
       <c r="AD13" s="12"/>
       <c r="AE13" s="12"/>
       <c r="AF13" s="12"/>
-      <c r="AG13" s="33"/>
-      <c r="AH13" s="34"/>
+      <c r="AG13" s="32"/>
+      <c r="AH13" s="33"/>
       <c r="AI13" s="12"/>
       <c r="AJ13" s="12"/>
       <c r="AK13" s="12"/>
       <c r="AL13" s="12"/>
       <c r="AM13" s="12"/>
-      <c r="AN13" s="33"/>
-      <c r="AO13" s="34"/>
+      <c r="AN13" s="32"/>
+      <c r="AO13" s="33"/>
       <c r="AP13" s="12"/>
       <c r="AQ13" s="12"/>
       <c r="AR13" s="12"/>
       <c r="AS13" s="12"/>
       <c r="AT13" s="12"/>
-      <c r="AU13" s="33"/>
-      <c r="AV13" s="34"/>
+      <c r="AU13" s="32"/>
+      <c r="AV13" s="33"/>
       <c r="AW13" s="12"/>
       <c r="AX13" s="12"/>
       <c r="AY13" s="12"/>
       <c r="AZ13" s="12"/>
       <c r="BA13" s="12"/>
-      <c r="BB13" s="33"/>
-      <c r="BC13" s="34"/>
+      <c r="BB13" s="32"/>
+      <c r="BC13" s="33"/>
       <c r="BD13" s="12"/>
       <c r="BE13" s="12"/>
       <c r="BF13" s="12"/>
       <c r="BG13" s="12"/>
       <c r="BH13" s="12"/>
-      <c r="BI13" s="33"/>
-      <c r="BJ13" s="34"/>
+      <c r="BI13" s="32"/>
+      <c r="BJ13" s="33"/>
       <c r="BK13" s="12"/>
       <c r="BL13" s="12"/>
       <c r="BM13" s="12"/>
@@ -2642,85 +2567,80 @@
       <c r="BO13" s="12"/>
     </row>
     <row r="14" spans="1:67" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="65"/>
-      <c r="B14" s="61" t="s">
-        <v>28</v>
-      </c>
-      <c r="C14" s="38">
-        <f>IF(COUNTBLANK(C15:C18)=4, "", SUM(C15:C18)/COUNT(C15:C18))</f>
-        <v>1.2500000000000001E-2</v>
+      <c r="A14" s="63"/>
+      <c r="B14" s="43" t="s">
+        <v>32</v>
+      </c>
+      <c r="C14" s="37">
+        <v>0.05</v>
       </c>
       <c r="D14" s="10">
-        <f>IF(AND(F14&lt;&gt;"", E14&lt;&gt;""), F14-E14+1, "")</f>
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="E14" s="11">
-        <f>IF(COUNTA(E15:E18)=0,"", MIN(E15:E18))</f>
-        <v>45954</v>
+        <v>45962</v>
       </c>
       <c r="F14" s="11">
-        <f>IF(COUNTBLANK(F15:F18)=4,"", MAX(F15:F18))</f>
-        <v>45964</v>
-      </c>
-      <c r="G14" s="39" t="str" cm="1">
-        <f t="array" ref="G14">_xlfn.TEXTJOIN(", ", TRUE, IF(담당자!C12:I12="O", 담당자!C$2:I$2, ""))</f>
-        <v/>
+        <f t="shared" si="10"/>
+        <v>45965</v>
+      </c>
+      <c r="G14" s="36" t="str" cm="1">
+        <f t="array" ref="G14">_xlfn.TEXTJOIN(", ", TRUE, IF(담당자!C13:I13="O", 담당자!C$2:I$2, ""))</f>
+        <v>안규태</v>
       </c>
       <c r="H14" s="12"/>
-      <c r="I14" s="12"/>
       <c r="J14" s="12"/>
       <c r="K14" s="12"/>
-      <c r="L14" s="33"/>
-      <c r="M14" s="34"/>
-      <c r="N14" s="68"/>
-      <c r="O14" s="71"/>
-      <c r="P14" s="71"/>
-      <c r="Q14" s="69"/>
+      <c r="L14" s="32"/>
+      <c r="M14" s="33"/>
+      <c r="N14" s="45"/>
+      <c r="O14" s="48"/>
+      <c r="P14" s="48"/>
+      <c r="Q14" s="46"/>
       <c r="R14" s="12"/>
-      <c r="S14" s="33"/>
-      <c r="T14" s="34"/>
+      <c r="S14" s="32"/>
+      <c r="T14" s="33"/>
       <c r="U14" s="12"/>
       <c r="V14" s="12"/>
       <c r="W14" s="12"/>
       <c r="X14" s="12"/>
-      <c r="Y14" s="12"/>
-      <c r="Z14" s="33"/>
-      <c r="AA14" s="34"/>
+      <c r="Z14" s="32"/>
+      <c r="AA14" s="33"/>
       <c r="AB14" s="12"/>
       <c r="AC14" s="12"/>
       <c r="AD14" s="12"/>
       <c r="AE14" s="12"/>
       <c r="AF14" s="12"/>
-      <c r="AG14" s="33"/>
-      <c r="AH14" s="34"/>
+      <c r="AG14" s="32"/>
+      <c r="AH14" s="33"/>
       <c r="AI14" s="12"/>
       <c r="AJ14" s="12"/>
       <c r="AK14" s="12"/>
       <c r="AL14" s="12"/>
       <c r="AM14" s="12"/>
-      <c r="AN14" s="33"/>
-      <c r="AO14" s="34"/>
+      <c r="AN14" s="32"/>
+      <c r="AO14" s="33"/>
       <c r="AP14" s="12"/>
       <c r="AQ14" s="12"/>
       <c r="AR14" s="12"/>
       <c r="AS14" s="12"/>
       <c r="AT14" s="12"/>
-      <c r="AU14" s="33"/>
-      <c r="AV14" s="34"/>
+      <c r="AU14" s="32"/>
+      <c r="AV14" s="33"/>
       <c r="AW14" s="12"/>
       <c r="AX14" s="12"/>
       <c r="AY14" s="12"/>
       <c r="AZ14" s="12"/>
       <c r="BA14" s="12"/>
-      <c r="BB14" s="33"/>
-      <c r="BC14" s="34"/>
+      <c r="BB14" s="32"/>
+      <c r="BC14" s="33"/>
       <c r="BD14" s="12"/>
       <c r="BE14" s="12"/>
       <c r="BF14" s="12"/>
       <c r="BG14" s="12"/>
       <c r="BH14" s="12"/>
-      <c r="BI14" s="33"/>
-      <c r="BJ14" s="34"/>
+      <c r="BI14" s="32"/>
+      <c r="BJ14" s="33"/>
       <c r="BK14" s="12"/>
       <c r="BL14" s="12"/>
       <c r="BM14" s="12"/>
@@ -2728,80 +2648,82 @@
       <c r="BO14" s="12"/>
     </row>
     <row r="15" spans="1:67" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="65"/>
-      <c r="B15" s="63" t="s">
-        <v>32</v>
-      </c>
-      <c r="C15" s="38">
-        <v>0.05</v>
+      <c r="A15" s="63"/>
+      <c r="B15" s="43" t="s">
+        <v>33</v>
+      </c>
+      <c r="C15" s="37">
+        <v>0</v>
       </c>
       <c r="D15" s="10">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="E15" s="11">
-        <v>45954</v>
+        <v>45962</v>
       </c>
       <c r="F15" s="11">
         <f t="shared" si="10"/>
-        <v>45959</v>
-      </c>
-      <c r="G15" s="37" t="str" cm="1">
-        <f t="array" ref="G15">_xlfn.TEXTJOIN(", ", TRUE, IF(담당자!C13:I13="O", 담당자!C$2:I$2, ""))</f>
-        <v>안규태</v>
+        <v>45965</v>
+      </c>
+      <c r="G15" s="36" t="str" cm="1">
+        <f t="array" ref="G15">_xlfn.TEXTJOIN(", ", TRUE, IF(담당자!C14:I14="O", 담당자!C$2:I$2, ""))</f>
+        <v>안규태, 김수민</v>
       </c>
       <c r="H15" s="12"/>
+      <c r="I15" s="12"/>
       <c r="J15" s="12"/>
       <c r="K15" s="12"/>
-      <c r="L15" s="33"/>
-      <c r="M15" s="34"/>
-      <c r="N15" s="68"/>
-      <c r="O15" s="71"/>
-      <c r="P15" s="71"/>
-      <c r="Q15" s="69"/>
+      <c r="L15" s="32"/>
+      <c r="M15" s="33"/>
+      <c r="N15" s="45"/>
+      <c r="O15" s="48"/>
+      <c r="P15" s="48"/>
+      <c r="Q15" s="46"/>
       <c r="R15" s="12"/>
-      <c r="S15" s="33"/>
-      <c r="T15" s="34"/>
+      <c r="S15" s="32"/>
+      <c r="T15" s="33"/>
       <c r="U15" s="12"/>
       <c r="V15" s="12"/>
       <c r="W15" s="12"/>
       <c r="X15" s="12"/>
-      <c r="Z15" s="33"/>
-      <c r="AA15" s="34"/>
+      <c r="Y15" s="12"/>
+      <c r="Z15" s="32"/>
+      <c r="AA15" s="33"/>
       <c r="AB15" s="12"/>
       <c r="AC15" s="12"/>
       <c r="AD15" s="12"/>
       <c r="AE15" s="12"/>
       <c r="AF15" s="12"/>
-      <c r="AG15" s="33"/>
-      <c r="AH15" s="34"/>
+      <c r="AG15" s="32"/>
+      <c r="AH15" s="33"/>
       <c r="AI15" s="12"/>
       <c r="AJ15" s="12"/>
       <c r="AK15" s="12"/>
       <c r="AL15" s="12"/>
       <c r="AM15" s="12"/>
-      <c r="AN15" s="33"/>
-      <c r="AO15" s="34"/>
+      <c r="AN15" s="32"/>
+      <c r="AO15" s="33"/>
       <c r="AP15" s="12"/>
       <c r="AQ15" s="12"/>
       <c r="AR15" s="12"/>
       <c r="AS15" s="12"/>
       <c r="AT15" s="12"/>
-      <c r="AU15" s="33"/>
-      <c r="AV15" s="34"/>
+      <c r="AU15" s="32"/>
+      <c r="AV15" s="33"/>
       <c r="AW15" s="12"/>
       <c r="AX15" s="12"/>
       <c r="AY15" s="12"/>
       <c r="AZ15" s="12"/>
       <c r="BA15" s="12"/>
-      <c r="BB15" s="33"/>
-      <c r="BC15" s="34"/>
+      <c r="BB15" s="32"/>
+      <c r="BC15" s="33"/>
       <c r="BD15" s="12"/>
       <c r="BE15" s="12"/>
       <c r="BF15" s="12"/>
       <c r="BG15" s="12"/>
       <c r="BH15" s="12"/>
-      <c r="BI15" s="33"/>
-      <c r="BJ15" s="34"/>
+      <c r="BI15" s="32"/>
+      <c r="BJ15" s="33"/>
       <c r="BK15" s="12"/>
       <c r="BL15" s="12"/>
       <c r="BM15" s="12"/>
@@ -2809,82 +2731,82 @@
       <c r="BO15" s="12"/>
     </row>
     <row r="16" spans="1:67" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="65"/>
-      <c r="B16" s="63" t="s">
-        <v>33</v>
-      </c>
-      <c r="C16" s="38">
+      <c r="A16" s="63"/>
+      <c r="B16" s="43" t="s">
+        <v>34</v>
+      </c>
+      <c r="C16" s="37">
         <v>0</v>
       </c>
       <c r="D16" s="10">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E16" s="11">
-        <v>45960</v>
+        <v>45961</v>
       </c>
       <c r="F16" s="11">
         <f t="shared" si="10"/>
-        <v>45961</v>
-      </c>
-      <c r="G16" s="37" t="str" cm="1">
-        <f t="array" ref="G16">_xlfn.TEXTJOIN(", ", TRUE, IF(담당자!C14:I14="O", 담당자!C$2:I$2, ""))</f>
-        <v>안규태, 김수민</v>
+        <v>45965</v>
+      </c>
+      <c r="G16" s="36" t="str" cm="1">
+        <f t="array" ref="G16">_xlfn.TEXTJOIN(", ", TRUE, IF(담당자!C15:I15="O", 담당자!C$2:I$2, ""))</f>
+        <v>안규태, 백여랑</v>
       </c>
       <c r="H16" s="12"/>
       <c r="I16" s="12"/>
       <c r="J16" s="12"/>
       <c r="K16" s="12"/>
-      <c r="L16" s="33"/>
-      <c r="M16" s="34"/>
-      <c r="N16" s="68"/>
-      <c r="O16" s="71"/>
-      <c r="P16" s="71"/>
-      <c r="Q16" s="69"/>
+      <c r="L16" s="32"/>
+      <c r="M16" s="33"/>
+      <c r="N16" s="45"/>
+      <c r="O16" s="48"/>
+      <c r="P16" s="48"/>
+      <c r="Q16" s="46"/>
       <c r="R16" s="12"/>
-      <c r="S16" s="33"/>
-      <c r="T16" s="34"/>
+      <c r="S16" s="32"/>
+      <c r="T16" s="33"/>
       <c r="U16" s="12"/>
       <c r="V16" s="12"/>
       <c r="W16" s="12"/>
       <c r="X16" s="12"/>
       <c r="Y16" s="12"/>
-      <c r="Z16" s="33"/>
-      <c r="AA16" s="34"/>
+      <c r="Z16" s="32"/>
+      <c r="AA16" s="33"/>
       <c r="AB16" s="12"/>
       <c r="AC16" s="12"/>
       <c r="AD16" s="12"/>
       <c r="AE16" s="12"/>
       <c r="AF16" s="12"/>
-      <c r="AG16" s="33"/>
-      <c r="AH16" s="34"/>
+      <c r="AG16" s="32"/>
+      <c r="AH16" s="33"/>
       <c r="AI16" s="12"/>
       <c r="AJ16" s="12"/>
       <c r="AK16" s="12"/>
       <c r="AL16" s="12"/>
       <c r="AM16" s="12"/>
-      <c r="AN16" s="33"/>
-      <c r="AO16" s="34"/>
+      <c r="AN16" s="32"/>
+      <c r="AO16" s="33"/>
       <c r="AP16" s="12"/>
       <c r="AQ16" s="12"/>
       <c r="AR16" s="12"/>
       <c r="AS16" s="12"/>
       <c r="AT16" s="12"/>
-      <c r="AU16" s="33"/>
-      <c r="AV16" s="34"/>
+      <c r="AU16" s="32"/>
+      <c r="AV16" s="33"/>
       <c r="AW16" s="12"/>
       <c r="AX16" s="12"/>
       <c r="AY16" s="12"/>
       <c r="AZ16" s="12"/>
       <c r="BA16" s="12"/>
-      <c r="BB16" s="33"/>
-      <c r="BC16" s="34"/>
+      <c r="BB16" s="32"/>
+      <c r="BC16" s="33"/>
       <c r="BD16" s="12"/>
       <c r="BE16" s="12"/>
       <c r="BF16" s="12"/>
       <c r="BG16" s="12"/>
       <c r="BH16" s="12"/>
-      <c r="BI16" s="33"/>
-      <c r="BJ16" s="34"/>
+      <c r="BI16" s="32"/>
+      <c r="BJ16" s="33"/>
       <c r="BK16" s="12"/>
       <c r="BL16" s="12"/>
       <c r="BM16" s="12"/>
@@ -2892,82 +2814,82 @@
       <c r="BO16" s="12"/>
     </row>
     <row r="17" spans="1:67" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="65"/>
-      <c r="B17" s="63" t="s">
-        <v>34</v>
-      </c>
-      <c r="C17" s="38">
+      <c r="A17" s="63"/>
+      <c r="B17" s="43" t="s">
+        <v>35</v>
+      </c>
+      <c r="C17" s="37">
         <v>0</v>
       </c>
       <c r="D17" s="10">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="E17" s="11">
-        <v>45960</v>
+        <v>45961</v>
       </c>
       <c r="F17" s="11">
         <f t="shared" si="10"/>
-        <v>45964</v>
-      </c>
-      <c r="G17" s="37" t="str" cm="1">
-        <f t="array" ref="G17">_xlfn.TEXTJOIN(", ", TRUE, IF(담당자!C15:I15="O", 담당자!C$2:I$2, ""))</f>
-        <v>안규태, 백여랑</v>
+        <v>45975</v>
+      </c>
+      <c r="G17" s="36" t="str" cm="1">
+        <f t="array" ref="G17">_xlfn.TEXTJOIN(", ", TRUE, IF(담당자!C16:I16="O", 담당자!C$2:I$2, ""))</f>
+        <v>김수민, 신운용, 장지훈</v>
       </c>
       <c r="H17" s="12"/>
       <c r="I17" s="12"/>
       <c r="J17" s="12"/>
       <c r="K17" s="12"/>
-      <c r="L17" s="33"/>
-      <c r="M17" s="34"/>
-      <c r="N17" s="68"/>
-      <c r="O17" s="71"/>
-      <c r="P17" s="71"/>
-      <c r="Q17" s="69"/>
+      <c r="L17" s="32"/>
+      <c r="M17" s="33"/>
+      <c r="N17" s="45"/>
+      <c r="O17" s="48"/>
+      <c r="P17" s="48"/>
+      <c r="Q17" s="46"/>
       <c r="R17" s="12"/>
-      <c r="S17" s="33"/>
-      <c r="T17" s="34"/>
+      <c r="S17" s="32"/>
+      <c r="T17" s="33"/>
       <c r="U17" s="12"/>
       <c r="V17" s="12"/>
       <c r="W17" s="12"/>
       <c r="X17" s="12"/>
       <c r="Y17" s="12"/>
-      <c r="Z17" s="33"/>
-      <c r="AA17" s="34"/>
+      <c r="Z17" s="32"/>
+      <c r="AA17" s="33"/>
       <c r="AB17" s="12"/>
       <c r="AC17" s="12"/>
       <c r="AD17" s="12"/>
       <c r="AE17" s="12"/>
       <c r="AF17" s="12"/>
-      <c r="AG17" s="33"/>
-      <c r="AH17" s="34"/>
+      <c r="AG17" s="32"/>
+      <c r="AH17" s="33"/>
       <c r="AI17" s="12"/>
       <c r="AJ17" s="12"/>
       <c r="AK17" s="12"/>
       <c r="AL17" s="12"/>
       <c r="AM17" s="12"/>
-      <c r="AN17" s="33"/>
-      <c r="AO17" s="34"/>
+      <c r="AN17" s="32"/>
+      <c r="AO17" s="33"/>
       <c r="AP17" s="12"/>
       <c r="AQ17" s="12"/>
       <c r="AR17" s="12"/>
       <c r="AS17" s="12"/>
       <c r="AT17" s="12"/>
-      <c r="AU17" s="33"/>
-      <c r="AV17" s="34"/>
+      <c r="AU17" s="32"/>
+      <c r="AV17" s="33"/>
       <c r="AW17" s="12"/>
       <c r="AX17" s="12"/>
       <c r="AY17" s="12"/>
       <c r="AZ17" s="12"/>
       <c r="BA17" s="12"/>
-      <c r="BB17" s="33"/>
-      <c r="BC17" s="34"/>
+      <c r="BB17" s="32"/>
+      <c r="BC17" s="33"/>
       <c r="BD17" s="12"/>
       <c r="BE17" s="12"/>
       <c r="BF17" s="12"/>
       <c r="BG17" s="12"/>
       <c r="BH17" s="12"/>
-      <c r="BI17" s="33"/>
-      <c r="BJ17" s="34"/>
+      <c r="BI17" s="32"/>
+      <c r="BJ17" s="33"/>
       <c r="BK17" s="12"/>
       <c r="BL17" s="12"/>
       <c r="BM17" s="12"/>
@@ -2975,82 +2897,82 @@
       <c r="BO17" s="12"/>
     </row>
     <row r="18" spans="1:67" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="65"/>
-      <c r="B18" s="63" t="s">
-        <v>35</v>
-      </c>
-      <c r="C18" s="38">
+      <c r="A18" s="63"/>
+      <c r="B18" s="41" t="s">
+        <v>29</v>
+      </c>
+      <c r="C18" s="37">
         <v>0</v>
       </c>
       <c r="D18" s="10">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="E18" s="11">
-        <v>45960</v>
+        <v>45965</v>
       </c>
       <c r="F18" s="11">
         <f t="shared" si="10"/>
-        <v>45964</v>
-      </c>
-      <c r="G18" s="37" t="str" cm="1">
-        <f t="array" ref="G18">_xlfn.TEXTJOIN(", ", TRUE, IF(담당자!C16:I16="O", 담당자!C$2:I$2, ""))</f>
-        <v>김수민, 신운용, 장지훈</v>
+        <v>45965</v>
+      </c>
+      <c r="G18" s="36" t="str" cm="1">
+        <f t="array" ref="G18">_xlfn.TEXTJOIN(", ", TRUE, IF(담당자!C17:I17="O", 담당자!C$2:I$2, ""))</f>
+        <v>안규태</v>
       </c>
       <c r="H18" s="12"/>
       <c r="I18" s="12"/>
       <c r="J18" s="12"/>
       <c r="K18" s="12"/>
-      <c r="L18" s="33"/>
-      <c r="M18" s="34"/>
-      <c r="N18" s="68"/>
-      <c r="O18" s="71"/>
-      <c r="P18" s="71"/>
-      <c r="Q18" s="69"/>
+      <c r="L18" s="32"/>
+      <c r="M18" s="33"/>
+      <c r="N18" s="45"/>
+      <c r="O18" s="48"/>
+      <c r="P18" s="48"/>
+      <c r="Q18" s="46"/>
       <c r="R18" s="12"/>
-      <c r="S18" s="33"/>
-      <c r="T18" s="34"/>
+      <c r="S18" s="32"/>
+      <c r="T18" s="33"/>
       <c r="U18" s="12"/>
       <c r="V18" s="12"/>
       <c r="W18" s="12"/>
       <c r="X18" s="12"/>
       <c r="Y18" s="12"/>
-      <c r="Z18" s="33"/>
-      <c r="AA18" s="34"/>
+      <c r="Z18" s="32"/>
+      <c r="AA18" s="33"/>
       <c r="AB18" s="12"/>
       <c r="AC18" s="12"/>
       <c r="AD18" s="12"/>
       <c r="AE18" s="12"/>
       <c r="AF18" s="12"/>
-      <c r="AG18" s="33"/>
-      <c r="AH18" s="34"/>
+      <c r="AG18" s="32"/>
+      <c r="AH18" s="33"/>
       <c r="AI18" s="12"/>
       <c r="AJ18" s="12"/>
       <c r="AK18" s="12"/>
       <c r="AL18" s="12"/>
       <c r="AM18" s="12"/>
-      <c r="AN18" s="33"/>
-      <c r="AO18" s="34"/>
+      <c r="AN18" s="32"/>
+      <c r="AO18" s="33"/>
       <c r="AP18" s="12"/>
       <c r="AQ18" s="12"/>
       <c r="AR18" s="12"/>
       <c r="AS18" s="12"/>
       <c r="AT18" s="12"/>
-      <c r="AU18" s="33"/>
-      <c r="AV18" s="34"/>
+      <c r="AU18" s="32"/>
+      <c r="AV18" s="33"/>
       <c r="AW18" s="12"/>
       <c r="AX18" s="12"/>
       <c r="AY18" s="12"/>
       <c r="AZ18" s="12"/>
       <c r="BA18" s="12"/>
-      <c r="BB18" s="33"/>
-      <c r="BC18" s="34"/>
+      <c r="BB18" s="32"/>
+      <c r="BC18" s="33"/>
       <c r="BD18" s="12"/>
       <c r="BE18" s="12"/>
       <c r="BF18" s="12"/>
       <c r="BG18" s="12"/>
       <c r="BH18" s="12"/>
-      <c r="BI18" s="33"/>
-      <c r="BJ18" s="34"/>
+      <c r="BI18" s="32"/>
+      <c r="BJ18" s="33"/>
       <c r="BK18" s="12"/>
       <c r="BL18" s="12"/>
       <c r="BM18" s="12"/>
@@ -3058,82 +2980,85 @@
       <c r="BO18" s="12"/>
     </row>
     <row r="19" spans="1:67" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="65"/>
-      <c r="B19" s="61" t="s">
-        <v>29</v>
-      </c>
-      <c r="C19" s="38">
+      <c r="A19" s="63"/>
+      <c r="B19" s="41" t="s">
+        <v>30</v>
+      </c>
+      <c r="C19" s="37">
+        <f>IF(COUNTBLANK(C20:C21)=2, "", SUM(C20:C21)/COUNT(C20:C21))</f>
         <v>0</v>
       </c>
       <c r="D19" s="10">
-        <v>1</v>
+        <f>IF(AND(F19&lt;&gt;"", E19&lt;&gt;""), F19-E19+1, "")</f>
+        <v>35</v>
       </c>
       <c r="E19" s="11">
-        <v>45965</v>
+        <f>IF(COUNTA(E20:E21)=0,"", MIN(E20:E21))</f>
+        <v>45966</v>
       </c>
       <c r="F19" s="11">
-        <f t="shared" si="10"/>
-        <v>45965</v>
-      </c>
-      <c r="G19" s="37" t="str" cm="1">
-        <f t="array" ref="G19">_xlfn.TEXTJOIN(", ", TRUE, IF(담당자!C17:I17="O", 담당자!C$2:I$2, ""))</f>
-        <v>안규태</v>
+        <f>IF(COUNTBLANK(F20:F21)=2,"", MAX(F20:F21))</f>
+        <v>46000</v>
+      </c>
+      <c r="G19" s="38" t="str" cm="1">
+        <f t="array" ref="G19">_xlfn.TEXTJOIN(", ", TRUE, IF(담당자!C18:I18="O", 담당자!C$2:I$2, ""))</f>
+        <v/>
       </c>
       <c r="H19" s="12"/>
       <c r="I19" s="12"/>
       <c r="J19" s="12"/>
       <c r="K19" s="12"/>
-      <c r="L19" s="33"/>
-      <c r="M19" s="34"/>
-      <c r="N19" s="68"/>
-      <c r="O19" s="71"/>
-      <c r="P19" s="71"/>
-      <c r="Q19" s="69"/>
+      <c r="L19" s="32"/>
+      <c r="M19" s="33"/>
+      <c r="N19" s="45"/>
+      <c r="O19" s="48"/>
+      <c r="P19" s="48"/>
+      <c r="Q19" s="46"/>
       <c r="R19" s="12"/>
-      <c r="S19" s="33"/>
-      <c r="T19" s="34"/>
+      <c r="S19" s="32"/>
+      <c r="T19" s="33"/>
       <c r="U19" s="12"/>
       <c r="V19" s="12"/>
       <c r="W19" s="12"/>
       <c r="X19" s="12"/>
       <c r="Y19" s="12"/>
-      <c r="Z19" s="33"/>
-      <c r="AA19" s="34"/>
+      <c r="Z19" s="32"/>
+      <c r="AA19" s="33"/>
       <c r="AB19" s="12"/>
       <c r="AC19" s="12"/>
       <c r="AD19" s="12"/>
       <c r="AE19" s="12"/>
       <c r="AF19" s="12"/>
-      <c r="AG19" s="33"/>
-      <c r="AH19" s="34"/>
+      <c r="AG19" s="32"/>
+      <c r="AH19" s="33"/>
       <c r="AI19" s="12"/>
       <c r="AJ19" s="12"/>
       <c r="AK19" s="12"/>
       <c r="AL19" s="12"/>
       <c r="AM19" s="12"/>
-      <c r="AN19" s="33"/>
-      <c r="AO19" s="34"/>
+      <c r="AN19" s="32"/>
+      <c r="AO19" s="33"/>
       <c r="AP19" s="12"/>
       <c r="AQ19" s="12"/>
       <c r="AR19" s="12"/>
       <c r="AS19" s="12"/>
       <c r="AT19" s="12"/>
-      <c r="AU19" s="33"/>
-      <c r="AV19" s="34"/>
+      <c r="AU19" s="32"/>
+      <c r="AV19" s="33"/>
       <c r="AW19" s="12"/>
       <c r="AX19" s="12"/>
       <c r="AY19" s="12"/>
       <c r="AZ19" s="12"/>
       <c r="BA19" s="12"/>
-      <c r="BB19" s="33"/>
-      <c r="BC19" s="34"/>
+      <c r="BB19" s="32"/>
+      <c r="BC19" s="33"/>
       <c r="BD19" s="12"/>
       <c r="BE19" s="12"/>
       <c r="BF19" s="12"/>
       <c r="BG19" s="12"/>
       <c r="BH19" s="12"/>
-      <c r="BI19" s="33"/>
-      <c r="BJ19" s="34"/>
+      <c r="BI19" s="32"/>
+      <c r="BJ19" s="33"/>
       <c r="BK19" s="12"/>
       <c r="BL19" s="12"/>
       <c r="BM19" s="12"/>
@@ -3141,85 +3066,82 @@
       <c r="BO19" s="12"/>
     </row>
     <row r="20" spans="1:67" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="65"/>
-      <c r="B20" s="61" t="s">
-        <v>30</v>
-      </c>
-      <c r="C20" s="38">
-        <f>IF(COUNTBLANK(C21:C22)=2, "", SUM(C21:C22)/COUNT(C21:C22))</f>
+      <c r="A20" s="63"/>
+      <c r="B20" s="43" t="s">
+        <v>36</v>
+      </c>
+      <c r="C20" s="37">
         <v>0</v>
       </c>
       <c r="D20" s="10">
-        <f>IF(AND(F20&lt;&gt;"", E20&lt;&gt;""), F20-E20+1, "")</f>
         <v>35</v>
       </c>
       <c r="E20" s="11">
-        <f>IF(COUNTA(E21:E22)=0,"", MIN(E21:E22))</f>
         <v>45966</v>
       </c>
       <c r="F20" s="11">
-        <f>IF(COUNTBLANK(F21:F22)=2,"", MAX(F21:F22))</f>
+        <f t="shared" si="10"/>
         <v>46000</v>
       </c>
-      <c r="G20" s="39" t="str" cm="1">
-        <f t="array" ref="G20">_xlfn.TEXTJOIN(", ", TRUE, IF(담당자!C18:I18="O", 담당자!C$2:I$2, ""))</f>
-        <v/>
+      <c r="G20" s="36" t="str" cm="1">
+        <f t="array" ref="G20">_xlfn.TEXTJOIN(", ", TRUE, IF(담당자!C19:I19="O", 담당자!C$2:I$2, ""))</f>
+        <v>팀 전체</v>
       </c>
       <c r="H20" s="12"/>
       <c r="I20" s="12"/>
       <c r="J20" s="12"/>
       <c r="K20" s="12"/>
-      <c r="L20" s="33"/>
-      <c r="M20" s="34"/>
-      <c r="N20" s="68"/>
-      <c r="O20" s="71"/>
-      <c r="P20" s="71"/>
-      <c r="Q20" s="69"/>
+      <c r="L20" s="32"/>
+      <c r="M20" s="33"/>
+      <c r="N20" s="45"/>
+      <c r="O20" s="48"/>
+      <c r="P20" s="48"/>
+      <c r="Q20" s="46"/>
       <c r="R20" s="12"/>
-      <c r="S20" s="33"/>
-      <c r="T20" s="34"/>
+      <c r="S20" s="32"/>
+      <c r="T20" s="33"/>
       <c r="U20" s="12"/>
       <c r="V20" s="12"/>
       <c r="W20" s="12"/>
       <c r="X20" s="12"/>
       <c r="Y20" s="12"/>
-      <c r="Z20" s="33"/>
-      <c r="AA20" s="34"/>
+      <c r="Z20" s="32"/>
+      <c r="AA20" s="33"/>
       <c r="AB20" s="12"/>
       <c r="AC20" s="12"/>
       <c r="AD20" s="12"/>
       <c r="AE20" s="12"/>
       <c r="AF20" s="12"/>
-      <c r="AG20" s="33"/>
-      <c r="AH20" s="34"/>
+      <c r="AG20" s="32"/>
+      <c r="AH20" s="33"/>
       <c r="AI20" s="12"/>
       <c r="AJ20" s="12"/>
       <c r="AK20" s="12"/>
       <c r="AL20" s="12"/>
       <c r="AM20" s="12"/>
-      <c r="AN20" s="33"/>
-      <c r="AO20" s="34"/>
+      <c r="AN20" s="32"/>
+      <c r="AO20" s="33"/>
       <c r="AP20" s="12"/>
       <c r="AQ20" s="12"/>
       <c r="AR20" s="12"/>
       <c r="AS20" s="12"/>
       <c r="AT20" s="12"/>
-      <c r="AU20" s="33"/>
-      <c r="AV20" s="34"/>
+      <c r="AU20" s="32"/>
+      <c r="AV20" s="33"/>
       <c r="AW20" s="12"/>
       <c r="AX20" s="12"/>
       <c r="AY20" s="12"/>
       <c r="AZ20" s="12"/>
       <c r="BA20" s="12"/>
-      <c r="BB20" s="33"/>
-      <c r="BC20" s="34"/>
+      <c r="BB20" s="32"/>
+      <c r="BC20" s="33"/>
       <c r="BD20" s="12"/>
       <c r="BE20" s="12"/>
       <c r="BF20" s="12"/>
       <c r="BG20" s="12"/>
       <c r="BH20" s="12"/>
-      <c r="BI20" s="33"/>
-      <c r="BJ20" s="34"/>
+      <c r="BI20" s="32"/>
+      <c r="BJ20" s="33"/>
       <c r="BK20" s="12"/>
       <c r="BL20" s="12"/>
       <c r="BM20" s="12"/>
@@ -3227,11 +3149,11 @@
       <c r="BO20" s="12"/>
     </row>
     <row r="21" spans="1:67" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="65"/>
-      <c r="B21" s="63" t="s">
-        <v>36</v>
-      </c>
-      <c r="C21" s="38">
+      <c r="A21" s="63"/>
+      <c r="B21" s="43" t="s">
+        <v>37</v>
+      </c>
+      <c r="C21" s="37">
         <v>0</v>
       </c>
       <c r="D21" s="10">
@@ -3244,65 +3166,65 @@
         <f t="shared" si="10"/>
         <v>46000</v>
       </c>
-      <c r="G21" s="37" t="str" cm="1">
-        <f t="array" ref="G21">_xlfn.TEXTJOIN(", ", TRUE, IF(담당자!C19:I19="O", 담당자!C$2:I$2, ""))</f>
+      <c r="G21" s="36" t="str" cm="1">
+        <f t="array" ref="G21">_xlfn.TEXTJOIN(", ", TRUE, IF(담당자!C20:I20="O", 담당자!C$2:I$2, ""))</f>
         <v>팀 전체</v>
       </c>
       <c r="H21" s="12"/>
       <c r="I21" s="12"/>
       <c r="J21" s="12"/>
       <c r="K21" s="12"/>
-      <c r="L21" s="33"/>
-      <c r="M21" s="34"/>
-      <c r="N21" s="68"/>
-      <c r="O21" s="71"/>
-      <c r="P21" s="71"/>
-      <c r="Q21" s="69"/>
+      <c r="L21" s="32"/>
+      <c r="M21" s="33"/>
+      <c r="N21" s="45"/>
+      <c r="O21" s="48"/>
+      <c r="P21" s="48"/>
+      <c r="Q21" s="46"/>
       <c r="R21" s="12"/>
-      <c r="S21" s="33"/>
-      <c r="T21" s="34"/>
+      <c r="S21" s="32"/>
+      <c r="T21" s="33"/>
       <c r="U21" s="12"/>
       <c r="V21" s="12"/>
       <c r="W21" s="12"/>
       <c r="X21" s="12"/>
       <c r="Y21" s="12"/>
-      <c r="Z21" s="33"/>
-      <c r="AA21" s="34"/>
+      <c r="Z21" s="32"/>
+      <c r="AA21" s="33"/>
       <c r="AB21" s="12"/>
       <c r="AC21" s="12"/>
       <c r="AD21" s="12"/>
       <c r="AE21" s="12"/>
       <c r="AF21" s="12"/>
-      <c r="AG21" s="33"/>
-      <c r="AH21" s="34"/>
+      <c r="AG21" s="32"/>
+      <c r="AH21" s="33"/>
       <c r="AI21" s="12"/>
       <c r="AJ21" s="12"/>
       <c r="AK21" s="12"/>
       <c r="AL21" s="12"/>
       <c r="AM21" s="12"/>
-      <c r="AN21" s="33"/>
-      <c r="AO21" s="34"/>
+      <c r="AN21" s="32"/>
+      <c r="AO21" s="33"/>
       <c r="AP21" s="12"/>
       <c r="AQ21" s="12"/>
       <c r="AR21" s="12"/>
       <c r="AS21" s="12"/>
       <c r="AT21" s="12"/>
-      <c r="AU21" s="33"/>
-      <c r="AV21" s="34"/>
+      <c r="AU21" s="32"/>
+      <c r="AV21" s="33"/>
       <c r="AW21" s="12"/>
       <c r="AX21" s="12"/>
       <c r="AY21" s="12"/>
       <c r="AZ21" s="12"/>
       <c r="BA21" s="12"/>
-      <c r="BB21" s="33"/>
-      <c r="BC21" s="34"/>
+      <c r="BB21" s="32"/>
+      <c r="BC21" s="33"/>
       <c r="BD21" s="12"/>
       <c r="BE21" s="12"/>
       <c r="BF21" s="12"/>
       <c r="BG21" s="12"/>
       <c r="BH21" s="12"/>
-      <c r="BI21" s="33"/>
-      <c r="BJ21" s="34"/>
+      <c r="BI21" s="32"/>
+      <c r="BJ21" s="33"/>
       <c r="BK21" s="12"/>
       <c r="BL21" s="12"/>
       <c r="BM21" s="12"/>
@@ -3310,82 +3232,85 @@
       <c r="BO21" s="12"/>
     </row>
     <row r="22" spans="1:67" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="65"/>
-      <c r="B22" s="63" t="s">
-        <v>37</v>
-      </c>
-      <c r="C22" s="38">
+      <c r="A22" s="63"/>
+      <c r="B22" s="41" t="s">
+        <v>31</v>
+      </c>
+      <c r="C22" s="37">
+        <f>IF(COUNTBLANK(C23:C24)=2, "", SUM(C23:C24)/COUNT(C23:C24))</f>
         <v>0</v>
       </c>
       <c r="D22" s="10">
-        <v>35</v>
+        <f>IF(AND(F22&lt;&gt;"", E22&lt;&gt;""), F22-E22+1, "")</f>
+        <v>3</v>
       </c>
       <c r="E22" s="11">
-        <v>45966</v>
+        <f>IF(COUNTA(E23:E24)=0,"", MIN(E23:E24))</f>
+        <v>46000</v>
       </c>
       <c r="F22" s="11">
-        <f t="shared" si="10"/>
-        <v>46000</v>
-      </c>
-      <c r="G22" s="37" t="str" cm="1">
-        <f t="array" ref="G22">_xlfn.TEXTJOIN(", ", TRUE, IF(담당자!C20:I20="O", 담당자!C$2:I$2, ""))</f>
-        <v>팀 전체</v>
+        <f>IF(COUNTBLANK(F23:F24)=2,"", MAX(F23:F24))</f>
+        <v>46002</v>
+      </c>
+      <c r="G22" s="38" t="str" cm="1">
+        <f t="array" ref="G22">_xlfn.TEXTJOIN(", ", TRUE, IF(담당자!C21:I21="O", 담당자!C$2:I$2, ""))</f>
+        <v/>
       </c>
       <c r="H22" s="12"/>
       <c r="I22" s="12"/>
       <c r="J22" s="12"/>
       <c r="K22" s="12"/>
-      <c r="L22" s="33"/>
-      <c r="M22" s="34"/>
-      <c r="N22" s="68"/>
-      <c r="O22" s="71"/>
-      <c r="P22" s="71"/>
-      <c r="Q22" s="69"/>
+      <c r="L22" s="32"/>
+      <c r="M22" s="33"/>
+      <c r="N22" s="45"/>
+      <c r="O22" s="48"/>
+      <c r="P22" s="48"/>
+      <c r="Q22" s="46"/>
       <c r="R22" s="12"/>
-      <c r="S22" s="33"/>
-      <c r="T22" s="34"/>
+      <c r="S22" s="32"/>
+      <c r="T22" s="33"/>
       <c r="U22" s="12"/>
       <c r="V22" s="12"/>
       <c r="W22" s="12"/>
       <c r="X22" s="12"/>
       <c r="Y22" s="12"/>
-      <c r="Z22" s="33"/>
-      <c r="AA22" s="34"/>
+      <c r="Z22" s="32"/>
+      <c r="AA22" s="33"/>
       <c r="AB22" s="12"/>
       <c r="AC22" s="12"/>
       <c r="AD22" s="12"/>
       <c r="AE22" s="12"/>
       <c r="AF22" s="12"/>
-      <c r="AG22" s="33"/>
-      <c r="AH22" s="34"/>
+      <c r="AG22" s="32"/>
+      <c r="AH22" s="33"/>
       <c r="AI22" s="12"/>
       <c r="AJ22" s="12"/>
       <c r="AK22" s="12"/>
       <c r="AL22" s="12"/>
       <c r="AM22" s="12"/>
-      <c r="AN22" s="33"/>
-      <c r="AO22" s="34"/>
+      <c r="AN22" s="32"/>
+      <c r="AO22" s="33"/>
       <c r="AP22" s="12"/>
       <c r="AQ22" s="12"/>
       <c r="AR22" s="12"/>
       <c r="AS22" s="12"/>
       <c r="AT22" s="12"/>
-      <c r="AU22" s="33"/>
-      <c r="AV22" s="34"/>
+      <c r="AU22" s="32"/>
+      <c r="AV22" s="33"/>
       <c r="AW22" s="12"/>
       <c r="AX22" s="12"/>
       <c r="AY22" s="12"/>
       <c r="AZ22" s="12"/>
       <c r="BA22" s="12"/>
-      <c r="BB22" s="33"/>
-      <c r="BC22" s="34"/>
+      <c r="BB22" s="32"/>
+      <c r="BC22" s="33"/>
       <c r="BD22" s="12"/>
       <c r="BE22" s="12"/>
       <c r="BF22" s="12"/>
       <c r="BG22" s="12"/>
       <c r="BH22" s="12"/>
-      <c r="BI22" s="33"/>
-      <c r="BJ22" s="34"/>
+      <c r="BI22" s="32"/>
+      <c r="BJ22" s="33"/>
       <c r="BK22" s="12"/>
       <c r="BL22" s="12"/>
       <c r="BM22" s="12"/>
@@ -3393,85 +3318,82 @@
       <c r="BO22" s="12"/>
     </row>
     <row r="23" spans="1:67" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="65"/>
-      <c r="B23" s="61" t="s">
-        <v>31</v>
-      </c>
-      <c r="C23" s="38">
-        <f>IF(COUNTBLANK(C24:C25)=2, "", SUM(C24:C25)/COUNT(C24:C25))</f>
+      <c r="A23" s="63"/>
+      <c r="B23" s="43" t="s">
+        <v>38</v>
+      </c>
+      <c r="C23" s="37">
         <v>0</v>
       </c>
       <c r="D23" s="10">
-        <f>IF(AND(F23&lt;&gt;"", E23&lt;&gt;""), F23-E23+1, "")</f>
         <v>3</v>
       </c>
       <c r="E23" s="11">
-        <f>IF(COUNTA(E24:E25)=0,"", MIN(E24:E25))</f>
         <v>46000</v>
       </c>
       <c r="F23" s="11">
-        <f>IF(COUNTBLANK(F24:F25)=2,"", MAX(F24:F25))</f>
+        <f t="shared" si="10"/>
         <v>46002</v>
       </c>
-      <c r="G23" s="39" t="str" cm="1">
-        <f t="array" ref="G23">_xlfn.TEXTJOIN(", ", TRUE, IF(담당자!C21:I21="O", 담당자!C$2:I$2, ""))</f>
-        <v/>
+      <c r="G23" s="36" t="str" cm="1">
+        <f t="array" ref="G23">_xlfn.TEXTJOIN(", ", TRUE, IF(담당자!C22:I22="O", 담당자!C$2:I$2, ""))</f>
+        <v>안규태</v>
       </c>
       <c r="H23" s="12"/>
       <c r="I23" s="12"/>
       <c r="J23" s="12"/>
       <c r="K23" s="12"/>
-      <c r="L23" s="33"/>
-      <c r="M23" s="34"/>
-      <c r="N23" s="68"/>
-      <c r="O23" s="71"/>
-      <c r="P23" s="71"/>
-      <c r="Q23" s="69"/>
+      <c r="L23" s="32"/>
+      <c r="M23" s="33"/>
+      <c r="N23" s="45"/>
+      <c r="O23" s="48"/>
+      <c r="P23" s="48"/>
+      <c r="Q23" s="46"/>
       <c r="R23" s="12"/>
-      <c r="S23" s="33"/>
-      <c r="T23" s="34"/>
+      <c r="S23" s="32"/>
+      <c r="T23" s="33"/>
       <c r="U23" s="12"/>
       <c r="V23" s="12"/>
       <c r="W23" s="12"/>
       <c r="X23" s="12"/>
       <c r="Y23" s="12"/>
-      <c r="Z23" s="33"/>
-      <c r="AA23" s="34"/>
+      <c r="Z23" s="32"/>
+      <c r="AA23" s="33"/>
       <c r="AB23" s="12"/>
       <c r="AC23" s="12"/>
       <c r="AD23" s="12"/>
       <c r="AE23" s="12"/>
       <c r="AF23" s="12"/>
-      <c r="AG23" s="33"/>
-      <c r="AH23" s="34"/>
+      <c r="AG23" s="32"/>
+      <c r="AH23" s="33"/>
       <c r="AI23" s="12"/>
       <c r="AJ23" s="12"/>
       <c r="AK23" s="12"/>
       <c r="AL23" s="12"/>
       <c r="AM23" s="12"/>
-      <c r="AN23" s="33"/>
-      <c r="AO23" s="34"/>
+      <c r="AN23" s="32"/>
+      <c r="AO23" s="33"/>
       <c r="AP23" s="12"/>
       <c r="AQ23" s="12"/>
       <c r="AR23" s="12"/>
       <c r="AS23" s="12"/>
       <c r="AT23" s="12"/>
-      <c r="AU23" s="33"/>
-      <c r="AV23" s="34"/>
+      <c r="AU23" s="32"/>
+      <c r="AV23" s="33"/>
       <c r="AW23" s="12"/>
       <c r="AX23" s="12"/>
       <c r="AY23" s="12"/>
       <c r="AZ23" s="12"/>
       <c r="BA23" s="12"/>
-      <c r="BB23" s="33"/>
-      <c r="BC23" s="34"/>
+      <c r="BB23" s="32"/>
+      <c r="BC23" s="33"/>
       <c r="BD23" s="12"/>
       <c r="BE23" s="12"/>
       <c r="BF23" s="12"/>
       <c r="BG23" s="12"/>
       <c r="BH23" s="12"/>
-      <c r="BI23" s="33"/>
-      <c r="BJ23" s="34"/>
+      <c r="BI23" s="32"/>
+      <c r="BJ23" s="33"/>
       <c r="BK23" s="12"/>
       <c r="BL23" s="12"/>
       <c r="BM23" s="12"/>
@@ -3479,11 +3401,11 @@
       <c r="BO23" s="12"/>
     </row>
     <row r="24" spans="1:67" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="65"/>
-      <c r="B24" s="63" t="s">
-        <v>38</v>
-      </c>
-      <c r="C24" s="38">
+      <c r="A24" s="63"/>
+      <c r="B24" s="43" t="s">
+        <v>39</v>
+      </c>
+      <c r="C24" s="37">
         <v>0</v>
       </c>
       <c r="D24" s="10">
@@ -3496,65 +3418,65 @@
         <f t="shared" si="10"/>
         <v>46002</v>
       </c>
-      <c r="G24" s="37" t="str" cm="1">
-        <f t="array" ref="G24">_xlfn.TEXTJOIN(", ", TRUE, IF(담당자!C22:I22="O", 담당자!C$2:I$2, ""))</f>
-        <v>안규태</v>
+      <c r="G24" s="36" t="str" cm="1">
+        <f t="array" ref="G24">_xlfn.TEXTJOIN(", ", TRUE, IF(담당자!C23:I23="O", 담당자!C$2:I$2, ""))</f>
+        <v>팀 전체</v>
       </c>
       <c r="H24" s="12"/>
       <c r="I24" s="12"/>
       <c r="J24" s="12"/>
-      <c r="K24" s="12"/>
-      <c r="L24" s="33"/>
-      <c r="M24" s="34"/>
-      <c r="N24" s="68"/>
-      <c r="O24" s="71"/>
-      <c r="P24" s="71"/>
-      <c r="Q24" s="69"/>
+      <c r="K24" s="40"/>
+      <c r="L24" s="32"/>
+      <c r="M24" s="33"/>
+      <c r="N24" s="45"/>
+      <c r="O24" s="48"/>
+      <c r="P24" s="48"/>
+      <c r="Q24" s="46"/>
       <c r="R24" s="12"/>
-      <c r="S24" s="33"/>
-      <c r="T24" s="34"/>
+      <c r="S24" s="32"/>
+      <c r="T24" s="33"/>
       <c r="U24" s="12"/>
       <c r="V24" s="12"/>
       <c r="W24" s="12"/>
       <c r="X24" s="12"/>
       <c r="Y24" s="12"/>
-      <c r="Z24" s="33"/>
-      <c r="AA24" s="34"/>
+      <c r="Z24" s="32"/>
+      <c r="AA24" s="33"/>
       <c r="AB24" s="12"/>
       <c r="AC24" s="12"/>
       <c r="AD24" s="12"/>
       <c r="AE24" s="12"/>
       <c r="AF24" s="12"/>
-      <c r="AG24" s="33"/>
-      <c r="AH24" s="34"/>
+      <c r="AG24" s="32"/>
+      <c r="AH24" s="33"/>
       <c r="AI24" s="12"/>
       <c r="AJ24" s="12"/>
       <c r="AK24" s="12"/>
       <c r="AL24" s="12"/>
       <c r="AM24" s="12"/>
-      <c r="AN24" s="33"/>
-      <c r="AO24" s="34"/>
+      <c r="AN24" s="32"/>
+      <c r="AO24" s="33"/>
       <c r="AP24" s="12"/>
       <c r="AQ24" s="12"/>
       <c r="AR24" s="12"/>
       <c r="AS24" s="12"/>
       <c r="AT24" s="12"/>
-      <c r="AU24" s="33"/>
-      <c r="AV24" s="34"/>
+      <c r="AU24" s="32"/>
+      <c r="AV24" s="33"/>
       <c r="AW24" s="12"/>
       <c r="AX24" s="12"/>
       <c r="AY24" s="12"/>
       <c r="AZ24" s="12"/>
       <c r="BA24" s="12"/>
-      <c r="BB24" s="33"/>
-      <c r="BC24" s="34"/>
+      <c r="BB24" s="32"/>
+      <c r="BC24" s="33"/>
       <c r="BD24" s="12"/>
       <c r="BE24" s="12"/>
       <c r="BF24" s="12"/>
       <c r="BG24" s="12"/>
       <c r="BH24" s="12"/>
-      <c r="BI24" s="33"/>
-      <c r="BJ24" s="34"/>
+      <c r="BI24" s="32"/>
+      <c r="BJ24" s="33"/>
       <c r="BK24" s="12"/>
       <c r="BL24" s="12"/>
       <c r="BM24" s="12"/>
@@ -3562,82 +3484,85 @@
       <c r="BO24" s="12"/>
     </row>
     <row r="25" spans="1:67" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="65"/>
-      <c r="B25" s="63" t="s">
-        <v>39</v>
-      </c>
-      <c r="C25" s="38">
+      <c r="A25" s="63"/>
+      <c r="B25" s="41" t="s">
+        <v>40</v>
+      </c>
+      <c r="C25" s="37">
+        <f>IF(COUNTBLANK(C26:C27)=2, "", SUM(C26:C27)/COUNT(C26:C27))</f>
         <v>0</v>
       </c>
       <c r="D25" s="10">
-        <v>3</v>
+        <f>IF(AND(F25&lt;&gt;"", E25&lt;&gt;""), F25-E25+1, "")</f>
+        <v>2</v>
       </c>
       <c r="E25" s="11">
-        <v>46000</v>
+        <f>IF(COUNTA(E26:E27)=0,"", MIN(E26:E27))</f>
+        <v>46002</v>
       </c>
       <c r="F25" s="11">
-        <f t="shared" si="10"/>
-        <v>46002</v>
-      </c>
-      <c r="G25" s="37" t="str" cm="1">
-        <f t="array" ref="G25">_xlfn.TEXTJOIN(", ", TRUE, IF(담당자!C23:I23="O", 담당자!C$2:I$2, ""))</f>
-        <v>팀 전체</v>
+        <f>IF(COUNTBLANK(F26:F27)=2,"", MAX(F26:F27))</f>
+        <v>46003</v>
+      </c>
+      <c r="G25" s="38" t="str" cm="1">
+        <f t="array" ref="G25">_xlfn.TEXTJOIN(", ", TRUE, IF(담당자!C24:I24="O", 담당자!C$2:I$2, ""))</f>
+        <v/>
       </c>
       <c r="H25" s="12"/>
       <c r="I25" s="12"/>
       <c r="J25" s="12"/>
-      <c r="K25" s="60"/>
-      <c r="L25" s="33"/>
-      <c r="M25" s="34"/>
-      <c r="N25" s="68"/>
-      <c r="O25" s="71"/>
-      <c r="P25" s="71"/>
-      <c r="Q25" s="69"/>
+      <c r="K25" s="12"/>
+      <c r="L25" s="32"/>
+      <c r="M25" s="33"/>
+      <c r="N25" s="45"/>
+      <c r="O25" s="48"/>
+      <c r="P25" s="48"/>
+      <c r="Q25" s="46"/>
       <c r="R25" s="12"/>
-      <c r="S25" s="33"/>
-      <c r="T25" s="34"/>
+      <c r="S25" s="32"/>
+      <c r="T25" s="33"/>
       <c r="U25" s="12"/>
       <c r="V25" s="12"/>
       <c r="W25" s="12"/>
       <c r="X25" s="12"/>
       <c r="Y25" s="12"/>
-      <c r="Z25" s="33"/>
-      <c r="AA25" s="34"/>
+      <c r="Z25" s="32"/>
+      <c r="AA25" s="33"/>
       <c r="AB25" s="12"/>
       <c r="AC25" s="12"/>
       <c r="AD25" s="12"/>
       <c r="AE25" s="12"/>
       <c r="AF25" s="12"/>
-      <c r="AG25" s="33"/>
-      <c r="AH25" s="34"/>
+      <c r="AG25" s="32"/>
+      <c r="AH25" s="33"/>
       <c r="AI25" s="12"/>
       <c r="AJ25" s="12"/>
       <c r="AK25" s="12"/>
       <c r="AL25" s="12"/>
       <c r="AM25" s="12"/>
-      <c r="AN25" s="33"/>
-      <c r="AO25" s="34"/>
+      <c r="AN25" s="32"/>
+      <c r="AO25" s="33"/>
       <c r="AP25" s="12"/>
       <c r="AQ25" s="12"/>
       <c r="AR25" s="12"/>
       <c r="AS25" s="12"/>
       <c r="AT25" s="12"/>
-      <c r="AU25" s="33"/>
-      <c r="AV25" s="34"/>
+      <c r="AU25" s="32"/>
+      <c r="AV25" s="33"/>
       <c r="AW25" s="12"/>
       <c r="AX25" s="12"/>
       <c r="AY25" s="12"/>
       <c r="AZ25" s="12"/>
       <c r="BA25" s="12"/>
-      <c r="BB25" s="33"/>
-      <c r="BC25" s="34"/>
+      <c r="BB25" s="32"/>
+      <c r="BC25" s="33"/>
       <c r="BD25" s="12"/>
       <c r="BE25" s="12"/>
       <c r="BF25" s="12"/>
       <c r="BG25" s="12"/>
       <c r="BH25" s="12"/>
-      <c r="BI25" s="33"/>
-      <c r="BJ25" s="34"/>
+      <c r="BI25" s="32"/>
+      <c r="BJ25" s="33"/>
       <c r="BK25" s="12"/>
       <c r="BL25" s="12"/>
       <c r="BM25" s="12"/>
@@ -3645,85 +3570,82 @@
       <c r="BO25" s="12"/>
     </row>
     <row r="26" spans="1:67" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="65"/>
-      <c r="B26" s="61" t="s">
-        <v>40</v>
-      </c>
-      <c r="C26" s="38">
-        <f>IF(COUNTBLANK(C27:C28)=2, "", SUM(C27:C28)/COUNT(C27:C28))</f>
+      <c r="A26" s="63"/>
+      <c r="B26" s="43" t="s">
+        <v>41</v>
+      </c>
+      <c r="C26" s="37">
         <v>0</v>
       </c>
       <c r="D26" s="10">
-        <f>IF(AND(F26&lt;&gt;"", E26&lt;&gt;""), F26-E26+1, "")</f>
         <v>2</v>
       </c>
       <c r="E26" s="11">
-        <f>IF(COUNTA(E27:E28)=0,"", MIN(E27:E28))</f>
         <v>46002</v>
       </c>
       <c r="F26" s="11">
-        <f>IF(COUNTBLANK(F27:F28)=2,"", MAX(F27:F28))</f>
+        <f t="shared" si="10"/>
         <v>46003</v>
       </c>
-      <c r="G26" s="39" t="str" cm="1">
-        <f t="array" ref="G26">_xlfn.TEXTJOIN(", ", TRUE, IF(담당자!C24:I24="O", 담당자!C$2:I$2, ""))</f>
-        <v/>
+      <c r="G26" s="36" t="str" cm="1">
+        <f t="array" ref="G26">_xlfn.TEXTJOIN(", ", TRUE, IF(담당자!C25:I25="O", 담당자!C$2:I$2, ""))</f>
+        <v>팀 전체</v>
       </c>
       <c r="H26" s="12"/>
       <c r="I26" s="12"/>
       <c r="J26" s="12"/>
       <c r="K26" s="12"/>
-      <c r="L26" s="33"/>
-      <c r="M26" s="34"/>
-      <c r="N26" s="68"/>
-      <c r="O26" s="71"/>
-      <c r="P26" s="71"/>
-      <c r="Q26" s="69"/>
+      <c r="L26" s="32"/>
+      <c r="M26" s="33"/>
+      <c r="N26" s="45"/>
+      <c r="O26" s="48"/>
+      <c r="P26" s="48"/>
+      <c r="Q26" s="46"/>
       <c r="R26" s="12"/>
-      <c r="S26" s="33"/>
-      <c r="T26" s="34"/>
+      <c r="S26" s="32"/>
+      <c r="T26" s="33"/>
       <c r="U26" s="12"/>
       <c r="V26" s="12"/>
       <c r="W26" s="12"/>
       <c r="X26" s="12"/>
       <c r="Y26" s="12"/>
-      <c r="Z26" s="33"/>
-      <c r="AA26" s="34"/>
+      <c r="Z26" s="32"/>
+      <c r="AA26" s="33"/>
       <c r="AB26" s="12"/>
       <c r="AC26" s="12"/>
       <c r="AD26" s="12"/>
       <c r="AE26" s="12"/>
       <c r="AF26" s="12"/>
-      <c r="AG26" s="33"/>
-      <c r="AH26" s="34"/>
+      <c r="AG26" s="32"/>
+      <c r="AH26" s="33"/>
       <c r="AI26" s="12"/>
       <c r="AJ26" s="12"/>
       <c r="AK26" s="12"/>
       <c r="AL26" s="12"/>
       <c r="AM26" s="12"/>
-      <c r="AN26" s="33"/>
-      <c r="AO26" s="34"/>
+      <c r="AN26" s="32"/>
+      <c r="AO26" s="33"/>
       <c r="AP26" s="12"/>
       <c r="AQ26" s="12"/>
       <c r="AR26" s="12"/>
       <c r="AS26" s="12"/>
       <c r="AT26" s="12"/>
-      <c r="AU26" s="33"/>
-      <c r="AV26" s="34"/>
+      <c r="AU26" s="32"/>
+      <c r="AV26" s="33"/>
       <c r="AW26" s="12"/>
       <c r="AX26" s="12"/>
       <c r="AY26" s="12"/>
       <c r="AZ26" s="12"/>
       <c r="BA26" s="12"/>
-      <c r="BB26" s="33"/>
-      <c r="BC26" s="34"/>
+      <c r="BB26" s="32"/>
+      <c r="BC26" s="33"/>
       <c r="BD26" s="12"/>
       <c r="BE26" s="12"/>
       <c r="BF26" s="12"/>
       <c r="BG26" s="12"/>
       <c r="BH26" s="12"/>
-      <c r="BI26" s="33"/>
-      <c r="BJ26" s="34"/>
+      <c r="BI26" s="32"/>
+      <c r="BJ26" s="33"/>
       <c r="BK26" s="12"/>
       <c r="BL26" s="12"/>
       <c r="BM26" s="12"/>
@@ -3731,11 +3653,11 @@
       <c r="BO26" s="12"/>
     </row>
     <row r="27" spans="1:67" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="65"/>
-      <c r="B27" s="63" t="s">
-        <v>41</v>
-      </c>
-      <c r="C27" s="38">
+      <c r="A27" s="63"/>
+      <c r="B27" s="43" t="s">
+        <v>42</v>
+      </c>
+      <c r="C27" s="37">
         <v>0</v>
       </c>
       <c r="D27" s="10">
@@ -3748,65 +3670,65 @@
         <f t="shared" si="10"/>
         <v>46003</v>
       </c>
-      <c r="G27" s="37" t="str" cm="1">
-        <f t="array" ref="G27">_xlfn.TEXTJOIN(", ", TRUE, IF(담당자!C25:I25="O", 담당자!C$2:I$2, ""))</f>
+      <c r="G27" s="36" t="str" cm="1">
+        <f t="array" ref="G27">_xlfn.TEXTJOIN(", ", TRUE, IF(담당자!C26:I26="O", 담당자!C$2:I$2, ""))</f>
         <v>팀 전체</v>
       </c>
       <c r="H27" s="12"/>
       <c r="I27" s="12"/>
       <c r="J27" s="12"/>
       <c r="K27" s="12"/>
-      <c r="L27" s="33"/>
-      <c r="M27" s="34"/>
-      <c r="N27" s="68"/>
-      <c r="O27" s="71"/>
-      <c r="P27" s="71"/>
-      <c r="Q27" s="69"/>
+      <c r="L27" s="32"/>
+      <c r="M27" s="33"/>
+      <c r="N27" s="45"/>
+      <c r="O27" s="48"/>
+      <c r="P27" s="48"/>
+      <c r="Q27" s="46"/>
       <c r="R27" s="12"/>
-      <c r="S27" s="33"/>
-      <c r="T27" s="34"/>
+      <c r="S27" s="32"/>
+      <c r="T27" s="33"/>
       <c r="U27" s="12"/>
       <c r="V27" s="12"/>
       <c r="W27" s="12"/>
       <c r="X27" s="12"/>
       <c r="Y27" s="12"/>
-      <c r="Z27" s="33"/>
-      <c r="AA27" s="34"/>
+      <c r="Z27" s="32"/>
+      <c r="AA27" s="33"/>
       <c r="AB27" s="12"/>
       <c r="AC27" s="12"/>
       <c r="AD27" s="12"/>
       <c r="AE27" s="12"/>
       <c r="AF27" s="12"/>
-      <c r="AG27" s="33"/>
-      <c r="AH27" s="34"/>
+      <c r="AG27" s="32"/>
+      <c r="AH27" s="33"/>
       <c r="AI27" s="12"/>
       <c r="AJ27" s="12"/>
       <c r="AK27" s="12"/>
       <c r="AL27" s="12"/>
       <c r="AM27" s="12"/>
-      <c r="AN27" s="33"/>
-      <c r="AO27" s="34"/>
+      <c r="AN27" s="32"/>
+      <c r="AO27" s="33"/>
       <c r="AP27" s="12"/>
       <c r="AQ27" s="12"/>
       <c r="AR27" s="12"/>
       <c r="AS27" s="12"/>
       <c r="AT27" s="12"/>
-      <c r="AU27" s="33"/>
-      <c r="AV27" s="34"/>
+      <c r="AU27" s="32"/>
+      <c r="AV27" s="33"/>
       <c r="AW27" s="12"/>
       <c r="AX27" s="12"/>
       <c r="AY27" s="12"/>
       <c r="AZ27" s="12"/>
       <c r="BA27" s="12"/>
-      <c r="BB27" s="33"/>
-      <c r="BC27" s="34"/>
+      <c r="BB27" s="32"/>
+      <c r="BC27" s="33"/>
       <c r="BD27" s="12"/>
       <c r="BE27" s="12"/>
       <c r="BF27" s="12"/>
       <c r="BG27" s="12"/>
       <c r="BH27" s="12"/>
-      <c r="BI27" s="33"/>
-      <c r="BJ27" s="34"/>
+      <c r="BI27" s="32"/>
+      <c r="BJ27" s="33"/>
       <c r="BK27" s="12"/>
       <c r="BL27" s="12"/>
       <c r="BM27" s="12"/>
@@ -3814,82 +3736,85 @@
       <c r="BO27" s="12"/>
     </row>
     <row r="28" spans="1:67" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="65"/>
-      <c r="B28" s="63" t="s">
-        <v>42</v>
-      </c>
-      <c r="C28" s="38">
+      <c r="A28" s="63"/>
+      <c r="B28" s="41" t="s">
+        <v>47</v>
+      </c>
+      <c r="C28" s="37">
+        <f>IF(COUNTBLANK(C29:C30)=2, "", SUM(C29:C30)/COUNT(C29:C30))</f>
         <v>0</v>
       </c>
       <c r="D28" s="10">
-        <v>2</v>
+        <f>IF(AND(F28&lt;&gt;"", E28&lt;&gt;""), F28-E28+1, "")</f>
+        <v>5</v>
       </c>
       <c r="E28" s="11">
-        <v>46002</v>
+        <f>IF(COUNTA(E29:E30)=0,"", MIN(E29:E30))</f>
+        <v>46006</v>
       </c>
       <c r="F28" s="11">
-        <f t="shared" si="10"/>
-        <v>46003</v>
-      </c>
-      <c r="G28" s="37" t="str" cm="1">
-        <f t="array" ref="G28">_xlfn.TEXTJOIN(", ", TRUE, IF(담당자!C26:I26="O", 담당자!C$2:I$2, ""))</f>
-        <v>팀 전체</v>
+        <f>IF(COUNTBLANK(F29:F30)=2,"", MAX(F29:F30))</f>
+        <v>46010</v>
+      </c>
+      <c r="G28" s="38" t="str" cm="1">
+        <f t="array" ref="G28">_xlfn.TEXTJOIN(", ", TRUE, IF(담당자!C24:I24="O", 담당자!C$2:I$2, ""))</f>
+        <v/>
       </c>
       <c r="H28" s="12"/>
       <c r="I28" s="12"/>
       <c r="J28" s="12"/>
       <c r="K28" s="12"/>
-      <c r="L28" s="33"/>
-      <c r="M28" s="34"/>
-      <c r="N28" s="68"/>
-      <c r="O28" s="71"/>
-      <c r="P28" s="71"/>
-      <c r="Q28" s="69"/>
+      <c r="L28" s="32"/>
+      <c r="M28" s="33"/>
+      <c r="N28" s="45"/>
+      <c r="O28" s="48"/>
+      <c r="P28" s="48"/>
+      <c r="Q28" s="46"/>
       <c r="R28" s="12"/>
-      <c r="S28" s="33"/>
-      <c r="T28" s="34"/>
+      <c r="S28" s="32"/>
+      <c r="T28" s="33"/>
       <c r="U28" s="12"/>
       <c r="V28" s="12"/>
       <c r="W28" s="12"/>
       <c r="X28" s="12"/>
       <c r="Y28" s="12"/>
-      <c r="Z28" s="33"/>
-      <c r="AA28" s="34"/>
+      <c r="Z28" s="32"/>
+      <c r="AA28" s="33"/>
       <c r="AB28" s="12"/>
       <c r="AC28" s="12"/>
       <c r="AD28" s="12"/>
       <c r="AE28" s="12"/>
       <c r="AF28" s="12"/>
-      <c r="AG28" s="33"/>
-      <c r="AH28" s="34"/>
+      <c r="AG28" s="32"/>
+      <c r="AH28" s="33"/>
       <c r="AI28" s="12"/>
       <c r="AJ28" s="12"/>
       <c r="AK28" s="12"/>
       <c r="AL28" s="12"/>
       <c r="AM28" s="12"/>
-      <c r="AN28" s="33"/>
-      <c r="AO28" s="34"/>
+      <c r="AN28" s="32"/>
+      <c r="AO28" s="33"/>
       <c r="AP28" s="12"/>
       <c r="AQ28" s="12"/>
       <c r="AR28" s="12"/>
       <c r="AS28" s="12"/>
       <c r="AT28" s="12"/>
-      <c r="AU28" s="33"/>
-      <c r="AV28" s="34"/>
+      <c r="AU28" s="32"/>
+      <c r="AV28" s="33"/>
       <c r="AW28" s="12"/>
       <c r="AX28" s="12"/>
       <c r="AY28" s="12"/>
       <c r="AZ28" s="12"/>
       <c r="BA28" s="12"/>
-      <c r="BB28" s="33"/>
-      <c r="BC28" s="34"/>
+      <c r="BB28" s="32"/>
+      <c r="BC28" s="33"/>
       <c r="BD28" s="12"/>
       <c r="BE28" s="12"/>
       <c r="BF28" s="12"/>
       <c r="BG28" s="12"/>
       <c r="BH28" s="12"/>
-      <c r="BI28" s="33"/>
-      <c r="BJ28" s="34"/>
+      <c r="BI28" s="32"/>
+      <c r="BJ28" s="33"/>
       <c r="BK28" s="12"/>
       <c r="BL28" s="12"/>
       <c r="BM28" s="12"/>
@@ -3897,85 +3822,82 @@
       <c r="BO28" s="12"/>
     </row>
     <row r="29" spans="1:67" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="65"/>
-      <c r="B29" s="61" t="s">
-        <v>47</v>
-      </c>
-      <c r="C29" s="38">
-        <f>IF(COUNTBLANK(C30:C31)=2, "", SUM(C30:C31)/COUNT(C30:C31))</f>
+      <c r="A29" s="63"/>
+      <c r="B29" s="43" t="s">
+        <v>48</v>
+      </c>
+      <c r="C29" s="37">
         <v>0</v>
       </c>
       <c r="D29" s="10">
-        <f>IF(AND(F29&lt;&gt;"", E29&lt;&gt;""), F29-E29+1, "")</f>
         <v>5</v>
       </c>
       <c r="E29" s="11">
-        <f>IF(COUNTA(E30:E31)=0,"", MIN(E30:E31))</f>
         <v>46006</v>
       </c>
       <c r="F29" s="11">
-        <f>IF(COUNTBLANK(F30:F31)=2,"", MAX(F30:F31))</f>
+        <f t="shared" si="10"/>
         <v>46010</v>
       </c>
-      <c r="G29" s="39" t="str" cm="1">
-        <f t="array" ref="G29">_xlfn.TEXTJOIN(", ", TRUE, IF(담당자!C24:I24="O", 담당자!C$2:I$2, ""))</f>
-        <v/>
+      <c r="G29" s="36" t="str" cm="1">
+        <f t="array" ref="G29">_xlfn.TEXTJOIN(", ", TRUE, IF(담당자!C28:I28="O", 담당자!C$2:I$2, ""))</f>
+        <v>팀 전체</v>
       </c>
       <c r="H29" s="12"/>
       <c r="I29" s="12"/>
       <c r="J29" s="12"/>
       <c r="K29" s="12"/>
-      <c r="L29" s="33"/>
-      <c r="M29" s="34"/>
-      <c r="N29" s="68"/>
-      <c r="O29" s="71"/>
-      <c r="P29" s="71"/>
-      <c r="Q29" s="69"/>
+      <c r="L29" s="32"/>
+      <c r="M29" s="33"/>
+      <c r="N29" s="45"/>
+      <c r="O29" s="48"/>
+      <c r="P29" s="48"/>
+      <c r="Q29" s="46"/>
       <c r="R29" s="12"/>
-      <c r="S29" s="33"/>
-      <c r="T29" s="34"/>
+      <c r="S29" s="32"/>
+      <c r="T29" s="33"/>
       <c r="U29" s="12"/>
       <c r="V29" s="12"/>
       <c r="W29" s="12"/>
       <c r="X29" s="12"/>
       <c r="Y29" s="12"/>
-      <c r="Z29" s="33"/>
-      <c r="AA29" s="34"/>
+      <c r="Z29" s="32"/>
+      <c r="AA29" s="33"/>
       <c r="AB29" s="12"/>
       <c r="AC29" s="12"/>
       <c r="AD29" s="12"/>
       <c r="AE29" s="12"/>
       <c r="AF29" s="12"/>
-      <c r="AG29" s="33"/>
-      <c r="AH29" s="34"/>
+      <c r="AG29" s="32"/>
+      <c r="AH29" s="33"/>
       <c r="AI29" s="12"/>
       <c r="AJ29" s="12"/>
       <c r="AK29" s="12"/>
       <c r="AL29" s="12"/>
       <c r="AM29" s="12"/>
-      <c r="AN29" s="33"/>
-      <c r="AO29" s="34"/>
+      <c r="AN29" s="32"/>
+      <c r="AO29" s="33"/>
       <c r="AP29" s="12"/>
       <c r="AQ29" s="12"/>
       <c r="AR29" s="12"/>
       <c r="AS29" s="12"/>
       <c r="AT29" s="12"/>
-      <c r="AU29" s="33"/>
-      <c r="AV29" s="34"/>
+      <c r="AU29" s="32"/>
+      <c r="AV29" s="33"/>
       <c r="AW29" s="12"/>
       <c r="AX29" s="12"/>
       <c r="AY29" s="12"/>
       <c r="AZ29" s="12"/>
       <c r="BA29" s="12"/>
-      <c r="BB29" s="33"/>
-      <c r="BC29" s="34"/>
+      <c r="BB29" s="32"/>
+      <c r="BC29" s="33"/>
       <c r="BD29" s="12"/>
       <c r="BE29" s="12"/>
       <c r="BF29" s="12"/>
       <c r="BG29" s="12"/>
       <c r="BH29" s="12"/>
-      <c r="BI29" s="33"/>
-      <c r="BJ29" s="34"/>
+      <c r="BI29" s="32"/>
+      <c r="BJ29" s="33"/>
       <c r="BK29" s="12"/>
       <c r="BL29" s="12"/>
       <c r="BM29" s="12"/>
@@ -3983,11 +3905,11 @@
       <c r="BO29" s="12"/>
     </row>
     <row r="30" spans="1:67" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="65"/>
-      <c r="B30" s="63" t="s">
-        <v>48</v>
-      </c>
-      <c r="C30" s="38">
+      <c r="A30" s="63"/>
+      <c r="B30" s="43" t="s">
+        <v>49</v>
+      </c>
+      <c r="C30" s="37">
         <v>0</v>
       </c>
       <c r="D30" s="10">
@@ -4000,65 +3922,65 @@
         <f t="shared" si="10"/>
         <v>46010</v>
       </c>
-      <c r="G30" s="37" t="str" cm="1">
-        <f t="array" ref="G30">_xlfn.TEXTJOIN(", ", TRUE, IF(담당자!C28:I28="O", 담당자!C$2:I$2, ""))</f>
+      <c r="G30" s="36" t="str" cm="1">
+        <f t="array" ref="G30">_xlfn.TEXTJOIN(", ", TRUE, IF(담당자!C29:I29="O", 담당자!C$2:I$2, ""))</f>
         <v>팀 전체</v>
       </c>
       <c r="H30" s="12"/>
       <c r="I30" s="12"/>
       <c r="J30" s="12"/>
       <c r="K30" s="12"/>
-      <c r="L30" s="33"/>
-      <c r="M30" s="34"/>
-      <c r="N30" s="68"/>
-      <c r="O30" s="71"/>
-      <c r="P30" s="71"/>
-      <c r="Q30" s="69"/>
+      <c r="L30" s="32"/>
+      <c r="M30" s="33"/>
+      <c r="N30" s="45"/>
+      <c r="O30" s="48"/>
+      <c r="P30" s="48"/>
+      <c r="Q30" s="46"/>
       <c r="R30" s="12"/>
-      <c r="S30" s="33"/>
-      <c r="T30" s="34"/>
+      <c r="S30" s="32"/>
+      <c r="T30" s="33"/>
       <c r="U30" s="12"/>
       <c r="V30" s="12"/>
       <c r="W30" s="12"/>
       <c r="X30" s="12"/>
       <c r="Y30" s="12"/>
-      <c r="Z30" s="33"/>
-      <c r="AA30" s="34"/>
+      <c r="Z30" s="32"/>
+      <c r="AA30" s="33"/>
       <c r="AB30" s="12"/>
       <c r="AC30" s="12"/>
       <c r="AD30" s="12"/>
       <c r="AE30" s="12"/>
       <c r="AF30" s="12"/>
-      <c r="AG30" s="33"/>
-      <c r="AH30" s="34"/>
+      <c r="AG30" s="32"/>
+      <c r="AH30" s="33"/>
       <c r="AI30" s="12"/>
       <c r="AJ30" s="12"/>
       <c r="AK30" s="12"/>
       <c r="AL30" s="12"/>
       <c r="AM30" s="12"/>
-      <c r="AN30" s="33"/>
-      <c r="AO30" s="34"/>
+      <c r="AN30" s="32"/>
+      <c r="AO30" s="33"/>
       <c r="AP30" s="12"/>
       <c r="AQ30" s="12"/>
       <c r="AR30" s="12"/>
       <c r="AS30" s="12"/>
       <c r="AT30" s="12"/>
-      <c r="AU30" s="33"/>
-      <c r="AV30" s="34"/>
+      <c r="AU30" s="32"/>
+      <c r="AV30" s="33"/>
       <c r="AW30" s="12"/>
       <c r="AX30" s="12"/>
       <c r="AY30" s="12"/>
       <c r="AZ30" s="12"/>
       <c r="BA30" s="12"/>
-      <c r="BB30" s="33"/>
-      <c r="BC30" s="34"/>
+      <c r="BB30" s="32"/>
+      <c r="BC30" s="33"/>
       <c r="BD30" s="12"/>
       <c r="BE30" s="12"/>
       <c r="BF30" s="12"/>
       <c r="BG30" s="12"/>
       <c r="BH30" s="12"/>
-      <c r="BI30" s="33"/>
-      <c r="BJ30" s="34"/>
+      <c r="BI30" s="32"/>
+      <c r="BJ30" s="33"/>
       <c r="BK30" s="12"/>
       <c r="BL30" s="12"/>
       <c r="BM30" s="12"/>
@@ -4066,82 +3988,85 @@
       <c r="BO30" s="12"/>
     </row>
     <row r="31" spans="1:67" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="65"/>
-      <c r="B31" s="63" t="s">
-        <v>49</v>
-      </c>
-      <c r="C31" s="38">
+      <c r="A31" s="63"/>
+      <c r="B31" s="41" t="s">
+        <v>50</v>
+      </c>
+      <c r="C31" s="37">
+        <f>IF(COUNTBLANK(C32:C32)=2, "", SUM(C32:C32)/COUNT(C32:C32))</f>
         <v>0</v>
       </c>
       <c r="D31" s="10">
-        <v>5</v>
+        <f>IF(AND(F31&lt;&gt;"", E31&lt;&gt;""), F31-E31+1, "")</f>
+        <v>2</v>
       </c>
       <c r="E31" s="11">
-        <v>46006</v>
+        <f>IF(COUNTA(E32:E32)=0,"", MIN(E32:E32))</f>
+        <v>45958</v>
       </c>
       <c r="F31" s="11">
-        <f t="shared" si="10"/>
-        <v>46010</v>
-      </c>
-      <c r="G31" s="37" t="str" cm="1">
-        <f t="array" ref="G31">_xlfn.TEXTJOIN(", ", TRUE, IF(담당자!C29:I29="O", 담당자!C$2:I$2, ""))</f>
-        <v>팀 전체</v>
+        <f>IF(COUNTBLANK(F32:F32)=2,"", MAX(F32:F32))</f>
+        <v>45959</v>
+      </c>
+      <c r="G31" s="38" t="str" cm="1">
+        <f t="array" ref="G31">_xlfn.TEXTJOIN(", ", TRUE, IF(담당자!C27:I27="O", 담당자!C$2:I$2, ""))</f>
+        <v/>
       </c>
       <c r="H31" s="12"/>
       <c r="I31" s="12"/>
       <c r="J31" s="12"/>
       <c r="K31" s="12"/>
-      <c r="L31" s="33"/>
-      <c r="M31" s="34"/>
-      <c r="N31" s="68"/>
-      <c r="O31" s="71"/>
-      <c r="P31" s="71"/>
-      <c r="Q31" s="69"/>
+      <c r="L31" s="32"/>
+      <c r="M31" s="33"/>
+      <c r="N31" s="45"/>
+      <c r="O31" s="48"/>
+      <c r="P31" s="48"/>
+      <c r="Q31" s="46"/>
       <c r="R31" s="12"/>
-      <c r="S31" s="33"/>
-      <c r="T31" s="34"/>
+      <c r="S31" s="32"/>
+      <c r="T31" s="33"/>
       <c r="U31" s="12"/>
       <c r="V31" s="12"/>
       <c r="W31" s="12"/>
       <c r="X31" s="12"/>
       <c r="Y31" s="12"/>
-      <c r="Z31" s="33"/>
-      <c r="AA31" s="34"/>
+      <c r="Z31" s="32"/>
+      <c r="AA31" s="33"/>
       <c r="AB31" s="12"/>
       <c r="AC31" s="12"/>
       <c r="AD31" s="12"/>
       <c r="AE31" s="12"/>
       <c r="AF31" s="12"/>
-      <c r="AG31" s="33"/>
-      <c r="AH31" s="34"/>
+      <c r="AG31" s="32"/>
+      <c r="AH31" s="33"/>
       <c r="AI31" s="12"/>
       <c r="AJ31" s="12"/>
       <c r="AK31" s="12"/>
       <c r="AL31" s="12"/>
       <c r="AM31" s="12"/>
-      <c r="AN31" s="33"/>
-      <c r="AO31" s="34"/>
+      <c r="AN31" s="32"/>
+      <c r="AO31" s="33"/>
       <c r="AP31" s="12"/>
       <c r="AQ31" s="12"/>
       <c r="AR31" s="12"/>
       <c r="AS31" s="12"/>
       <c r="AT31" s="12"/>
-      <c r="AU31" s="33"/>
-      <c r="AV31" s="34"/>
+      <c r="AU31" s="32"/>
+      <c r="AV31" s="33"/>
       <c r="AW31" s="12"/>
       <c r="AX31" s="12"/>
       <c r="AY31" s="12"/>
       <c r="AZ31" s="12"/>
       <c r="BA31" s="12"/>
-      <c r="BB31" s="33"/>
-      <c r="BC31" s="34"/>
+      <c r="BB31" s="32"/>
+      <c r="BC31" s="33"/>
       <c r="BD31" s="12"/>
       <c r="BE31" s="12"/>
       <c r="BF31" s="12"/>
       <c r="BG31" s="12"/>
       <c r="BH31" s="12"/>
-      <c r="BI31" s="33"/>
-      <c r="BJ31" s="34"/>
+      <c r="BI31" s="32"/>
+      <c r="BJ31" s="33"/>
       <c r="BK31" s="12"/>
       <c r="BL31" s="12"/>
       <c r="BM31" s="12"/>
@@ -4149,297 +4074,215 @@
       <c r="BO31" s="12"/>
     </row>
     <row r="32" spans="1:67" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="65"/>
-      <c r="B32" s="61" t="s">
-        <v>50</v>
-      </c>
-      <c r="C32" s="38">
-        <f>IF(COUNTBLANK(C33:C33)=2, "", SUM(C33:C33)/COUNT(C33:C33))</f>
+      <c r="A32" s="64"/>
+      <c r="B32" s="43" t="s">
+        <v>51</v>
+      </c>
+      <c r="C32" s="37">
         <v>0</v>
       </c>
       <c r="D32" s="10">
-        <f>IF(AND(F32&lt;&gt;"", E32&lt;&gt;""), F32-E32+1, "")</f>
         <v>2</v>
       </c>
       <c r="E32" s="11">
-        <f>IF(COUNTA(E33:E33)=0,"", MIN(E33:E33))</f>
         <v>45958</v>
       </c>
       <c r="F32" s="11">
-        <f>IF(COUNTBLANK(F33:F33)=2,"", MAX(F33:F33))</f>
+        <f t="shared" ref="F32" si="11">IF(AND(E32&lt;&gt;"", D32&lt;&gt;""), E32+D32-1, "")</f>
         <v>45959</v>
       </c>
-      <c r="G32" s="39" t="str" cm="1">
-        <f t="array" ref="G32">_xlfn.TEXTJOIN(", ", TRUE, IF(담당자!C27:I27="O", 담당자!C$2:I$2, ""))</f>
-        <v/>
+      <c r="G32" s="36" t="str" cm="1">
+        <f t="array" ref="G32">_xlfn.TEXTJOIN(", ", TRUE, IF(담당자!C28:I28="O", 담당자!C$2:I$2, ""))</f>
+        <v>팀 전체</v>
       </c>
       <c r="H32" s="12"/>
       <c r="I32" s="12"/>
       <c r="J32" s="12"/>
       <c r="K32" s="12"/>
-      <c r="L32" s="33"/>
-      <c r="M32" s="34"/>
-      <c r="N32" s="68"/>
-      <c r="O32" s="71"/>
-      <c r="P32" s="71"/>
-      <c r="Q32" s="69"/>
+      <c r="L32" s="32"/>
+      <c r="M32" s="33"/>
+      <c r="N32" s="45"/>
+      <c r="O32" s="48"/>
+      <c r="P32" s="48"/>
+      <c r="Q32" s="46"/>
       <c r="R32" s="12"/>
-      <c r="S32" s="33"/>
-      <c r="T32" s="34"/>
+      <c r="S32" s="32"/>
+      <c r="T32" s="33"/>
       <c r="U32" s="12"/>
       <c r="V32" s="12"/>
       <c r="W32" s="12"/>
       <c r="X32" s="12"/>
       <c r="Y32" s="12"/>
-      <c r="Z32" s="33"/>
-      <c r="AA32" s="34"/>
+      <c r="Z32" s="32"/>
+      <c r="AA32" s="33"/>
       <c r="AB32" s="12"/>
       <c r="AC32" s="12"/>
       <c r="AD32" s="12"/>
       <c r="AE32" s="12"/>
       <c r="AF32" s="12"/>
-      <c r="AG32" s="33"/>
-      <c r="AH32" s="34"/>
+      <c r="AG32" s="32"/>
+      <c r="AH32" s="33"/>
       <c r="AI32" s="12"/>
       <c r="AJ32" s="12"/>
       <c r="AK32" s="12"/>
       <c r="AL32" s="12"/>
       <c r="AM32" s="12"/>
-      <c r="AN32" s="33"/>
-      <c r="AO32" s="34"/>
+      <c r="AN32" s="32"/>
+      <c r="AO32" s="33"/>
       <c r="AP32" s="12"/>
       <c r="AQ32" s="12"/>
       <c r="AR32" s="12"/>
       <c r="AS32" s="12"/>
       <c r="AT32" s="12"/>
-      <c r="AU32" s="33"/>
-      <c r="AV32" s="34"/>
+      <c r="AU32" s="32"/>
+      <c r="AV32" s="33"/>
       <c r="AW32" s="12"/>
       <c r="AX32" s="12"/>
       <c r="AY32" s="12"/>
       <c r="AZ32" s="12"/>
       <c r="BA32" s="12"/>
-      <c r="BB32" s="33"/>
-      <c r="BC32" s="34"/>
+      <c r="BB32" s="32"/>
+      <c r="BC32" s="33"/>
       <c r="BD32" s="12"/>
       <c r="BE32" s="12"/>
       <c r="BF32" s="12"/>
       <c r="BG32" s="12"/>
       <c r="BH32" s="12"/>
-      <c r="BI32" s="33"/>
-      <c r="BJ32" s="34"/>
+      <c r="BI32" s="32"/>
+      <c r="BJ32" s="33"/>
       <c r="BK32" s="12"/>
       <c r="BL32" s="12"/>
       <c r="BM32" s="12"/>
       <c r="BN32" s="12"/>
       <c r="BO32" s="12"/>
     </row>
-    <row r="33" spans="1:67" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="66"/>
-      <c r="B33" s="63" t="s">
-        <v>51</v>
-      </c>
-      <c r="C33" s="38">
-        <v>0</v>
-      </c>
-      <c r="D33" s="10">
-        <v>2</v>
-      </c>
-      <c r="E33" s="11">
-        <v>45958</v>
-      </c>
-      <c r="F33" s="11">
-        <f t="shared" ref="F33" si="11">IF(AND(E33&lt;&gt;"", D33&lt;&gt;""), E33+D33-1, "")</f>
-        <v>45959</v>
-      </c>
-      <c r="G33" s="37" t="str" cm="1">
-        <f t="array" ref="G33">_xlfn.TEXTJOIN(", ", TRUE, IF(담당자!C28:I28="O", 담당자!C$2:I$2, ""))</f>
-        <v>팀 전체</v>
-      </c>
-      <c r="H33" s="12"/>
-      <c r="I33" s="12"/>
-      <c r="J33" s="12"/>
-      <c r="K33" s="12"/>
-      <c r="L33" s="33"/>
-      <c r="M33" s="34"/>
-      <c r="N33" s="68"/>
-      <c r="O33" s="71"/>
-      <c r="P33" s="71"/>
-      <c r="Q33" s="69"/>
-      <c r="R33" s="12"/>
-      <c r="S33" s="33"/>
-      <c r="T33" s="34"/>
-      <c r="U33" s="12"/>
-      <c r="V33" s="12"/>
-      <c r="W33" s="12"/>
-      <c r="X33" s="12"/>
-      <c r="Y33" s="12"/>
-      <c r="Z33" s="33"/>
-      <c r="AA33" s="34"/>
-      <c r="AB33" s="12"/>
-      <c r="AC33" s="12"/>
-      <c r="AD33" s="12"/>
-      <c r="AE33" s="12"/>
-      <c r="AF33" s="12"/>
-      <c r="AG33" s="33"/>
-      <c r="AH33" s="34"/>
-      <c r="AI33" s="12"/>
-      <c r="AJ33" s="12"/>
-      <c r="AK33" s="12"/>
-      <c r="AL33" s="12"/>
-      <c r="AM33" s="12"/>
-      <c r="AN33" s="33"/>
-      <c r="AO33" s="34"/>
-      <c r="AP33" s="12"/>
-      <c r="AQ33" s="12"/>
-      <c r="AR33" s="12"/>
-      <c r="AS33" s="12"/>
-      <c r="AT33" s="12"/>
-      <c r="AU33" s="33"/>
-      <c r="AV33" s="34"/>
-      <c r="AW33" s="12"/>
-      <c r="AX33" s="12"/>
-      <c r="AY33" s="12"/>
-      <c r="AZ33" s="12"/>
-      <c r="BA33" s="12"/>
-      <c r="BB33" s="33"/>
-      <c r="BC33" s="34"/>
-      <c r="BD33" s="12"/>
-      <c r="BE33" s="12"/>
-      <c r="BF33" s="12"/>
-      <c r="BG33" s="12"/>
-      <c r="BH33" s="12"/>
-      <c r="BI33" s="33"/>
-      <c r="BJ33" s="34"/>
-      <c r="BK33" s="12"/>
-      <c r="BL33" s="12"/>
-      <c r="BM33" s="12"/>
-      <c r="BN33" s="12"/>
-      <c r="BO33" s="12"/>
-    </row>
-    <row r="34" spans="1:67" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="5:23" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E33" s="14"/>
+      <c r="F33" s="14"/>
+      <c r="H33" s="13"/>
+      <c r="I33" s="13"/>
+      <c r="J33" s="13"/>
+      <c r="K33" s="13"/>
+      <c r="L33" s="22"/>
+      <c r="M33" s="26"/>
+      <c r="N33" s="13"/>
+      <c r="O33" s="44" t="s">
+        <v>46</v>
+      </c>
+      <c r="P33" s="44"/>
+      <c r="Q33" s="13"/>
+      <c r="R33" s="13"/>
+      <c r="S33" s="22"/>
+      <c r="T33" s="26"/>
+      <c r="U33" s="13"/>
+      <c r="V33" s="13"/>
+      <c r="W33" s="13"/>
+    </row>
+    <row r="34" spans="5:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E34" s="14"/>
       <c r="F34" s="14"/>
       <c r="H34" s="13"/>
       <c r="I34" s="13"/>
       <c r="J34" s="13"/>
       <c r="K34" s="13"/>
-      <c r="L34" s="23"/>
-      <c r="M34" s="27"/>
+      <c r="L34" s="22"/>
+      <c r="M34" s="26"/>
       <c r="N34" s="13"/>
-      <c r="O34" s="67" t="s">
-        <v>46</v>
-      </c>
-      <c r="P34" s="67"/>
+      <c r="O34" s="13"/>
+      <c r="P34" s="13"/>
       <c r="Q34" s="13"/>
       <c r="R34" s="13"/>
-      <c r="S34" s="23"/>
-      <c r="T34" s="27"/>
+      <c r="S34" s="22"/>
+      <c r="T34" s="26"/>
       <c r="U34" s="13"/>
       <c r="V34" s="13"/>
       <c r="W34" s="13"/>
     </row>
-    <row r="35" spans="1:67" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="35" spans="5:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E35" s="14"/>
       <c r="F35" s="14"/>
       <c r="H35" s="13"/>
       <c r="I35" s="13"/>
       <c r="J35" s="13"/>
       <c r="K35" s="13"/>
-      <c r="L35" s="23"/>
-      <c r="M35" s="27"/>
+      <c r="L35" s="22"/>
+      <c r="M35" s="26"/>
       <c r="N35" s="13"/>
       <c r="O35" s="13"/>
       <c r="P35" s="13"/>
       <c r="Q35" s="13"/>
       <c r="R35" s="13"/>
-      <c r="S35" s="23"/>
-      <c r="T35" s="27"/>
+      <c r="S35" s="22"/>
+      <c r="T35" s="26"/>
       <c r="U35" s="13"/>
       <c r="V35" s="13"/>
       <c r="W35" s="13"/>
     </row>
-    <row r="36" spans="1:67" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="36" spans="5:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E36" s="14"/>
       <c r="F36" s="14"/>
       <c r="H36" s="13"/>
       <c r="I36" s="13"/>
       <c r="J36" s="13"/>
       <c r="K36" s="13"/>
-      <c r="L36" s="23"/>
-      <c r="M36" s="27"/>
+      <c r="L36" s="22"/>
+      <c r="M36" s="26"/>
       <c r="N36" s="13"/>
       <c r="O36" s="13"/>
       <c r="P36" s="13"/>
       <c r="Q36" s="13"/>
       <c r="R36" s="13"/>
-      <c r="S36" s="23"/>
-      <c r="T36" s="27"/>
+      <c r="S36" s="22"/>
+      <c r="T36" s="26"/>
       <c r="U36" s="13"/>
       <c r="V36" s="13"/>
       <c r="W36" s="13"/>
     </row>
-    <row r="37" spans="1:67" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E37" s="14"/>
-      <c r="F37" s="14"/>
-      <c r="H37" s="13"/>
-      <c r="I37" s="13"/>
-      <c r="J37" s="13"/>
-      <c r="K37" s="13"/>
-      <c r="L37" s="23"/>
-      <c r="M37" s="27"/>
-      <c r="N37" s="13"/>
-      <c r="O37" s="13"/>
-      <c r="P37" s="13"/>
-      <c r="Q37" s="13"/>
-      <c r="R37" s="13"/>
-      <c r="S37" s="23"/>
-      <c r="T37" s="27"/>
-      <c r="U37" s="13"/>
-      <c r="V37" s="13"/>
-      <c r="W37" s="13"/>
-    </row>
-    <row r="38" spans="1:67" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="37" spans="5:23" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E37" s="15"/>
+      <c r="F37" s="15"/>
+    </row>
+    <row r="38" spans="5:23" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E38" s="15"/>
       <c r="F38" s="15"/>
     </row>
-    <row r="39" spans="1:67" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="39" spans="5:23" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E39" s="15"/>
       <c r="F39" s="15"/>
     </row>
-    <row r="40" spans="1:67" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="40" spans="5:23" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E40" s="15"/>
       <c r="F40" s="15"/>
     </row>
-    <row r="41" spans="1:67" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="41" spans="5:23" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E41" s="15"/>
       <c r="F41" s="15"/>
     </row>
-    <row r="42" spans="1:67" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="42" spans="5:23" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E42" s="15"/>
       <c r="F42" s="15"/>
     </row>
-    <row r="43" spans="1:67" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="43" spans="5:23" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E43" s="15"/>
       <c r="F43" s="15"/>
     </row>
-    <row r="44" spans="1:67" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="44" spans="5:23" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E44" s="15"/>
       <c r="F44" s="15"/>
     </row>
-    <row r="45" spans="1:67" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="45" spans="5:23" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E45" s="15"/>
       <c r="F45" s="15"/>
     </row>
-    <row r="46" spans="1:67" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="46" spans="5:23" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E46" s="15"/>
       <c r="F46" s="15"/>
     </row>
-    <row r="47" spans="1:67" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="47" spans="5:23" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E47" s="15"/>
       <c r="F47" s="15"/>
     </row>
-    <row r="48" spans="1:67" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="48" spans="5:23" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E48" s="15"/>
       <c r="F48" s="15"/>
     </row>
@@ -8255,13 +8098,10 @@
       <c r="E1001" s="15"/>
       <c r="F1001" s="15"/>
     </row>
-    <row r="1002" spans="5:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E1002" s="15"/>
-      <c r="F1002" s="15"/>
-    </row>
   </sheetData>
   <autoFilter ref="A3:F4" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <mergeCells count="12">
+    <mergeCell ref="A9:A32"/>
     <mergeCell ref="A5:A8"/>
     <mergeCell ref="E3:E4"/>
     <mergeCell ref="F3:F4"/>
@@ -8273,30 +8113,29 @@
     <mergeCell ref="G3:G4"/>
     <mergeCell ref="C3:C4"/>
     <mergeCell ref="D3:D4"/>
-    <mergeCell ref="A9:A33"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
-  <conditionalFormatting sqref="H5:BO8 H10:BO13 H15:BO19 H21:BO22 H24:BO25 H27:BO28 H30:BO31">
+  <conditionalFormatting sqref="H5:BO8 H10:BO12 H14:BO18 H20:BO21 H23:BO24 H26:BO27 H29:BO30">
     <cfRule type="expression" dxfId="4" priority="8">
       <formula>AND(AND($E5&lt;&gt;"", $F5&lt;&gt;""), AND(H$4&gt;=$E5, H$4&lt;=$F5))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H9:BO9 H14:BO14 H20:BO20 H23:BO23 H26:BO26 H29:BO29 BO32">
-    <cfRule type="expression" dxfId="3" priority="2">
+  <conditionalFormatting sqref="H5:BO32">
+    <cfRule type="expression" dxfId="3" priority="10">
+      <formula>AND(H$4&lt;&gt;"",WEEKDAY(H$4)=1)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="2" priority="12">
+      <formula>AND(H$4&lt;&gt;"", WEEKDAY(H$4)=7)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H9:BO9 H13:BO13 H19:BO19 H22:BO22 H25:BO25 H28:BO28 BO31">
+    <cfRule type="expression" dxfId="1" priority="2">
       <formula>AND(AND($E9&lt;&gt;"", $F9&lt;&gt;""), AND(H$4&gt;=$E9, H$4&lt;=$F9))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H33:BO33">
-    <cfRule type="expression" dxfId="2" priority="1">
-      <formula>AND(AND($E33&lt;&gt;"", $F33&lt;&gt;""), AND(H$4&gt;=$E33, H$4&lt;=$F33))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H5:BO33">
-    <cfRule type="expression" dxfId="1" priority="10">
-      <formula>AND(H$4&lt;&gt;"",WEEKDAY(H$4)=1)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="0" priority="12">
-      <formula>AND(H$4&lt;&gt;"", WEEKDAY(H$4)=7)</formula>
+  <conditionalFormatting sqref="H32:BO32">
+    <cfRule type="expression" dxfId="0" priority="1">
+      <formula>AND(AND($E32&lt;&gt;"", $F32&lt;&gt;""), AND(H$4&gt;=$E32, H$4&lt;=$F32))</formula>
     </cfRule>
   </conditionalFormatting>
   <printOptions horizontalCentered="1"/>
@@ -8306,8 +8145,8 @@
     <oddFooter>&amp;C&amp;P/</oddFooter>
   </headerFooter>
   <ignoredErrors>
-    <ignoredError sqref="F9 F14 F26 F23 F20 F29 F32" formula="1"/>
-    <ignoredError sqref="E14 C14" formulaRange="1"/>
+    <ignoredError sqref="F9 F13 F25 F22 F19 F28 F31" formula="1"/>
+    <ignoredError sqref="E13 C13" formulaRange="1"/>
   </ignoredErrors>
 </worksheet>
 </file>
@@ -8383,506 +8222,501 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="51" t="s">
+      <c r="A1" s="59" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="54" t="s">
+      <c r="B1" s="65" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="56" t="s">
+      <c r="C1" s="67" t="s">
         <v>6</v>
       </c>
-      <c r="D1" s="56"/>
-      <c r="E1" s="56"/>
-      <c r="F1" s="56"/>
-      <c r="G1" s="56"/>
-      <c r="H1" s="56"/>
-      <c r="I1" s="56"/>
+      <c r="D1" s="67"/>
+      <c r="E1" s="67"/>
+      <c r="F1" s="67"/>
+      <c r="G1" s="67"/>
+      <c r="H1" s="67"/>
+      <c r="I1" s="67"/>
     </row>
     <row r="2" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="44"/>
-      <c r="B2" s="55"/>
-      <c r="C2" s="35" t="s">
+      <c r="A2" s="52"/>
+      <c r="B2" s="66"/>
+      <c r="C2" s="34" t="s">
         <v>44</v>
       </c>
-      <c r="D2" s="35" t="s">
+      <c r="D2" s="34" t="s">
         <v>18</v>
       </c>
-      <c r="E2" s="35" t="s">
+      <c r="E2" s="34" t="s">
         <v>19</v>
       </c>
-      <c r="F2" s="35" t="s">
+      <c r="F2" s="34" t="s">
         <v>20</v>
       </c>
-      <c r="G2" s="35" t="s">
+      <c r="G2" s="34" t="s">
         <v>21</v>
       </c>
-      <c r="H2" s="35" t="s">
+      <c r="H2" s="34" t="s">
         <v>22</v>
       </c>
-      <c r="I2" s="35"/>
+      <c r="I2" s="34"/>
     </row>
     <row r="3" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="41" t="s">
+      <c r="A3" s="49" t="s">
         <v>7</v>
       </c>
       <c r="B3" s="18" t="s">
         <v>8</v>
       </c>
-      <c r="C3" s="36"/>
-      <c r="D3" s="36" t="s">
+      <c r="C3" s="35"/>
+      <c r="D3" s="35" t="s">
         <v>43</v>
       </c>
-      <c r="E3" s="36"/>
-      <c r="F3" s="36"/>
-      <c r="G3" s="36"/>
-      <c r="H3" s="36"/>
-      <c r="I3" s="36"/>
+      <c r="E3" s="35"/>
+      <c r="F3" s="35"/>
+      <c r="G3" s="35"/>
+      <c r="H3" s="35"/>
+      <c r="I3" s="35"/>
     </row>
     <row r="4" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="42"/>
+      <c r="A4" s="50"/>
       <c r="B4" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="C4" s="36"/>
-      <c r="D4" s="36" t="s">
+      <c r="C4" s="35"/>
+      <c r="D4" s="35" t="s">
         <v>43</v>
       </c>
-      <c r="E4" s="36"/>
-      <c r="F4" s="36"/>
-      <c r="G4" s="36"/>
-      <c r="H4" s="36"/>
-      <c r="I4" s="36"/>
+      <c r="E4" s="35"/>
+      <c r="F4" s="35"/>
+      <c r="G4" s="35"/>
+      <c r="H4" s="35"/>
+      <c r="I4" s="35"/>
     </row>
     <row r="5" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="42"/>
+      <c r="A5" s="50"/>
       <c r="B5" s="18" t="s">
         <v>10</v>
       </c>
-      <c r="C5" s="36"/>
-      <c r="D5" s="36" t="s">
+      <c r="C5" s="35"/>
+      <c r="D5" s="35" t="s">
         <v>43</v>
       </c>
-      <c r="E5" s="36"/>
-      <c r="F5" s="36"/>
-      <c r="G5" s="36"/>
-      <c r="H5" s="36"/>
-      <c r="I5" s="36"/>
+      <c r="E5" s="35"/>
+      <c r="F5" s="35"/>
+      <c r="G5" s="35"/>
+      <c r="H5" s="35"/>
+      <c r="I5" s="35"/>
     </row>
     <row r="6" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="42"/>
+      <c r="A6" s="50"/>
       <c r="B6" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="C6" s="36"/>
-      <c r="D6" s="36" t="s">
+      <c r="C6" s="35"/>
+      <c r="D6" s="35" t="s">
         <v>43</v>
       </c>
-      <c r="E6" s="36"/>
-      <c r="F6" s="36"/>
-      <c r="G6" s="36"/>
-      <c r="H6" s="36"/>
-      <c r="I6" s="36"/>
+      <c r="E6" s="35"/>
+      <c r="F6" s="35"/>
+      <c r="G6" s="35"/>
+      <c r="H6" s="35"/>
+      <c r="I6" s="35"/>
     </row>
     <row r="7" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="64" t="s">
+      <c r="A7" s="62" t="s">
         <v>12</v>
       </c>
-      <c r="B7" s="61" t="s">
+      <c r="B7" s="41" t="s">
         <v>24</v>
       </c>
-      <c r="C7" s="57"/>
-      <c r="D7" s="58"/>
-      <c r="E7" s="58"/>
-      <c r="F7" s="58"/>
-      <c r="G7" s="58"/>
-      <c r="H7" s="58"/>
-      <c r="I7" s="59"/>
+      <c r="C7" s="68"/>
+      <c r="D7" s="69"/>
+      <c r="E7" s="69"/>
+      <c r="F7" s="69"/>
+      <c r="G7" s="69"/>
+      <c r="H7" s="69"/>
+      <c r="I7" s="70"/>
     </row>
     <row r="8" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="65"/>
-      <c r="B8" s="62" t="s">
+      <c r="A8" s="63"/>
+      <c r="B8" s="42" t="s">
         <v>23</v>
       </c>
-      <c r="C8" s="36" t="s">
+      <c r="C8" s="35" t="s">
         <v>43</v>
       </c>
-      <c r="D8" s="36"/>
-      <c r="E8" s="36"/>
-      <c r="F8" s="36"/>
-      <c r="G8" s="36"/>
-      <c r="H8" s="36"/>
-      <c r="I8" s="36"/>
+      <c r="D8" s="35"/>
+      <c r="E8" s="35"/>
+      <c r="F8" s="35"/>
+      <c r="G8" s="35"/>
+      <c r="H8" s="35"/>
+      <c r="I8" s="35"/>
     </row>
     <row r="9" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="65"/>
-      <c r="B9" s="62" t="s">
+      <c r="A9" s="63"/>
+      <c r="B9" s="42" t="s">
         <v>25</v>
       </c>
-      <c r="C9" s="36"/>
-      <c r="D9" s="36"/>
-      <c r="E9" s="36" t="s">
+      <c r="C9" s="35"/>
+      <c r="D9" s="35"/>
+      <c r="E9" s="35" t="s">
         <v>43</v>
       </c>
-      <c r="F9" s="36"/>
-      <c r="G9" s="36" t="s">
+      <c r="F9" s="35"/>
+      <c r="G9" s="35" t="s">
         <v>43</v>
       </c>
-      <c r="H9" s="36"/>
-      <c r="I9" s="36"/>
+      <c r="H9" s="35"/>
+      <c r="I9" s="35"/>
     </row>
     <row r="10" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="65"/>
-      <c r="B10" s="62" t="s">
+      <c r="A10" s="63"/>
+      <c r="B10" s="42" t="s">
         <v>26</v>
       </c>
-      <c r="C10" s="36"/>
-      <c r="D10" s="36" t="s">
+      <c r="C10" s="35"/>
+      <c r="D10" s="35" t="s">
         <v>43</v>
       </c>
-      <c r="E10" s="36"/>
-      <c r="F10" s="36"/>
-      <c r="G10" s="36"/>
-      <c r="H10" s="36" t="s">
+      <c r="E10" s="35"/>
+      <c r="F10" s="35"/>
+      <c r="G10" s="35"/>
+      <c r="H10" s="35" t="s">
         <v>43</v>
       </c>
-      <c r="I10" s="36"/>
+      <c r="I10" s="35"/>
     </row>
     <row r="11" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="65"/>
-      <c r="B11" s="62" t="s">
+      <c r="A11" s="63"/>
+      <c r="B11" s="42" t="s">
         <v>27</v>
       </c>
-      <c r="C11" s="36"/>
-      <c r="D11" s="36" t="s">
+      <c r="C11" s="35"/>
+      <c r="D11" s="35" t="s">
         <v>43</v>
       </c>
-      <c r="E11" s="36"/>
-      <c r="F11" s="36" t="s">
+      <c r="E11" s="35"/>
+      <c r="F11" s="35" t="s">
         <v>43</v>
       </c>
-      <c r="G11" s="36"/>
-      <c r="H11" s="36"/>
-      <c r="I11" s="36"/>
+      <c r="G11" s="35"/>
+      <c r="H11" s="35"/>
+      <c r="I11" s="35"/>
     </row>
     <row r="12" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="65"/>
-      <c r="B12" s="61" t="s">
+      <c r="A12" s="63"/>
+      <c r="B12" s="41" t="s">
         <v>28</v>
       </c>
-      <c r="C12" s="57"/>
-      <c r="D12" s="58"/>
-      <c r="E12" s="58"/>
-      <c r="F12" s="58"/>
-      <c r="G12" s="58"/>
-      <c r="H12" s="58"/>
-      <c r="I12" s="59"/>
+      <c r="C12" s="68"/>
+      <c r="D12" s="69"/>
+      <c r="E12" s="69"/>
+      <c r="F12" s="69"/>
+      <c r="G12" s="69"/>
+      <c r="H12" s="69"/>
+      <c r="I12" s="70"/>
     </row>
     <row r="13" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="65"/>
-      <c r="B13" s="63" t="s">
+      <c r="A13" s="63"/>
+      <c r="B13" s="43" t="s">
         <v>32</v>
       </c>
-      <c r="C13" s="36"/>
-      <c r="D13" s="36" t="s">
+      <c r="C13" s="35"/>
+      <c r="D13" s="35" t="s">
         <v>43</v>
       </c>
-      <c r="E13" s="36"/>
-      <c r="F13" s="36"/>
-      <c r="G13" s="36"/>
-      <c r="H13" s="36"/>
-      <c r="I13" s="36"/>
+      <c r="E13" s="35"/>
+      <c r="F13" s="35"/>
+      <c r="G13" s="35"/>
+      <c r="H13" s="35"/>
+      <c r="I13" s="35"/>
     </row>
     <row r="14" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="65"/>
-      <c r="B14" s="63" t="s">
+      <c r="A14" s="63"/>
+      <c r="B14" s="43" t="s">
         <v>33</v>
       </c>
-      <c r="C14" s="36"/>
-      <c r="D14" s="36" t="s">
+      <c r="C14" s="35"/>
+      <c r="D14" s="35" t="s">
         <v>43</v>
       </c>
-      <c r="E14" s="36" t="s">
+      <c r="E14" s="35" t="s">
         <v>43</v>
       </c>
-      <c r="F14" s="36"/>
-      <c r="G14" s="36"/>
-      <c r="H14" s="36"/>
-      <c r="I14" s="36"/>
+      <c r="F14" s="35"/>
+      <c r="G14" s="35"/>
+      <c r="H14" s="35"/>
+      <c r="I14" s="35"/>
     </row>
     <row r="15" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="65"/>
-      <c r="B15" s="63" t="s">
+      <c r="A15" s="63"/>
+      <c r="B15" s="43" t="s">
         <v>34</v>
       </c>
-      <c r="C15" s="36"/>
-      <c r="D15" s="36" t="s">
+      <c r="C15" s="35"/>
+      <c r="D15" s="35" t="s">
         <v>43</v>
       </c>
-      <c r="E15" s="36"/>
-      <c r="F15" s="36" t="s">
+      <c r="E15" s="35"/>
+      <c r="F15" s="35" t="s">
         <v>43</v>
       </c>
-      <c r="G15" s="36"/>
-      <c r="H15" s="36"/>
-      <c r="I15" s="36"/>
+      <c r="G15" s="35"/>
+      <c r="H15" s="35"/>
+      <c r="I15" s="35"/>
     </row>
     <row r="16" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="65"/>
-      <c r="B16" s="63" t="s">
+      <c r="A16" s="63"/>
+      <c r="B16" s="43" t="s">
         <v>35</v>
       </c>
-      <c r="C16" s="36"/>
-      <c r="D16" s="36"/>
-      <c r="E16" s="36" t="s">
+      <c r="C16" s="35"/>
+      <c r="D16" s="35"/>
+      <c r="E16" s="35" t="s">
         <v>43</v>
       </c>
-      <c r="F16" s="36"/>
-      <c r="G16" s="36" t="s">
+      <c r="F16" s="35"/>
+      <c r="G16" s="35" t="s">
         <v>43</v>
       </c>
-      <c r="H16" s="36" t="s">
+      <c r="H16" s="35" t="s">
         <v>43</v>
       </c>
-      <c r="I16" s="36"/>
+      <c r="I16" s="35"/>
     </row>
     <row r="17" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="65"/>
-      <c r="B17" s="61" t="s">
+      <c r="A17" s="63"/>
+      <c r="B17" s="41" t="s">
         <v>29</v>
       </c>
-      <c r="C17" s="36"/>
-      <c r="D17" s="36" t="s">
+      <c r="C17" s="35"/>
+      <c r="D17" s="35" t="s">
         <v>43</v>
       </c>
-      <c r="E17" s="36"/>
-      <c r="F17" s="36"/>
-      <c r="G17" s="36"/>
-      <c r="H17" s="36"/>
-      <c r="I17" s="36"/>
+      <c r="E17" s="35"/>
+      <c r="F17" s="35"/>
+      <c r="G17" s="35"/>
+      <c r="H17" s="35"/>
+      <c r="I17" s="35"/>
     </row>
     <row r="18" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="65"/>
-      <c r="B18" s="61" t="s">
+      <c r="A18" s="63"/>
+      <c r="B18" s="41" t="s">
         <v>30</v>
       </c>
-      <c r="C18" s="57"/>
-      <c r="D18" s="58"/>
-      <c r="E18" s="58"/>
-      <c r="F18" s="58"/>
-      <c r="G18" s="58"/>
-      <c r="H18" s="58"/>
-      <c r="I18" s="59"/>
+      <c r="C18" s="68"/>
+      <c r="D18" s="69"/>
+      <c r="E18" s="69"/>
+      <c r="F18" s="69"/>
+      <c r="G18" s="69"/>
+      <c r="H18" s="69"/>
+      <c r="I18" s="70"/>
     </row>
     <row r="19" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="65"/>
-      <c r="B19" s="63" t="s">
+      <c r="A19" s="63"/>
+      <c r="B19" s="43" t="s">
         <v>36</v>
       </c>
-      <c r="C19" s="36" t="s">
+      <c r="C19" s="35" t="s">
         <v>43</v>
       </c>
-      <c r="D19" s="36"/>
-      <c r="E19" s="36"/>
-      <c r="F19" s="36"/>
-      <c r="G19" s="36"/>
-      <c r="H19" s="36"/>
-      <c r="I19" s="36"/>
+      <c r="D19" s="35"/>
+      <c r="E19" s="35"/>
+      <c r="F19" s="35"/>
+      <c r="G19" s="35"/>
+      <c r="H19" s="35"/>
+      <c r="I19" s="35"/>
     </row>
     <row r="20" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="65"/>
-      <c r="B20" s="63" t="s">
+      <c r="A20" s="63"/>
+      <c r="B20" s="43" t="s">
         <v>37</v>
       </c>
-      <c r="C20" s="36" t="s">
+      <c r="C20" s="35" t="s">
         <v>43</v>
       </c>
-      <c r="D20" s="36"/>
-      <c r="E20" s="36"/>
-      <c r="F20" s="36"/>
-      <c r="G20" s="36"/>
-      <c r="H20" s="36"/>
-      <c r="I20" s="36"/>
+      <c r="D20" s="35"/>
+      <c r="E20" s="35"/>
+      <c r="F20" s="35"/>
+      <c r="G20" s="35"/>
+      <c r="H20" s="35"/>
+      <c r="I20" s="35"/>
     </row>
     <row r="21" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="65"/>
-      <c r="B21" s="61" t="s">
+      <c r="A21" s="63"/>
+      <c r="B21" s="41" t="s">
         <v>31</v>
       </c>
-      <c r="C21" s="57"/>
-      <c r="D21" s="58"/>
-      <c r="E21" s="58"/>
-      <c r="F21" s="58"/>
-      <c r="G21" s="58"/>
-      <c r="H21" s="58"/>
-      <c r="I21" s="59"/>
+      <c r="C21" s="68"/>
+      <c r="D21" s="69"/>
+      <c r="E21" s="69"/>
+      <c r="F21" s="69"/>
+      <c r="G21" s="69"/>
+      <c r="H21" s="69"/>
+      <c r="I21" s="70"/>
     </row>
     <row r="22" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="65"/>
-      <c r="B22" s="63" t="s">
+      <c r="A22" s="63"/>
+      <c r="B22" s="43" t="s">
         <v>38</v>
       </c>
-      <c r="C22" s="36"/>
-      <c r="D22" s="36" t="s">
+      <c r="C22" s="35"/>
+      <c r="D22" s="35" t="s">
         <v>43</v>
       </c>
-      <c r="E22" s="36"/>
-      <c r="F22" s="36"/>
-      <c r="G22" s="36"/>
-      <c r="H22" s="36"/>
-      <c r="I22" s="36"/>
+      <c r="E22" s="35"/>
+      <c r="F22" s="35"/>
+      <c r="G22" s="35"/>
+      <c r="H22" s="35"/>
+      <c r="I22" s="35"/>
     </row>
     <row r="23" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="65"/>
-      <c r="B23" s="63" t="s">
+      <c r="A23" s="63"/>
+      <c r="B23" s="43" t="s">
         <v>39</v>
       </c>
-      <c r="C23" s="36" t="s">
+      <c r="C23" s="35" t="s">
         <v>43</v>
       </c>
-      <c r="D23" s="36"/>
-      <c r="E23" s="36"/>
-      <c r="F23" s="36"/>
-      <c r="G23" s="36"/>
-      <c r="H23" s="36"/>
-      <c r="I23" s="36"/>
+      <c r="D23" s="35"/>
+      <c r="E23" s="35"/>
+      <c r="F23" s="35"/>
+      <c r="G23" s="35"/>
+      <c r="H23" s="35"/>
+      <c r="I23" s="35"/>
     </row>
     <row r="24" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="65"/>
-      <c r="B24" s="61" t="s">
+      <c r="A24" s="63"/>
+      <c r="B24" s="41" t="s">
         <v>40</v>
       </c>
-      <c r="C24" s="57"/>
-      <c r="D24" s="58"/>
-      <c r="E24" s="58"/>
-      <c r="F24" s="58"/>
-      <c r="G24" s="58"/>
-      <c r="H24" s="58"/>
-      <c r="I24" s="59"/>
+      <c r="C24" s="68"/>
+      <c r="D24" s="69"/>
+      <c r="E24" s="69"/>
+      <c r="F24" s="69"/>
+      <c r="G24" s="69"/>
+      <c r="H24" s="69"/>
+      <c r="I24" s="70"/>
     </row>
     <row r="25" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="65"/>
-      <c r="B25" s="63" t="s">
+      <c r="A25" s="63"/>
+      <c r="B25" s="43" t="s">
         <v>41</v>
       </c>
-      <c r="C25" s="36" t="s">
+      <c r="C25" s="35" t="s">
         <v>43</v>
       </c>
-      <c r="D25" s="36"/>
-      <c r="E25" s="36"/>
-      <c r="F25" s="36"/>
-      <c r="G25" s="36"/>
-      <c r="H25" s="36"/>
-      <c r="I25" s="36"/>
+      <c r="D25" s="35"/>
+      <c r="E25" s="35"/>
+      <c r="F25" s="35"/>
+      <c r="G25" s="35"/>
+      <c r="H25" s="35"/>
+      <c r="I25" s="35"/>
     </row>
     <row r="26" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="65"/>
-      <c r="B26" s="63" t="s">
+      <c r="A26" s="63"/>
+      <c r="B26" s="43" t="s">
         <v>42</v>
       </c>
-      <c r="C26" s="36" t="s">
+      <c r="C26" s="35" t="s">
         <v>43</v>
       </c>
-      <c r="D26" s="36"/>
-      <c r="E26" s="36"/>
-      <c r="F26" s="36"/>
-      <c r="G26" s="36"/>
-      <c r="H26" s="36"/>
-      <c r="I26" s="36"/>
+      <c r="D26" s="35"/>
+      <c r="E26" s="35"/>
+      <c r="F26" s="35"/>
+      <c r="G26" s="35"/>
+      <c r="H26" s="35"/>
+      <c r="I26" s="35"/>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A27" s="65"/>
-      <c r="B27" s="61" t="s">
+      <c r="A27" s="63"/>
+      <c r="B27" s="41" t="s">
         <v>47</v>
       </c>
-      <c r="C27" s="57"/>
-      <c r="D27" s="58"/>
-      <c r="E27" s="58"/>
-      <c r="F27" s="58"/>
-      <c r="G27" s="58"/>
-      <c r="H27" s="58"/>
-      <c r="I27" s="59"/>
+      <c r="C27" s="68"/>
+      <c r="D27" s="69"/>
+      <c r="E27" s="69"/>
+      <c r="F27" s="69"/>
+      <c r="G27" s="69"/>
+      <c r="H27" s="69"/>
+      <c r="I27" s="70"/>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A28" s="65"/>
-      <c r="B28" s="63" t="s">
+      <c r="A28" s="63"/>
+      <c r="B28" s="43" t="s">
         <v>48</v>
       </c>
-      <c r="C28" s="36" t="s">
+      <c r="C28" s="35" t="s">
         <v>43</v>
       </c>
-      <c r="D28" s="36"/>
-      <c r="E28" s="36"/>
-      <c r="F28" s="36"/>
-      <c r="G28" s="36"/>
-      <c r="H28" s="36"/>
-      <c r="I28" s="36"/>
+      <c r="D28" s="35"/>
+      <c r="E28" s="35"/>
+      <c r="F28" s="35"/>
+      <c r="G28" s="35"/>
+      <c r="H28" s="35"/>
+      <c r="I28" s="35"/>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A29" s="65"/>
-      <c r="B29" s="63" t="s">
+      <c r="A29" s="63"/>
+      <c r="B29" s="43" t="s">
         <v>49</v>
       </c>
-      <c r="C29" s="36" t="s">
+      <c r="C29" s="35" t="s">
         <v>43</v>
       </c>
-      <c r="D29" s="36"/>
-      <c r="E29" s="36"/>
-      <c r="F29" s="36"/>
-      <c r="G29" s="36"/>
-      <c r="H29" s="36"/>
-      <c r="I29" s="36"/>
+      <c r="D29" s="35"/>
+      <c r="E29" s="35"/>
+      <c r="F29" s="35"/>
+      <c r="G29" s="35"/>
+      <c r="H29" s="35"/>
+      <c r="I29" s="35"/>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A30" s="65"/>
-      <c r="B30" s="61" t="s">
+      <c r="A30" s="63"/>
+      <c r="B30" s="41" t="s">
         <v>40</v>
       </c>
-      <c r="C30" s="57"/>
-      <c r="D30" s="58"/>
-      <c r="E30" s="58"/>
-      <c r="F30" s="58"/>
-      <c r="G30" s="58"/>
-      <c r="H30" s="58"/>
-      <c r="I30" s="59"/>
+      <c r="C30" s="68"/>
+      <c r="D30" s="69"/>
+      <c r="E30" s="69"/>
+      <c r="F30" s="69"/>
+      <c r="G30" s="69"/>
+      <c r="H30" s="69"/>
+      <c r="I30" s="70"/>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A31" s="65"/>
-      <c r="B31" s="63" t="s">
+      <c r="A31" s="63"/>
+      <c r="B31" s="43" t="s">
         <v>41</v>
       </c>
-      <c r="C31" s="36" t="s">
+      <c r="C31" s="35" t="s">
         <v>43</v>
       </c>
-      <c r="D31" s="36"/>
-      <c r="E31" s="36"/>
-      <c r="F31" s="36"/>
-      <c r="G31" s="36"/>
-      <c r="H31" s="36"/>
-      <c r="I31" s="36"/>
+      <c r="D31" s="35"/>
+      <c r="E31" s="35"/>
+      <c r="F31" s="35"/>
+      <c r="G31" s="35"/>
+      <c r="H31" s="35"/>
+      <c r="I31" s="35"/>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A32" s="66"/>
-      <c r="B32" s="63" t="s">
+      <c r="A32" s="64"/>
+      <c r="B32" s="43" t="s">
         <v>42</v>
       </c>
-      <c r="C32" s="36" t="s">
+      <c r="C32" s="35" t="s">
         <v>43</v>
       </c>
-      <c r="D32" s="36"/>
-      <c r="E32" s="36"/>
-      <c r="F32" s="36"/>
-      <c r="G32" s="36"/>
-      <c r="H32" s="36"/>
-      <c r="I32" s="36"/>
+      <c r="D32" s="35"/>
+      <c r="E32" s="35"/>
+      <c r="F32" s="35"/>
+      <c r="G32" s="35"/>
+      <c r="H32" s="35"/>
+      <c r="I32" s="35"/>
     </row>
   </sheetData>
   <mergeCells count="12">
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="A3:A6"/>
-    <mergeCell ref="C1:I1"/>
-    <mergeCell ref="C7:I7"/>
     <mergeCell ref="C24:I24"/>
     <mergeCell ref="C21:I21"/>
     <mergeCell ref="C12:I12"/>
@@ -8890,6 +8724,11 @@
     <mergeCell ref="A7:A32"/>
     <mergeCell ref="C27:I27"/>
     <mergeCell ref="C30:I30"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="A3:A6"/>
+    <mergeCell ref="C1:I1"/>
+    <mergeCell ref="C7:I7"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <extLst>

--- a/2.WBS/WBS_현대이지웰_최종프로젝트.xlsx
+++ b/2.WBS/WBS_현대이지웰_최종프로젝트.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="W:\GamesungCoding\ResourceRepo\2.WBS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{278A3429-B1F5-4337-8680-3BA249E9418B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F8AC0F4E-0E0E-4F88-942E-BB3E6DFA5ED2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -858,9 +858,6 @@
     <xf numFmtId="0" fontId="14" fillId="5" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -872,6 +869,15 @@
     </xf>
     <xf numFmtId="0" fontId="28" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -912,13 +918,13 @@
     <xf numFmtId="0" fontId="16" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="164" fontId="15" fillId="3" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -930,14 +936,8 @@
     <xf numFmtId="164" fontId="13" fillId="3" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1199,8 +1199,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:BO1001"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G32" sqref="G32"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="S36" sqref="S36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1238,31 +1238,31 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:67" ht="38.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="53" t="s">
+      <c r="A1" s="55" t="s">
         <v>13</v>
       </c>
-      <c r="B1" s="54"/>
-      <c r="C1" s="54"/>
-      <c r="D1" s="54"/>
-      <c r="E1" s="54"/>
-      <c r="F1" s="54"/>
-      <c r="G1" s="54"/>
-      <c r="H1" s="54"/>
-      <c r="I1" s="54"/>
-      <c r="J1" s="54"/>
-      <c r="K1" s="54"/>
-      <c r="L1" s="54"/>
-      <c r="M1" s="54"/>
-      <c r="N1" s="54"/>
-      <c r="O1" s="54"/>
-      <c r="P1" s="54"/>
-      <c r="Q1" s="54"/>
-      <c r="R1" s="54"/>
-      <c r="S1" s="54"/>
-      <c r="T1" s="54"/>
-      <c r="U1" s="54"/>
-      <c r="V1" s="54"/>
-      <c r="W1" s="54"/>
+      <c r="B1" s="56"/>
+      <c r="C1" s="56"/>
+      <c r="D1" s="56"/>
+      <c r="E1" s="56"/>
+      <c r="F1" s="56"/>
+      <c r="G1" s="56"/>
+      <c r="H1" s="56"/>
+      <c r="I1" s="56"/>
+      <c r="J1" s="56"/>
+      <c r="K1" s="56"/>
+      <c r="L1" s="56"/>
+      <c r="M1" s="56"/>
+      <c r="N1" s="56"/>
+      <c r="O1" s="56"/>
+      <c r="P1" s="56"/>
+      <c r="Q1" s="56"/>
+      <c r="R1" s="56"/>
+      <c r="S1" s="56"/>
+      <c r="T1" s="56"/>
+      <c r="U1" s="56"/>
+      <c r="V1" s="56"/>
+      <c r="W1" s="56"/>
     </row>
     <row r="2" spans="1:67" s="7" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="16" t="s">
@@ -1271,31 +1271,31 @@
       <c r="B2" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="C2" s="55" t="s">
+      <c r="C2" s="57" t="s">
         <v>15</v>
       </c>
-      <c r="D2" s="56"/>
-      <c r="E2" s="56"/>
-      <c r="F2" s="57" t="s">
+      <c r="D2" s="58"/>
+      <c r="E2" s="58"/>
+      <c r="F2" s="59" t="s">
         <v>16</v>
       </c>
-      <c r="G2" s="58"/>
-      <c r="H2" s="58"/>
-      <c r="I2" s="58"/>
-      <c r="J2" s="58"/>
-      <c r="K2" s="58"/>
-      <c r="L2" s="58"/>
-      <c r="M2" s="58"/>
-      <c r="N2" s="58"/>
-      <c r="O2" s="58"/>
-      <c r="P2" s="58"/>
-      <c r="Q2" s="58"/>
-      <c r="R2" s="58"/>
-      <c r="S2" s="58"/>
-      <c r="T2" s="58"/>
-      <c r="U2" s="58"/>
-      <c r="V2" s="58"/>
-      <c r="W2" s="58"/>
+      <c r="G2" s="60"/>
+      <c r="H2" s="60"/>
+      <c r="I2" s="60"/>
+      <c r="J2" s="60"/>
+      <c r="K2" s="60"/>
+      <c r="L2" s="60"/>
+      <c r="M2" s="60"/>
+      <c r="N2" s="60"/>
+      <c r="O2" s="60"/>
+      <c r="P2" s="60"/>
+      <c r="Q2" s="60"/>
+      <c r="R2" s="60"/>
+      <c r="S2" s="60"/>
+      <c r="T2" s="60"/>
+      <c r="U2" s="60"/>
+      <c r="V2" s="60"/>
+      <c r="W2" s="60"/>
       <c r="X2" s="6"/>
       <c r="Y2" s="6"/>
       <c r="Z2" s="28"/>
@@ -1311,25 +1311,25 @@
       <c r="BC2" s="30"/>
     </row>
     <row r="3" spans="1:67" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="59" t="s">
+      <c r="A3" s="61" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="60" t="s">
+      <c r="B3" s="62" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="51" t="s">
+      <c r="C3" s="53" t="s">
         <v>2</v>
       </c>
-      <c r="D3" s="51" t="s">
+      <c r="D3" s="53" t="s">
         <v>3</v>
       </c>
-      <c r="E3" s="51" t="s">
+      <c r="E3" s="53" t="s">
         <v>4</v>
       </c>
-      <c r="F3" s="51" t="s">
+      <c r="F3" s="53" t="s">
         <v>5</v>
       </c>
-      <c r="G3" s="51" t="s">
+      <c r="G3" s="53" t="s">
         <v>6</v>
       </c>
       <c r="H3" s="8">
@@ -1573,13 +1573,13 @@
       </c>
     </row>
     <row r="4" spans="1:67" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="52"/>
-      <c r="B4" s="61"/>
-      <c r="C4" s="52"/>
-      <c r="D4" s="52"/>
-      <c r="E4" s="52"/>
-      <c r="F4" s="52"/>
-      <c r="G4" s="52"/>
+      <c r="A4" s="54"/>
+      <c r="B4" s="63"/>
+      <c r="C4" s="54"/>
+      <c r="D4" s="54"/>
+      <c r="E4" s="54"/>
+      <c r="F4" s="54"/>
+      <c r="G4" s="54"/>
       <c r="H4" s="9">
         <v>45951</v>
       </c>
@@ -1821,7 +1821,7 @@
       </c>
     </row>
     <row r="5" spans="1:67" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="49" t="s">
+      <c r="A5" s="51" t="s">
         <v>7</v>
       </c>
       <c r="B5" s="18" t="s">
@@ -1850,10 +1850,10 @@
       <c r="K5" s="12"/>
       <c r="L5" s="32"/>
       <c r="M5" s="33"/>
-      <c r="N5" s="45"/>
-      <c r="O5" s="47"/>
-      <c r="P5" s="48"/>
-      <c r="Q5" s="46"/>
+      <c r="N5" s="44"/>
+      <c r="O5" s="46"/>
+      <c r="P5" s="47"/>
+      <c r="Q5" s="45"/>
       <c r="R5" s="12"/>
       <c r="S5" s="32"/>
       <c r="T5" s="33"/>
@@ -1906,7 +1906,7 @@
       <c r="BO5" s="12"/>
     </row>
     <row r="6" spans="1:67" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="50"/>
+      <c r="A6" s="52"/>
       <c r="B6" s="18" t="s">
         <v>9</v>
       </c>
@@ -1929,10 +1929,10 @@
       <c r="K6" s="12"/>
       <c r="L6" s="32"/>
       <c r="M6" s="33"/>
-      <c r="N6" s="45"/>
-      <c r="O6" s="48"/>
-      <c r="P6" s="48"/>
-      <c r="Q6" s="46"/>
+      <c r="N6" s="44"/>
+      <c r="O6" s="47"/>
+      <c r="P6" s="47"/>
+      <c r="Q6" s="45"/>
       <c r="R6" s="12"/>
       <c r="S6" s="32"/>
       <c r="T6" s="33"/>
@@ -1985,7 +1985,7 @@
       <c r="BO6" s="12"/>
     </row>
     <row r="7" spans="1:67" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="50"/>
+      <c r="A7" s="52"/>
       <c r="B7" s="18" t="s">
         <v>10</v>
       </c>
@@ -2008,10 +2008,10 @@
       <c r="K7" s="12"/>
       <c r="L7" s="32"/>
       <c r="M7" s="33"/>
-      <c r="N7" s="45"/>
-      <c r="O7" s="48"/>
-      <c r="P7" s="48"/>
-      <c r="Q7" s="46"/>
+      <c r="N7" s="44"/>
+      <c r="O7" s="47"/>
+      <c r="P7" s="47"/>
+      <c r="Q7" s="45"/>
       <c r="R7" s="12"/>
       <c r="S7" s="32"/>
       <c r="T7" s="33"/>
@@ -2064,7 +2064,7 @@
       <c r="BO7" s="12"/>
     </row>
     <row r="8" spans="1:67" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="50"/>
+      <c r="A8" s="52"/>
       <c r="B8" s="18" t="s">
         <v>11</v>
       </c>
@@ -2087,10 +2087,10 @@
       <c r="K8" s="12"/>
       <c r="L8" s="32"/>
       <c r="M8" s="33"/>
-      <c r="N8" s="45"/>
-      <c r="O8" s="48"/>
-      <c r="P8" s="48"/>
-      <c r="Q8" s="46"/>
+      <c r="N8" s="44"/>
+      <c r="O8" s="47"/>
+      <c r="P8" s="47"/>
+      <c r="Q8" s="45"/>
       <c r="R8" s="12"/>
       <c r="S8" s="32"/>
       <c r="T8" s="33"/>
@@ -2143,7 +2143,7 @@
       <c r="BO8" s="12"/>
     </row>
     <row r="9" spans="1:67" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="62" t="s">
+      <c r="A9" s="48" t="s">
         <v>12</v>
       </c>
       <c r="B9" s="41" t="s">
@@ -2175,10 +2175,10 @@
       <c r="K9" s="12"/>
       <c r="L9" s="32"/>
       <c r="M9" s="33"/>
-      <c r="N9" s="45"/>
-      <c r="O9" s="48"/>
-      <c r="P9" s="48"/>
-      <c r="Q9" s="46"/>
+      <c r="N9" s="44"/>
+      <c r="O9" s="47"/>
+      <c r="P9" s="47"/>
+      <c r="Q9" s="45"/>
       <c r="R9" s="12"/>
       <c r="S9" s="32"/>
       <c r="T9" s="33"/>
@@ -2231,7 +2231,7 @@
       <c r="BO9" s="12"/>
     </row>
     <row r="10" spans="1:67" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="63"/>
+      <c r="A10" s="49"/>
       <c r="B10" s="42" t="s">
         <v>23</v>
       </c>
@@ -2258,10 +2258,10 @@
       <c r="K10" s="12"/>
       <c r="L10" s="32"/>
       <c r="M10" s="33"/>
-      <c r="N10" s="45"/>
-      <c r="O10" s="48"/>
-      <c r="P10" s="48"/>
-      <c r="Q10" s="46"/>
+      <c r="N10" s="44"/>
+      <c r="O10" s="47"/>
+      <c r="P10" s="47"/>
+      <c r="Q10" s="45"/>
       <c r="R10" s="12"/>
       <c r="S10" s="32"/>
       <c r="T10" s="33"/>
@@ -2314,7 +2314,7 @@
       <c r="BO10" s="12"/>
     </row>
     <row r="11" spans="1:67" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="63"/>
+      <c r="A11" s="49"/>
       <c r="B11" s="42" t="s">
         <v>25</v>
       </c>
@@ -2341,10 +2341,10 @@
       <c r="K11" s="12"/>
       <c r="L11" s="32"/>
       <c r="M11" s="33"/>
-      <c r="N11" s="45"/>
-      <c r="O11" s="48"/>
-      <c r="P11" s="48"/>
-      <c r="Q11" s="46"/>
+      <c r="N11" s="44"/>
+      <c r="O11" s="47"/>
+      <c r="P11" s="47"/>
+      <c r="Q11" s="45"/>
       <c r="R11" s="12"/>
       <c r="S11" s="32"/>
       <c r="T11" s="33"/>
@@ -2397,7 +2397,7 @@
       <c r="BO11" s="12"/>
     </row>
     <row r="12" spans="1:67" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="63"/>
+      <c r="A12" s="49"/>
       <c r="B12" s="42" t="s">
         <v>52</v>
       </c>
@@ -2425,10 +2425,10 @@
       <c r="K12" s="12"/>
       <c r="L12" s="32"/>
       <c r="M12" s="33"/>
-      <c r="N12" s="45"/>
-      <c r="O12" s="48"/>
-      <c r="P12" s="48"/>
-      <c r="Q12" s="46"/>
+      <c r="N12" s="44"/>
+      <c r="O12" s="47"/>
+      <c r="P12" s="47"/>
+      <c r="Q12" s="45"/>
       <c r="R12" s="12"/>
       <c r="S12" s="32"/>
       <c r="T12" s="33"/>
@@ -2481,7 +2481,7 @@
       <c r="BO12" s="12"/>
     </row>
     <row r="13" spans="1:67" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="63"/>
+      <c r="A13" s="49"/>
       <c r="B13" s="41" t="s">
         <v>28</v>
       </c>
@@ -2511,10 +2511,10 @@
       <c r="K13" s="12"/>
       <c r="L13" s="32"/>
       <c r="M13" s="33"/>
-      <c r="N13" s="45"/>
-      <c r="O13" s="48"/>
-      <c r="P13" s="48"/>
-      <c r="Q13" s="46"/>
+      <c r="N13" s="44"/>
+      <c r="O13" s="47"/>
+      <c r="P13" s="47"/>
+      <c r="Q13" s="45"/>
       <c r="R13" s="12"/>
       <c r="S13" s="32"/>
       <c r="T13" s="33"/>
@@ -2567,7 +2567,7 @@
       <c r="BO13" s="12"/>
     </row>
     <row r="14" spans="1:67" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="63"/>
+      <c r="A14" s="49"/>
       <c r="B14" s="43" t="s">
         <v>32</v>
       </c>
@@ -2593,10 +2593,10 @@
       <c r="K14" s="12"/>
       <c r="L14" s="32"/>
       <c r="M14" s="33"/>
-      <c r="N14" s="45"/>
-      <c r="O14" s="48"/>
-      <c r="P14" s="48"/>
-      <c r="Q14" s="46"/>
+      <c r="N14" s="44"/>
+      <c r="O14" s="47"/>
+      <c r="P14" s="47"/>
+      <c r="Q14" s="45"/>
       <c r="R14" s="12"/>
       <c r="S14" s="32"/>
       <c r="T14" s="33"/>
@@ -2648,7 +2648,7 @@
       <c r="BO14" s="12"/>
     </row>
     <row r="15" spans="1:67" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="63"/>
+      <c r="A15" s="49"/>
       <c r="B15" s="43" t="s">
         <v>33</v>
       </c>
@@ -2675,10 +2675,10 @@
       <c r="K15" s="12"/>
       <c r="L15" s="32"/>
       <c r="M15" s="33"/>
-      <c r="N15" s="45"/>
-      <c r="O15" s="48"/>
-      <c r="P15" s="48"/>
-      <c r="Q15" s="46"/>
+      <c r="N15" s="44"/>
+      <c r="O15" s="47"/>
+      <c r="P15" s="47"/>
+      <c r="Q15" s="45"/>
       <c r="R15" s="12"/>
       <c r="S15" s="32"/>
       <c r="T15" s="33"/>
@@ -2731,7 +2731,7 @@
       <c r="BO15" s="12"/>
     </row>
     <row r="16" spans="1:67" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="63"/>
+      <c r="A16" s="49"/>
       <c r="B16" s="43" t="s">
         <v>34</v>
       </c>
@@ -2758,10 +2758,10 @@
       <c r="K16" s="12"/>
       <c r="L16" s="32"/>
       <c r="M16" s="33"/>
-      <c r="N16" s="45"/>
-      <c r="O16" s="48"/>
-      <c r="P16" s="48"/>
-      <c r="Q16" s="46"/>
+      <c r="N16" s="44"/>
+      <c r="O16" s="47"/>
+      <c r="P16" s="47"/>
+      <c r="Q16" s="45"/>
       <c r="R16" s="12"/>
       <c r="S16" s="32"/>
       <c r="T16" s="33"/>
@@ -2814,7 +2814,7 @@
       <c r="BO16" s="12"/>
     </row>
     <row r="17" spans="1:67" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="63"/>
+      <c r="A17" s="49"/>
       <c r="B17" s="43" t="s">
         <v>35</v>
       </c>
@@ -2841,10 +2841,10 @@
       <c r="K17" s="12"/>
       <c r="L17" s="32"/>
       <c r="M17" s="33"/>
-      <c r="N17" s="45"/>
-      <c r="O17" s="48"/>
-      <c r="P17" s="48"/>
-      <c r="Q17" s="46"/>
+      <c r="N17" s="44"/>
+      <c r="O17" s="47"/>
+      <c r="P17" s="47"/>
+      <c r="Q17" s="45"/>
       <c r="R17" s="12"/>
       <c r="S17" s="32"/>
       <c r="T17" s="33"/>
@@ -2897,7 +2897,7 @@
       <c r="BO17" s="12"/>
     </row>
     <row r="18" spans="1:67" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="63"/>
+      <c r="A18" s="49"/>
       <c r="B18" s="41" t="s">
         <v>29</v>
       </c>
@@ -2924,10 +2924,10 @@
       <c r="K18" s="12"/>
       <c r="L18" s="32"/>
       <c r="M18" s="33"/>
-      <c r="N18" s="45"/>
-      <c r="O18" s="48"/>
-      <c r="P18" s="48"/>
-      <c r="Q18" s="46"/>
+      <c r="N18" s="44"/>
+      <c r="O18" s="47"/>
+      <c r="P18" s="47"/>
+      <c r="Q18" s="45"/>
       <c r="R18" s="12"/>
       <c r="S18" s="32"/>
       <c r="T18" s="33"/>
@@ -2980,7 +2980,7 @@
       <c r="BO18" s="12"/>
     </row>
     <row r="19" spans="1:67" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="63"/>
+      <c r="A19" s="49"/>
       <c r="B19" s="41" t="s">
         <v>30</v>
       </c>
@@ -2990,7 +2990,7 @@
       </c>
       <c r="D19" s="10">
         <f>IF(AND(F19&lt;&gt;"", E19&lt;&gt;""), F19-E19+1, "")</f>
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="E19" s="11">
         <f>IF(COUNTA(E20:E21)=0,"", MIN(E20:E21))</f>
@@ -2998,7 +2998,7 @@
       </c>
       <c r="F19" s="11">
         <f>IF(COUNTBLANK(F20:F21)=2,"", MAX(F20:F21))</f>
-        <v>46000</v>
+        <v>45996</v>
       </c>
       <c r="G19" s="38" t="str" cm="1">
         <f t="array" ref="G19">_xlfn.TEXTJOIN(", ", TRUE, IF(담당자!C18:I18="O", 담당자!C$2:I$2, ""))</f>
@@ -3010,10 +3010,10 @@
       <c r="K19" s="12"/>
       <c r="L19" s="32"/>
       <c r="M19" s="33"/>
-      <c r="N19" s="45"/>
-      <c r="O19" s="48"/>
-      <c r="P19" s="48"/>
-      <c r="Q19" s="46"/>
+      <c r="N19" s="44"/>
+      <c r="O19" s="47"/>
+      <c r="P19" s="47"/>
+      <c r="Q19" s="45"/>
       <c r="R19" s="12"/>
       <c r="S19" s="32"/>
       <c r="T19" s="33"/>
@@ -3066,7 +3066,7 @@
       <c r="BO19" s="12"/>
     </row>
     <row r="20" spans="1:67" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="63"/>
+      <c r="A20" s="49"/>
       <c r="B20" s="43" t="s">
         <v>36</v>
       </c>
@@ -3074,14 +3074,14 @@
         <v>0</v>
       </c>
       <c r="D20" s="10">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="E20" s="11">
         <v>45966</v>
       </c>
       <c r="F20" s="11">
         <f t="shared" si="10"/>
-        <v>46000</v>
+        <v>45996</v>
       </c>
       <c r="G20" s="36" t="str" cm="1">
         <f t="array" ref="G20">_xlfn.TEXTJOIN(", ", TRUE, IF(담당자!C19:I19="O", 담당자!C$2:I$2, ""))</f>
@@ -3093,10 +3093,10 @@
       <c r="K20" s="12"/>
       <c r="L20" s="32"/>
       <c r="M20" s="33"/>
-      <c r="N20" s="45"/>
-      <c r="O20" s="48"/>
-      <c r="P20" s="48"/>
-      <c r="Q20" s="46"/>
+      <c r="N20" s="44"/>
+      <c r="O20" s="47"/>
+      <c r="P20" s="47"/>
+      <c r="Q20" s="45"/>
       <c r="R20" s="12"/>
       <c r="S20" s="32"/>
       <c r="T20" s="33"/>
@@ -3149,7 +3149,7 @@
       <c r="BO20" s="12"/>
     </row>
     <row r="21" spans="1:67" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="63"/>
+      <c r="A21" s="49"/>
       <c r="B21" s="43" t="s">
         <v>37</v>
       </c>
@@ -3157,14 +3157,14 @@
         <v>0</v>
       </c>
       <c r="D21" s="10">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="E21" s="11">
         <v>45966</v>
       </c>
       <c r="F21" s="11">
         <f t="shared" si="10"/>
-        <v>46000</v>
+        <v>45996</v>
       </c>
       <c r="G21" s="36" t="str" cm="1">
         <f t="array" ref="G21">_xlfn.TEXTJOIN(", ", TRUE, IF(담당자!C20:I20="O", 담당자!C$2:I$2, ""))</f>
@@ -3176,10 +3176,10 @@
       <c r="K21" s="12"/>
       <c r="L21" s="32"/>
       <c r="M21" s="33"/>
-      <c r="N21" s="45"/>
-      <c r="O21" s="48"/>
-      <c r="P21" s="48"/>
-      <c r="Q21" s="46"/>
+      <c r="N21" s="44"/>
+      <c r="O21" s="47"/>
+      <c r="P21" s="47"/>
+      <c r="Q21" s="45"/>
       <c r="R21" s="12"/>
       <c r="S21" s="32"/>
       <c r="T21" s="33"/>
@@ -3232,7 +3232,7 @@
       <c r="BO21" s="12"/>
     </row>
     <row r="22" spans="1:67" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="63"/>
+      <c r="A22" s="49"/>
       <c r="B22" s="41" t="s">
         <v>31</v>
       </c>
@@ -3242,15 +3242,15 @@
       </c>
       <c r="D22" s="10">
         <f>IF(AND(F22&lt;&gt;"", E22&lt;&gt;""), F22-E22+1, "")</f>
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="E22" s="11">
         <f>IF(COUNTA(E23:E24)=0,"", MIN(E23:E24))</f>
-        <v>46000</v>
+        <v>45997</v>
       </c>
       <c r="F22" s="11">
         <f>IF(COUNTBLANK(F23:F24)=2,"", MAX(F23:F24))</f>
-        <v>46002</v>
+        <v>46003</v>
       </c>
       <c r="G22" s="38" t="str" cm="1">
         <f t="array" ref="G22">_xlfn.TEXTJOIN(", ", TRUE, IF(담당자!C21:I21="O", 담당자!C$2:I$2, ""))</f>
@@ -3262,10 +3262,10 @@
       <c r="K22" s="12"/>
       <c r="L22" s="32"/>
       <c r="M22" s="33"/>
-      <c r="N22" s="45"/>
-      <c r="O22" s="48"/>
-      <c r="P22" s="48"/>
-      <c r="Q22" s="46"/>
+      <c r="N22" s="44"/>
+      <c r="O22" s="47"/>
+      <c r="P22" s="47"/>
+      <c r="Q22" s="45"/>
       <c r="R22" s="12"/>
       <c r="S22" s="32"/>
       <c r="T22" s="33"/>
@@ -3318,7 +3318,7 @@
       <c r="BO22" s="12"/>
     </row>
     <row r="23" spans="1:67" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="63"/>
+      <c r="A23" s="49"/>
       <c r="B23" s="43" t="s">
         <v>38</v>
       </c>
@@ -3326,14 +3326,14 @@
         <v>0</v>
       </c>
       <c r="D23" s="10">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="E23" s="11">
-        <v>46000</v>
+        <v>45997</v>
       </c>
       <c r="F23" s="11">
         <f t="shared" si="10"/>
-        <v>46002</v>
+        <v>46003</v>
       </c>
       <c r="G23" s="36" t="str" cm="1">
         <f t="array" ref="G23">_xlfn.TEXTJOIN(", ", TRUE, IF(담당자!C22:I22="O", 담당자!C$2:I$2, ""))</f>
@@ -3345,10 +3345,10 @@
       <c r="K23" s="12"/>
       <c r="L23" s="32"/>
       <c r="M23" s="33"/>
-      <c r="N23" s="45"/>
-      <c r="O23" s="48"/>
-      <c r="P23" s="48"/>
-      <c r="Q23" s="46"/>
+      <c r="N23" s="44"/>
+      <c r="O23" s="47"/>
+      <c r="P23" s="47"/>
+      <c r="Q23" s="45"/>
       <c r="R23" s="12"/>
       <c r="S23" s="32"/>
       <c r="T23" s="33"/>
@@ -3401,7 +3401,7 @@
       <c r="BO23" s="12"/>
     </row>
     <row r="24" spans="1:67" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="63"/>
+      <c r="A24" s="49"/>
       <c r="B24" s="43" t="s">
         <v>39</v>
       </c>
@@ -3409,14 +3409,14 @@
         <v>0</v>
       </c>
       <c r="D24" s="10">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="E24" s="11">
-        <v>46000</v>
+        <v>45997</v>
       </c>
       <c r="F24" s="11">
         <f t="shared" si="10"/>
-        <v>46002</v>
+        <v>46003</v>
       </c>
       <c r="G24" s="36" t="str" cm="1">
         <f t="array" ref="G24">_xlfn.TEXTJOIN(", ", TRUE, IF(담당자!C23:I23="O", 담당자!C$2:I$2, ""))</f>
@@ -3428,10 +3428,10 @@
       <c r="K24" s="40"/>
       <c r="L24" s="32"/>
       <c r="M24" s="33"/>
-      <c r="N24" s="45"/>
-      <c r="O24" s="48"/>
-      <c r="P24" s="48"/>
-      <c r="Q24" s="46"/>
+      <c r="N24" s="44"/>
+      <c r="O24" s="47"/>
+      <c r="P24" s="47"/>
+      <c r="Q24" s="45"/>
       <c r="R24" s="12"/>
       <c r="S24" s="32"/>
       <c r="T24" s="33"/>
@@ -3484,7 +3484,7 @@
       <c r="BO24" s="12"/>
     </row>
     <row r="25" spans="1:67" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="63"/>
+      <c r="A25" s="49"/>
       <c r="B25" s="41" t="s">
         <v>40</v>
       </c>
@@ -3494,15 +3494,15 @@
       </c>
       <c r="D25" s="10">
         <f>IF(AND(F25&lt;&gt;"", E25&lt;&gt;""), F25-E25+1, "")</f>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E25" s="11">
         <f>IF(COUNTA(E26:E27)=0,"", MIN(E26:E27))</f>
-        <v>46002</v>
+        <v>46003</v>
       </c>
       <c r="F25" s="11">
         <f>IF(COUNTBLANK(F26:F27)=2,"", MAX(F26:F27))</f>
-        <v>46003</v>
+        <v>46006</v>
       </c>
       <c r="G25" s="38" t="str" cm="1">
         <f t="array" ref="G25">_xlfn.TEXTJOIN(", ", TRUE, IF(담당자!C24:I24="O", 담당자!C$2:I$2, ""))</f>
@@ -3514,10 +3514,10 @@
       <c r="K25" s="12"/>
       <c r="L25" s="32"/>
       <c r="M25" s="33"/>
-      <c r="N25" s="45"/>
-      <c r="O25" s="48"/>
-      <c r="P25" s="48"/>
-      <c r="Q25" s="46"/>
+      <c r="N25" s="44"/>
+      <c r="O25" s="47"/>
+      <c r="P25" s="47"/>
+      <c r="Q25" s="45"/>
       <c r="R25" s="12"/>
       <c r="S25" s="32"/>
       <c r="T25" s="33"/>
@@ -3570,7 +3570,7 @@
       <c r="BO25" s="12"/>
     </row>
     <row r="26" spans="1:67" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="63"/>
+      <c r="A26" s="49"/>
       <c r="B26" s="43" t="s">
         <v>41</v>
       </c>
@@ -3578,14 +3578,14 @@
         <v>0</v>
       </c>
       <c r="D26" s="10">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E26" s="11">
-        <v>46002</v>
+        <v>46003</v>
       </c>
       <c r="F26" s="11">
         <f t="shared" si="10"/>
-        <v>46003</v>
+        <v>46006</v>
       </c>
       <c r="G26" s="36" t="str" cm="1">
         <f t="array" ref="G26">_xlfn.TEXTJOIN(", ", TRUE, IF(담당자!C25:I25="O", 담당자!C$2:I$2, ""))</f>
@@ -3597,10 +3597,10 @@
       <c r="K26" s="12"/>
       <c r="L26" s="32"/>
       <c r="M26" s="33"/>
-      <c r="N26" s="45"/>
-      <c r="O26" s="48"/>
-      <c r="P26" s="48"/>
-      <c r="Q26" s="46"/>
+      <c r="N26" s="44"/>
+      <c r="O26" s="47"/>
+      <c r="P26" s="47"/>
+      <c r="Q26" s="45"/>
       <c r="R26" s="12"/>
       <c r="S26" s="32"/>
       <c r="T26" s="33"/>
@@ -3653,7 +3653,7 @@
       <c r="BO26" s="12"/>
     </row>
     <row r="27" spans="1:67" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="63"/>
+      <c r="A27" s="49"/>
       <c r="B27" s="43" t="s">
         <v>42</v>
       </c>
@@ -3661,14 +3661,14 @@
         <v>0</v>
       </c>
       <c r="D27" s="10">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E27" s="11">
-        <v>46002</v>
+        <v>46003</v>
       </c>
       <c r="F27" s="11">
         <f t="shared" si="10"/>
-        <v>46003</v>
+        <v>46006</v>
       </c>
       <c r="G27" s="36" t="str" cm="1">
         <f t="array" ref="G27">_xlfn.TEXTJOIN(", ", TRUE, IF(담당자!C26:I26="O", 담당자!C$2:I$2, ""))</f>
@@ -3680,10 +3680,10 @@
       <c r="K27" s="12"/>
       <c r="L27" s="32"/>
       <c r="M27" s="33"/>
-      <c r="N27" s="45"/>
-      <c r="O27" s="48"/>
-      <c r="P27" s="48"/>
-      <c r="Q27" s="46"/>
+      <c r="N27" s="44"/>
+      <c r="O27" s="47"/>
+      <c r="P27" s="47"/>
+      <c r="Q27" s="45"/>
       <c r="R27" s="12"/>
       <c r="S27" s="32"/>
       <c r="T27" s="33"/>
@@ -3736,7 +3736,7 @@
       <c r="BO27" s="12"/>
     </row>
     <row r="28" spans="1:67" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="63"/>
+      <c r="A28" s="49"/>
       <c r="B28" s="41" t="s">
         <v>47</v>
       </c>
@@ -3746,7 +3746,7 @@
       </c>
       <c r="D28" s="10">
         <f>IF(AND(F28&lt;&gt;"", E28&lt;&gt;""), F28-E28+1, "")</f>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E28" s="11">
         <f>IF(COUNTA(E29:E30)=0,"", MIN(E29:E30))</f>
@@ -3754,7 +3754,7 @@
       </c>
       <c r="F28" s="11">
         <f>IF(COUNTBLANK(F29:F30)=2,"", MAX(F29:F30))</f>
-        <v>46010</v>
+        <v>46009</v>
       </c>
       <c r="G28" s="38" t="str" cm="1">
         <f t="array" ref="G28">_xlfn.TEXTJOIN(", ", TRUE, IF(담당자!C24:I24="O", 담당자!C$2:I$2, ""))</f>
@@ -3766,10 +3766,10 @@
       <c r="K28" s="12"/>
       <c r="L28" s="32"/>
       <c r="M28" s="33"/>
-      <c r="N28" s="45"/>
-      <c r="O28" s="48"/>
-      <c r="P28" s="48"/>
-      <c r="Q28" s="46"/>
+      <c r="N28" s="44"/>
+      <c r="O28" s="47"/>
+      <c r="P28" s="47"/>
+      <c r="Q28" s="45"/>
       <c r="R28" s="12"/>
       <c r="S28" s="32"/>
       <c r="T28" s="33"/>
@@ -3822,7 +3822,7 @@
       <c r="BO28" s="12"/>
     </row>
     <row r="29" spans="1:67" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="63"/>
+      <c r="A29" s="49"/>
       <c r="B29" s="43" t="s">
         <v>48</v>
       </c>
@@ -3830,14 +3830,14 @@
         <v>0</v>
       </c>
       <c r="D29" s="10">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E29" s="11">
         <v>46006</v>
       </c>
       <c r="F29" s="11">
         <f t="shared" si="10"/>
-        <v>46010</v>
+        <v>46009</v>
       </c>
       <c r="G29" s="36" t="str" cm="1">
         <f t="array" ref="G29">_xlfn.TEXTJOIN(", ", TRUE, IF(담당자!C28:I28="O", 담당자!C$2:I$2, ""))</f>
@@ -3849,10 +3849,10 @@
       <c r="K29" s="12"/>
       <c r="L29" s="32"/>
       <c r="M29" s="33"/>
-      <c r="N29" s="45"/>
-      <c r="O29" s="48"/>
-      <c r="P29" s="48"/>
-      <c r="Q29" s="46"/>
+      <c r="N29" s="44"/>
+      <c r="O29" s="47"/>
+      <c r="P29" s="47"/>
+      <c r="Q29" s="45"/>
       <c r="R29" s="12"/>
       <c r="S29" s="32"/>
       <c r="T29" s="33"/>
@@ -3905,7 +3905,7 @@
       <c r="BO29" s="12"/>
     </row>
     <row r="30" spans="1:67" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="63"/>
+      <c r="A30" s="49"/>
       <c r="B30" s="43" t="s">
         <v>49</v>
       </c>
@@ -3913,14 +3913,14 @@
         <v>0</v>
       </c>
       <c r="D30" s="10">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E30" s="11">
         <v>46006</v>
       </c>
       <c r="F30" s="11">
         <f t="shared" si="10"/>
-        <v>46010</v>
+        <v>46009</v>
       </c>
       <c r="G30" s="36" t="str" cm="1">
         <f t="array" ref="G30">_xlfn.TEXTJOIN(", ", TRUE, IF(담당자!C29:I29="O", 담당자!C$2:I$2, ""))</f>
@@ -3932,10 +3932,10 @@
       <c r="K30" s="12"/>
       <c r="L30" s="32"/>
       <c r="M30" s="33"/>
-      <c r="N30" s="45"/>
-      <c r="O30" s="48"/>
-      <c r="P30" s="48"/>
-      <c r="Q30" s="46"/>
+      <c r="N30" s="44"/>
+      <c r="O30" s="47"/>
+      <c r="P30" s="47"/>
+      <c r="Q30" s="45"/>
       <c r="R30" s="12"/>
       <c r="S30" s="32"/>
       <c r="T30" s="33"/>
@@ -3988,7 +3988,7 @@
       <c r="BO30" s="12"/>
     </row>
     <row r="31" spans="1:67" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="63"/>
+      <c r="A31" s="49"/>
       <c r="B31" s="41" t="s">
         <v>50</v>
       </c>
@@ -4018,10 +4018,10 @@
       <c r="K31" s="12"/>
       <c r="L31" s="32"/>
       <c r="M31" s="33"/>
-      <c r="N31" s="45"/>
-      <c r="O31" s="48"/>
-      <c r="P31" s="48"/>
-      <c r="Q31" s="46"/>
+      <c r="N31" s="44"/>
+      <c r="O31" s="47"/>
+      <c r="P31" s="47"/>
+      <c r="Q31" s="45"/>
       <c r="R31" s="12"/>
       <c r="S31" s="32"/>
       <c r="T31" s="33"/>
@@ -4074,7 +4074,7 @@
       <c r="BO31" s="12"/>
     </row>
     <row r="32" spans="1:67" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="64"/>
+      <c r="A32" s="50"/>
       <c r="B32" s="43" t="s">
         <v>51</v>
       </c>
@@ -4101,10 +4101,10 @@
       <c r="K32" s="12"/>
       <c r="L32" s="32"/>
       <c r="M32" s="33"/>
-      <c r="N32" s="45"/>
-      <c r="O32" s="48"/>
-      <c r="P32" s="48"/>
-      <c r="Q32" s="46"/>
+      <c r="N32" s="44"/>
+      <c r="O32" s="47"/>
+      <c r="P32" s="47"/>
+      <c r="Q32" s="45"/>
       <c r="R32" s="12"/>
       <c r="S32" s="32"/>
       <c r="T32" s="33"/>
@@ -4166,10 +4166,10 @@
       <c r="L33" s="22"/>
       <c r="M33" s="26"/>
       <c r="N33" s="13"/>
-      <c r="O33" s="44" t="s">
+      <c r="O33" s="70" t="s">
         <v>46</v>
       </c>
-      <c r="P33" s="44"/>
+      <c r="P33" s="70"/>
       <c r="Q33" s="13"/>
       <c r="R33" s="13"/>
       <c r="S33" s="22"/>
@@ -8222,25 +8222,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="59" t="s">
+      <c r="A1" s="61" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="65" t="s">
+      <c r="B1" s="67" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="67" t="s">
+      <c r="C1" s="69" t="s">
         <v>6</v>
       </c>
-      <c r="D1" s="67"/>
-      <c r="E1" s="67"/>
-      <c r="F1" s="67"/>
-      <c r="G1" s="67"/>
-      <c r="H1" s="67"/>
-      <c r="I1" s="67"/>
+      <c r="D1" s="69"/>
+      <c r="E1" s="69"/>
+      <c r="F1" s="69"/>
+      <c r="G1" s="69"/>
+      <c r="H1" s="69"/>
+      <c r="I1" s="69"/>
     </row>
     <row r="2" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="52"/>
-      <c r="B2" s="66"/>
+      <c r="A2" s="54"/>
+      <c r="B2" s="68"/>
       <c r="C2" s="34" t="s">
         <v>44</v>
       </c>
@@ -8262,7 +8262,7 @@
       <c r="I2" s="34"/>
     </row>
     <row r="3" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="49" t="s">
+      <c r="A3" s="51" t="s">
         <v>7</v>
       </c>
       <c r="B3" s="18" t="s">
@@ -8279,7 +8279,7 @@
       <c r="I3" s="35"/>
     </row>
     <row r="4" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="50"/>
+      <c r="A4" s="52"/>
       <c r="B4" s="18" t="s">
         <v>9</v>
       </c>
@@ -8294,7 +8294,7 @@
       <c r="I4" s="35"/>
     </row>
     <row r="5" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="50"/>
+      <c r="A5" s="52"/>
       <c r="B5" s="18" t="s">
         <v>10</v>
       </c>
@@ -8309,7 +8309,7 @@
       <c r="I5" s="35"/>
     </row>
     <row r="6" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="50"/>
+      <c r="A6" s="52"/>
       <c r="B6" s="18" t="s">
         <v>11</v>
       </c>
@@ -8324,22 +8324,22 @@
       <c r="I6" s="35"/>
     </row>
     <row r="7" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="62" t="s">
+      <c r="A7" s="48" t="s">
         <v>12</v>
       </c>
       <c r="B7" s="41" t="s">
         <v>24</v>
       </c>
-      <c r="C7" s="68"/>
-      <c r="D7" s="69"/>
-      <c r="E7" s="69"/>
-      <c r="F7" s="69"/>
-      <c r="G7" s="69"/>
-      <c r="H7" s="69"/>
-      <c r="I7" s="70"/>
+      <c r="C7" s="64"/>
+      <c r="D7" s="65"/>
+      <c r="E7" s="65"/>
+      <c r="F7" s="65"/>
+      <c r="G7" s="65"/>
+      <c r="H7" s="65"/>
+      <c r="I7" s="66"/>
     </row>
     <row r="8" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="63"/>
+      <c r="A8" s="49"/>
       <c r="B8" s="42" t="s">
         <v>23</v>
       </c>
@@ -8354,7 +8354,7 @@
       <c r="I8" s="35"/>
     </row>
     <row r="9" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="63"/>
+      <c r="A9" s="49"/>
       <c r="B9" s="42" t="s">
         <v>25</v>
       </c>
@@ -8371,7 +8371,7 @@
       <c r="I9" s="35"/>
     </row>
     <row r="10" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="63"/>
+      <c r="A10" s="49"/>
       <c r="B10" s="42" t="s">
         <v>26</v>
       </c>
@@ -8388,7 +8388,7 @@
       <c r="I10" s="35"/>
     </row>
     <row r="11" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="63"/>
+      <c r="A11" s="49"/>
       <c r="B11" s="42" t="s">
         <v>27</v>
       </c>
@@ -8405,20 +8405,20 @@
       <c r="I11" s="35"/>
     </row>
     <row r="12" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="63"/>
+      <c r="A12" s="49"/>
       <c r="B12" s="41" t="s">
         <v>28</v>
       </c>
-      <c r="C12" s="68"/>
-      <c r="D12" s="69"/>
-      <c r="E12" s="69"/>
-      <c r="F12" s="69"/>
-      <c r="G12" s="69"/>
-      <c r="H12" s="69"/>
-      <c r="I12" s="70"/>
+      <c r="C12" s="64"/>
+      <c r="D12" s="65"/>
+      <c r="E12" s="65"/>
+      <c r="F12" s="65"/>
+      <c r="G12" s="65"/>
+      <c r="H12" s="65"/>
+      <c r="I12" s="66"/>
     </row>
     <row r="13" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="63"/>
+      <c r="A13" s="49"/>
       <c r="B13" s="43" t="s">
         <v>32</v>
       </c>
@@ -8433,7 +8433,7 @@
       <c r="I13" s="35"/>
     </row>
     <row r="14" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="63"/>
+      <c r="A14" s="49"/>
       <c r="B14" s="43" t="s">
         <v>33</v>
       </c>
@@ -8450,7 +8450,7 @@
       <c r="I14" s="35"/>
     </row>
     <row r="15" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="63"/>
+      <c r="A15" s="49"/>
       <c r="B15" s="43" t="s">
         <v>34</v>
       </c>
@@ -8467,7 +8467,7 @@
       <c r="I15" s="35"/>
     </row>
     <row r="16" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="63"/>
+      <c r="A16" s="49"/>
       <c r="B16" s="43" t="s">
         <v>35</v>
       </c>
@@ -8486,7 +8486,7 @@
       <c r="I16" s="35"/>
     </row>
     <row r="17" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="63"/>
+      <c r="A17" s="49"/>
       <c r="B17" s="41" t="s">
         <v>29</v>
       </c>
@@ -8501,20 +8501,20 @@
       <c r="I17" s="35"/>
     </row>
     <row r="18" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="63"/>
+      <c r="A18" s="49"/>
       <c r="B18" s="41" t="s">
         <v>30</v>
       </c>
-      <c r="C18" s="68"/>
-      <c r="D18" s="69"/>
-      <c r="E18" s="69"/>
-      <c r="F18" s="69"/>
-      <c r="G18" s="69"/>
-      <c r="H18" s="69"/>
-      <c r="I18" s="70"/>
+      <c r="C18" s="64"/>
+      <c r="D18" s="65"/>
+      <c r="E18" s="65"/>
+      <c r="F18" s="65"/>
+      <c r="G18" s="65"/>
+      <c r="H18" s="65"/>
+      <c r="I18" s="66"/>
     </row>
     <row r="19" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="63"/>
+      <c r="A19" s="49"/>
       <c r="B19" s="43" t="s">
         <v>36</v>
       </c>
@@ -8529,7 +8529,7 @@
       <c r="I19" s="35"/>
     </row>
     <row r="20" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="63"/>
+      <c r="A20" s="49"/>
       <c r="B20" s="43" t="s">
         <v>37</v>
       </c>
@@ -8544,20 +8544,20 @@
       <c r="I20" s="35"/>
     </row>
     <row r="21" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="63"/>
+      <c r="A21" s="49"/>
       <c r="B21" s="41" t="s">
         <v>31</v>
       </c>
-      <c r="C21" s="68"/>
-      <c r="D21" s="69"/>
-      <c r="E21" s="69"/>
-      <c r="F21" s="69"/>
-      <c r="G21" s="69"/>
-      <c r="H21" s="69"/>
-      <c r="I21" s="70"/>
+      <c r="C21" s="64"/>
+      <c r="D21" s="65"/>
+      <c r="E21" s="65"/>
+      <c r="F21" s="65"/>
+      <c r="G21" s="65"/>
+      <c r="H21" s="65"/>
+      <c r="I21" s="66"/>
     </row>
     <row r="22" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="63"/>
+      <c r="A22" s="49"/>
       <c r="B22" s="43" t="s">
         <v>38</v>
       </c>
@@ -8572,7 +8572,7 @@
       <c r="I22" s="35"/>
     </row>
     <row r="23" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="63"/>
+      <c r="A23" s="49"/>
       <c r="B23" s="43" t="s">
         <v>39</v>
       </c>
@@ -8587,20 +8587,20 @@
       <c r="I23" s="35"/>
     </row>
     <row r="24" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="63"/>
+      <c r="A24" s="49"/>
       <c r="B24" s="41" t="s">
         <v>40</v>
       </c>
-      <c r="C24" s="68"/>
-      <c r="D24" s="69"/>
-      <c r="E24" s="69"/>
-      <c r="F24" s="69"/>
-      <c r="G24" s="69"/>
-      <c r="H24" s="69"/>
-      <c r="I24" s="70"/>
+      <c r="C24" s="64"/>
+      <c r="D24" s="65"/>
+      <c r="E24" s="65"/>
+      <c r="F24" s="65"/>
+      <c r="G24" s="65"/>
+      <c r="H24" s="65"/>
+      <c r="I24" s="66"/>
     </row>
     <row r="25" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="63"/>
+      <c r="A25" s="49"/>
       <c r="B25" s="43" t="s">
         <v>41</v>
       </c>
@@ -8615,7 +8615,7 @@
       <c r="I25" s="35"/>
     </row>
     <row r="26" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="63"/>
+      <c r="A26" s="49"/>
       <c r="B26" s="43" t="s">
         <v>42</v>
       </c>
@@ -8630,20 +8630,20 @@
       <c r="I26" s="35"/>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A27" s="63"/>
+      <c r="A27" s="49"/>
       <c r="B27" s="41" t="s">
         <v>47</v>
       </c>
-      <c r="C27" s="68"/>
-      <c r="D27" s="69"/>
-      <c r="E27" s="69"/>
-      <c r="F27" s="69"/>
-      <c r="G27" s="69"/>
-      <c r="H27" s="69"/>
-      <c r="I27" s="70"/>
+      <c r="C27" s="64"/>
+      <c r="D27" s="65"/>
+      <c r="E27" s="65"/>
+      <c r="F27" s="65"/>
+      <c r="G27" s="65"/>
+      <c r="H27" s="65"/>
+      <c r="I27" s="66"/>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A28" s="63"/>
+      <c r="A28" s="49"/>
       <c r="B28" s="43" t="s">
         <v>48</v>
       </c>
@@ -8658,7 +8658,7 @@
       <c r="I28" s="35"/>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A29" s="63"/>
+      <c r="A29" s="49"/>
       <c r="B29" s="43" t="s">
         <v>49</v>
       </c>
@@ -8673,20 +8673,20 @@
       <c r="I29" s="35"/>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A30" s="63"/>
+      <c r="A30" s="49"/>
       <c r="B30" s="41" t="s">
         <v>40</v>
       </c>
-      <c r="C30" s="68"/>
-      <c r="D30" s="69"/>
-      <c r="E30" s="69"/>
-      <c r="F30" s="69"/>
-      <c r="G30" s="69"/>
-      <c r="H30" s="69"/>
-      <c r="I30" s="70"/>
+      <c r="C30" s="64"/>
+      <c r="D30" s="65"/>
+      <c r="E30" s="65"/>
+      <c r="F30" s="65"/>
+      <c r="G30" s="65"/>
+      <c r="H30" s="65"/>
+      <c r="I30" s="66"/>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A31" s="63"/>
+      <c r="A31" s="49"/>
       <c r="B31" s="43" t="s">
         <v>41</v>
       </c>
@@ -8701,7 +8701,7 @@
       <c r="I31" s="35"/>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A32" s="64"/>
+      <c r="A32" s="50"/>
       <c r="B32" s="43" t="s">
         <v>42</v>
       </c>
@@ -8717,6 +8717,11 @@
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="A3:A6"/>
+    <mergeCell ref="C1:I1"/>
+    <mergeCell ref="C7:I7"/>
     <mergeCell ref="C24:I24"/>
     <mergeCell ref="C21:I21"/>
     <mergeCell ref="C12:I12"/>
@@ -8724,11 +8729,6 @@
     <mergeCell ref="A7:A32"/>
     <mergeCell ref="C27:I27"/>
     <mergeCell ref="C30:I30"/>
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="A3:A6"/>
-    <mergeCell ref="C1:I1"/>
-    <mergeCell ref="C7:I7"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <extLst>

--- a/2.WBS/WBS_현대이지웰_최종프로젝트.xlsx
+++ b/2.WBS/WBS_현대이지웰_최종프로젝트.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="W:\GamesungCoding\ResourceRepo\2.WBS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F8AC0F4E-0E0E-4F88-942E-BB3E6DFA5ED2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{81DEEB81-CEF7-4E5D-9F6D-EB97E2F9FCD9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -870,6 +870,9 @@
     <xf numFmtId="0" fontId="28" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -918,15 +921,6 @@
     <xf numFmtId="0" fontId="16" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="164" fontId="15" fillId="3" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -936,8 +930,14 @@
     <xf numFmtId="164" fontId="13" fillId="3" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1199,8 +1199,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:BO1001"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="S36" sqref="S36"/>
+    <sheetView tabSelected="1" topLeftCell="A2" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C24" sqref="C24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1238,31 +1238,31 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:67" ht="38.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="55" t="s">
+      <c r="A1" s="56" t="s">
         <v>13</v>
       </c>
-      <c r="B1" s="56"/>
-      <c r="C1" s="56"/>
-      <c r="D1" s="56"/>
-      <c r="E1" s="56"/>
-      <c r="F1" s="56"/>
-      <c r="G1" s="56"/>
-      <c r="H1" s="56"/>
-      <c r="I1" s="56"/>
-      <c r="J1" s="56"/>
-      <c r="K1" s="56"/>
-      <c r="L1" s="56"/>
-      <c r="M1" s="56"/>
-      <c r="N1" s="56"/>
-      <c r="O1" s="56"/>
-      <c r="P1" s="56"/>
-      <c r="Q1" s="56"/>
-      <c r="R1" s="56"/>
-      <c r="S1" s="56"/>
-      <c r="T1" s="56"/>
-      <c r="U1" s="56"/>
-      <c r="V1" s="56"/>
-      <c r="W1" s="56"/>
+      <c r="B1" s="57"/>
+      <c r="C1" s="57"/>
+      <c r="D1" s="57"/>
+      <c r="E1" s="57"/>
+      <c r="F1" s="57"/>
+      <c r="G1" s="57"/>
+      <c r="H1" s="57"/>
+      <c r="I1" s="57"/>
+      <c r="J1" s="57"/>
+      <c r="K1" s="57"/>
+      <c r="L1" s="57"/>
+      <c r="M1" s="57"/>
+      <c r="N1" s="57"/>
+      <c r="O1" s="57"/>
+      <c r="P1" s="57"/>
+      <c r="Q1" s="57"/>
+      <c r="R1" s="57"/>
+      <c r="S1" s="57"/>
+      <c r="T1" s="57"/>
+      <c r="U1" s="57"/>
+      <c r="V1" s="57"/>
+      <c r="W1" s="57"/>
     </row>
     <row r="2" spans="1:67" s="7" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="16" t="s">
@@ -1271,31 +1271,31 @@
       <c r="B2" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="C2" s="57" t="s">
+      <c r="C2" s="58" t="s">
         <v>15</v>
       </c>
-      <c r="D2" s="58"/>
-      <c r="E2" s="58"/>
-      <c r="F2" s="59" t="s">
+      <c r="D2" s="59"/>
+      <c r="E2" s="59"/>
+      <c r="F2" s="60" t="s">
         <v>16</v>
       </c>
-      <c r="G2" s="60"/>
-      <c r="H2" s="60"/>
-      <c r="I2" s="60"/>
-      <c r="J2" s="60"/>
-      <c r="K2" s="60"/>
-      <c r="L2" s="60"/>
-      <c r="M2" s="60"/>
-      <c r="N2" s="60"/>
-      <c r="O2" s="60"/>
-      <c r="P2" s="60"/>
-      <c r="Q2" s="60"/>
-      <c r="R2" s="60"/>
-      <c r="S2" s="60"/>
-      <c r="T2" s="60"/>
-      <c r="U2" s="60"/>
-      <c r="V2" s="60"/>
-      <c r="W2" s="60"/>
+      <c r="G2" s="61"/>
+      <c r="H2" s="61"/>
+      <c r="I2" s="61"/>
+      <c r="J2" s="61"/>
+      <c r="K2" s="61"/>
+      <c r="L2" s="61"/>
+      <c r="M2" s="61"/>
+      <c r="N2" s="61"/>
+      <c r="O2" s="61"/>
+      <c r="P2" s="61"/>
+      <c r="Q2" s="61"/>
+      <c r="R2" s="61"/>
+      <c r="S2" s="61"/>
+      <c r="T2" s="61"/>
+      <c r="U2" s="61"/>
+      <c r="V2" s="61"/>
+      <c r="W2" s="61"/>
       <c r="X2" s="6"/>
       <c r="Y2" s="6"/>
       <c r="Z2" s="28"/>
@@ -1311,25 +1311,25 @@
       <c r="BC2" s="30"/>
     </row>
     <row r="3" spans="1:67" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="61" t="s">
+      <c r="A3" s="62" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="62" t="s">
+      <c r="B3" s="63" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="53" t="s">
+      <c r="C3" s="54" t="s">
         <v>2</v>
       </c>
-      <c r="D3" s="53" t="s">
+      <c r="D3" s="54" t="s">
         <v>3</v>
       </c>
-      <c r="E3" s="53" t="s">
+      <c r="E3" s="54" t="s">
         <v>4</v>
       </c>
-      <c r="F3" s="53" t="s">
+      <c r="F3" s="54" t="s">
         <v>5</v>
       </c>
-      <c r="G3" s="53" t="s">
+      <c r="G3" s="54" t="s">
         <v>6</v>
       </c>
       <c r="H3" s="8">
@@ -1573,13 +1573,13 @@
       </c>
     </row>
     <row r="4" spans="1:67" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="54"/>
-      <c r="B4" s="63"/>
-      <c r="C4" s="54"/>
-      <c r="D4" s="54"/>
-      <c r="E4" s="54"/>
-      <c r="F4" s="54"/>
-      <c r="G4" s="54"/>
+      <c r="A4" s="55"/>
+      <c r="B4" s="64"/>
+      <c r="C4" s="55"/>
+      <c r="D4" s="55"/>
+      <c r="E4" s="55"/>
+      <c r="F4" s="55"/>
+      <c r="G4" s="55"/>
       <c r="H4" s="9">
         <v>45951</v>
       </c>
@@ -1821,7 +1821,7 @@
       </c>
     </row>
     <row r="5" spans="1:67" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="51" t="s">
+      <c r="A5" s="52" t="s">
         <v>7</v>
       </c>
       <c r="B5" s="18" t="s">
@@ -1906,7 +1906,7 @@
       <c r="BO5" s="12"/>
     </row>
     <row r="6" spans="1:67" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="52"/>
+      <c r="A6" s="53"/>
       <c r="B6" s="18" t="s">
         <v>9</v>
       </c>
@@ -1985,7 +1985,7 @@
       <c r="BO6" s="12"/>
     </row>
     <row r="7" spans="1:67" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="52"/>
+      <c r="A7" s="53"/>
       <c r="B7" s="18" t="s">
         <v>10</v>
       </c>
@@ -2064,7 +2064,7 @@
       <c r="BO7" s="12"/>
     </row>
     <row r="8" spans="1:67" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="52"/>
+      <c r="A8" s="53"/>
       <c r="B8" s="18" t="s">
         <v>11</v>
       </c>
@@ -2143,7 +2143,7 @@
       <c r="BO8" s="12"/>
     </row>
     <row r="9" spans="1:67" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="48" t="s">
+      <c r="A9" s="49" t="s">
         <v>12</v>
       </c>
       <c r="B9" s="41" t="s">
@@ -2151,7 +2151,7 @@
       </c>
       <c r="C9" s="37">
         <f>IF(COUNTBLANK(C10:C12)=4, "", SUM(C10:C12)/COUNT(C10:C12))</f>
-        <v>0.26666666666666666</v>
+        <v>0.93333333333333324</v>
       </c>
       <c r="D9" s="10">
         <f>IF(AND(F9&lt;&gt;"", E9&lt;&gt;""), F9-E9+1, "")</f>
@@ -2231,12 +2231,12 @@
       <c r="BO9" s="12"/>
     </row>
     <row r="10" spans="1:67" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="49"/>
+      <c r="A10" s="50"/>
       <c r="B10" s="42" t="s">
         <v>23</v>
       </c>
       <c r="C10" s="37">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="D10" s="10">
         <v>4</v>
@@ -2314,12 +2314,12 @@
       <c r="BO10" s="12"/>
     </row>
     <row r="11" spans="1:67" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="49"/>
+      <c r="A11" s="50"/>
       <c r="B11" s="42" t="s">
         <v>25</v>
       </c>
       <c r="C11" s="37">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="D11" s="10">
         <v>2</v>
@@ -2397,12 +2397,12 @@
       <c r="BO11" s="12"/>
     </row>
     <row r="12" spans="1:67" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="49"/>
+      <c r="A12" s="50"/>
       <c r="B12" s="42" t="s">
         <v>52</v>
       </c>
       <c r="C12" s="37">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D12" s="10">
         <v>2</v>
@@ -2481,13 +2481,13 @@
       <c r="BO12" s="12"/>
     </row>
     <row r="13" spans="1:67" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="49"/>
+      <c r="A13" s="50"/>
       <c r="B13" s="41" t="s">
         <v>28</v>
       </c>
       <c r="C13" s="37">
         <f>IF(COUNTBLANK(C14:C17)=4, "", SUM(C14:C17)/COUNT(C14:C17))</f>
-        <v>1.2500000000000001E-2</v>
+        <v>2.5000000000000001E-2</v>
       </c>
       <c r="D13" s="10">
         <f>IF(AND(F13&lt;&gt;"", E13&lt;&gt;""), F13-E13+1, "")</f>
@@ -2567,12 +2567,12 @@
       <c r="BO13" s="12"/>
     </row>
     <row r="14" spans="1:67" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="49"/>
+      <c r="A14" s="50"/>
       <c r="B14" s="43" t="s">
         <v>32</v>
       </c>
       <c r="C14" s="37">
-        <v>0.05</v>
+        <v>0.1</v>
       </c>
       <c r="D14" s="10">
         <v>4</v>
@@ -2648,7 +2648,7 @@
       <c r="BO14" s="12"/>
     </row>
     <row r="15" spans="1:67" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="49"/>
+      <c r="A15" s="50"/>
       <c r="B15" s="43" t="s">
         <v>33</v>
       </c>
@@ -2731,7 +2731,7 @@
       <c r="BO15" s="12"/>
     </row>
     <row r="16" spans="1:67" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="49"/>
+      <c r="A16" s="50"/>
       <c r="B16" s="43" t="s">
         <v>34</v>
       </c>
@@ -2814,7 +2814,7 @@
       <c r="BO16" s="12"/>
     </row>
     <row r="17" spans="1:67" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="49"/>
+      <c r="A17" s="50"/>
       <c r="B17" s="43" t="s">
         <v>35</v>
       </c>
@@ -2897,7 +2897,7 @@
       <c r="BO17" s="12"/>
     </row>
     <row r="18" spans="1:67" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="49"/>
+      <c r="A18" s="50"/>
       <c r="B18" s="41" t="s">
         <v>29</v>
       </c>
@@ -2980,7 +2980,7 @@
       <c r="BO18" s="12"/>
     </row>
     <row r="19" spans="1:67" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="49"/>
+      <c r="A19" s="50"/>
       <c r="B19" s="41" t="s">
         <v>30</v>
       </c>
@@ -3066,7 +3066,7 @@
       <c r="BO19" s="12"/>
     </row>
     <row r="20" spans="1:67" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="49"/>
+      <c r="A20" s="50"/>
       <c r="B20" s="43" t="s">
         <v>36</v>
       </c>
@@ -3149,7 +3149,7 @@
       <c r="BO20" s="12"/>
     </row>
     <row r="21" spans="1:67" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="49"/>
+      <c r="A21" s="50"/>
       <c r="B21" s="43" t="s">
         <v>37</v>
       </c>
@@ -3232,7 +3232,7 @@
       <c r="BO21" s="12"/>
     </row>
     <row r="22" spans="1:67" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="49"/>
+      <c r="A22" s="50"/>
       <c r="B22" s="41" t="s">
         <v>31</v>
       </c>
@@ -3318,7 +3318,7 @@
       <c r="BO22" s="12"/>
     </row>
     <row r="23" spans="1:67" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="49"/>
+      <c r="A23" s="50"/>
       <c r="B23" s="43" t="s">
         <v>38</v>
       </c>
@@ -3401,7 +3401,7 @@
       <c r="BO23" s="12"/>
     </row>
     <row r="24" spans="1:67" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="49"/>
+      <c r="A24" s="50"/>
       <c r="B24" s="43" t="s">
         <v>39</v>
       </c>
@@ -3484,7 +3484,7 @@
       <c r="BO24" s="12"/>
     </row>
     <row r="25" spans="1:67" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="49"/>
+      <c r="A25" s="50"/>
       <c r="B25" s="41" t="s">
         <v>40</v>
       </c>
@@ -3570,7 +3570,7 @@
       <c r="BO25" s="12"/>
     </row>
     <row r="26" spans="1:67" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="49"/>
+      <c r="A26" s="50"/>
       <c r="B26" s="43" t="s">
         <v>41</v>
       </c>
@@ -3653,7 +3653,7 @@
       <c r="BO26" s="12"/>
     </row>
     <row r="27" spans="1:67" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="49"/>
+      <c r="A27" s="50"/>
       <c r="B27" s="43" t="s">
         <v>42</v>
       </c>
@@ -3736,7 +3736,7 @@
       <c r="BO27" s="12"/>
     </row>
     <row r="28" spans="1:67" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="49"/>
+      <c r="A28" s="50"/>
       <c r="B28" s="41" t="s">
         <v>47</v>
       </c>
@@ -3822,7 +3822,7 @@
       <c r="BO28" s="12"/>
     </row>
     <row r="29" spans="1:67" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="49"/>
+      <c r="A29" s="50"/>
       <c r="B29" s="43" t="s">
         <v>48</v>
       </c>
@@ -3905,7 +3905,7 @@
       <c r="BO29" s="12"/>
     </row>
     <row r="30" spans="1:67" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="49"/>
+      <c r="A30" s="50"/>
       <c r="B30" s="43" t="s">
         <v>49</v>
       </c>
@@ -3988,7 +3988,7 @@
       <c r="BO30" s="12"/>
     </row>
     <row r="31" spans="1:67" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="49"/>
+      <c r="A31" s="50"/>
       <c r="B31" s="41" t="s">
         <v>50</v>
       </c>
@@ -4074,7 +4074,7 @@
       <c r="BO31" s="12"/>
     </row>
     <row r="32" spans="1:67" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="50"/>
+      <c r="A32" s="51"/>
       <c r="B32" s="43" t="s">
         <v>51</v>
       </c>
@@ -4166,10 +4166,10 @@
       <c r="L33" s="22"/>
       <c r="M33" s="26"/>
       <c r="N33" s="13"/>
-      <c r="O33" s="70" t="s">
+      <c r="O33" s="48" t="s">
         <v>46</v>
       </c>
-      <c r="P33" s="70"/>
+      <c r="P33" s="48"/>
       <c r="Q33" s="13"/>
       <c r="R33" s="13"/>
       <c r="S33" s="22"/>
@@ -8222,25 +8222,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="61" t="s">
+      <c r="A1" s="62" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="67" t="s">
+      <c r="B1" s="65" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="69" t="s">
+      <c r="C1" s="67" t="s">
         <v>6</v>
       </c>
-      <c r="D1" s="69"/>
-      <c r="E1" s="69"/>
-      <c r="F1" s="69"/>
-      <c r="G1" s="69"/>
-      <c r="H1" s="69"/>
-      <c r="I1" s="69"/>
+      <c r="D1" s="67"/>
+      <c r="E1" s="67"/>
+      <c r="F1" s="67"/>
+      <c r="G1" s="67"/>
+      <c r="H1" s="67"/>
+      <c r="I1" s="67"/>
     </row>
     <row r="2" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="54"/>
-      <c r="B2" s="68"/>
+      <c r="A2" s="55"/>
+      <c r="B2" s="66"/>
       <c r="C2" s="34" t="s">
         <v>44</v>
       </c>
@@ -8262,7 +8262,7 @@
       <c r="I2" s="34"/>
     </row>
     <row r="3" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="51" t="s">
+      <c r="A3" s="52" t="s">
         <v>7</v>
       </c>
       <c r="B3" s="18" t="s">
@@ -8279,7 +8279,7 @@
       <c r="I3" s="35"/>
     </row>
     <row r="4" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="52"/>
+      <c r="A4" s="53"/>
       <c r="B4" s="18" t="s">
         <v>9</v>
       </c>
@@ -8294,7 +8294,7 @@
       <c r="I4" s="35"/>
     </row>
     <row r="5" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="52"/>
+      <c r="A5" s="53"/>
       <c r="B5" s="18" t="s">
         <v>10</v>
       </c>
@@ -8309,7 +8309,7 @@
       <c r="I5" s="35"/>
     </row>
     <row r="6" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="52"/>
+      <c r="A6" s="53"/>
       <c r="B6" s="18" t="s">
         <v>11</v>
       </c>
@@ -8324,22 +8324,22 @@
       <c r="I6" s="35"/>
     </row>
     <row r="7" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="48" t="s">
+      <c r="A7" s="49" t="s">
         <v>12</v>
       </c>
       <c r="B7" s="41" t="s">
         <v>24</v>
       </c>
-      <c r="C7" s="64"/>
-      <c r="D7" s="65"/>
-      <c r="E7" s="65"/>
-      <c r="F7" s="65"/>
-      <c r="G7" s="65"/>
-      <c r="H7" s="65"/>
-      <c r="I7" s="66"/>
+      <c r="C7" s="68"/>
+      <c r="D7" s="69"/>
+      <c r="E7" s="69"/>
+      <c r="F7" s="69"/>
+      <c r="G7" s="69"/>
+      <c r="H7" s="69"/>
+      <c r="I7" s="70"/>
     </row>
     <row r="8" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="49"/>
+      <c r="A8" s="50"/>
       <c r="B8" s="42" t="s">
         <v>23</v>
       </c>
@@ -8354,7 +8354,7 @@
       <c r="I8" s="35"/>
     </row>
     <row r="9" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="49"/>
+      <c r="A9" s="50"/>
       <c r="B9" s="42" t="s">
         <v>25</v>
       </c>
@@ -8371,7 +8371,7 @@
       <c r="I9" s="35"/>
     </row>
     <row r="10" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="49"/>
+      <c r="A10" s="50"/>
       <c r="B10" s="42" t="s">
         <v>26</v>
       </c>
@@ -8388,7 +8388,7 @@
       <c r="I10" s="35"/>
     </row>
     <row r="11" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="49"/>
+      <c r="A11" s="50"/>
       <c r="B11" s="42" t="s">
         <v>27</v>
       </c>
@@ -8405,20 +8405,20 @@
       <c r="I11" s="35"/>
     </row>
     <row r="12" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="49"/>
+      <c r="A12" s="50"/>
       <c r="B12" s="41" t="s">
         <v>28</v>
       </c>
-      <c r="C12" s="64"/>
-      <c r="D12" s="65"/>
-      <c r="E12" s="65"/>
-      <c r="F12" s="65"/>
-      <c r="G12" s="65"/>
-      <c r="H12" s="65"/>
-      <c r="I12" s="66"/>
+      <c r="C12" s="68"/>
+      <c r="D12" s="69"/>
+      <c r="E12" s="69"/>
+      <c r="F12" s="69"/>
+      <c r="G12" s="69"/>
+      <c r="H12" s="69"/>
+      <c r="I12" s="70"/>
     </row>
     <row r="13" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="49"/>
+      <c r="A13" s="50"/>
       <c r="B13" s="43" t="s">
         <v>32</v>
       </c>
@@ -8433,7 +8433,7 @@
       <c r="I13" s="35"/>
     </row>
     <row r="14" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="49"/>
+      <c r="A14" s="50"/>
       <c r="B14" s="43" t="s">
         <v>33</v>
       </c>
@@ -8450,7 +8450,7 @@
       <c r="I14" s="35"/>
     </row>
     <row r="15" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="49"/>
+      <c r="A15" s="50"/>
       <c r="B15" s="43" t="s">
         <v>34</v>
       </c>
@@ -8467,7 +8467,7 @@
       <c r="I15" s="35"/>
     </row>
     <row r="16" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="49"/>
+      <c r="A16" s="50"/>
       <c r="B16" s="43" t="s">
         <v>35</v>
       </c>
@@ -8486,7 +8486,7 @@
       <c r="I16" s="35"/>
     </row>
     <row r="17" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="49"/>
+      <c r="A17" s="50"/>
       <c r="B17" s="41" t="s">
         <v>29</v>
       </c>
@@ -8501,20 +8501,20 @@
       <c r="I17" s="35"/>
     </row>
     <row r="18" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="49"/>
+      <c r="A18" s="50"/>
       <c r="B18" s="41" t="s">
         <v>30</v>
       </c>
-      <c r="C18" s="64"/>
-      <c r="D18" s="65"/>
-      <c r="E18" s="65"/>
-      <c r="F18" s="65"/>
-      <c r="G18" s="65"/>
-      <c r="H18" s="65"/>
-      <c r="I18" s="66"/>
+      <c r="C18" s="68"/>
+      <c r="D18" s="69"/>
+      <c r="E18" s="69"/>
+      <c r="F18" s="69"/>
+      <c r="G18" s="69"/>
+      <c r="H18" s="69"/>
+      <c r="I18" s="70"/>
     </row>
     <row r="19" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="49"/>
+      <c r="A19" s="50"/>
       <c r="B19" s="43" t="s">
         <v>36</v>
       </c>
@@ -8529,7 +8529,7 @@
       <c r="I19" s="35"/>
     </row>
     <row r="20" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="49"/>
+      <c r="A20" s="50"/>
       <c r="B20" s="43" t="s">
         <v>37</v>
       </c>
@@ -8544,20 +8544,20 @@
       <c r="I20" s="35"/>
     </row>
     <row r="21" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="49"/>
+      <c r="A21" s="50"/>
       <c r="B21" s="41" t="s">
         <v>31</v>
       </c>
-      <c r="C21" s="64"/>
-      <c r="D21" s="65"/>
-      <c r="E21" s="65"/>
-      <c r="F21" s="65"/>
-      <c r="G21" s="65"/>
-      <c r="H21" s="65"/>
-      <c r="I21" s="66"/>
+      <c r="C21" s="68"/>
+      <c r="D21" s="69"/>
+      <c r="E21" s="69"/>
+      <c r="F21" s="69"/>
+      <c r="G21" s="69"/>
+      <c r="H21" s="69"/>
+      <c r="I21" s="70"/>
     </row>
     <row r="22" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="49"/>
+      <c r="A22" s="50"/>
       <c r="B22" s="43" t="s">
         <v>38</v>
       </c>
@@ -8572,7 +8572,7 @@
       <c r="I22" s="35"/>
     </row>
     <row r="23" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="49"/>
+      <c r="A23" s="50"/>
       <c r="B23" s="43" t="s">
         <v>39</v>
       </c>
@@ -8587,20 +8587,20 @@
       <c r="I23" s="35"/>
     </row>
     <row r="24" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="49"/>
+      <c r="A24" s="50"/>
       <c r="B24" s="41" t="s">
         <v>40</v>
       </c>
-      <c r="C24" s="64"/>
-      <c r="D24" s="65"/>
-      <c r="E24" s="65"/>
-      <c r="F24" s="65"/>
-      <c r="G24" s="65"/>
-      <c r="H24" s="65"/>
-      <c r="I24" s="66"/>
+      <c r="C24" s="68"/>
+      <c r="D24" s="69"/>
+      <c r="E24" s="69"/>
+      <c r="F24" s="69"/>
+      <c r="G24" s="69"/>
+      <c r="H24" s="69"/>
+      <c r="I24" s="70"/>
     </row>
     <row r="25" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="49"/>
+      <c r="A25" s="50"/>
       <c r="B25" s="43" t="s">
         <v>41</v>
       </c>
@@ -8615,7 +8615,7 @@
       <c r="I25" s="35"/>
     </row>
     <row r="26" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="49"/>
+      <c r="A26" s="50"/>
       <c r="B26" s="43" t="s">
         <v>42</v>
       </c>
@@ -8630,20 +8630,20 @@
       <c r="I26" s="35"/>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A27" s="49"/>
+      <c r="A27" s="50"/>
       <c r="B27" s="41" t="s">
         <v>47</v>
       </c>
-      <c r="C27" s="64"/>
-      <c r="D27" s="65"/>
-      <c r="E27" s="65"/>
-      <c r="F27" s="65"/>
-      <c r="G27" s="65"/>
-      <c r="H27" s="65"/>
-      <c r="I27" s="66"/>
+      <c r="C27" s="68"/>
+      <c r="D27" s="69"/>
+      <c r="E27" s="69"/>
+      <c r="F27" s="69"/>
+      <c r="G27" s="69"/>
+      <c r="H27" s="69"/>
+      <c r="I27" s="70"/>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A28" s="49"/>
+      <c r="A28" s="50"/>
       <c r="B28" s="43" t="s">
         <v>48</v>
       </c>
@@ -8658,7 +8658,7 @@
       <c r="I28" s="35"/>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A29" s="49"/>
+      <c r="A29" s="50"/>
       <c r="B29" s="43" t="s">
         <v>49</v>
       </c>
@@ -8673,20 +8673,20 @@
       <c r="I29" s="35"/>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A30" s="49"/>
+      <c r="A30" s="50"/>
       <c r="B30" s="41" t="s">
         <v>40</v>
       </c>
-      <c r="C30" s="64"/>
-      <c r="D30" s="65"/>
-      <c r="E30" s="65"/>
-      <c r="F30" s="65"/>
-      <c r="G30" s="65"/>
-      <c r="H30" s="65"/>
-      <c r="I30" s="66"/>
+      <c r="C30" s="68"/>
+      <c r="D30" s="69"/>
+      <c r="E30" s="69"/>
+      <c r="F30" s="69"/>
+      <c r="G30" s="69"/>
+      <c r="H30" s="69"/>
+      <c r="I30" s="70"/>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A31" s="49"/>
+      <c r="A31" s="50"/>
       <c r="B31" s="43" t="s">
         <v>41</v>
       </c>
@@ -8701,7 +8701,7 @@
       <c r="I31" s="35"/>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A32" s="50"/>
+      <c r="A32" s="51"/>
       <c r="B32" s="43" t="s">
         <v>42</v>
       </c>
@@ -8717,11 +8717,6 @@
     </row>
   </sheetData>
   <mergeCells count="12">
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="A3:A6"/>
-    <mergeCell ref="C1:I1"/>
-    <mergeCell ref="C7:I7"/>
     <mergeCell ref="C24:I24"/>
     <mergeCell ref="C21:I21"/>
     <mergeCell ref="C12:I12"/>
@@ -8729,6 +8724,11 @@
     <mergeCell ref="A7:A32"/>
     <mergeCell ref="C27:I27"/>
     <mergeCell ref="C30:I30"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="A3:A6"/>
+    <mergeCell ref="C1:I1"/>
+    <mergeCell ref="C7:I7"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <extLst>

--- a/2.WBS/WBS_현대이지웰_최종프로젝트.xlsx
+++ b/2.WBS/WBS_현대이지웰_최종프로젝트.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29328"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="W:\GamesungCoding\ResourceRepo\2.WBS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{81DEEB81-CEF7-4E5D-9F6D-EB97E2F9FCD9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A7F2796-9D0E-4DF0-96BB-6D0452D56202}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -921,6 +921,15 @@
     <xf numFmtId="0" fontId="16" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="164" fontId="15" fillId="3" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -928,15 +937,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="164" fontId="13" fillId="3" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1199,8 +1199,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:BO1001"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C24" sqref="C24"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -2151,7 +2151,7 @@
       </c>
       <c r="C9" s="37">
         <f>IF(COUNTBLANK(C10:C12)=4, "", SUM(C10:C12)/COUNT(C10:C12))</f>
-        <v>0.93333333333333324</v>
+        <v>1</v>
       </c>
       <c r="D9" s="10">
         <f>IF(AND(F9&lt;&gt;"", E9&lt;&gt;""), F9-E9+1, "")</f>
@@ -2319,7 +2319,7 @@
         <v>25</v>
       </c>
       <c r="C11" s="37">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="D11" s="10">
         <v>2</v>
@@ -2487,7 +2487,7 @@
       </c>
       <c r="C13" s="37">
         <f>IF(COUNTBLANK(C14:C17)=4, "", SUM(C14:C17)/COUNT(C14:C17))</f>
-        <v>2.5000000000000001E-2</v>
+        <v>0.85</v>
       </c>
       <c r="D13" s="10">
         <f>IF(AND(F13&lt;&gt;"", E13&lt;&gt;""), F13-E13+1, "")</f>
@@ -2572,7 +2572,7 @@
         <v>32</v>
       </c>
       <c r="C14" s="37">
-        <v>0.1</v>
+        <v>1</v>
       </c>
       <c r="D14" s="10">
         <v>4</v>
@@ -2653,7 +2653,7 @@
         <v>33</v>
       </c>
       <c r="C15" s="37">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D15" s="10">
         <v>4</v>
@@ -2736,7 +2736,7 @@
         <v>34</v>
       </c>
       <c r="C16" s="37">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D16" s="10">
         <v>5</v>
@@ -2819,7 +2819,7 @@
         <v>35</v>
       </c>
       <c r="C17" s="37">
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="D17" s="10">
         <v>15</v>
@@ -2902,7 +2902,7 @@
         <v>29</v>
       </c>
       <c r="C18" s="37">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="D18" s="10">
         <v>1</v>
@@ -2986,7 +2986,7 @@
       </c>
       <c r="C19" s="37">
         <f>IF(COUNTBLANK(C20:C21)=2, "", SUM(C20:C21)/COUNT(C20:C21))</f>
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="D19" s="10">
         <f>IF(AND(F19&lt;&gt;"", E19&lt;&gt;""), F19-E19+1, "")</f>
@@ -3071,7 +3071,7 @@
         <v>36</v>
       </c>
       <c r="C20" s="37">
-        <v>0</v>
+        <v>0.02</v>
       </c>
       <c r="D20" s="10">
         <v>31</v>
@@ -8225,22 +8225,22 @@
       <c r="A1" s="62" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="65" t="s">
+      <c r="B1" s="68" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="67" t="s">
+      <c r="C1" s="70" t="s">
         <v>6</v>
       </c>
-      <c r="D1" s="67"/>
-      <c r="E1" s="67"/>
-      <c r="F1" s="67"/>
-      <c r="G1" s="67"/>
-      <c r="H1" s="67"/>
-      <c r="I1" s="67"/>
+      <c r="D1" s="70"/>
+      <c r="E1" s="70"/>
+      <c r="F1" s="70"/>
+      <c r="G1" s="70"/>
+      <c r="H1" s="70"/>
+      <c r="I1" s="70"/>
     </row>
     <row r="2" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="55"/>
-      <c r="B2" s="66"/>
+      <c r="B2" s="69"/>
       <c r="C2" s="34" t="s">
         <v>44</v>
       </c>
@@ -8330,13 +8330,13 @@
       <c r="B7" s="41" t="s">
         <v>24</v>
       </c>
-      <c r="C7" s="68"/>
-      <c r="D7" s="69"/>
-      <c r="E7" s="69"/>
-      <c r="F7" s="69"/>
-      <c r="G7" s="69"/>
-      <c r="H7" s="69"/>
-      <c r="I7" s="70"/>
+      <c r="C7" s="65"/>
+      <c r="D7" s="66"/>
+      <c r="E7" s="66"/>
+      <c r="F7" s="66"/>
+      <c r="G7" s="66"/>
+      <c r="H7" s="66"/>
+      <c r="I7" s="67"/>
     </row>
     <row r="8" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="50"/>
@@ -8409,13 +8409,13 @@
       <c r="B12" s="41" t="s">
         <v>28</v>
       </c>
-      <c r="C12" s="68"/>
-      <c r="D12" s="69"/>
-      <c r="E12" s="69"/>
-      <c r="F12" s="69"/>
-      <c r="G12" s="69"/>
-      <c r="H12" s="69"/>
-      <c r="I12" s="70"/>
+      <c r="C12" s="65"/>
+      <c r="D12" s="66"/>
+      <c r="E12" s="66"/>
+      <c r="F12" s="66"/>
+      <c r="G12" s="66"/>
+      <c r="H12" s="66"/>
+      <c r="I12" s="67"/>
     </row>
     <row r="13" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="50"/>
@@ -8505,13 +8505,13 @@
       <c r="B18" s="41" t="s">
         <v>30</v>
       </c>
-      <c r="C18" s="68"/>
-      <c r="D18" s="69"/>
-      <c r="E18" s="69"/>
-      <c r="F18" s="69"/>
-      <c r="G18" s="69"/>
-      <c r="H18" s="69"/>
-      <c r="I18" s="70"/>
+      <c r="C18" s="65"/>
+      <c r="D18" s="66"/>
+      <c r="E18" s="66"/>
+      <c r="F18" s="66"/>
+      <c r="G18" s="66"/>
+      <c r="H18" s="66"/>
+      <c r="I18" s="67"/>
     </row>
     <row r="19" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="50"/>
@@ -8548,13 +8548,13 @@
       <c r="B21" s="41" t="s">
         <v>31</v>
       </c>
-      <c r="C21" s="68"/>
-      <c r="D21" s="69"/>
-      <c r="E21" s="69"/>
-      <c r="F21" s="69"/>
-      <c r="G21" s="69"/>
-      <c r="H21" s="69"/>
-      <c r="I21" s="70"/>
+      <c r="C21" s="65"/>
+      <c r="D21" s="66"/>
+      <c r="E21" s="66"/>
+      <c r="F21" s="66"/>
+      <c r="G21" s="66"/>
+      <c r="H21" s="66"/>
+      <c r="I21" s="67"/>
     </row>
     <row r="22" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="50"/>
@@ -8591,13 +8591,13 @@
       <c r="B24" s="41" t="s">
         <v>40</v>
       </c>
-      <c r="C24" s="68"/>
-      <c r="D24" s="69"/>
-      <c r="E24" s="69"/>
-      <c r="F24" s="69"/>
-      <c r="G24" s="69"/>
-      <c r="H24" s="69"/>
-      <c r="I24" s="70"/>
+      <c r="C24" s="65"/>
+      <c r="D24" s="66"/>
+      <c r="E24" s="66"/>
+      <c r="F24" s="66"/>
+      <c r="G24" s="66"/>
+      <c r="H24" s="66"/>
+      <c r="I24" s="67"/>
     </row>
     <row r="25" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="50"/>
@@ -8634,13 +8634,13 @@
       <c r="B27" s="41" t="s">
         <v>47</v>
       </c>
-      <c r="C27" s="68"/>
-      <c r="D27" s="69"/>
-      <c r="E27" s="69"/>
-      <c r="F27" s="69"/>
-      <c r="G27" s="69"/>
-      <c r="H27" s="69"/>
-      <c r="I27" s="70"/>
+      <c r="C27" s="65"/>
+      <c r="D27" s="66"/>
+      <c r="E27" s="66"/>
+      <c r="F27" s="66"/>
+      <c r="G27" s="66"/>
+      <c r="H27" s="66"/>
+      <c r="I27" s="67"/>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A28" s="50"/>
@@ -8677,13 +8677,13 @@
       <c r="B30" s="41" t="s">
         <v>40</v>
       </c>
-      <c r="C30" s="68"/>
-      <c r="D30" s="69"/>
-      <c r="E30" s="69"/>
-      <c r="F30" s="69"/>
-      <c r="G30" s="69"/>
-      <c r="H30" s="69"/>
-      <c r="I30" s="70"/>
+      <c r="C30" s="65"/>
+      <c r="D30" s="66"/>
+      <c r="E30" s="66"/>
+      <c r="F30" s="66"/>
+      <c r="G30" s="66"/>
+      <c r="H30" s="66"/>
+      <c r="I30" s="67"/>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A31" s="50"/>
@@ -8717,6 +8717,11 @@
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="A3:A6"/>
+    <mergeCell ref="C1:I1"/>
+    <mergeCell ref="C7:I7"/>
     <mergeCell ref="C24:I24"/>
     <mergeCell ref="C21:I21"/>
     <mergeCell ref="C12:I12"/>
@@ -8724,11 +8729,6 @@
     <mergeCell ref="A7:A32"/>
     <mergeCell ref="C27:I27"/>
     <mergeCell ref="C30:I30"/>
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="A3:A6"/>
-    <mergeCell ref="C1:I1"/>
-    <mergeCell ref="C7:I7"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <extLst>
